--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="112">
   <si>
     <t>fg_name</t>
   </si>
@@ -195,84 +195,72 @@
     <t>Merge_Type</t>
   </si>
   <si>
-    <t>William Contreras</t>
-  </si>
-  <si>
     <t>Marcus Semien</t>
   </si>
   <si>
     <t>Corey Seager</t>
   </si>
   <si>
+    <t>Tyler Stephenson</t>
+  </si>
+  <si>
+    <t>Spencer Steer</t>
+  </si>
+  <si>
     <t>Luis Arraez</t>
   </si>
   <si>
     <t>Julio Rodriguez</t>
   </si>
   <si>
-    <t>Carlos Correa</t>
-  </si>
-  <si>
     <t>Nico Hoerner</t>
   </si>
   <si>
     <t>Bo Bichette</t>
   </si>
   <si>
+    <t>Tyler Oneill</t>
+  </si>
+  <si>
+    <t>Josh Naylor</t>
+  </si>
+  <si>
+    <t>Jose Ramirez</t>
+  </si>
+  <si>
     <t>Matt Vierling</t>
   </si>
   <si>
     <t>Colt Keith</t>
   </si>
   <si>
-    <t>Tyler Oneill</t>
-  </si>
-  <si>
-    <t>Tyler Stephenson</t>
-  </si>
-  <si>
-    <t>Spencer Steer</t>
-  </si>
-  <si>
-    <t>Josh Naylor</t>
-  </si>
-  <si>
-    <t>Jose Ramirez</t>
-  </si>
-  <si>
-    <t>Milwaukee Brewers</t>
-  </si>
-  <si>
     <t>Texas Rangers</t>
   </si>
   <si>
+    <t>Cincinnati Reds</t>
+  </si>
+  <si>
     <t>San Diego Padres</t>
   </si>
   <si>
     <t>Seattle Mariners</t>
   </si>
   <si>
-    <t>Minnesota Twins</t>
-  </si>
-  <si>
     <t>Chicago Cubs</t>
   </si>
   <si>
     <t>Toronto Blue Jays</t>
   </si>
   <si>
+    <t>Boston Red Sox</t>
+  </si>
+  <si>
+    <t>Cleveland Indians</t>
+  </si>
+  <si>
     <t>Detroit Tigers</t>
   </si>
   <si>
-    <t>Boston Red Sox</t>
-  </si>
-  <si>
-    <t>Cincinnati Reds</t>
-  </si>
-  <si>
-    <t>Cleveland Indians</t>
-  </si>
-  <si>
     <t>Tyler O'Neill</t>
   </si>
   <si>
@@ -285,52 +273,43 @@
     <t>S</t>
   </si>
   <si>
+    <t>vs R</t>
+  </si>
+  <si>
     <t>vs L</t>
   </si>
   <si>
-    <t>vs R</t>
-  </si>
-  <si>
-    <t>Josh Fleming</t>
-  </si>
-  <si>
     <t>Roansy Contreras</t>
   </si>
   <si>
+    <t>Cal Quantrill</t>
+  </si>
+  <si>
     <t>Logan Gilbert</t>
   </si>
   <si>
     <t>Adam Mazur</t>
   </si>
   <si>
-    <t>Erick Fedde</t>
-  </si>
-  <si>
     <t>Dean Kremer</t>
   </si>
   <si>
     <t>Blake Snell</t>
   </si>
   <si>
+    <t>Joey Estes</t>
+  </si>
+  <si>
+    <t>Kenta Maeda</t>
+  </si>
+  <si>
     <t>Ben Lively</t>
   </si>
   <si>
-    <t>Joey Estes</t>
-  </si>
-  <si>
-    <t>Cal Quantrill</t>
-  </si>
-  <si>
-    <t>Kenta Maeda</t>
-  </si>
-  <si>
-    <t>Pittsburgh Pirates</t>
-  </si>
-  <si>
     <t>Los Angeles Angels</t>
   </si>
   <si>
-    <t>Chicago White Sox</t>
+    <t>Colorado Rockies</t>
   </si>
   <si>
     <t>Baltimore Orioles</t>
@@ -342,27 +321,24 @@
     <t>Oakland Athletics</t>
   </si>
   <si>
-    <t>Colorado Rockies</t>
+    <t>RHP</t>
   </si>
   <si>
     <t>LHP</t>
   </si>
   <si>
-    <t>RHP</t>
-  </si>
-  <si>
     <t>hits</t>
   </si>
   <si>
     <t>draftkings</t>
   </si>
   <si>
-    <t>2024-07-10T00:11:00Z</t>
-  </si>
-  <si>
     <t>2024-07-10T01:39:00Z</t>
   </si>
   <si>
+    <t>2024-07-09T23:11:00Z</t>
+  </si>
+  <si>
     <t>2024-07-10T01:41:00Z</t>
   </si>
   <si>
@@ -373,9 +349,6 @@
   </si>
   <si>
     <t>2024-07-09T22:41:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-09T23:11:00Z</t>
   </si>
   <si>
     <t>Cleveland Guardians</t>
@@ -1114,7 +1087,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE16"/>
+  <dimension ref="A1:BE14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1298,7 +1271,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1307,163 +1280,163 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>260</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>83</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.349</v>
+        <v>0.208</v>
       </c>
       <c r="M2">
-        <v>0.384</v>
+        <v>0.269</v>
       </c>
       <c r="N2">
-        <v>0.133</v>
+        <v>0.127</v>
       </c>
       <c r="O2">
-        <v>0.404</v>
+        <v>0.274</v>
       </c>
       <c r="P2">
-        <v>0.482</v>
+        <v>0.335</v>
       </c>
       <c r="Q2">
-        <v>0.886</v>
+        <v>0.608</v>
       </c>
       <c r="R2">
-        <v>19.1</v>
+        <v>13.3</v>
       </c>
       <c r="S2">
-        <v>9.6</v>
+        <v>8.1</v>
       </c>
       <c r="T2">
-        <v>59.7</v>
+        <v>39.5</v>
       </c>
       <c r="U2">
-        <v>25.4</v>
+        <v>40.4</v>
       </c>
       <c r="V2">
-        <v>38.8</v>
+        <v>31.4</v>
       </c>
       <c r="W2" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2">
         <v>91</v>
       </c>
-      <c r="X2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC2">
-        <v>77</v>
-      </c>
       <c r="AD2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE2">
-        <v>0.225</v>
+        <v>0.286</v>
       </c>
       <c r="AF2">
-        <v>0.252</v>
+        <v>0.392</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AH2">
-        <v>0.043</v>
+        <v>0.259</v>
       </c>
       <c r="AI2">
-        <v>0.268</v>
+        <v>0.545</v>
       </c>
       <c r="AJ2">
-        <v>10.4</v>
+        <v>25.3</v>
       </c>
       <c r="AK2">
-        <v>7.8</v>
+        <v>12.1</v>
       </c>
       <c r="AL2">
-        <v>3.27</v>
+        <v>5.87</v>
       </c>
       <c r="AM2">
-        <v>58.7</v>
+        <v>32.7</v>
       </c>
       <c r="AN2">
-        <v>27</v>
+        <v>56.4</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>16.1</v>
       </c>
       <c r="AP2">
-        <v>27</v>
+        <v>41.1</v>
       </c>
       <c r="AQ2">
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="s">
         <v>59</v>
       </c>
       <c r="AX2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AY2">
         <v>1.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="BA2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="BB2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BC2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="BD2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="BE2">
-        <v>-245</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="3" spans="1:57">
@@ -1471,7 +1444,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -1480,163 +1453,163 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>194</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.289</v>
+      </c>
+      <c r="M3">
+        <v>0.392</v>
+      </c>
+      <c r="N3">
+        <v>0.247</v>
+      </c>
+      <c r="O3">
+        <v>0.393</v>
+      </c>
+      <c r="P3">
+        <v>0.536</v>
+      </c>
+      <c r="Q3">
+        <v>0.929</v>
+      </c>
+      <c r="R3">
+        <v>12.7</v>
+      </c>
+      <c r="S3">
+        <v>14.4</v>
+      </c>
+      <c r="T3">
+        <v>36.7</v>
+      </c>
+      <c r="U3">
+        <v>47.6</v>
+      </c>
+      <c r="V3">
+        <v>44.6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB3" t="s">
         <v>86</v>
       </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>260</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.208</v>
-      </c>
-      <c r="M3">
-        <v>0.269</v>
-      </c>
-      <c r="N3">
-        <v>0.127</v>
-      </c>
-      <c r="O3">
-        <v>0.274</v>
-      </c>
-      <c r="P3">
-        <v>0.335</v>
-      </c>
-      <c r="Q3">
-        <v>0.608</v>
-      </c>
-      <c r="R3">
-        <v>13.3</v>
-      </c>
-      <c r="S3">
-        <v>8.1</v>
-      </c>
-      <c r="T3">
-        <v>39.5</v>
-      </c>
-      <c r="U3">
-        <v>40.4</v>
-      </c>
-      <c r="V3">
-        <v>31.4</v>
-      </c>
-      <c r="W3" t="s">
-        <v>92</v>
-      </c>
-      <c r="X3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>90</v>
-      </c>
       <c r="AC3">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="AD3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.286</v>
+        <v>0.211</v>
       </c>
       <c r="AF3">
-        <v>0.392</v>
+        <v>0.243</v>
       </c>
       <c r="AG3">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.259</v>
+        <v>0.035</v>
       </c>
       <c r="AI3">
-        <v>0.545</v>
+        <v>0.246</v>
       </c>
       <c r="AJ3">
-        <v>25.3</v>
+        <v>13.8</v>
       </c>
       <c r="AK3">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
       <c r="AL3">
-        <v>5.87</v>
+        <v>3.36</v>
       </c>
       <c r="AM3">
-        <v>32.7</v>
+        <v>47.9</v>
       </c>
       <c r="AN3">
-        <v>56.4</v>
+        <v>37.5</v>
       </c>
       <c r="AO3">
-        <v>16.1</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>41.1</v>
+        <v>26.5</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3">
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3" t="s">
         <v>60</v>
       </c>
       <c r="AX3">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="AY3">
         <v>1.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="BA3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="BB3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="BC3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="BD3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BE3">
-        <v>-260</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="4" spans="1:57">
@@ -1644,7 +1617,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1653,19 +1626,19 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1674,97 +1647,97 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.289</v>
+        <v>0.224</v>
       </c>
       <c r="M4">
-        <v>0.392</v>
+        <v>0.297</v>
       </c>
       <c r="N4">
-        <v>0.247</v>
+        <v>0.128</v>
       </c>
       <c r="O4">
-        <v>0.393</v>
+        <v>0.311</v>
       </c>
       <c r="P4">
-        <v>0.536</v>
+        <v>0.353</v>
       </c>
       <c r="Q4">
-        <v>0.929</v>
+        <v>0.663</v>
       </c>
       <c r="R4">
-        <v>12.7</v>
+        <v>20.3</v>
       </c>
       <c r="S4">
-        <v>14.4</v>
+        <v>9</v>
       </c>
       <c r="T4">
-        <v>36.7</v>
+        <v>57.9</v>
       </c>
       <c r="U4">
-        <v>47.6</v>
+        <v>25.6</v>
       </c>
       <c r="V4">
-        <v>44.6</v>
+        <v>27.3</v>
       </c>
       <c r="W4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="X4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Z4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AB4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AC4">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE4">
-        <v>0.211</v>
+        <v>0.278</v>
       </c>
       <c r="AF4">
-        <v>0.243</v>
+        <v>0.331</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH4">
-        <v>0.035</v>
+        <v>0.138</v>
       </c>
       <c r="AI4">
-        <v>0.246</v>
+        <v>0.416</v>
       </c>
       <c r="AJ4">
-        <v>13.8</v>
+        <v>15.3</v>
       </c>
       <c r="AK4">
-        <v>10.8</v>
+        <v>6.1</v>
       </c>
       <c r="AL4">
-        <v>3.36</v>
+        <v>4.65</v>
       </c>
       <c r="AM4">
-        <v>47.9</v>
+        <v>45.4</v>
       </c>
       <c r="AN4">
-        <v>37.5</v>
+        <v>35.1</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AP4">
-        <v>26.5</v>
+        <v>29.1</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1773,43 +1746,43 @@
         <v>1</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="s">
         <v>61</v>
       </c>
       <c r="AX4">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="AY4">
         <v>1.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="BA4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="BB4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="BC4" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="BD4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="BE4">
-        <v>-200</v>
+        <v>-225</v>
       </c>
     </row>
     <row r="5" spans="1:57">
@@ -1817,7 +1790,7 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1826,124 +1799,124 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.328</v>
+        <v>0.238</v>
       </c>
       <c r="M5">
-        <v>0.335</v>
+        <v>0.331</v>
       </c>
       <c r="N5">
-        <v>0.082</v>
+        <v>0.183</v>
       </c>
       <c r="O5">
-        <v>0.357</v>
+        <v>0.33</v>
       </c>
       <c r="P5">
-        <v>0.409</v>
+        <v>0.421</v>
       </c>
       <c r="Q5">
-        <v>0.766</v>
+        <v>0.751</v>
       </c>
       <c r="R5">
-        <v>2.9</v>
+        <v>21.3</v>
       </c>
       <c r="S5">
-        <v>4.1</v>
+        <v>10.5</v>
       </c>
       <c r="T5">
-        <v>38.1</v>
+        <v>38.8</v>
       </c>
       <c r="U5">
-        <v>29.6</v>
+        <v>44.9</v>
       </c>
       <c r="V5">
-        <v>23.5</v>
+        <v>34.3</v>
       </c>
       <c r="W5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="Y5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Z5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AB5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AC5">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="AD5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE5">
-        <v>0.193</v>
+        <v>0.278</v>
       </c>
       <c r="AF5">
-        <v>0.244</v>
+        <v>0.331</v>
       </c>
       <c r="AG5">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="AH5">
-        <v>0.12</v>
+        <v>0.138</v>
       </c>
       <c r="AI5">
-        <v>0.313</v>
+        <v>0.416</v>
       </c>
       <c r="AJ5">
-        <v>28.3</v>
+        <v>15.3</v>
       </c>
       <c r="AK5">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="AL5">
-        <v>2.65</v>
+        <v>4.65</v>
       </c>
       <c r="AM5">
-        <v>42.1</v>
+        <v>45.4</v>
       </c>
       <c r="AN5">
-        <v>42.1</v>
+        <v>35.1</v>
       </c>
       <c r="AO5">
-        <v>7.1</v>
+        <v>11.5</v>
       </c>
       <c r="AP5">
-        <v>35.6</v>
+        <v>29.1</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -1961,28 +1934,28 @@
         <v>62</v>
       </c>
       <c r="AX5">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AY5">
         <v>1.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="BA5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="BB5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="BC5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BD5" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="BE5">
-        <v>-230</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="6" spans="1:57">
@@ -1990,7 +1963,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1999,127 +1972,127 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>232</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.328</v>
+      </c>
+      <c r="M6">
+        <v>0.335</v>
+      </c>
+      <c r="N6">
+        <v>0.082</v>
+      </c>
+      <c r="O6">
+        <v>0.357</v>
+      </c>
+      <c r="P6">
+        <v>0.409</v>
+      </c>
+      <c r="Q6">
+        <v>0.766</v>
+      </c>
+      <c r="R6">
+        <v>2.9</v>
+      </c>
+      <c r="S6">
+        <v>4.1</v>
+      </c>
+      <c r="T6">
+        <v>38.1</v>
+      </c>
+      <c r="U6">
+        <v>29.6</v>
+      </c>
+      <c r="V6">
+        <v>23.5</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB6" t="s">
         <v>86</v>
       </c>
-      <c r="F6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>261</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>16</v>
-      </c>
-      <c r="K6">
+      <c r="AC6">
+        <v>205</v>
+      </c>
+      <c r="AD6">
         <v>4</v>
       </c>
-      <c r="L6">
-        <v>0.238</v>
-      </c>
-      <c r="M6">
-        <v>0.272</v>
-      </c>
-      <c r="N6">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.287</v>
-      </c>
-      <c r="P6">
-        <v>0.322</v>
-      </c>
-      <c r="Q6">
-        <v>0.609</v>
-      </c>
-      <c r="R6">
-        <v>27.2</v>
-      </c>
-      <c r="S6">
-        <v>5.7</v>
-      </c>
-      <c r="T6">
-        <v>48.6</v>
-      </c>
-      <c r="U6">
-        <v>31.4</v>
-      </c>
-      <c r="V6">
-        <v>30.3</v>
-      </c>
-      <c r="W6" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC6">
-        <v>55</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
       <c r="AE6">
-        <v>0.216</v>
+        <v>0.193</v>
       </c>
       <c r="AF6">
-        <v>0.275</v>
+        <v>0.244</v>
       </c>
       <c r="AG6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AH6">
-        <v>0.137</v>
+        <v>0.12</v>
       </c>
       <c r="AI6">
-        <v>0.353</v>
+        <v>0.313</v>
       </c>
       <c r="AJ6">
-        <v>16.4</v>
+        <v>28.3</v>
       </c>
       <c r="AK6">
-        <v>7.3</v>
+        <v>5.4</v>
       </c>
       <c r="AL6">
-        <v>3.66</v>
+        <v>2.65</v>
       </c>
       <c r="AM6">
-        <v>33.3</v>
+        <v>42.1</v>
       </c>
       <c r="AN6">
-        <v>47.6</v>
+        <v>42.1</v>
       </c>
       <c r="AO6">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="AP6">
-        <v>23.8</v>
+        <v>35.6</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -2134,28 +2107,28 @@
         <v>63</v>
       </c>
       <c r="AX6">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AY6">
         <v>1.5</v>
       </c>
       <c r="AZ6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="BA6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="BB6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="BC6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="BD6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BE6">
-        <v>-240</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="7" spans="1:57">
@@ -2163,7 +2136,7 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -2172,124 +2145,124 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>261</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>0.238</v>
+      </c>
+      <c r="M7">
+        <v>0.272</v>
+      </c>
+      <c r="N7">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.287</v>
+      </c>
+      <c r="P7">
+        <v>0.322</v>
+      </c>
+      <c r="Q7">
+        <v>0.609</v>
+      </c>
+      <c r="R7">
+        <v>27.2</v>
+      </c>
+      <c r="S7">
+        <v>5.7</v>
+      </c>
+      <c r="T7">
+        <v>48.6</v>
+      </c>
+      <c r="U7">
+        <v>31.4</v>
+      </c>
+      <c r="V7">
+        <v>30.3</v>
+      </c>
+      <c r="W7" t="s">
         <v>90</v>
       </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>202</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0.302</v>
-      </c>
-      <c r="M7">
-        <v>0.371</v>
-      </c>
-      <c r="N7">
-        <v>0.183</v>
-      </c>
-      <c r="O7">
-        <v>0.371</v>
-      </c>
-      <c r="P7">
-        <v>0.485</v>
-      </c>
-      <c r="Q7">
-        <v>0.856</v>
-      </c>
-      <c r="R7">
-        <v>17.5</v>
-      </c>
-      <c r="S7">
-        <v>9.6</v>
-      </c>
-      <c r="T7">
-        <v>46.1</v>
-      </c>
-      <c r="U7">
-        <v>33.9</v>
-      </c>
-      <c r="V7">
-        <v>33.9</v>
-      </c>
-      <c r="W7" t="s">
-        <v>95</v>
-      </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Z7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AC7">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="AD7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.225</v>
+        <v>0.216</v>
       </c>
       <c r="AF7">
-        <v>0.27</v>
+        <v>0.275</v>
       </c>
       <c r="AG7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AH7">
-        <v>0.115</v>
+        <v>0.137</v>
       </c>
       <c r="AI7">
-        <v>0.34</v>
+        <v>0.353</v>
       </c>
       <c r="AJ7">
-        <v>23.3</v>
+        <v>16.4</v>
       </c>
       <c r="AK7">
-        <v>5.3</v>
+        <v>7.3</v>
       </c>
       <c r="AL7">
-        <v>3.07</v>
+        <v>3.66</v>
       </c>
       <c r="AM7">
-        <v>44.1</v>
+        <v>33.3</v>
       </c>
       <c r="AN7">
-        <v>40.7</v>
+        <v>47.6</v>
       </c>
       <c r="AO7">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="AP7">
-        <v>27.6</v>
+        <v>23.8</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7">
         <v>1</v>
@@ -2298,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7">
         <v>0</v>
@@ -2307,28 +2280,28 @@
         <v>64</v>
       </c>
       <c r="AX7">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="AY7">
         <v>1.5</v>
       </c>
       <c r="AZ7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="BA7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="BB7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="BC7" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="BD7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BE7">
-        <v>-260</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="8" spans="1:57">
@@ -2336,7 +2309,7 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -2345,10 +2318,10 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2399,22 +2372,22 @@
         <v>17.1</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Z8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AB8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AC8">
         <v>113</v>
@@ -2486,19 +2459,19 @@
         <v>1.5</v>
       </c>
       <c r="AZ8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="BA8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="BB8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="BC8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="BD8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="BE8">
         <v>-210</v>
@@ -2509,7 +2482,7 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -2518,13 +2491,13 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
         <v>86</v>
       </c>
-      <c r="F9" t="s">
-        <v>89</v>
-      </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>57</v>
@@ -2572,22 +2545,22 @@
         <v>43.8</v>
       </c>
       <c r="W9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="Z9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AB9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AC9">
         <v>97</v>
@@ -2659,19 +2632,19 @@
         <v>1.5</v>
       </c>
       <c r="AZ9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="BA9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="BB9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BC9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="BD9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="BE9">
         <v>-275</v>
@@ -2682,172 +2655,172 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.236</v>
+        <v>0.227</v>
       </c>
       <c r="M10">
-        <v>0.312</v>
+        <v>0.322</v>
       </c>
       <c r="N10">
+        <v>0.215</v>
+      </c>
+      <c r="O10">
+        <v>0.302</v>
+      </c>
+      <c r="P10">
+        <v>0.442</v>
+      </c>
+      <c r="Q10">
+        <v>0.744</v>
+      </c>
+      <c r="R10">
+        <v>31.9</v>
+      </c>
+      <c r="S10">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="T10">
+        <v>36.8</v>
+      </c>
+      <c r="U10">
+        <v>43.4</v>
+      </c>
+      <c r="V10">
+        <v>31.1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>93</v>
+      </c>
+      <c r="X10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC10">
+        <v>125</v>
+      </c>
+      <c r="AD10">
+        <v>3</v>
+      </c>
+      <c r="AE10">
         <v>0.212</v>
       </c>
-      <c r="O10">
-        <v>0.279</v>
-      </c>
-      <c r="P10">
-        <v>0.448</v>
-      </c>
-      <c r="Q10">
-        <v>0.727</v>
-      </c>
-      <c r="R10">
-        <v>24.3</v>
-      </c>
-      <c r="S10">
-        <v>5.3</v>
-      </c>
-      <c r="T10">
-        <v>39.7</v>
-      </c>
-      <c r="U10">
-        <v>41</v>
-      </c>
-      <c r="V10">
-        <v>26.6</v>
-      </c>
-      <c r="W10" t="s">
-        <v>98</v>
-      </c>
-      <c r="X10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="AF10">
+        <v>0.269</v>
+      </c>
+      <c r="AG10">
+        <v>2.4</v>
+      </c>
+      <c r="AH10">
+        <v>0.161</v>
+      </c>
+      <c r="AI10">
+        <v>0.373</v>
+      </c>
+      <c r="AJ10">
+        <v>22.4</v>
+      </c>
+      <c r="AK10">
+        <v>2.4</v>
+      </c>
+      <c r="AL10">
+        <v>3.2</v>
+      </c>
+      <c r="AM10">
+        <v>23.1</v>
+      </c>
+      <c r="AN10">
+        <v>54.9</v>
+      </c>
+      <c r="AO10">
+        <v>6</v>
+      </c>
+      <c r="AP10">
+        <v>27.5</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="s">
         <v>81</v>
       </c>
-      <c r="AA10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC10">
-        <v>169</v>
-      </c>
-      <c r="AD10">
-        <v>7</v>
-      </c>
-      <c r="AE10">
-        <v>0.276</v>
-      </c>
-      <c r="AF10">
-        <v>0.349</v>
-      </c>
-      <c r="AG10">
-        <v>4.1</v>
-      </c>
-      <c r="AH10">
-        <v>0.198</v>
-      </c>
-      <c r="AI10">
-        <v>0.474</v>
-      </c>
-      <c r="AJ10">
-        <v>19.5</v>
-      </c>
-      <c r="AK10">
-        <v>7.1</v>
-      </c>
-      <c r="AL10">
-        <v>4.75</v>
-      </c>
-      <c r="AM10">
-        <v>41.8</v>
-      </c>
-      <c r="AN10">
-        <v>43.4</v>
-      </c>
-      <c r="AO10">
-        <v>13.2</v>
-      </c>
-      <c r="AP10">
-        <v>34.7</v>
-      </c>
-      <c r="AQ10">
-        <v>1</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>1</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>67</v>
-      </c>
       <c r="AX10">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="AY10">
         <v>1.5</v>
       </c>
       <c r="AZ10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="BA10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="BB10" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="BC10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BD10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BE10">
-        <v>-225</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="11" spans="1:57">
@@ -2855,7 +2828,7 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -2864,133 +2837,133 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>217</v>
+      </c>
+      <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="H11">
-        <v>241</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0.249</v>
       </c>
       <c r="M11">
-        <v>0.295</v>
+        <v>0.351</v>
       </c>
       <c r="N11">
-        <v>0.129</v>
+        <v>0.258</v>
       </c>
       <c r="O11">
-        <v>0.297</v>
+        <v>0.328</v>
       </c>
       <c r="P11">
-        <v>0.378</v>
+        <v>0.507</v>
       </c>
       <c r="Q11">
-        <v>0.675</v>
+        <v>0.835</v>
       </c>
       <c r="R11">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="S11">
-        <v>5.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T11">
-        <v>42.9</v>
+        <v>46.2</v>
       </c>
       <c r="U11">
-        <v>38.9</v>
+        <v>37</v>
       </c>
       <c r="V11">
-        <v>28.8</v>
+        <v>32.1</v>
       </c>
       <c r="W11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="X11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Z11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AB11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AC11">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AD11">
         <v>4</v>
       </c>
       <c r="AE11">
-        <v>0.192</v>
+        <v>0.273</v>
       </c>
       <c r="AF11">
-        <v>0.261</v>
+        <v>0.343</v>
       </c>
       <c r="AG11">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AH11">
-        <v>0.146</v>
+        <v>0.173</v>
       </c>
       <c r="AI11">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
       <c r="AJ11">
-        <v>23.9</v>
+        <v>20.6</v>
       </c>
       <c r="AK11">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL11">
-        <v>3.63</v>
+        <v>4.28</v>
       </c>
       <c r="AM11">
-        <v>37.1</v>
+        <v>36.2</v>
       </c>
       <c r="AN11">
-        <v>43.3</v>
+        <v>44.7</v>
       </c>
       <c r="AO11">
         <v>9.5</v>
       </c>
       <c r="AP11">
-        <v>27.8</v>
+        <v>24.5</v>
       </c>
       <c r="AQ11">
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
         <v>0</v>
@@ -2999,28 +2972,28 @@
         <v>68</v>
       </c>
       <c r="AX11">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AY11">
         <v>1.5</v>
       </c>
       <c r="AZ11" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD11" t="s">
         <v>111</v>
       </c>
-      <c r="BA11" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>118</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>120</v>
-      </c>
       <c r="BE11">
-        <v>-255</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="12" spans="1:57">
@@ -3028,31 +3001,31 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
         <v>85</v>
       </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3061,100 +3034,100 @@
         <v>0.227</v>
       </c>
       <c r="M12">
-        <v>0.322</v>
+        <v>0.318</v>
       </c>
       <c r="N12">
-        <v>0.215</v>
+        <v>0.235</v>
       </c>
       <c r="O12">
-        <v>0.302</v>
+        <v>0.283</v>
       </c>
       <c r="P12">
-        <v>0.442</v>
+        <v>0.462</v>
       </c>
       <c r="Q12">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R12">
-        <v>31.9</v>
+        <v>13.6</v>
       </c>
       <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>32.4</v>
+      </c>
+      <c r="U12">
+        <v>53.9</v>
+      </c>
+      <c r="V12">
+        <v>31.4</v>
+      </c>
+      <c r="W12" t="s">
+        <v>94</v>
+      </c>
+      <c r="X12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC12">
+        <v>136</v>
+      </c>
+      <c r="AD12">
+        <v>4</v>
+      </c>
+      <c r="AE12">
+        <v>0.273</v>
+      </c>
+      <c r="AF12">
+        <v>0.343</v>
+      </c>
+      <c r="AG12">
+        <v>2.9</v>
+      </c>
+      <c r="AH12">
+        <v>0.173</v>
+      </c>
+      <c r="AI12">
+        <v>0.446</v>
+      </c>
+      <c r="AJ12">
+        <v>20.6</v>
+      </c>
+      <c r="AK12">
         <v>8.800000000000001</v>
       </c>
-      <c r="T12">
-        <v>36.8</v>
-      </c>
-      <c r="U12">
-        <v>43.4</v>
-      </c>
-      <c r="V12">
-        <v>31.1</v>
-      </c>
-      <c r="W12" t="s">
-        <v>99</v>
-      </c>
-      <c r="X12" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC12">
-        <v>125</v>
-      </c>
-      <c r="AD12">
-        <v>3</v>
-      </c>
-      <c r="AE12">
-        <v>0.212</v>
-      </c>
-      <c r="AF12">
-        <v>0.269</v>
-      </c>
-      <c r="AG12">
-        <v>2.4</v>
-      </c>
-      <c r="AH12">
-        <v>0.161</v>
-      </c>
-      <c r="AI12">
-        <v>0.373</v>
-      </c>
-      <c r="AJ12">
-        <v>22.4</v>
-      </c>
-      <c r="AK12">
-        <v>2.4</v>
-      </c>
       <c r="AL12">
-        <v>3.2</v>
+        <v>4.28</v>
       </c>
       <c r="AM12">
-        <v>23.1</v>
+        <v>36.2</v>
       </c>
       <c r="AN12">
-        <v>54.9</v>
+        <v>44.7</v>
       </c>
       <c r="AO12">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AP12">
-        <v>27.5</v>
+        <v>24.5</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -3169,31 +3142,31 @@
         <v>0</v>
       </c>
       <c r="AW12" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="AX12">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="AY12">
         <v>1.5</v>
       </c>
       <c r="AZ12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD12" t="s">
         <v>111</v>
       </c>
-      <c r="BA12" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>119</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>107</v>
-      </c>
       <c r="BE12">
-        <v>-260</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="13" spans="1:57">
@@ -3201,7 +3174,7 @@
         <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
@@ -3210,130 +3183,130 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.224</v>
+        <v>0.236</v>
       </c>
       <c r="M13">
-        <v>0.297</v>
+        <v>0.312</v>
       </c>
       <c r="N13">
-        <v>0.128</v>
+        <v>0.212</v>
       </c>
       <c r="O13">
-        <v>0.311</v>
+        <v>0.279</v>
       </c>
       <c r="P13">
-        <v>0.353</v>
+        <v>0.448</v>
       </c>
       <c r="Q13">
-        <v>0.663</v>
+        <v>0.727</v>
       </c>
       <c r="R13">
-        <v>20.3</v>
+        <v>24.3</v>
       </c>
       <c r="S13">
-        <v>9</v>
+        <v>5.3</v>
       </c>
       <c r="T13">
-        <v>57.9</v>
+        <v>39.7</v>
       </c>
       <c r="U13">
-        <v>25.6</v>
+        <v>41</v>
       </c>
       <c r="V13">
-        <v>27.3</v>
+        <v>26.6</v>
       </c>
       <c r="W13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="X13" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="Z13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AC13">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="AD13">
         <v>7</v>
       </c>
       <c r="AE13">
-        <v>0.278</v>
+        <v>0.276</v>
       </c>
       <c r="AF13">
-        <v>0.331</v>
+        <v>0.349</v>
       </c>
       <c r="AG13">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="AH13">
-        <v>0.138</v>
+        <v>0.198</v>
       </c>
       <c r="AI13">
-        <v>0.416</v>
+        <v>0.474</v>
       </c>
       <c r="AJ13">
-        <v>15.3</v>
+        <v>19.5</v>
       </c>
       <c r="AK13">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="AL13">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AM13">
-        <v>45.4</v>
+        <v>41.8</v>
       </c>
       <c r="AN13">
-        <v>35.1</v>
+        <v>43.4</v>
       </c>
       <c r="AO13">
-        <v>11.5</v>
+        <v>13.2</v>
       </c>
       <c r="AP13">
-        <v>29.1</v>
+        <v>34.7</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3345,25 +3318,25 @@
         <v>70</v>
       </c>
       <c r="AX13">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AY13">
         <v>1.5</v>
       </c>
       <c r="AZ13" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD13" t="s">
         <v>111</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>119</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>108</v>
       </c>
       <c r="BE13">
         <v>-225</v>
@@ -3374,7 +3347,7 @@
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -3383,124 +3356,124 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>241</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.249</v>
+      </c>
+      <c r="M14">
+        <v>0.295</v>
+      </c>
+      <c r="N14">
+        <v>0.129</v>
+      </c>
+      <c r="O14">
+        <v>0.297</v>
+      </c>
+      <c r="P14">
+        <v>0.378</v>
+      </c>
+      <c r="Q14">
+        <v>0.675</v>
+      </c>
+      <c r="R14">
+        <v>17</v>
+      </c>
+      <c r="S14">
+        <v>5.8</v>
+      </c>
+      <c r="T14">
+        <v>42.9</v>
+      </c>
+      <c r="U14">
+        <v>38.9</v>
+      </c>
+      <c r="V14">
+        <v>28.8</v>
+      </c>
+      <c r="W14" t="s">
+        <v>95</v>
+      </c>
+      <c r="X14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14">
+      <c r="AC14">
+        <v>142</v>
+      </c>
+      <c r="AD14">
         <v>4</v>
       </c>
-      <c r="H14">
-        <v>235</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>9</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.238</v>
-      </c>
-      <c r="M14">
-        <v>0.331</v>
-      </c>
-      <c r="N14">
-        <v>0.183</v>
-      </c>
-      <c r="O14">
-        <v>0.33</v>
-      </c>
-      <c r="P14">
-        <v>0.421</v>
-      </c>
-      <c r="Q14">
-        <v>0.751</v>
-      </c>
-      <c r="R14">
-        <v>21.3</v>
-      </c>
-      <c r="S14">
-        <v>10.5</v>
-      </c>
-      <c r="T14">
-        <v>38.8</v>
-      </c>
-      <c r="U14">
-        <v>44.9</v>
-      </c>
-      <c r="V14">
-        <v>34.3</v>
-      </c>
-      <c r="W14" t="s">
-        <v>100</v>
-      </c>
-      <c r="X14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC14">
-        <v>229</v>
-      </c>
-      <c r="AD14">
+      <c r="AE14">
+        <v>0.192</v>
+      </c>
+      <c r="AF14">
+        <v>0.261</v>
+      </c>
+      <c r="AG14">
+        <v>2.8</v>
+      </c>
+      <c r="AH14">
+        <v>0.146</v>
+      </c>
+      <c r="AI14">
+        <v>0.338</v>
+      </c>
+      <c r="AJ14">
+        <v>23.9</v>
+      </c>
+      <c r="AK14">
         <v>7</v>
       </c>
-      <c r="AE14">
-        <v>0.278</v>
-      </c>
-      <c r="AF14">
-        <v>0.331</v>
-      </c>
-      <c r="AG14">
-        <v>3.1</v>
-      </c>
-      <c r="AH14">
-        <v>0.138</v>
-      </c>
-      <c r="AI14">
-        <v>0.416</v>
-      </c>
-      <c r="AJ14">
-        <v>15.3</v>
-      </c>
-      <c r="AK14">
-        <v>6.1</v>
-      </c>
       <c r="AL14">
-        <v>4.65</v>
+        <v>3.63</v>
       </c>
       <c r="AM14">
-        <v>45.4</v>
+        <v>37.1</v>
       </c>
       <c r="AN14">
-        <v>35.1</v>
+        <v>43.3</v>
       </c>
       <c r="AO14">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP14">
-        <v>29.1</v>
+        <v>27.8</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14">
         <v>0</v>
@@ -3518,374 +3491,28 @@
         <v>71</v>
       </c>
       <c r="AX14">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="AY14">
         <v>1.5</v>
       </c>
       <c r="AZ14" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD14" t="s">
         <v>111</v>
       </c>
-      <c r="BA14" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>119</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>108</v>
-      </c>
       <c r="BE14">
-        <v>-235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>217</v>
-      </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0.249</v>
-      </c>
-      <c r="M15">
-        <v>0.351</v>
-      </c>
-      <c r="N15">
-        <v>0.258</v>
-      </c>
-      <c r="O15">
-        <v>0.328</v>
-      </c>
-      <c r="P15">
-        <v>0.507</v>
-      </c>
-      <c r="Q15">
-        <v>0.835</v>
-      </c>
-      <c r="R15">
-        <v>14.5</v>
-      </c>
-      <c r="S15">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="T15">
-        <v>46.2</v>
-      </c>
-      <c r="U15">
-        <v>37</v>
-      </c>
-      <c r="V15">
-        <v>32.1</v>
-      </c>
-      <c r="W15" t="s">
-        <v>101</v>
-      </c>
-      <c r="X15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC15">
-        <v>136</v>
-      </c>
-      <c r="AD15">
-        <v>4</v>
-      </c>
-      <c r="AE15">
-        <v>0.273</v>
-      </c>
-      <c r="AF15">
-        <v>0.343</v>
-      </c>
-      <c r="AG15">
-        <v>2.9</v>
-      </c>
-      <c r="AH15">
-        <v>0.173</v>
-      </c>
-      <c r="AI15">
-        <v>0.446</v>
-      </c>
-      <c r="AJ15">
-        <v>20.6</v>
-      </c>
-      <c r="AK15">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AL15">
-        <v>4.28</v>
-      </c>
-      <c r="AM15">
-        <v>36.2</v>
-      </c>
-      <c r="AN15">
-        <v>44.7</v>
-      </c>
-      <c r="AO15">
-        <v>9.5</v>
-      </c>
-      <c r="AP15">
-        <v>24.5</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>1</v>
-      </c>
-      <c r="AS15">
-        <v>1</v>
-      </c>
-      <c r="AT15">
-        <v>1</v>
-      </c>
-      <c r="AU15">
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX15">
-        <v>180</v>
-      </c>
-      <c r="AY15">
-        <v>1.5</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>118</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE15">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>238</v>
-      </c>
-      <c r="I16">
-        <v>15</v>
-      </c>
-      <c r="J16">
-        <v>9</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0.227</v>
-      </c>
-      <c r="M16">
-        <v>0.318</v>
-      </c>
-      <c r="N16">
-        <v>0.235</v>
-      </c>
-      <c r="O16">
-        <v>0.283</v>
-      </c>
-      <c r="P16">
-        <v>0.462</v>
-      </c>
-      <c r="Q16">
-        <v>0.745</v>
-      </c>
-      <c r="R16">
-        <v>13.6</v>
-      </c>
-      <c r="S16">
-        <v>7</v>
-      </c>
-      <c r="T16">
-        <v>32.4</v>
-      </c>
-      <c r="U16">
-        <v>53.9</v>
-      </c>
-      <c r="V16">
-        <v>31.4</v>
-      </c>
-      <c r="W16" t="s">
-        <v>101</v>
-      </c>
-      <c r="X16" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC16">
-        <v>136</v>
-      </c>
-      <c r="AD16">
-        <v>4</v>
-      </c>
-      <c r="AE16">
-        <v>0.273</v>
-      </c>
-      <c r="AF16">
-        <v>0.343</v>
-      </c>
-      <c r="AG16">
-        <v>2.9</v>
-      </c>
-      <c r="AH16">
-        <v>0.173</v>
-      </c>
-      <c r="AI16">
-        <v>0.446</v>
-      </c>
-      <c r="AJ16">
-        <v>20.6</v>
-      </c>
-      <c r="AK16">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AL16">
-        <v>4.28</v>
-      </c>
-      <c r="AM16">
-        <v>36.2</v>
-      </c>
-      <c r="AN16">
-        <v>44.7</v>
-      </c>
-      <c r="AO16">
-        <v>9.5</v>
-      </c>
-      <c r="AP16">
-        <v>24.5</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>1</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX16">
-        <v>170</v>
-      </c>
-      <c r="AY16">
-        <v>1.5</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>111</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>112</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>118</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE16">
-        <v>-235</v>
+        <v>-255</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -214,6 +214,9 @@
     <t>Thairo Estrada</t>
   </si>
   <si>
+    <t>Wilmer Flores</t>
+  </si>
+  <si>
     <t>Salvador Perez</t>
   </si>
   <si>
@@ -335,9 +338,6 @@
   </si>
   <si>
     <t>Cleveland Guardians</t>
-  </si>
-  <si>
-    <t>Brett Wisely</t>
   </si>
   <si>
     <t>Alec Burleson</t>
@@ -1088,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE10"/>
+  <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1272,7 +1272,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1281,10 +1281,10 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1335,22 +1335,22 @@
         <v>24.6</v>
       </c>
       <c r="W2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" t="s">
         <v>81</v>
-      </c>
-      <c r="X2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>80</v>
       </c>
       <c r="AC2">
         <v>28</v>
@@ -1422,19 +1422,19 @@
         <v>1.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BC2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BD2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BE2">
         <v>-190</v>
@@ -1445,7 +1445,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -1454,10 +1454,10 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1508,22 +1508,22 @@
         <v>41.2</v>
       </c>
       <c r="W3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC3">
         <v>108</v>
@@ -1595,19 +1595,19 @@
         <v>1.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BD3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BE3">
         <v>-230</v>
@@ -1618,7 +1618,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1627,10 +1627,10 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1681,22 +1681,22 @@
         <v>26.4</v>
       </c>
       <c r="W4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC4">
         <v>192</v>
@@ -1768,19 +1768,19 @@
         <v>1.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BC4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BD4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BE4">
         <v>-275</v>
@@ -1791,7 +1791,7 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1800,10 +1800,10 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1854,22 +1854,22 @@
         <v>30.2</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC5">
         <v>192</v>
@@ -1941,19 +1941,19 @@
         <v>1.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BC5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BD5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BE5">
         <v>-215</v>
@@ -1964,7 +1964,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1973,10 +1973,10 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2027,22 +2027,22 @@
         <v>49.8</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC6">
         <v>45</v>
@@ -2114,19 +2114,19 @@
         <v>1.5</v>
       </c>
       <c r="AZ6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BC6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BD6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE6">
         <v>-265</v>
@@ -2137,7 +2137,7 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -2146,13 +2146,13 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>83</v>
@@ -2200,22 +2200,22 @@
         <v>40.3</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7">
         <v>170</v>
@@ -2287,19 +2287,19 @@
         <v>1.5</v>
       </c>
       <c r="AZ7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BC7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BD7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BE7">
         <v>-185</v>
@@ -2319,19 +2319,19 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>268</v>
+        <v>93</v>
       </c>
       <c r="I8">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2340,46 +2340,46 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.276</v>
+        <v>0.215</v>
       </c>
       <c r="M8">
-        <v>0.351</v>
+        <v>0.263</v>
       </c>
       <c r="N8">
-        <v>0.205</v>
+        <v>0.129</v>
       </c>
       <c r="O8">
-        <v>0.34</v>
+        <v>0.269</v>
       </c>
       <c r="P8">
-        <v>0.481</v>
+        <v>0.344</v>
       </c>
       <c r="Q8">
-        <v>0.821</v>
+        <v>0.613</v>
       </c>
       <c r="R8">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="S8">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="T8">
-        <v>30.2</v>
+        <v>24.1</v>
       </c>
       <c r="U8">
-        <v>44.8</v>
+        <v>54.2</v>
       </c>
       <c r="V8">
-        <v>34.4</v>
+        <v>26.5</v>
       </c>
       <c r="W8" t="s">
         <v>87</v>
       </c>
       <c r="X8" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Z8" t="s">
         <v>74</v>
@@ -2388,49 +2388,49 @@
         <v>87</v>
       </c>
       <c r="AB8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC8">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE8">
-        <v>0.222</v>
+        <v>0.316</v>
       </c>
       <c r="AF8">
-        <v>0.257</v>
+        <v>0.368</v>
       </c>
       <c r="AG8">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="AH8">
-        <v>0.093</v>
+        <v>0.168</v>
       </c>
       <c r="AI8">
-        <v>0.315</v>
+        <v>0.484</v>
       </c>
       <c r="AJ8">
-        <v>18.1</v>
+        <v>14.1</v>
       </c>
       <c r="AK8">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="AL8">
-        <v>2.89</v>
+        <v>4.67</v>
       </c>
       <c r="AM8">
-        <v>48.9</v>
+        <v>42.7</v>
       </c>
       <c r="AN8">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="AO8">
-        <v>3.3</v>
+        <v>11.1</v>
       </c>
       <c r="AP8">
-        <v>28.4</v>
+        <v>30.1</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8">
         <v>0</v>
@@ -2454,28 +2454,28 @@
         <v>65</v>
       </c>
       <c r="AX8">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="AY8">
         <v>1.5</v>
       </c>
       <c r="AZ8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="BC8" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD8" t="s">
         <v>74</v>
       </c>
-      <c r="BD8" t="s">
-        <v>70</v>
-      </c>
       <c r="BE8">
-        <v>-270</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="9" spans="1:57">
@@ -2483,85 +2483,85 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>327</v>
+        <v>268</v>
       </c>
       <c r="I9">
         <v>14</v>
       </c>
       <c r="J9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.327</v>
+        <v>0.276</v>
       </c>
       <c r="M9">
-        <v>0.401</v>
+        <v>0.351</v>
       </c>
       <c r="N9">
-        <v>0.245</v>
+        <v>0.205</v>
       </c>
       <c r="O9">
-        <v>0.381</v>
+        <v>0.34</v>
       </c>
       <c r="P9">
-        <v>0.572</v>
+        <v>0.481</v>
       </c>
       <c r="Q9">
-        <v>0.953</v>
+        <v>0.821</v>
       </c>
       <c r="R9">
-        <v>16.9</v>
+        <v>19.5</v>
       </c>
       <c r="S9">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="T9">
-        <v>38.5</v>
+        <v>30.2</v>
       </c>
       <c r="U9">
-        <v>45.6</v>
+        <v>44.8</v>
       </c>
       <c r="V9">
-        <v>35.2</v>
+        <v>34.4</v>
       </c>
       <c r="W9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC9">
         <v>116</v>
@@ -2621,34 +2621,34 @@
         <v>1</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AX9">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="AY9">
         <v>1.5</v>
       </c>
       <c r="AZ9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BC9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BD9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BE9">
-        <v>-170</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="10" spans="1:57">
@@ -2659,73 +2659,73 @@
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>0.292</v>
+        <v>0.327</v>
       </c>
       <c r="M10">
-        <v>0.314</v>
+        <v>0.401</v>
       </c>
       <c r="N10">
-        <v>0.128</v>
+        <v>0.245</v>
       </c>
       <c r="O10">
-        <v>0.31</v>
+        <v>0.381</v>
       </c>
       <c r="P10">
-        <v>0.42</v>
+        <v>0.572</v>
       </c>
       <c r="Q10">
-        <v>0.73</v>
+        <v>0.953</v>
       </c>
       <c r="R10">
-        <v>15.3</v>
+        <v>16.9</v>
       </c>
       <c r="S10">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="T10">
-        <v>52.9</v>
+        <v>38.5</v>
       </c>
       <c r="U10">
-        <v>25</v>
+        <v>45.6</v>
       </c>
       <c r="V10">
-        <v>30.3</v>
+        <v>35.2</v>
       </c>
       <c r="W10" t="s">
         <v>88</v>
       </c>
       <c r="X10" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z10" t="s">
         <v>75</v>
@@ -2734,49 +2734,49 @@
         <v>88</v>
       </c>
       <c r="AB10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC10">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c r="AD10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.22</v>
+        <v>0.222</v>
       </c>
       <c r="AF10">
-        <v>0.243</v>
+        <v>0.257</v>
       </c>
       <c r="AG10">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AH10">
-        <v>0.101</v>
+        <v>0.093</v>
       </c>
       <c r="AI10">
-        <v>0.321</v>
+        <v>0.315</v>
       </c>
       <c r="AJ10">
-        <v>23.2</v>
+        <v>18.1</v>
       </c>
       <c r="AK10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AL10">
-        <v>2.25</v>
+        <v>2.89</v>
       </c>
       <c r="AM10">
-        <v>41.4</v>
+        <v>48.9</v>
       </c>
       <c r="AN10">
-        <v>34.9</v>
+        <v>34.1</v>
       </c>
       <c r="AO10">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="AP10">
-        <v>25</v>
+        <v>28.4</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2785,42 +2785,215 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AX10">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="AY10">
         <v>1.5</v>
       </c>
       <c r="AZ10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA10" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE10">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>243</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.292</v>
+      </c>
+      <c r="M11">
+        <v>0.314</v>
+      </c>
+      <c r="N11">
+        <v>0.128</v>
+      </c>
+      <c r="O11">
+        <v>0.31</v>
+      </c>
+      <c r="P11">
+        <v>0.42</v>
+      </c>
+      <c r="Q11">
+        <v>0.73</v>
+      </c>
+      <c r="R11">
+        <v>15.3</v>
+      </c>
+      <c r="S11">
+        <v>3.1</v>
+      </c>
+      <c r="T11">
+        <v>52.9</v>
+      </c>
+      <c r="U11">
+        <v>25</v>
+      </c>
+      <c r="V11">
+        <v>30.3</v>
+      </c>
+      <c r="W11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC11">
+        <v>254</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <v>0.22</v>
+      </c>
+      <c r="AF11">
+        <v>0.243</v>
+      </c>
+      <c r="AG11">
+        <v>1.2</v>
+      </c>
+      <c r="AH11">
+        <v>0.101</v>
+      </c>
+      <c r="AI11">
+        <v>0.321</v>
+      </c>
+      <c r="AJ11">
+        <v>23.2</v>
+      </c>
+      <c r="AK11">
+        <v>2</v>
+      </c>
+      <c r="AL11">
+        <v>2.25</v>
+      </c>
+      <c r="AM11">
+        <v>41.4</v>
+      </c>
+      <c r="AN11">
+        <v>34.9</v>
+      </c>
+      <c r="AO11">
+        <v>4.6</v>
+      </c>
+      <c r="AP11">
+        <v>25</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX11">
+        <v>205</v>
+      </c>
+      <c r="AY11">
+        <v>1.5</v>
+      </c>
+      <c r="AZ11" t="s">
         <v>98</v>
       </c>
-      <c r="BB10" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE10">
+      <c r="BA11" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE11">
         <v>-290</v>
       </c>
     </row>
@@ -2831,7 +3004,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE6"/>
+  <dimension ref="A1:BE5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3012,133 +3185,133 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>80</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>33</v>
+        <v>904</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L2">
-        <v>0.394</v>
+        <v>0.327</v>
       </c>
       <c r="M2">
-        <v>0.456</v>
+        <v>0.397</v>
       </c>
       <c r="N2">
-        <v>0.242</v>
+        <v>0.243</v>
       </c>
       <c r="O2">
-        <v>0.429</v>
+        <v>0.362</v>
       </c>
       <c r="P2">
-        <v>0.636</v>
+        <v>0.571</v>
       </c>
       <c r="Q2">
-        <v>1.065</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="R2">
-        <v>27.8</v>
+        <v>13.9</v>
       </c>
       <c r="S2">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="T2">
-        <v>34.8</v>
+        <v>36.3</v>
       </c>
       <c r="U2">
-        <v>30.4</v>
+        <v>37.8</v>
       </c>
       <c r="V2">
-        <v>50</v>
+        <v>32.1</v>
       </c>
       <c r="W2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="X2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="Y2" t="s">
         <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AA2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="AB2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE2">
-        <v>0.316</v>
+        <v>0.364</v>
       </c>
       <c r="AF2">
-        <v>0.318</v>
+        <v>0.425</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AH2">
-        <v>0.052</v>
+        <v>0.168</v>
       </c>
       <c r="AI2">
-        <v>0.368</v>
+        <v>0.532</v>
       </c>
       <c r="AJ2">
-        <v>30</v>
+        <v>10.2</v>
       </c>
       <c r="AK2">
-        <v>5</v>
+        <v>10.2</v>
       </c>
       <c r="AL2">
-        <v>1.24</v>
+        <v>6.17</v>
       </c>
       <c r="AM2">
-        <v>53.8</v>
+        <v>46.3</v>
       </c>
       <c r="AN2">
-        <v>23.1</v>
+        <v>32.8</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="AP2">
-        <v>15.4</v>
+        <v>36.8</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -3153,34 +3326,34 @@
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AX2">
-        <v>-240</v>
+        <v>-250</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="BC2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="BD2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="BE2">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:57">
@@ -3197,10 +3370,10 @@
         <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3257,7 +3430,7 @@
         <v>110</v>
       </c>
       <c r="Y3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z3" t="s">
         <v>108</v>
@@ -3266,7 +3439,7 @@
         <v>109</v>
       </c>
       <c r="AB3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC3">
         <v>88</v>
@@ -3338,10 +3511,10 @@
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB3" t="s">
         <v>111</v>
@@ -3370,10 +3543,10 @@
         <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -3430,7 +3603,7 @@
         <v>110</v>
       </c>
       <c r="Y4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z4" t="s">
         <v>108</v>
@@ -3439,7 +3612,7 @@
         <v>109</v>
       </c>
       <c r="AB4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC4">
         <v>88</v>
@@ -3511,10 +3684,10 @@
         <v>0.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB4" t="s">
         <v>111</v>
@@ -3543,10 +3716,10 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -3603,7 +3776,7 @@
         <v>110</v>
       </c>
       <c r="Y5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z5" t="s">
         <v>108</v>
@@ -3612,7 +3785,7 @@
         <v>109</v>
       </c>
       <c r="AB5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC5">
         <v>88</v>
@@ -3684,10 +3857,10 @@
         <v>0.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BA5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BB5" t="s">
         <v>111</v>
@@ -3699,179 +3872,6 @@
         <v>108</v>
       </c>
       <c r="BE5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>904</v>
-      </c>
-      <c r="I6">
-        <v>56</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>8</v>
-      </c>
-      <c r="L6">
-        <v>0.327</v>
-      </c>
-      <c r="M6">
-        <v>0.397</v>
-      </c>
-      <c r="N6">
-        <v>0.243</v>
-      </c>
-      <c r="O6">
-        <v>0.362</v>
-      </c>
-      <c r="P6">
-        <v>0.571</v>
-      </c>
-      <c r="Q6">
-        <v>0.9330000000000001</v>
-      </c>
-      <c r="R6">
-        <v>13.9</v>
-      </c>
-      <c r="S6">
-        <v>4.5</v>
-      </c>
-      <c r="T6">
-        <v>36.3</v>
-      </c>
-      <c r="U6">
-        <v>37.8</v>
-      </c>
-      <c r="V6">
-        <v>32.1</v>
-      </c>
-      <c r="W6" t="s">
-        <v>109</v>
-      </c>
-      <c r="X6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC6">
-        <v>88</v>
-      </c>
-      <c r="AD6">
-        <v>3</v>
-      </c>
-      <c r="AE6">
-        <v>0.364</v>
-      </c>
-      <c r="AF6">
-        <v>0.425</v>
-      </c>
-      <c r="AG6">
-        <v>3.4</v>
-      </c>
-      <c r="AH6">
-        <v>0.168</v>
-      </c>
-      <c r="AI6">
-        <v>0.532</v>
-      </c>
-      <c r="AJ6">
-        <v>10.2</v>
-      </c>
-      <c r="AK6">
-        <v>10.2</v>
-      </c>
-      <c r="AL6">
-        <v>6.17</v>
-      </c>
-      <c r="AM6">
-        <v>46.3</v>
-      </c>
-      <c r="AN6">
-        <v>32.8</v>
-      </c>
-      <c r="AO6">
-        <v>13.6</v>
-      </c>
-      <c r="AP6">
-        <v>36.8</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>1</v>
-      </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX6">
-        <v>-250</v>
-      </c>
-      <c r="AY6">
-        <v>0.5</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>108</v>
-      </c>
-      <c r="BE6">
         <v>180</v>
       </c>
     </row>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="130">
   <si>
     <t>fg_name</t>
   </si>
@@ -196,12 +196,24 @@
     <t>Merge_Type</t>
   </si>
   <si>
+    <t>Bryan Reynolds</t>
+  </si>
+  <si>
     <t>Luis Arraez</t>
   </si>
   <si>
     <t>Bryce Harper</t>
   </si>
   <si>
+    <t>Nico Hoerner</t>
+  </si>
+  <si>
+    <t>Shohei Ohtani</t>
+  </si>
+  <si>
+    <t>Freddie Freeman</t>
+  </si>
+  <si>
     <t>Tommy Pham</t>
   </si>
   <si>
@@ -211,10 +223,10 @@
     <t>Gunnar Henderson</t>
   </si>
   <si>
-    <t>Thairo Estrada</t>
-  </si>
-  <si>
-    <t>Wilmer Flores</t>
+    <t>Jorge Soler</t>
+  </si>
+  <si>
+    <t>Matt Chapman</t>
   </si>
   <si>
     <t>Salvador Perez</t>
@@ -226,12 +238,21 @@
     <t>Yainer Diaz</t>
   </si>
   <si>
+    <t>Pittsburgh Pirates</t>
+  </si>
+  <si>
     <t>San Diego Padres</t>
   </si>
   <si>
     <t>Philadelphia Phillies</t>
   </si>
   <si>
+    <t>Chicago Cubs</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers</t>
+  </si>
+  <si>
     <t>Chicago White Sox</t>
   </si>
   <si>
@@ -253,6 +274,9 @@
     <t>Bobby Witt Jr.</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
@@ -265,34 +289,46 @@
     <t>vs L</t>
   </si>
   <si>
-    <t>Gavin Williams</t>
-  </si>
-  <si>
-    <t>Luis Ortiz</t>
-  </si>
-  <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
-    <t>Reese Olson</t>
-  </si>
-  <si>
-    <t>Max Scherzer</t>
-  </si>
-  <si>
-    <t>Kyle Freeland</t>
-  </si>
-  <si>
-    <t>Jonathan Cannon</t>
-  </si>
-  <si>
-    <t>George Kirby</t>
+    <t>Tyler Phillips</t>
+  </si>
+  <si>
+    <t>Ben Lively</t>
+  </si>
+  <si>
+    <t>Marco Gonzales</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Kutter Crawford</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Keider Montero</t>
+  </si>
+  <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Ryan Feltner</t>
+  </si>
+  <si>
+    <t>Drew Thorpe</t>
+  </si>
+  <si>
+    <t>Bryan Woo</t>
   </si>
   <si>
     <t>Cleveland Indians</t>
   </si>
   <si>
-    <t>Pittsburgh Pirates</t>
+    <t>Arizona Diamondbacks</t>
+  </si>
+  <si>
+    <t>Boston Red Sox</t>
   </si>
   <si>
     <t>Detroit Tigers</t>
@@ -319,10 +355,13 @@
     <t>draftkings</t>
   </si>
   <si>
+    <t>2024-07-20T22:41:00Z</t>
+  </si>
+  <si>
     <t>2024-07-20T23:11:00Z</t>
   </si>
   <si>
-    <t>2024-07-20T22:41:00Z</t>
+    <t>2024-07-20T23:16:00Z</t>
   </si>
   <si>
     <t>2024-07-20T19:07:00Z</t>
@@ -340,19 +379,34 @@
     <t>Cleveland Guardians</t>
   </si>
   <si>
-    <t>Alec Burleson</t>
-  </si>
-  <si>
-    <t>St. Louis Cardinals</t>
-  </si>
-  <si>
-    <t>Bryce Elder</t>
-  </si>
-  <si>
-    <t>Atlanta Braves</t>
-  </si>
-  <si>
-    <t>2024-07-20T17:08:00Z</t>
+    <t>Xavier Edwards</t>
+  </si>
+  <si>
+    <t>Juan Soto</t>
+  </si>
+  <si>
+    <t>Miami Marlins</t>
+  </si>
+  <si>
+    <t>New York Yankees</t>
+  </si>
+  <si>
+    <t>Christian Scott</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>New York Mets</t>
+  </si>
+  <si>
+    <t>Tampa Bay Rays</t>
+  </si>
+  <si>
+    <t>2024-07-20T20:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-20T17:06:00Z</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE11"/>
+  <dimension ref="A1:BE15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1272,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1281,163 +1335,160 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.328</v>
+        <v>0.293</v>
       </c>
       <c r="M2">
-        <v>0.335</v>
+        <v>0.379</v>
       </c>
       <c r="N2">
+        <v>0.22</v>
+      </c>
+      <c r="O2">
+        <v>0.368</v>
+      </c>
+      <c r="P2">
+        <v>0.513</v>
+      </c>
+      <c r="Q2">
+        <v>0.881</v>
+      </c>
+      <c r="R2">
+        <v>21.8</v>
+      </c>
+      <c r="S2">
+        <v>9.1</v>
+      </c>
+      <c r="T2">
+        <v>42.5</v>
+      </c>
+      <c r="U2">
+        <v>35.3</v>
+      </c>
+      <c r="V2">
+        <v>36.7</v>
+      </c>
+      <c r="W2" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2">
+        <v>12</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0.083</v>
+      </c>
+      <c r="AF2">
+        <v>0.105</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>0.08400000000000001</v>
       </c>
-      <c r="O2">
-        <v>0.355</v>
-      </c>
-      <c r="P2">
-        <v>0.412</v>
-      </c>
-      <c r="Q2">
-        <v>0.767</v>
-      </c>
-      <c r="R2">
-        <v>2.7</v>
-      </c>
-      <c r="S2">
-        <v>3.8</v>
-      </c>
-      <c r="T2">
-        <v>37.7</v>
-      </c>
-      <c r="U2">
-        <v>29.9</v>
-      </c>
-      <c r="V2">
-        <v>24.6</v>
-      </c>
-      <c r="W2" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC2">
-        <v>28</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0.2</v>
-      </c>
-      <c r="AF2">
-        <v>0.284</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0.16</v>
-      </c>
       <c r="AI2">
-        <v>0.36</v>
+        <v>0.167</v>
       </c>
       <c r="AJ2">
-        <v>14.3</v>
+        <v>33.3</v>
       </c>
       <c r="AK2">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>3.31</v>
+        <v>0.98</v>
       </c>
       <c r="AM2">
-        <v>61.9</v>
+        <v>62.5</v>
       </c>
       <c r="AN2">
-        <v>33.3</v>
+        <v>25</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>33.3</v>
+        <v>25</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="s">
         <v>59</v>
       </c>
       <c r="AX2">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AY2">
         <v>1.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="BA2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="BB2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="BC2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="BD2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="BE2">
-        <v>-190</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="3" spans="1:57">
@@ -1445,7 +1496,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -1454,163 +1505,163 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>253</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
         <v>3</v>
-      </c>
-      <c r="H3">
-        <v>187</v>
-      </c>
-      <c r="I3">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>0.289</v>
+        <v>0.328</v>
       </c>
       <c r="M3">
-        <v>0.398</v>
+        <v>0.336</v>
       </c>
       <c r="N3">
-        <v>0.273</v>
+        <v>0.083</v>
       </c>
       <c r="O3">
-        <v>0.391</v>
+        <v>0.357</v>
       </c>
       <c r="P3">
-        <v>0.5610000000000001</v>
+        <v>0.411</v>
       </c>
       <c r="Q3">
-        <v>0.952</v>
+        <v>0.768</v>
       </c>
       <c r="R3">
-        <v>18.2</v>
+        <v>2.6</v>
       </c>
       <c r="S3">
-        <v>14.5</v>
+        <v>4.1</v>
       </c>
       <c r="T3">
-        <v>37.8</v>
+        <v>37.2</v>
       </c>
       <c r="U3">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="V3">
-        <v>41.2</v>
+        <v>24.3</v>
       </c>
       <c r="W3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="X3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" t="s">
         <v>91</v>
       </c>
-      <c r="Y3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>83</v>
-      </c>
       <c r="AB3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AC3">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE3">
-        <v>0.223</v>
+        <v>0.197</v>
       </c>
       <c r="AF3">
-        <v>0.284</v>
+        <v>0.275</v>
       </c>
       <c r="AG3">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="AH3">
-        <v>0.128</v>
+        <v>0.17</v>
       </c>
       <c r="AI3">
-        <v>0.351</v>
+        <v>0.367</v>
       </c>
       <c r="AJ3">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="AK3">
-        <v>11.1</v>
+        <v>7.5</v>
       </c>
       <c r="AL3">
-        <v>3.64</v>
+        <v>4.15</v>
       </c>
       <c r="AM3">
-        <v>39.4</v>
+        <v>36.4</v>
       </c>
       <c r="AN3">
-        <v>39.4</v>
+        <v>43.6</v>
       </c>
       <c r="AO3">
-        <v>7.1</v>
+        <v>12.5</v>
       </c>
       <c r="AP3">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="s">
         <v>60</v>
       </c>
       <c r="AX3">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AY3">
         <v>1.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="BA3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="BB3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="BC3" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="BD3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="BE3">
-        <v>-230</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="4" spans="1:57">
@@ -1618,7 +1669,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1627,163 +1678,163 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.27</v>
+        <v>0.317</v>
       </c>
       <c r="M4">
-        <v>0.301</v>
+        <v>0.426</v>
       </c>
       <c r="N4">
-        <v>0.076</v>
+        <v>0.275</v>
       </c>
       <c r="O4">
-        <v>0.328</v>
+        <v>0.415</v>
       </c>
       <c r="P4">
-        <v>0.346</v>
+        <v>0.592</v>
       </c>
       <c r="Q4">
-        <v>0.674</v>
+        <v>1.007</v>
       </c>
       <c r="R4">
-        <v>20.4</v>
+        <v>25.4</v>
       </c>
       <c r="S4">
-        <v>8</v>
+        <v>14.8</v>
       </c>
       <c r="T4">
-        <v>41</v>
+        <v>36.5</v>
       </c>
       <c r="U4">
-        <v>33.3</v>
+        <v>40</v>
       </c>
       <c r="V4">
-        <v>26.4</v>
+        <v>36.5</v>
       </c>
       <c r="W4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z4" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>71</v>
-      </c>
       <c r="AA4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AB4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AC4">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.174</v>
+        <v>0.167</v>
       </c>
       <c r="AF4">
-        <v>0.223</v>
+        <v>0.238</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="AH4">
-        <v>0.09</v>
+        <v>0.166</v>
       </c>
       <c r="AI4">
-        <v>0.264</v>
+        <v>0.333</v>
       </c>
       <c r="AJ4">
+        <v>31.6</v>
+      </c>
+      <c r="AK4">
+        <v>5.3</v>
+      </c>
+      <c r="AL4">
+        <v>3.96</v>
+      </c>
+      <c r="AM4">
+        <v>66.7</v>
+      </c>
+      <c r="AN4">
+        <v>16.7</v>
+      </c>
+      <c r="AO4">
+        <v>50</v>
+      </c>
+      <c r="AP4">
         <v>25</v>
       </c>
-      <c r="AK4">
-        <v>4.7</v>
-      </c>
-      <c r="AL4">
-        <v>2.56</v>
-      </c>
-      <c r="AM4">
-        <v>48.1</v>
-      </c>
-      <c r="AN4">
-        <v>33.3</v>
-      </c>
-      <c r="AO4">
-        <v>4.7</v>
-      </c>
-      <c r="AP4">
-        <v>27.5</v>
-      </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4" t="s">
         <v>61</v>
       </c>
       <c r="AX4">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="AY4">
         <v>1.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="BA4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="BB4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="BC4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD4" t="s">
         <v>75</v>
       </c>
-      <c r="BD4" t="s">
-        <v>71</v>
-      </c>
       <c r="BE4">
-        <v>-275</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="5" spans="1:57">
@@ -1791,7 +1842,7 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1800,124 +1851,124 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.258</v>
+      </c>
+      <c r="M5">
+        <v>0.311</v>
+      </c>
+      <c r="N5">
+        <v>0.104</v>
+      </c>
+      <c r="O5">
+        <v>0.335</v>
+      </c>
+      <c r="P5">
+        <v>0.362</v>
+      </c>
+      <c r="Q5">
+        <v>0.697</v>
+      </c>
+      <c r="R5">
+        <v>10.1</v>
+      </c>
+      <c r="S5">
+        <v>7.9</v>
+      </c>
+      <c r="T5">
+        <v>47.2</v>
+      </c>
+      <c r="U5">
+        <v>30.4</v>
+      </c>
+      <c r="V5">
+        <v>19.2</v>
+      </c>
+      <c r="W5" t="s">
+        <v>93</v>
+      </c>
+      <c r="X5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC5">
+        <v>231</v>
+      </c>
+      <c r="AD5">
         <v>8</v>
       </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.231</v>
-      </c>
-      <c r="M5">
-        <v>0.301</v>
-      </c>
-      <c r="N5">
-        <v>0.146</v>
-      </c>
-      <c r="O5">
-        <v>0.304</v>
-      </c>
-      <c r="P5">
-        <v>0.377</v>
-      </c>
-      <c r="Q5">
-        <v>0.681</v>
-      </c>
-      <c r="R5">
-        <v>16.9</v>
-      </c>
-      <c r="S5">
-        <v>9</v>
-      </c>
-      <c r="T5">
-        <v>51.9</v>
-      </c>
-      <c r="U5">
-        <v>28.8</v>
-      </c>
-      <c r="V5">
-        <v>30.2</v>
-      </c>
-      <c r="W5" t="s">
-        <v>85</v>
-      </c>
-      <c r="X5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC5">
-        <v>192</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
       <c r="AE5">
-        <v>0.221</v>
+        <v>0.189</v>
       </c>
       <c r="AF5">
-        <v>0.246</v>
+        <v>0.257</v>
       </c>
       <c r="AG5">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="AH5">
-        <v>0.083</v>
+        <v>0.161</v>
       </c>
       <c r="AI5">
-        <v>0.304</v>
+        <v>0.35</v>
       </c>
       <c r="AJ5">
-        <v>20.8</v>
+        <v>27.7</v>
       </c>
       <c r="AK5">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="AL5">
-        <v>2.33</v>
+        <v>3.47</v>
       </c>
       <c r="AM5">
-        <v>58.2</v>
+        <v>40.8</v>
       </c>
       <c r="AN5">
-        <v>25.5</v>
+        <v>46.1</v>
       </c>
       <c r="AO5">
-        <v>2.8</v>
+        <v>11.4</v>
       </c>
       <c r="AP5">
-        <v>30.1</v>
+        <v>24.3</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>1</v>
@@ -1935,28 +1986,28 @@
         <v>62</v>
       </c>
       <c r="AX5">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AY5">
         <v>1.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="BA5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="BB5" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD5" t="s">
         <v>102</v>
       </c>
-      <c r="BC5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>92</v>
-      </c>
       <c r="BE5">
-        <v>-215</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="6" spans="1:57">
@@ -1964,7 +2015,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1973,118 +2024,118 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="I6">
         <v>22</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.315</v>
+        <v>0.321</v>
       </c>
       <c r="M6">
-        <v>0.427</v>
+        <v>0.461</v>
       </c>
       <c r="N6">
-        <v>0.315</v>
+        <v>0.379</v>
       </c>
       <c r="O6">
-        <v>0.383</v>
+        <v>0.422</v>
       </c>
       <c r="P6">
-        <v>0.629</v>
+        <v>0.7</v>
       </c>
       <c r="Q6">
-        <v>1.012</v>
+        <v>1.122</v>
       </c>
       <c r="R6">
-        <v>21.1</v>
+        <v>23</v>
       </c>
       <c r="S6">
-        <v>9.1</v>
+        <v>14.1</v>
       </c>
       <c r="T6">
-        <v>45.9</v>
+        <v>37.6</v>
       </c>
       <c r="U6">
-        <v>30.7</v>
+        <v>37.6</v>
       </c>
       <c r="V6">
-        <v>49.8</v>
+        <v>48.3</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="Y6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AB6" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AC6">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE6">
-        <v>0.214</v>
+        <v>0.19</v>
       </c>
       <c r="AF6">
-        <v>0.3</v>
+        <v>0.259</v>
       </c>
       <c r="AG6">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="AH6">
-        <v>0.215</v>
+        <v>0.143</v>
       </c>
       <c r="AI6">
-        <v>0.429</v>
+        <v>0.333</v>
       </c>
       <c r="AJ6">
-        <v>20</v>
+        <v>25.1</v>
       </c>
       <c r="AK6">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AL6">
-        <v>4.63</v>
+        <v>3.88</v>
       </c>
       <c r="AM6">
-        <v>12.1</v>
+        <v>29.3</v>
       </c>
       <c r="AN6">
-        <v>66.7</v>
+        <v>52</v>
       </c>
       <c r="AO6">
-        <v>9.1</v>
+        <v>10.3</v>
       </c>
       <c r="AP6">
-        <v>24.2</v>
+        <v>27.7</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2093,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2108,28 +2159,28 @@
         <v>63</v>
       </c>
       <c r="AX6">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AY6">
         <v>1.5</v>
       </c>
       <c r="AZ6" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="BA6" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="BB6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD6" t="s">
         <v>103</v>
       </c>
-      <c r="BC6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>73</v>
-      </c>
       <c r="BE6">
-        <v>-265</v>
+        <v>-285</v>
       </c>
     </row>
     <row r="7" spans="1:57">
@@ -2137,7 +2188,7 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -2146,163 +2197,163 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>83</v>
+        <v>235</v>
       </c>
       <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.193</v>
+        <v>0.319</v>
       </c>
       <c r="M7">
-        <v>0.236</v>
+        <v>0.41</v>
       </c>
       <c r="N7">
-        <v>0.12</v>
+        <v>0.221</v>
       </c>
       <c r="O7">
-        <v>0.227</v>
+        <v>0.426</v>
       </c>
       <c r="P7">
-        <v>0.313</v>
+        <v>0.54</v>
       </c>
       <c r="Q7">
-        <v>0.541</v>
+        <v>0.966</v>
       </c>
       <c r="R7">
-        <v>19.3</v>
+        <v>16.2</v>
       </c>
       <c r="S7">
-        <v>4.5</v>
+        <v>15.5</v>
       </c>
       <c r="T7">
-        <v>44.8</v>
+        <v>37.5</v>
       </c>
       <c r="U7">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="V7">
-        <v>40.3</v>
+        <v>33.3</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA7" t="s">
         <v>94</v>
       </c>
-      <c r="Y7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>87</v>
-      </c>
       <c r="AB7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AC7">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="AD7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE7">
-        <v>0.316</v>
+        <v>0.19</v>
       </c>
       <c r="AF7">
-        <v>0.368</v>
+        <v>0.259</v>
       </c>
       <c r="AG7">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AH7">
-        <v>0.168</v>
+        <v>0.143</v>
       </c>
       <c r="AI7">
-        <v>0.484</v>
+        <v>0.333</v>
       </c>
       <c r="AJ7">
-        <v>14.1</v>
+        <v>25.1</v>
       </c>
       <c r="AK7">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AL7">
-        <v>4.67</v>
+        <v>3.88</v>
       </c>
       <c r="AM7">
-        <v>42.7</v>
+        <v>29.3</v>
       </c>
       <c r="AN7">
-        <v>34.4</v>
+        <v>52</v>
       </c>
       <c r="AO7">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="AP7">
-        <v>30.1</v>
+        <v>27.7</v>
       </c>
       <c r="AQ7">
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7">
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="s">
         <v>64</v>
       </c>
       <c r="AX7">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="AY7">
         <v>1.5</v>
       </c>
       <c r="AZ7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="BA7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="BB7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="BC7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="BD7" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="BE7">
-        <v>-185</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="8" spans="1:57">
@@ -2310,7 +2361,7 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -2319,118 +2370,118 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.215</v>
+        <v>0.27</v>
       </c>
       <c r="M8">
-        <v>0.263</v>
+        <v>0.302</v>
       </c>
       <c r="N8">
-        <v>0.129</v>
+        <v>0.079</v>
       </c>
       <c r="O8">
+        <v>0.327</v>
+      </c>
+      <c r="P8">
+        <v>0.349</v>
+      </c>
+      <c r="Q8">
+        <v>0.676</v>
+      </c>
+      <c r="R8">
+        <v>20.5</v>
+      </c>
+      <c r="S8">
+        <v>7.8</v>
+      </c>
+      <c r="T8">
+        <v>40.8</v>
+      </c>
+      <c r="U8">
+        <v>34</v>
+      </c>
+      <c r="V8">
+        <v>27.2</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC8">
+        <v>237</v>
+      </c>
+      <c r="AD8">
+        <v>7</v>
+      </c>
+      <c r="AE8">
+        <v>0.214</v>
+      </c>
+      <c r="AF8">
         <v>0.269</v>
       </c>
-      <c r="P8">
-        <v>0.344</v>
-      </c>
-      <c r="Q8">
-        <v>0.613</v>
-      </c>
-      <c r="R8">
-        <v>12.5</v>
-      </c>
-      <c r="S8">
-        <v>7.7</v>
-      </c>
-      <c r="T8">
-        <v>24.1</v>
-      </c>
-      <c r="U8">
-        <v>54.2</v>
-      </c>
-      <c r="V8">
-        <v>26.5</v>
-      </c>
-      <c r="W8" t="s">
-        <v>87</v>
-      </c>
-      <c r="X8" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC8">
-        <v>170</v>
-      </c>
-      <c r="AD8">
-        <v>5</v>
-      </c>
-      <c r="AE8">
-        <v>0.316</v>
-      </c>
-      <c r="AF8">
-        <v>0.368</v>
-      </c>
       <c r="AG8">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AH8">
-        <v>0.168</v>
+        <v>0.15</v>
       </c>
       <c r="AI8">
-        <v>0.484</v>
+        <v>0.364</v>
       </c>
       <c r="AJ8">
-        <v>14.1</v>
+        <v>21.1</v>
       </c>
       <c r="AK8">
-        <v>7.1</v>
+        <v>4.2</v>
       </c>
       <c r="AL8">
-        <v>4.67</v>
+        <v>3.66</v>
       </c>
       <c r="AM8">
-        <v>42.7</v>
+        <v>40.1</v>
       </c>
       <c r="AN8">
-        <v>34.4</v>
+        <v>43</v>
       </c>
       <c r="AO8">
-        <v>11.1</v>
+        <v>9.5</v>
       </c>
       <c r="AP8">
-        <v>30.1</v>
+        <v>32.8</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2454,28 +2505,28 @@
         <v>65</v>
       </c>
       <c r="AX8">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="AY8">
         <v>1.5</v>
       </c>
       <c r="AZ8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="BA8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="BB8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="BC8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="BD8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="BE8">
-        <v>-230</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="9" spans="1:57">
@@ -2483,7 +2534,7 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -2492,133 +2543,133 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>263</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.232</v>
+      </c>
+      <c r="M9">
+        <v>0.301</v>
+      </c>
+      <c r="N9">
+        <v>0.144</v>
+      </c>
+      <c r="O9">
+        <v>0.305</v>
+      </c>
+      <c r="P9">
+        <v>0.376</v>
+      </c>
+      <c r="Q9">
+        <v>0.681</v>
+      </c>
+      <c r="R9">
+        <v>17.1</v>
+      </c>
+      <c r="S9">
+        <v>8.9</v>
+      </c>
+      <c r="T9">
+        <v>51.9</v>
+      </c>
+      <c r="U9">
+        <v>28.5</v>
+      </c>
+      <c r="V9">
+        <v>30.4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z9" t="s">
         <v>79</v>
       </c>
-      <c r="F9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>268</v>
-      </c>
-      <c r="I9">
-        <v>14</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.276</v>
-      </c>
-      <c r="M9">
-        <v>0.351</v>
-      </c>
-      <c r="N9">
-        <v>0.205</v>
-      </c>
-      <c r="O9">
-        <v>0.34</v>
-      </c>
-      <c r="P9">
-        <v>0.481</v>
-      </c>
-      <c r="Q9">
-        <v>0.821</v>
-      </c>
-      <c r="R9">
-        <v>19.5</v>
-      </c>
-      <c r="S9">
-        <v>7.1</v>
-      </c>
-      <c r="T9">
-        <v>30.2</v>
-      </c>
-      <c r="U9">
-        <v>44.8</v>
-      </c>
-      <c r="V9">
-        <v>34.4</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="AA9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB9" t="s">
         <v>88</v>
       </c>
-      <c r="X9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>80</v>
-      </c>
       <c r="AC9">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9">
-        <v>0.222</v>
+        <v>0.256</v>
       </c>
       <c r="AF9">
-        <v>0.257</v>
+        <v>0.4</v>
       </c>
       <c r="AG9">
-        <v>0.9</v>
+        <v>6.7</v>
       </c>
       <c r="AH9">
-        <v>0.093</v>
+        <v>0.334</v>
       </c>
       <c r="AI9">
-        <v>0.315</v>
+        <v>0.59</v>
       </c>
       <c r="AJ9">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="AK9">
-        <v>6</v>
+        <v>13.3</v>
       </c>
       <c r="AL9">
-        <v>2.89</v>
+        <v>7.4</v>
       </c>
       <c r="AM9">
-        <v>48.9</v>
+        <v>32.3</v>
       </c>
       <c r="AN9">
-        <v>34.1</v>
+        <v>51.6</v>
       </c>
       <c r="AO9">
-        <v>3.3</v>
+        <v>18.8</v>
       </c>
       <c r="AP9">
-        <v>28.4</v>
+        <v>45.2</v>
       </c>
       <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9">
         <v>0</v>
@@ -2627,28 +2678,28 @@
         <v>66</v>
       </c>
       <c r="AX9">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="AY9">
         <v>1.5</v>
       </c>
       <c r="AZ9" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="BA9" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="BB9" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="BC9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="BD9" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="BE9">
-        <v>-270</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="10" spans="1:57">
@@ -2656,136 +2707,136 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>115</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.243</v>
+      </c>
+      <c r="M10">
+        <v>0.37</v>
+      </c>
+      <c r="N10">
+        <v>0.243</v>
+      </c>
+      <c r="O10">
+        <v>0.367</v>
+      </c>
+      <c r="P10">
+        <v>0.487</v>
+      </c>
+      <c r="Q10">
+        <v>0.854</v>
+      </c>
+      <c r="R10">
+        <v>28.1</v>
+      </c>
+      <c r="S10">
+        <v>14.4</v>
+      </c>
+      <c r="T10">
+        <v>49.4</v>
+      </c>
+      <c r="U10">
+        <v>35.1</v>
+      </c>
+      <c r="V10">
+        <v>33.8</v>
+      </c>
+      <c r="W10" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z10" t="s">
         <v>80</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>327</v>
-      </c>
-      <c r="I10">
-        <v>14</v>
-      </c>
-      <c r="J10">
-        <v>18</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>0.327</v>
-      </c>
-      <c r="M10">
-        <v>0.401</v>
-      </c>
-      <c r="N10">
-        <v>0.245</v>
-      </c>
-      <c r="O10">
-        <v>0.381</v>
-      </c>
-      <c r="P10">
-        <v>0.572</v>
-      </c>
-      <c r="Q10">
-        <v>0.953</v>
-      </c>
-      <c r="R10">
-        <v>16.9</v>
-      </c>
-      <c r="S10">
-        <v>7.5</v>
-      </c>
-      <c r="T10">
-        <v>38.5</v>
-      </c>
-      <c r="U10">
-        <v>45.6</v>
-      </c>
-      <c r="V10">
-        <v>35.2</v>
-      </c>
-      <c r="W10" t="s">
-        <v>88</v>
-      </c>
-      <c r="X10" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>75</v>
-      </c>
       <c r="AA10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AB10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC10">
         <v>80</v>
       </c>
-      <c r="AC10">
-        <v>116</v>
-      </c>
       <c r="AD10">
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.222</v>
+        <v>0.319</v>
       </c>
       <c r="AF10">
-        <v>0.257</v>
+        <v>0.357</v>
       </c>
       <c r="AG10">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AH10">
-        <v>0.093</v>
+        <v>0.098</v>
       </c>
       <c r="AI10">
-        <v>0.315</v>
+        <v>0.417</v>
       </c>
       <c r="AJ10">
-        <v>18.1</v>
+        <v>23.8</v>
       </c>
       <c r="AK10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AL10">
-        <v>2.89</v>
+        <v>3.1</v>
       </c>
       <c r="AM10">
-        <v>48.9</v>
+        <v>32.1</v>
       </c>
       <c r="AN10">
-        <v>34.1</v>
+        <v>39.6</v>
       </c>
       <c r="AO10">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="AP10">
-        <v>28.4</v>
+        <v>24.5</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -2794,34 +2845,34 @@
         <v>1</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AX10">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="AY10">
         <v>1.5</v>
       </c>
       <c r="AZ10" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="BA10" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="BB10" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="BC10" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="BD10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="BE10">
-        <v>-170</v>
+        <v>-265</v>
       </c>
     </row>
     <row r="11" spans="1:57">
@@ -2829,7 +2880,7 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -2838,127 +2889,127 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>225</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.213</v>
+      </c>
+      <c r="M11">
+        <v>0.283</v>
+      </c>
+      <c r="N11">
+        <v>0.156</v>
+      </c>
+      <c r="O11">
+        <v>0.277</v>
+      </c>
+      <c r="P11">
+        <v>0.369</v>
+      </c>
+      <c r="Q11">
+        <v>0.646</v>
+      </c>
+      <c r="R11">
+        <v>26.4</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>39.5</v>
+      </c>
+      <c r="U11">
+        <v>42</v>
+      </c>
+      <c r="V11">
+        <v>36.4</v>
+      </c>
+      <c r="W11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC11">
+        <v>218</v>
+      </c>
+      <c r="AD11">
         <v>4</v>
       </c>
-      <c r="H11">
-        <v>243</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0.292</v>
-      </c>
-      <c r="M11">
-        <v>0.314</v>
-      </c>
-      <c r="N11">
-        <v>0.128</v>
-      </c>
-      <c r="O11">
-        <v>0.31</v>
-      </c>
-      <c r="P11">
-        <v>0.42</v>
-      </c>
-      <c r="Q11">
-        <v>0.73</v>
-      </c>
-      <c r="R11">
-        <v>15.3</v>
-      </c>
-      <c r="S11">
-        <v>3.1</v>
-      </c>
-      <c r="T11">
-        <v>52.9</v>
-      </c>
-      <c r="U11">
-        <v>25</v>
-      </c>
-      <c r="V11">
-        <v>30.3</v>
-      </c>
-      <c r="W11" t="s">
-        <v>89</v>
-      </c>
-      <c r="X11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC11">
-        <v>254</v>
-      </c>
-      <c r="AD11">
-        <v>3</v>
-      </c>
       <c r="AE11">
-        <v>0.22</v>
+        <v>0.256</v>
       </c>
       <c r="AF11">
-        <v>0.243</v>
+        <v>0.296</v>
       </c>
       <c r="AG11">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AH11">
         <v>0.101</v>
       </c>
       <c r="AI11">
-        <v>0.321</v>
+        <v>0.357</v>
       </c>
       <c r="AJ11">
-        <v>23.2</v>
+        <v>20.6</v>
       </c>
       <c r="AK11">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="AL11">
-        <v>2.25</v>
+        <v>3.41</v>
       </c>
       <c r="AM11">
-        <v>41.4</v>
+        <v>50.6</v>
       </c>
       <c r="AN11">
-        <v>34.9</v>
+        <v>30.8</v>
       </c>
       <c r="AO11">
-        <v>4.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AP11">
-        <v>25</v>
+        <v>26.9</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -2967,33 +3018,725 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11" t="s">
         <v>68</v>
       </c>
       <c r="AX11">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="AY11">
         <v>1.5</v>
       </c>
       <c r="AZ11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE11">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>268</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.209</v>
+      </c>
+      <c r="M12">
+        <v>0.294</v>
+      </c>
+      <c r="N12">
+        <v>0.153</v>
+      </c>
+      <c r="O12">
+        <v>0.298</v>
+      </c>
+      <c r="P12">
+        <v>0.362</v>
+      </c>
+      <c r="Q12">
+        <v>0.66</v>
+      </c>
+      <c r="R12">
+        <v>24.8</v>
+      </c>
+      <c r="S12">
+        <v>9.9</v>
+      </c>
+      <c r="T12">
+        <v>42</v>
+      </c>
+      <c r="U12">
+        <v>43.5</v>
+      </c>
+      <c r="V12">
+        <v>32.6</v>
+      </c>
+      <c r="W12" t="s">
         <v>98</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="X12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC12">
+        <v>218</v>
+      </c>
+      <c r="AD12">
+        <v>4</v>
+      </c>
+      <c r="AE12">
+        <v>0.256</v>
+      </c>
+      <c r="AF12">
+        <v>0.296</v>
+      </c>
+      <c r="AG12">
+        <v>1.8</v>
+      </c>
+      <c r="AH12">
+        <v>0.101</v>
+      </c>
+      <c r="AI12">
+        <v>0.357</v>
+      </c>
+      <c r="AJ12">
+        <v>20.6</v>
+      </c>
+      <c r="AK12">
+        <v>6.9</v>
+      </c>
+      <c r="AL12">
+        <v>3.41</v>
+      </c>
+      <c r="AM12">
+        <v>50.6</v>
+      </c>
+      <c r="AN12">
+        <v>30.8</v>
+      </c>
+      <c r="AO12">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AP12">
+        <v>26.9</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX12">
+        <v>110</v>
+      </c>
+      <c r="AY12">
+        <v>1.5</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE12">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>271</v>
+      </c>
+      <c r="I13">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.28</v>
+      </c>
+      <c r="M13">
+        <v>0.353</v>
+      </c>
+      <c r="N13">
+        <v>0.203</v>
+      </c>
+      <c r="O13">
+        <v>0.343</v>
+      </c>
+      <c r="P13">
+        <v>0.483</v>
+      </c>
+      <c r="Q13">
+        <v>0.827</v>
+      </c>
+      <c r="R13">
+        <v>19.3</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>30.7</v>
+      </c>
+      <c r="U13">
+        <v>44.2</v>
+      </c>
+      <c r="V13">
+        <v>35.3</v>
+      </c>
+      <c r="W13" t="s">
         <v>99</v>
       </c>
-      <c r="BB11" t="s">
-        <v>105</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>95</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE11">
+      <c r="X13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC13">
+        <v>65</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>0.133</v>
+      </c>
+      <c r="AF13">
+        <v>0.228</v>
+      </c>
+      <c r="AG13">
+        <v>4.6</v>
+      </c>
+      <c r="AH13">
+        <v>0.184</v>
+      </c>
+      <c r="AI13">
+        <v>0.317</v>
+      </c>
+      <c r="AJ13">
+        <v>13.8</v>
+      </c>
+      <c r="AK13">
+        <v>7.7</v>
+      </c>
+      <c r="AL13">
+        <v>5.24</v>
+      </c>
+      <c r="AM13">
+        <v>43.1</v>
+      </c>
+      <c r="AN13">
+        <v>45.1</v>
+      </c>
+      <c r="AO13">
+        <v>13</v>
+      </c>
+      <c r="AP13">
+        <v>29.4</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX13">
+        <v>190</v>
+      </c>
+      <c r="AY13">
+        <v>1.5</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE13">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>330</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>0.33</v>
+      </c>
+      <c r="M14">
+        <v>0.404</v>
+      </c>
+      <c r="N14">
+        <v>0.245</v>
+      </c>
+      <c r="O14">
+        <v>0.384</v>
+      </c>
+      <c r="P14">
+        <v>0.576</v>
+      </c>
+      <c r="Q14">
+        <v>0.959</v>
+      </c>
+      <c r="R14">
+        <v>16.7</v>
+      </c>
+      <c r="S14">
+        <v>7.4</v>
+      </c>
+      <c r="T14">
+        <v>38.1</v>
+      </c>
+      <c r="U14">
+        <v>45.4</v>
+      </c>
+      <c r="V14">
+        <v>34.8</v>
+      </c>
+      <c r="W14" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC14">
+        <v>65</v>
+      </c>
+      <c r="AD14">
+        <v>3</v>
+      </c>
+      <c r="AE14">
+        <v>0.133</v>
+      </c>
+      <c r="AF14">
+        <v>0.228</v>
+      </c>
+      <c r="AG14">
+        <v>4.6</v>
+      </c>
+      <c r="AH14">
+        <v>0.184</v>
+      </c>
+      <c r="AI14">
+        <v>0.317</v>
+      </c>
+      <c r="AJ14">
+        <v>13.8</v>
+      </c>
+      <c r="AK14">
+        <v>7.7</v>
+      </c>
+      <c r="AL14">
+        <v>5.24</v>
+      </c>
+      <c r="AM14">
+        <v>43.1</v>
+      </c>
+      <c r="AN14">
+        <v>45.1</v>
+      </c>
+      <c r="AO14">
+        <v>13</v>
+      </c>
+      <c r="AP14">
+        <v>29.4</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX14">
+        <v>125</v>
+      </c>
+      <c r="AY14">
+        <v>1.5</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE14">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>247</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.296</v>
+      </c>
+      <c r="M15">
+        <v>0.32</v>
+      </c>
+      <c r="N15">
+        <v>0.138</v>
+      </c>
+      <c r="O15">
+        <v>0.313</v>
+      </c>
+      <c r="P15">
+        <v>0.433</v>
+      </c>
+      <c r="Q15">
+        <v>0.746</v>
+      </c>
+      <c r="R15">
+        <v>15.4</v>
+      </c>
+      <c r="S15">
+        <v>3.1</v>
+      </c>
+      <c r="T15">
+        <v>52.6</v>
+      </c>
+      <c r="U15">
+        <v>24.6</v>
+      </c>
+      <c r="V15">
+        <v>30.8</v>
+      </c>
+      <c r="W15" t="s">
+        <v>100</v>
+      </c>
+      <c r="X15" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC15">
+        <v>74</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0.171</v>
+      </c>
+      <c r="AF15">
+        <v>0.177</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0.015</v>
+      </c>
+      <c r="AI15">
+        <v>0.186</v>
+      </c>
+      <c r="AJ15">
+        <v>23</v>
+      </c>
+      <c r="AK15">
+        <v>2.7</v>
+      </c>
+      <c r="AL15">
+        <v>1.91</v>
+      </c>
+      <c r="AM15">
+        <v>52.8</v>
+      </c>
+      <c r="AN15">
+        <v>34</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>16.7</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX15">
+        <v>205</v>
+      </c>
+      <c r="AY15">
+        <v>1.5</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE15">
         <v>-290</v>
       </c>
     </row>
@@ -3004,7 +3747,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE5"/>
+  <dimension ref="A1:BE3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3185,130 +3928,130 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>49</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>904</v>
-      </c>
-      <c r="I2">
-        <v>56</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
       <c r="K2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0.327</v>
       </c>
       <c r="M2">
-        <v>0.397</v>
+        <v>0.347</v>
       </c>
       <c r="N2">
-        <v>0.243</v>
+        <v>0.082</v>
       </c>
       <c r="O2">
-        <v>0.362</v>
+        <v>0.377</v>
       </c>
       <c r="P2">
-        <v>0.571</v>
+        <v>0.408</v>
       </c>
       <c r="Q2">
-        <v>0.9330000000000001</v>
+        <v>0.786</v>
       </c>
       <c r="R2">
-        <v>13.9</v>
+        <v>18.9</v>
       </c>
       <c r="S2">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="T2">
-        <v>36.3</v>
+        <v>46.2</v>
       </c>
       <c r="U2">
-        <v>37.8</v>
+        <v>35.9</v>
       </c>
       <c r="V2">
-        <v>32.1</v>
+        <v>30.8</v>
       </c>
       <c r="W2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="X2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="Y2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Z2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="AA2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="AB2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AC2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AD2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE2">
-        <v>0.364</v>
+        <v>0.304</v>
       </c>
       <c r="AF2">
-        <v>0.425</v>
+        <v>0.377</v>
       </c>
       <c r="AG2">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="AH2">
-        <v>0.168</v>
+        <v>0.228</v>
       </c>
       <c r="AI2">
         <v>0.532</v>
       </c>
       <c r="AJ2">
-        <v>10.2</v>
+        <v>17.6</v>
       </c>
       <c r="AK2">
-        <v>10.2</v>
+        <v>4.7</v>
       </c>
       <c r="AL2">
-        <v>6.17</v>
+        <v>5.11</v>
       </c>
       <c r="AM2">
-        <v>46.3</v>
+        <v>39.1</v>
       </c>
       <c r="AN2">
-        <v>32.8</v>
+        <v>43.8</v>
       </c>
       <c r="AO2">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="AP2">
-        <v>36.8</v>
+        <v>34.4</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -3317,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>1</v>
@@ -3329,165 +4072,165 @@
         <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="AX2">
-        <v>-250</v>
+        <v>-205</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="BA2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="BB2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="BC2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="BD2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="BE2">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>904</v>
+        <v>250</v>
       </c>
       <c r="I3">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.327</v>
+        <v>0.3</v>
       </c>
       <c r="M3">
-        <v>0.397</v>
+        <v>0.435</v>
       </c>
       <c r="N3">
-        <v>0.243</v>
+        <v>0.292</v>
       </c>
       <c r="O3">
-        <v>0.362</v>
+        <v>0.431</v>
       </c>
       <c r="P3">
-        <v>0.571</v>
+        <v>0.592</v>
       </c>
       <c r="Q3">
-        <v>0.9330000000000001</v>
+        <v>1.023</v>
       </c>
       <c r="R3">
-        <v>13.9</v>
+        <v>17</v>
       </c>
       <c r="S3">
-        <v>4.5</v>
+        <v>18.6</v>
       </c>
       <c r="T3">
-        <v>36.3</v>
+        <v>44.2</v>
       </c>
       <c r="U3">
-        <v>37.8</v>
+        <v>37.1</v>
       </c>
       <c r="V3">
-        <v>32.1</v>
+        <v>40.7</v>
       </c>
       <c r="W3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="X3" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="Y3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Z3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AA3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="AB3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AC3">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="AD3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3">
-        <v>0.364</v>
+        <v>0.417</v>
       </c>
       <c r="AF3">
-        <v>0.425</v>
+        <v>0.512</v>
       </c>
       <c r="AG3">
-        <v>3.4</v>
+        <v>7.7</v>
       </c>
       <c r="AH3">
-        <v>0.168</v>
+        <v>0.333</v>
       </c>
       <c r="AI3">
-        <v>0.532</v>
+        <v>0.75</v>
       </c>
       <c r="AJ3">
-        <v>10.2</v>
+        <v>23.1</v>
       </c>
       <c r="AK3">
-        <v>10.2</v>
+        <v>7.7</v>
       </c>
       <c r="AL3">
-        <v>6.17</v>
+        <v>7.45</v>
       </c>
       <c r="AM3">
-        <v>46.3</v>
+        <v>16.7</v>
       </c>
       <c r="AN3">
-        <v>32.8</v>
+        <v>38.9</v>
       </c>
       <c r="AO3">
-        <v>13.6</v>
+        <v>28.6</v>
       </c>
       <c r="AP3">
-        <v>36.8</v>
+        <v>38.9</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -3499,380 +4242,34 @@
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="AX3">
-        <v>-250</v>
+        <v>-195</v>
       </c>
       <c r="AY3">
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="BA3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="BB3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="BC3" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="BD3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="BE3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57">
-      <c r="A4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>904</v>
-      </c>
-      <c r="I4">
-        <v>56</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>8</v>
-      </c>
-      <c r="L4">
-        <v>0.327</v>
-      </c>
-      <c r="M4">
-        <v>0.397</v>
-      </c>
-      <c r="N4">
-        <v>0.243</v>
-      </c>
-      <c r="O4">
-        <v>0.362</v>
-      </c>
-      <c r="P4">
-        <v>0.571</v>
-      </c>
-      <c r="Q4">
-        <v>0.9330000000000001</v>
-      </c>
-      <c r="R4">
-        <v>13.9</v>
-      </c>
-      <c r="S4">
-        <v>4.5</v>
-      </c>
-      <c r="T4">
-        <v>36.3</v>
-      </c>
-      <c r="U4">
-        <v>37.8</v>
-      </c>
-      <c r="V4">
-        <v>32.1</v>
-      </c>
-      <c r="W4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC4">
-        <v>88</v>
-      </c>
-      <c r="AD4">
-        <v>3</v>
-      </c>
-      <c r="AE4">
-        <v>0.364</v>
-      </c>
-      <c r="AF4">
-        <v>0.425</v>
-      </c>
-      <c r="AG4">
-        <v>3.4</v>
-      </c>
-      <c r="AH4">
-        <v>0.168</v>
-      </c>
-      <c r="AI4">
-        <v>0.532</v>
-      </c>
-      <c r="AJ4">
-        <v>10.2</v>
-      </c>
-      <c r="AK4">
-        <v>10.2</v>
-      </c>
-      <c r="AL4">
-        <v>6.17</v>
-      </c>
-      <c r="AM4">
-        <v>46.3</v>
-      </c>
-      <c r="AN4">
-        <v>32.8</v>
-      </c>
-      <c r="AO4">
-        <v>13.6</v>
-      </c>
-      <c r="AP4">
-        <v>36.8</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
-        <v>1</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX4">
-        <v>-250</v>
-      </c>
-      <c r="AY4">
-        <v>0.5</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BE4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57">
-      <c r="A5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>904</v>
-      </c>
-      <c r="I5">
-        <v>56</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <v>0.327</v>
-      </c>
-      <c r="M5">
-        <v>0.397</v>
-      </c>
-      <c r="N5">
-        <v>0.243</v>
-      </c>
-      <c r="O5">
-        <v>0.362</v>
-      </c>
-      <c r="P5">
-        <v>0.571</v>
-      </c>
-      <c r="Q5">
-        <v>0.9330000000000001</v>
-      </c>
-      <c r="R5">
-        <v>13.9</v>
-      </c>
-      <c r="S5">
-        <v>4.5</v>
-      </c>
-      <c r="T5">
-        <v>36.3</v>
-      </c>
-      <c r="U5">
-        <v>37.8</v>
-      </c>
-      <c r="V5">
-        <v>32.1</v>
-      </c>
-      <c r="W5" t="s">
-        <v>109</v>
-      </c>
-      <c r="X5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC5">
-        <v>88</v>
-      </c>
-      <c r="AD5">
-        <v>3</v>
-      </c>
-      <c r="AE5">
-        <v>0.364</v>
-      </c>
-      <c r="AF5">
-        <v>0.425</v>
-      </c>
-      <c r="AG5">
-        <v>3.4</v>
-      </c>
-      <c r="AH5">
-        <v>0.168</v>
-      </c>
-      <c r="AI5">
-        <v>0.532</v>
-      </c>
-      <c r="AJ5">
-        <v>10.2</v>
-      </c>
-      <c r="AK5">
-        <v>10.2</v>
-      </c>
-      <c r="AL5">
-        <v>6.17</v>
-      </c>
-      <c r="AM5">
-        <v>46.3</v>
-      </c>
-      <c r="AN5">
-        <v>32.8</v>
-      </c>
-      <c r="AO5">
-        <v>13.6</v>
-      </c>
-      <c r="AP5">
-        <v>36.8</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX5">
-        <v>-250</v>
-      </c>
-      <c r="AY5">
-        <v>0.5</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>108</v>
-      </c>
-      <c r="BE5">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="122">
   <si>
     <t>fg_name</t>
   </si>
@@ -196,37 +196,34 @@
     <t>Merge_Type</t>
   </si>
   <si>
+    <t>Christian Yelich</t>
+  </si>
+  <si>
+    <t>Brice Turang</t>
+  </si>
+  <si>
     <t>Bryan Reynolds</t>
   </si>
   <si>
-    <t>Luis Arraez</t>
+    <t>Francisco Lindor</t>
+  </si>
+  <si>
+    <t>Brandon Nimmo</t>
   </si>
   <si>
     <t>Bryce Harper</t>
   </si>
   <si>
+    <t>Lourdes Gurriel Jr</t>
+  </si>
+  <si>
     <t>Nico Hoerner</t>
   </si>
   <si>
-    <t>Shohei Ohtani</t>
-  </si>
-  <si>
-    <t>Freddie Freeman</t>
-  </si>
-  <si>
-    <t>Tommy Pham</t>
-  </si>
-  <si>
-    <t>George Springer</t>
-  </si>
-  <si>
-    <t>Gunnar Henderson</t>
-  </si>
-  <si>
-    <t>Jorge Soler</t>
-  </si>
-  <si>
-    <t>Matt Chapman</t>
+    <t>Matt Vierling</t>
+  </si>
+  <si>
+    <t>Colt Keith</t>
   </si>
   <si>
     <t>Salvador Perez</t>
@@ -235,178 +232,157 @@
     <t>Bobby Witt Jr</t>
   </si>
   <si>
-    <t>Yainer Diaz</t>
+    <t>Rafael Devers</t>
+  </si>
+  <si>
+    <t>Jarren Duran</t>
+  </si>
+  <si>
+    <t>Masataka Yoshida</t>
+  </si>
+  <si>
+    <t>Steven Kwan</t>
+  </si>
+  <si>
+    <t>Milwaukee Brewers</t>
   </si>
   <si>
     <t>Pittsburgh Pirates</t>
   </si>
   <si>
-    <t>San Diego Padres</t>
+    <t>New York Mets</t>
   </si>
   <si>
     <t>Philadelphia Phillies</t>
   </si>
   <si>
+    <t>Arizona Diamondbacks</t>
+  </si>
+  <si>
     <t>Chicago Cubs</t>
   </si>
   <si>
-    <t>Los Angeles Dodgers</t>
-  </si>
-  <si>
-    <t>Chicago White Sox</t>
-  </si>
-  <si>
-    <t>Toronto Blue Jays</t>
-  </si>
-  <si>
-    <t>Baltimore Orioles</t>
-  </si>
-  <si>
-    <t>San Francisco Giants</t>
+    <t>Detroit Tigers</t>
   </si>
   <si>
     <t>Kansas City Royals</t>
   </si>
   <si>
+    <t>Boston Red Sox</t>
+  </si>
+  <si>
+    <t>Cleveland Indians</t>
+  </si>
+  <si>
+    <t>Lourdes Gurriel Jr.</t>
+  </si>
+  <si>
+    <t>Bobby Witt Jr.</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>vs R</t>
+  </si>
+  <si>
+    <t>vs L</t>
+  </si>
+  <si>
+    <t>Javier Assad</t>
+  </si>
+  <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Yonny Chirinos</t>
+  </si>
+  <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Cole Ragans</t>
+  </si>
+  <si>
+    <t>Tobias Myers</t>
+  </si>
+  <si>
+    <t>Carlos Carrasco</t>
+  </si>
+  <si>
+    <t>Yilber Diaz</t>
+  </si>
+  <si>
+    <t>Austin Gomber</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>St. Louis Cardinals</t>
+  </si>
+  <si>
+    <t>Miami Marlins</t>
+  </si>
+  <si>
+    <t>Minnesota Twins</t>
+  </si>
+  <si>
+    <t>Colorado Rockies</t>
+  </si>
+  <si>
+    <t>RHP</t>
+  </si>
+  <si>
+    <t>LHP</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>draftkings</t>
+  </si>
+  <si>
+    <t>2024-07-23T00:06:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-22T22:40:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-22T23:41:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-23T00:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-22T22:41:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-23T00:40:00Z</t>
+  </si>
+  <si>
+    <t>Cleveland Guardians</t>
+  </si>
+  <si>
+    <t>Yordan Alvarez</t>
+  </si>
+  <si>
     <t>Houston Astros</t>
   </si>
   <si>
-    <t>Bobby Witt Jr.</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>vs R</t>
-  </si>
-  <si>
-    <t>vs L</t>
-  </si>
-  <si>
-    <t>Tyler Phillips</t>
-  </si>
-  <si>
-    <t>Ben Lively</t>
-  </si>
-  <si>
-    <t>Marco Gonzales</t>
-  </si>
-  <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
-    <t>Kutter Crawford</t>
-  </si>
-  <si>
-    <t>Seth Lugo</t>
-  </si>
-  <si>
-    <t>Keider Montero</t>
-  </si>
-  <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
-    <t>Ryan Feltner</t>
-  </si>
-  <si>
-    <t>Drew Thorpe</t>
-  </si>
-  <si>
-    <t>Bryan Woo</t>
-  </si>
-  <si>
-    <t>Cleveland Indians</t>
-  </si>
-  <si>
-    <t>Arizona Diamondbacks</t>
-  </si>
-  <si>
-    <t>Boston Red Sox</t>
-  </si>
-  <si>
-    <t>Detroit Tigers</t>
-  </si>
-  <si>
-    <t>Texas Rangers</t>
-  </si>
-  <si>
-    <t>Colorado Rockies</t>
-  </si>
-  <si>
-    <t>Seattle Mariners</t>
-  </si>
-  <si>
-    <t>RHP</t>
-  </si>
-  <si>
-    <t>LHP</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>draftkings</t>
-  </si>
-  <si>
-    <t>2024-07-20T22:41:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-20T23:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-20T23:16:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-20T19:07:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-20T23:06:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-21T00:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-21T01:40:00Z</t>
-  </si>
-  <si>
-    <t>Cleveland Guardians</t>
-  </si>
-  <si>
-    <t>Xavier Edwards</t>
-  </si>
-  <si>
-    <t>Juan Soto</t>
-  </si>
-  <si>
-    <t>Miami Marlins</t>
-  </si>
-  <si>
-    <t>New York Yankees</t>
-  </si>
-  <si>
-    <t>Christian Scott</t>
-  </si>
-  <si>
-    <t>Shane Baz</t>
-  </si>
-  <si>
-    <t>New York Mets</t>
-  </si>
-  <si>
-    <t>Tampa Bay Rays</t>
-  </si>
-  <si>
-    <t>2024-07-20T20:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-20T17:06:00Z</t>
+    <t>Hogan Harris</t>
+  </si>
+  <si>
+    <t>Oakland Athletics</t>
+  </si>
+  <si>
+    <t>2024-07-23T01:41:00Z</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE15"/>
+  <dimension ref="A1:BE17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1326,7 +1302,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1335,160 +1311,163 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.317</v>
+      </c>
+      <c r="M2">
+        <v>0.393</v>
+      </c>
+      <c r="N2">
+        <v>0.194</v>
+      </c>
+      <c r="O2">
+        <v>0.407</v>
+      </c>
+      <c r="P2">
+        <v>0.511</v>
+      </c>
+      <c r="Q2">
+        <v>0.918</v>
+      </c>
+      <c r="R2">
+        <v>19</v>
+      </c>
+      <c r="S2">
+        <v>12.9</v>
+      </c>
+      <c r="T2">
+        <v>50.4</v>
+      </c>
+      <c r="U2">
+        <v>27.7</v>
+      </c>
+      <c r="V2">
+        <v>34.8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2">
+        <v>200</v>
+      </c>
+      <c r="AD2">
+        <v>6</v>
+      </c>
+      <c r="AE2">
+        <v>0.223</v>
+      </c>
+      <c r="AF2">
+        <v>0.298</v>
+      </c>
+      <c r="AG2">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.293</v>
-      </c>
-      <c r="M2">
-        <v>0.379</v>
-      </c>
-      <c r="N2">
-        <v>0.22</v>
-      </c>
-      <c r="O2">
-        <v>0.368</v>
-      </c>
-      <c r="P2">
-        <v>0.513</v>
-      </c>
-      <c r="Q2">
-        <v>0.881</v>
-      </c>
-      <c r="R2">
-        <v>21.8</v>
-      </c>
-      <c r="S2">
-        <v>9.1</v>
-      </c>
-      <c r="T2">
-        <v>42.5</v>
-      </c>
-      <c r="U2">
-        <v>35.3</v>
-      </c>
-      <c r="V2">
-        <v>36.7</v>
-      </c>
-      <c r="W2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC2">
-        <v>12</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0.083</v>
-      </c>
-      <c r="AF2">
-        <v>0.105</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
       <c r="AH2">
-        <v>0.08400000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="AI2">
-        <v>0.167</v>
+        <v>0.377</v>
       </c>
       <c r="AJ2">
-        <v>33.3</v>
+        <v>24.5</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL2">
-        <v>0.98</v>
+        <v>3.99</v>
       </c>
       <c r="AM2">
-        <v>62.5</v>
+        <v>39.7</v>
       </c>
       <c r="AN2">
-        <v>25</v>
+        <v>42.1</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="AP2">
-        <v>25</v>
+        <v>28.5</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>1</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="s">
         <v>59</v>
       </c>
       <c r="AX2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AY2">
         <v>1.5</v>
       </c>
       <c r="AZ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB2" t="s">
         <v>110</v>
       </c>
-      <c r="BA2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>112</v>
-      </c>
       <c r="BC2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="BD2" t="s">
         <v>75</v>
       </c>
       <c r="BE2">
-        <v>-250</v>
+        <v>-245</v>
       </c>
     </row>
     <row r="3" spans="1:57">
@@ -1496,7 +1475,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -1505,118 +1484,118 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>0.328</v>
+        <v>0.271</v>
       </c>
       <c r="M3">
-        <v>0.336</v>
+        <v>0.318</v>
       </c>
       <c r="N3">
-        <v>0.083</v>
+        <v>0.12</v>
       </c>
       <c r="O3">
-        <v>0.357</v>
+        <v>0.332</v>
       </c>
       <c r="P3">
-        <v>0.411</v>
+        <v>0.391</v>
       </c>
       <c r="Q3">
-        <v>0.768</v>
+        <v>0.723</v>
       </c>
       <c r="R3">
-        <v>2.6</v>
+        <v>16.5</v>
       </c>
       <c r="S3">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T3">
-        <v>37.2</v>
+        <v>53.5</v>
       </c>
       <c r="U3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="V3">
-        <v>24.3</v>
+        <v>27.8</v>
       </c>
       <c r="W3" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB3" t="s">
         <v>91</v>
       </c>
-      <c r="X3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>89</v>
-      </c>
       <c r="AC3">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="AD3">
         <v>6</v>
       </c>
       <c r="AE3">
-        <v>0.197</v>
+        <v>0.223</v>
       </c>
       <c r="AF3">
-        <v>0.275</v>
+        <v>0.298</v>
       </c>
       <c r="AG3">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="AH3">
-        <v>0.17</v>
+        <v>0.154</v>
       </c>
       <c r="AI3">
-        <v>0.367</v>
+        <v>0.377</v>
       </c>
       <c r="AJ3">
-        <v>23.6</v>
+        <v>24.5</v>
       </c>
       <c r="AK3">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AL3">
-        <v>4.15</v>
+        <v>3.99</v>
       </c>
       <c r="AM3">
-        <v>36.4</v>
+        <v>39.7</v>
       </c>
       <c r="AN3">
-        <v>43.6</v>
+        <v>42.1</v>
       </c>
       <c r="AO3">
-        <v>12.5</v>
+        <v>11.3</v>
       </c>
       <c r="AP3">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1625,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1640,28 +1619,28 @@
         <v>60</v>
       </c>
       <c r="AX3">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AY3">
         <v>1.5</v>
       </c>
       <c r="AZ3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB3" t="s">
         <v>110</v>
       </c>
-      <c r="BA3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>113</v>
-      </c>
       <c r="BC3" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="BD3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BE3">
-        <v>-190</v>
+        <v>-225</v>
       </c>
     </row>
     <row r="4" spans="1:57">
@@ -1669,7 +1648,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1678,118 +1657,118 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>275</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>120</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.317</v>
+        <v>0.291</v>
       </c>
       <c r="M4">
-        <v>0.426</v>
+        <v>0.377</v>
       </c>
       <c r="N4">
-        <v>0.275</v>
+        <v>0.218</v>
       </c>
       <c r="O4">
-        <v>0.415</v>
+        <v>0.368</v>
       </c>
       <c r="P4">
-        <v>0.592</v>
+        <v>0.509</v>
       </c>
       <c r="Q4">
-        <v>1.007</v>
+        <v>0.877</v>
       </c>
       <c r="R4">
-        <v>25.4</v>
+        <v>21.9</v>
       </c>
       <c r="S4">
-        <v>14.8</v>
+        <v>9.4</v>
       </c>
       <c r="T4">
-        <v>36.5</v>
+        <v>42.8</v>
       </c>
       <c r="U4">
-        <v>40</v>
+        <v>35.1</v>
       </c>
       <c r="V4">
         <v>36.5</v>
       </c>
       <c r="W4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="Y4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Z4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AB4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC4">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="AD4">
         <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.167</v>
+        <v>0.2</v>
       </c>
       <c r="AF4">
-        <v>0.238</v>
+        <v>0.235</v>
       </c>
       <c r="AG4">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.166</v>
+        <v>0.053</v>
       </c>
       <c r="AI4">
-        <v>0.333</v>
+        <v>0.253</v>
       </c>
       <c r="AJ4">
-        <v>31.6</v>
+        <v>21.4</v>
       </c>
       <c r="AK4">
-        <v>5.3</v>
+        <v>7.8</v>
       </c>
       <c r="AL4">
-        <v>3.96</v>
+        <v>2.9</v>
       </c>
       <c r="AM4">
-        <v>66.7</v>
+        <v>74</v>
       </c>
       <c r="AN4">
-        <v>16.7</v>
+        <v>15.1</v>
       </c>
       <c r="AO4">
-        <v>50</v>
+        <v>9.1</v>
       </c>
       <c r="AP4">
-        <v>25</v>
+        <v>21.9</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1813,28 +1792,28 @@
         <v>61</v>
       </c>
       <c r="AX4">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AY4">
         <v>1.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB4" t="s">
         <v>111</v>
       </c>
-      <c r="BB4" t="s">
-        <v>112</v>
-      </c>
       <c r="BC4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="BD4" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="BE4">
-        <v>-230</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="5" spans="1:57">
@@ -1842,7 +1821,7 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1851,127 +1830,127 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0.243</v>
+      </c>
+      <c r="M5">
+        <v>0.327</v>
+      </c>
+      <c r="N5">
+        <v>0.173</v>
+      </c>
+      <c r="O5">
+        <v>0.329</v>
+      </c>
+      <c r="P5">
+        <v>0.415</v>
+      </c>
+      <c r="Q5">
+        <v>0.745</v>
+      </c>
+      <c r="R5">
+        <v>18.8</v>
+      </c>
+      <c r="S5">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="T5">
+        <v>35</v>
+      </c>
+      <c r="U5">
+        <v>42.9</v>
+      </c>
+      <c r="V5">
+        <v>33.6</v>
+      </c>
+      <c r="W5" t="s">
+        <v>94</v>
+      </c>
+      <c r="X5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC5">
+        <v>55</v>
+      </c>
+      <c r="AD5">
         <v>2</v>
       </c>
-      <c r="L5">
-        <v>0.258</v>
-      </c>
-      <c r="M5">
-        <v>0.311</v>
-      </c>
-      <c r="N5">
-        <v>0.104</v>
-      </c>
-      <c r="O5">
-        <v>0.335</v>
-      </c>
-      <c r="P5">
-        <v>0.362</v>
-      </c>
-      <c r="Q5">
-        <v>0.697</v>
-      </c>
-      <c r="R5">
-        <v>10.1</v>
-      </c>
-      <c r="S5">
-        <v>7.9</v>
-      </c>
-      <c r="T5">
-        <v>47.2</v>
-      </c>
-      <c r="U5">
-        <v>30.4</v>
-      </c>
-      <c r="V5">
-        <v>19.2</v>
-      </c>
-      <c r="W5" t="s">
-        <v>93</v>
-      </c>
-      <c r="X5" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC5">
-        <v>231</v>
-      </c>
-      <c r="AD5">
-        <v>8</v>
-      </c>
       <c r="AE5">
-        <v>0.189</v>
+        <v>0.353</v>
       </c>
       <c r="AF5">
-        <v>0.257</v>
+        <v>0.423</v>
       </c>
       <c r="AG5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AH5">
-        <v>0.161</v>
+        <v>0.235</v>
       </c>
       <c r="AI5">
-        <v>0.35</v>
+        <v>0.588</v>
       </c>
       <c r="AJ5">
-        <v>27.7</v>
+        <v>12.7</v>
       </c>
       <c r="AK5">
-        <v>5.6</v>
+        <v>7.3</v>
       </c>
       <c r="AL5">
-        <v>3.47</v>
+        <v>5.15</v>
       </c>
       <c r="AM5">
-        <v>40.8</v>
+        <v>34.9</v>
       </c>
       <c r="AN5">
-        <v>46.1</v>
+        <v>41.9</v>
       </c>
       <c r="AO5">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="AP5">
-        <v>24.3</v>
+        <v>27.3</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <v>0</v>
@@ -1986,28 +1965,28 @@
         <v>62</v>
       </c>
       <c r="AX5">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="AY5">
         <v>1.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB5" t="s">
         <v>111</v>
       </c>
-      <c r="BB5" t="s">
-        <v>114</v>
-      </c>
       <c r="BC5" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="BD5" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="BE5">
-        <v>-235</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="6" spans="1:57">
@@ -2024,58 +2003,58 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="I6">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.321</v>
+        <v>0.234</v>
       </c>
       <c r="M6">
-        <v>0.461</v>
+        <v>0.35</v>
       </c>
       <c r="N6">
-        <v>0.379</v>
+        <v>0.194</v>
       </c>
       <c r="O6">
-        <v>0.422</v>
+        <v>0.365</v>
       </c>
       <c r="P6">
-        <v>0.7</v>
+        <v>0.427</v>
       </c>
       <c r="Q6">
-        <v>1.122</v>
+        <v>0.792</v>
       </c>
       <c r="R6">
-        <v>23</v>
+        <v>25.1</v>
       </c>
       <c r="S6">
-        <v>14.1</v>
+        <v>15.4</v>
       </c>
       <c r="T6">
-        <v>37.6</v>
+        <v>45.1</v>
       </c>
       <c r="U6">
         <v>37.6</v>
       </c>
       <c r="V6">
-        <v>48.3</v>
+        <v>41.6</v>
       </c>
       <c r="W6" t="s">
         <v>94</v>
@@ -2084,7 +2063,7 @@
         <v>103</v>
       </c>
       <c r="Y6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s">
         <v>77</v>
@@ -2093,49 +2072,49 @@
         <v>94</v>
       </c>
       <c r="AB6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC6">
-        <v>231</v>
+        <v>55</v>
       </c>
       <c r="AD6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE6">
-        <v>0.19</v>
+        <v>0.353</v>
       </c>
       <c r="AF6">
-        <v>0.259</v>
+        <v>0.423</v>
       </c>
       <c r="AG6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AH6">
-        <v>0.143</v>
+        <v>0.235</v>
       </c>
       <c r="AI6">
-        <v>0.333</v>
+        <v>0.588</v>
       </c>
       <c r="AJ6">
-        <v>25.1</v>
+        <v>12.7</v>
       </c>
       <c r="AK6">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AL6">
-        <v>3.88</v>
+        <v>5.15</v>
       </c>
       <c r="AM6">
-        <v>29.3</v>
+        <v>34.9</v>
       </c>
       <c r="AN6">
-        <v>52</v>
+        <v>41.9</v>
       </c>
       <c r="AO6">
-        <v>10.3</v>
+        <v>11.1</v>
       </c>
       <c r="AP6">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2144,10 +2123,10 @@
         <v>1</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>1</v>
@@ -2159,28 +2138,28 @@
         <v>63</v>
       </c>
       <c r="AX6">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AY6">
         <v>1.5</v>
       </c>
       <c r="AZ6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB6" t="s">
         <v>111</v>
       </c>
-      <c r="BB6" t="s">
-        <v>114</v>
-      </c>
       <c r="BC6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BD6" t="s">
         <v>77</v>
       </c>
-      <c r="BD6" t="s">
-        <v>103</v>
-      </c>
       <c r="BE6">
-        <v>-285</v>
+        <v>-245</v>
       </c>
     </row>
     <row r="7" spans="1:57">
@@ -2188,7 +2167,7 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -2197,118 +2176,118 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.319</v>
+        <v>0.286</v>
       </c>
       <c r="M7">
-        <v>0.41</v>
+        <v>0.398</v>
       </c>
       <c r="N7">
-        <v>0.221</v>
+        <v>0.281</v>
       </c>
       <c r="O7">
-        <v>0.426</v>
+        <v>0.387</v>
       </c>
       <c r="P7">
-        <v>0.54</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.966</v>
+        <v>0.954</v>
       </c>
       <c r="R7">
-        <v>16.2</v>
+        <v>17.8</v>
       </c>
       <c r="S7">
-        <v>15.5</v>
+        <v>14.2</v>
       </c>
       <c r="T7">
-        <v>37.5</v>
+        <v>37.9</v>
       </c>
       <c r="U7">
-        <v>37.5</v>
+        <v>41.2</v>
       </c>
       <c r="V7">
-        <v>33.3</v>
+        <v>42.5</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Z7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC7">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="AD7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE7">
-        <v>0.19</v>
+        <v>0.209</v>
       </c>
       <c r="AF7">
-        <v>0.259</v>
+        <v>0.279</v>
       </c>
       <c r="AG7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AH7">
-        <v>0.143</v>
+        <v>0.184</v>
       </c>
       <c r="AI7">
-        <v>0.333</v>
+        <v>0.393</v>
       </c>
       <c r="AJ7">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="AK7">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="AL7">
-        <v>3.88</v>
+        <v>3.66</v>
       </c>
       <c r="AM7">
-        <v>29.3</v>
+        <v>30</v>
       </c>
       <c r="AN7">
-        <v>52</v>
+        <v>52.5</v>
       </c>
       <c r="AO7">
-        <v>10.3</v>
+        <v>9.5</v>
       </c>
       <c r="AP7">
-        <v>27.7</v>
+        <v>29.8</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2326,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7" t="s">
         <v>64</v>
@@ -2338,22 +2317,22 @@
         <v>1.5</v>
       </c>
       <c r="AZ7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BB7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="BC7" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="BD7" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="BE7">
-        <v>-280</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="8" spans="1:57">
@@ -2361,127 +2340,127 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.27</v>
+        <v>0.345</v>
       </c>
       <c r="M8">
-        <v>0.302</v>
+        <v>0.39</v>
       </c>
       <c r="N8">
-        <v>0.079</v>
+        <v>0.191</v>
       </c>
       <c r="O8">
-        <v>0.327</v>
+        <v>0.368</v>
       </c>
       <c r="P8">
-        <v>0.349</v>
+        <v>0.536</v>
       </c>
       <c r="Q8">
-        <v>0.676</v>
+        <v>0.905</v>
       </c>
       <c r="R8">
-        <v>20.5</v>
+        <v>19.3</v>
       </c>
       <c r="S8">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="T8">
-        <v>40.8</v>
+        <v>31.8</v>
       </c>
       <c r="U8">
-        <v>34</v>
+        <v>40.9</v>
       </c>
       <c r="V8">
-        <v>27.2</v>
+        <v>34.1</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
         <v>82</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AB8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC8">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="AD8">
         <v>7</v>
       </c>
       <c r="AE8">
-        <v>0.214</v>
+        <v>0.204</v>
       </c>
       <c r="AF8">
-        <v>0.269</v>
+        <v>0.265</v>
       </c>
       <c r="AG8">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AH8">
-        <v>0.15</v>
+        <v>0.112</v>
       </c>
       <c r="AI8">
-        <v>0.364</v>
+        <v>0.316</v>
       </c>
       <c r="AJ8">
-        <v>21.1</v>
+        <v>31.2</v>
       </c>
       <c r="AK8">
-        <v>4.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL8">
-        <v>3.66</v>
+        <v>2.7</v>
       </c>
       <c r="AM8">
-        <v>40.1</v>
+        <v>38.9</v>
       </c>
       <c r="AN8">
-        <v>43</v>
+        <v>39.4</v>
       </c>
       <c r="AO8">
-        <v>9.5</v>
+        <v>7.9</v>
       </c>
       <c r="AP8">
-        <v>32.8</v>
+        <v>30.4</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2496,13 +2475,13 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8">
         <v>0</v>
       </c>
       <c r="AW8" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AX8">
         <v>195</v>
@@ -2511,10 +2490,10 @@
         <v>1.5</v>
       </c>
       <c r="AZ8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BB8" t="s">
         <v>113</v>
@@ -2523,7 +2502,7 @@
         <v>82</v>
       </c>
       <c r="BD8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BE8">
         <v>-275</v>
@@ -2534,7 +2513,7 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -2543,124 +2522,124 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.258</v>
+      </c>
+      <c r="M9">
+        <v>0.313</v>
+      </c>
+      <c r="N9">
+        <v>0.106</v>
+      </c>
+      <c r="O9">
+        <v>0.336</v>
+      </c>
+      <c r="P9">
+        <v>0.364</v>
+      </c>
+      <c r="Q9">
+        <v>0.7</v>
+      </c>
+      <c r="R9">
+        <v>10.3</v>
+      </c>
+      <c r="S9">
+        <v>8.1</v>
+      </c>
+      <c r="T9">
+        <v>47</v>
+      </c>
+      <c r="U9">
+        <v>30.8</v>
+      </c>
+      <c r="V9">
+        <v>19.4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC9">
+        <v>149</v>
+      </c>
+      <c r="AD9">
         <v>7</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.232</v>
-      </c>
-      <c r="M9">
-        <v>0.301</v>
-      </c>
-      <c r="N9">
-        <v>0.144</v>
-      </c>
-      <c r="O9">
-        <v>0.305</v>
-      </c>
-      <c r="P9">
-        <v>0.376</v>
-      </c>
-      <c r="Q9">
-        <v>0.681</v>
-      </c>
-      <c r="R9">
-        <v>17.1</v>
-      </c>
-      <c r="S9">
-        <v>8.9</v>
-      </c>
-      <c r="T9">
-        <v>51.9</v>
-      </c>
-      <c r="U9">
-        <v>28.5</v>
-      </c>
-      <c r="V9">
-        <v>30.4</v>
-      </c>
-      <c r="W9" t="s">
-        <v>96</v>
-      </c>
-      <c r="X9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC9">
-        <v>45</v>
-      </c>
-      <c r="AD9">
-        <v>3</v>
-      </c>
       <c r="AE9">
-        <v>0.256</v>
+        <v>0.193</v>
       </c>
       <c r="AF9">
-        <v>0.4</v>
+        <v>0.262</v>
       </c>
       <c r="AG9">
-        <v>6.7</v>
+        <v>4.7</v>
       </c>
       <c r="AH9">
-        <v>0.334</v>
+        <v>0.171</v>
       </c>
       <c r="AI9">
-        <v>0.59</v>
+        <v>0.364</v>
       </c>
       <c r="AJ9">
-        <v>17.8</v>
+        <v>26.2</v>
       </c>
       <c r="AK9">
-        <v>13.3</v>
+        <v>4.7</v>
       </c>
       <c r="AL9">
-        <v>7.4</v>
+        <v>4.08</v>
       </c>
       <c r="AM9">
-        <v>32.3</v>
+        <v>33.7</v>
       </c>
       <c r="AN9">
-        <v>51.6</v>
+        <v>46.5</v>
       </c>
       <c r="AO9">
-        <v>18.8</v>
+        <v>14.9</v>
       </c>
       <c r="AP9">
-        <v>45.2</v>
+        <v>32.4</v>
       </c>
       <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS9">
         <v>1</v>
@@ -2678,28 +2657,28 @@
         <v>66</v>
       </c>
       <c r="AX9">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="AY9">
         <v>1.5</v>
       </c>
       <c r="AZ9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB9" t="s">
         <v>110</v>
       </c>
-      <c r="BA9" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>115</v>
-      </c>
       <c r="BC9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD9" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="BE9">
-        <v>-215</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="10" spans="1:57">
@@ -2707,7 +2686,7 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -2716,133 +2695,133 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.243</v>
+        <v>0.246</v>
       </c>
       <c r="M10">
-        <v>0.37</v>
+        <v>0.321</v>
       </c>
       <c r="N10">
-        <v>0.243</v>
+        <v>0.22</v>
       </c>
       <c r="O10">
-        <v>0.367</v>
+        <v>0.286</v>
       </c>
       <c r="P10">
-        <v>0.487</v>
+        <v>0.466</v>
       </c>
       <c r="Q10">
-        <v>0.854</v>
+        <v>0.752</v>
       </c>
       <c r="R10">
-        <v>28.1</v>
+        <v>24.6</v>
       </c>
       <c r="S10">
-        <v>14.4</v>
+        <v>4.8</v>
       </c>
       <c r="T10">
-        <v>49.4</v>
+        <v>39.2</v>
       </c>
       <c r="U10">
-        <v>35.1</v>
+        <v>40.4</v>
       </c>
       <c r="V10">
-        <v>33.8</v>
+        <v>28.3</v>
       </c>
       <c r="W10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X10" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Z10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC10">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE10">
-        <v>0.319</v>
+        <v>0.275</v>
       </c>
       <c r="AF10">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="AG10">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="AH10">
-        <v>0.098</v>
+        <v>0.24</v>
       </c>
       <c r="AI10">
-        <v>0.417</v>
+        <v>0.515</v>
       </c>
       <c r="AJ10">
-        <v>23.8</v>
+        <v>17.5</v>
       </c>
       <c r="AK10">
-        <v>10</v>
+        <v>4.4</v>
       </c>
       <c r="AL10">
-        <v>3.1</v>
+        <v>5.26</v>
       </c>
       <c r="AM10">
-        <v>32.1</v>
+        <v>41.6</v>
       </c>
       <c r="AN10">
-        <v>39.6</v>
+        <v>41.6</v>
       </c>
       <c r="AO10">
-        <v>4.8</v>
+        <v>15.8</v>
       </c>
       <c r="AP10">
-        <v>24.5</v>
+        <v>33.3</v>
       </c>
       <c r="AQ10">
         <v>1</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10">
         <v>1</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10">
         <v>0</v>
@@ -2851,28 +2830,28 @@
         <v>67</v>
       </c>
       <c r="AX10">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AY10">
         <v>1.5</v>
       </c>
       <c r="AZ10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BB10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC10" t="s">
         <v>116</v>
       </c>
-      <c r="BC10" t="s">
-        <v>105</v>
-      </c>
       <c r="BD10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BE10">
-        <v>-265</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="11" spans="1:57">
@@ -2892,64 +2871,64 @@
         <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.213</v>
+        <v>0.25</v>
       </c>
       <c r="M11">
-        <v>0.283</v>
+        <v>0.308</v>
       </c>
       <c r="N11">
-        <v>0.156</v>
+        <v>0.15</v>
       </c>
       <c r="O11">
-        <v>0.277</v>
+        <v>0.307</v>
       </c>
       <c r="P11">
-        <v>0.369</v>
+        <v>0.4</v>
       </c>
       <c r="Q11">
-        <v>0.646</v>
+        <v>0.707</v>
       </c>
       <c r="R11">
-        <v>26.4</v>
+        <v>17.7</v>
       </c>
       <c r="S11">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="T11">
-        <v>39.5</v>
+        <v>41.7</v>
       </c>
       <c r="U11">
-        <v>42</v>
+        <v>38.9</v>
       </c>
       <c r="V11">
-        <v>36.4</v>
+        <v>29.9</v>
       </c>
       <c r="W11" t="s">
         <v>98</v>
       </c>
       <c r="X11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y11" t="s">
         <v>106</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>108</v>
       </c>
       <c r="Z11" t="s">
         <v>81</v>
@@ -2958,52 +2937,52 @@
         <v>98</v>
       </c>
       <c r="AB11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC11">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="AD11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE11">
-        <v>0.256</v>
+        <v>0.271</v>
       </c>
       <c r="AF11">
-        <v>0.296</v>
+        <v>0.347</v>
       </c>
       <c r="AG11">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="AH11">
-        <v>0.101</v>
+        <v>0.187</v>
       </c>
       <c r="AI11">
-        <v>0.357</v>
+        <v>0.458</v>
       </c>
       <c r="AJ11">
-        <v>20.6</v>
+        <v>19.6</v>
       </c>
       <c r="AK11">
-        <v>6.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AL11">
-        <v>3.41</v>
+        <v>4.26</v>
       </c>
       <c r="AM11">
-        <v>50.6</v>
+        <v>53.5</v>
       </c>
       <c r="AN11">
-        <v>30.8</v>
+        <v>25.6</v>
       </c>
       <c r="AO11">
-        <v>8.300000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="AP11">
-        <v>26.9</v>
+        <v>28.5</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3018,34 +2997,34 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="s">
         <v>68</v>
       </c>
       <c r="AX11">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="AY11">
         <v>1.5</v>
       </c>
       <c r="AZ11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BB11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BC11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="BD11" t="s">
         <v>81</v>
       </c>
       <c r="BE11">
-        <v>-175</v>
+        <v>-245</v>
       </c>
     </row>
     <row r="12" spans="1:57">
@@ -3053,7 +3032,7 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -3062,133 +3041,133 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.209</v>
+        <v>0.276</v>
       </c>
       <c r="M12">
-        <v>0.294</v>
+        <v>0.348</v>
       </c>
       <c r="N12">
-        <v>0.153</v>
+        <v>0.2</v>
       </c>
       <c r="O12">
-        <v>0.298</v>
+        <v>0.339</v>
       </c>
       <c r="P12">
-        <v>0.362</v>
+        <v>0.476</v>
       </c>
       <c r="Q12">
-        <v>0.66</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R12">
-        <v>24.8</v>
+        <v>20.1</v>
       </c>
       <c r="S12">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="T12">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="U12">
-        <v>43.5</v>
+        <v>44</v>
       </c>
       <c r="V12">
-        <v>32.6</v>
+        <v>34.3</v>
       </c>
       <c r="W12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s">
         <v>106</v>
       </c>
-      <c r="Y12" t="s">
-        <v>108</v>
-      </c>
       <c r="Z12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC12">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="AD12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0.256</v>
+        <v>0.185</v>
       </c>
       <c r="AF12">
+        <v>0.217</v>
+      </c>
+      <c r="AG12">
+        <v>3.4</v>
+      </c>
+      <c r="AH12">
+        <v>0.111</v>
+      </c>
+      <c r="AI12">
         <v>0.296</v>
       </c>
-      <c r="AG12">
-        <v>1.8</v>
-      </c>
-      <c r="AH12">
-        <v>0.101</v>
-      </c>
-      <c r="AI12">
-        <v>0.357</v>
-      </c>
       <c r="AJ12">
-        <v>20.6</v>
+        <v>13.8</v>
       </c>
       <c r="AK12">
-        <v>6.9</v>
+        <v>3.4</v>
       </c>
       <c r="AL12">
-        <v>3.41</v>
+        <v>4.11</v>
       </c>
       <c r="AM12">
-        <v>50.6</v>
+        <v>45.8</v>
       </c>
       <c r="AN12">
-        <v>30.8</v>
+        <v>33.3</v>
       </c>
       <c r="AO12">
-        <v>8.300000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AP12">
-        <v>26.9</v>
+        <v>37.5</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12">
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12">
         <v>0</v>
@@ -3197,28 +3176,28 @@
         <v>69</v>
       </c>
       <c r="AX12">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="AY12">
         <v>1.5</v>
       </c>
       <c r="AZ12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BB12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="BC12" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="BD12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BE12">
-        <v>-150</v>
+        <v>-285</v>
       </c>
     </row>
     <row r="13" spans="1:57">
@@ -3229,73 +3208,73 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="I13">
         <v>14</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>0.28</v>
+        <v>0.335</v>
       </c>
       <c r="M13">
-        <v>0.353</v>
+        <v>0.407</v>
       </c>
       <c r="N13">
-        <v>0.203</v>
+        <v>0.243</v>
       </c>
       <c r="O13">
-        <v>0.343</v>
+        <v>0.388</v>
       </c>
       <c r="P13">
-        <v>0.483</v>
+        <v>0.578</v>
       </c>
       <c r="Q13">
-        <v>0.827</v>
+        <v>0.965</v>
       </c>
       <c r="R13">
-        <v>19.3</v>
+        <v>16.5</v>
       </c>
       <c r="S13">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="T13">
-        <v>30.7</v>
+        <v>37.5</v>
       </c>
       <c r="U13">
-        <v>44.2</v>
+        <v>45.1</v>
       </c>
       <c r="V13">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="W13" t="s">
         <v>99</v>
       </c>
       <c r="X13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Z13" t="s">
         <v>82</v>
@@ -3304,49 +3283,49 @@
         <v>99</v>
       </c>
       <c r="AB13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC13">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AD13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0.133</v>
+        <v>0.185</v>
       </c>
       <c r="AF13">
-        <v>0.228</v>
+        <v>0.217</v>
       </c>
       <c r="AG13">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="AH13">
-        <v>0.184</v>
+        <v>0.111</v>
       </c>
       <c r="AI13">
-        <v>0.317</v>
+        <v>0.296</v>
       </c>
       <c r="AJ13">
         <v>13.8</v>
       </c>
       <c r="AK13">
-        <v>7.7</v>
+        <v>3.4</v>
       </c>
       <c r="AL13">
-        <v>5.24</v>
+        <v>4.11</v>
       </c>
       <c r="AM13">
-        <v>43.1</v>
+        <v>45.8</v>
       </c>
       <c r="AN13">
-        <v>45.1</v>
+        <v>33.3</v>
       </c>
       <c r="AO13">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP13">
-        <v>29.4</v>
+        <v>37.5</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3367,19 +3346,19 @@
         <v>1</v>
       </c>
       <c r="AW13" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="AX13">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AY13">
         <v>1.5</v>
       </c>
       <c r="AZ13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BB13" t="s">
         <v>113</v>
@@ -3388,10 +3367,10 @@
         <v>82</v>
       </c>
       <c r="BD13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BE13">
-        <v>-270</v>
+        <v>-165</v>
       </c>
     </row>
     <row r="14" spans="1:57">
@@ -3399,172 +3378,172 @@
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>330</v>
+        <v>119</v>
       </c>
       <c r="I14">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.33</v>
+        <v>0.218</v>
       </c>
       <c r="M14">
-        <v>0.404</v>
+        <v>0.283</v>
       </c>
       <c r="N14">
-        <v>0.245</v>
+        <v>0.143</v>
       </c>
       <c r="O14">
-        <v>0.384</v>
+        <v>0.282</v>
       </c>
       <c r="P14">
-        <v>0.576</v>
+        <v>0.361</v>
       </c>
       <c r="Q14">
-        <v>0.959</v>
+        <v>0.644</v>
       </c>
       <c r="R14">
-        <v>16.7</v>
+        <v>37.4</v>
       </c>
       <c r="S14">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="T14">
-        <v>38.1</v>
+        <v>47.9</v>
       </c>
       <c r="U14">
-        <v>45.4</v>
+        <v>28.2</v>
       </c>
       <c r="V14">
-        <v>34.8</v>
+        <v>36.6</v>
       </c>
       <c r="W14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X14" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="Y14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC14">
         <v>82</v>
       </c>
-      <c r="AA14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC14">
-        <v>65</v>
-      </c>
       <c r="AD14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE14">
-        <v>0.133</v>
+        <v>0.225</v>
       </c>
       <c r="AF14">
-        <v>0.228</v>
+        <v>0.302</v>
       </c>
       <c r="AG14">
-        <v>4.6</v>
+        <v>7.3</v>
       </c>
       <c r="AH14">
-        <v>0.184</v>
+        <v>0.263</v>
       </c>
       <c r="AI14">
-        <v>0.317</v>
+        <v>0.488</v>
       </c>
       <c r="AJ14">
-        <v>13.8</v>
+        <v>18.3</v>
       </c>
       <c r="AK14">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="AL14">
-        <v>5.24</v>
+        <v>5.54</v>
       </c>
       <c r="AM14">
-        <v>43.1</v>
+        <v>45.5</v>
       </c>
       <c r="AN14">
-        <v>45.1</v>
+        <v>42.4</v>
       </c>
       <c r="AO14">
-        <v>13</v>
+        <v>21.4</v>
       </c>
       <c r="AP14">
-        <v>29.4</v>
+        <v>37.9</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AX14">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="AY14">
         <v>1.5</v>
       </c>
       <c r="AZ14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BB14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BC14" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="BD14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="BE14">
-        <v>-170</v>
+        <v>-195</v>
       </c>
     </row>
     <row r="15" spans="1:57">
@@ -3584,64 +3563,64 @@
         <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
         <v>6</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.296</v>
+        <v>0.264</v>
       </c>
       <c r="M15">
-        <v>0.32</v>
+        <v>0.306</v>
       </c>
       <c r="N15">
-        <v>0.138</v>
+        <v>0.078</v>
       </c>
       <c r="O15">
-        <v>0.313</v>
+        <v>0.338</v>
       </c>
       <c r="P15">
-        <v>0.433</v>
+        <v>0.341</v>
       </c>
       <c r="Q15">
-        <v>0.746</v>
+        <v>0.679</v>
       </c>
       <c r="R15">
-        <v>15.4</v>
+        <v>25.3</v>
       </c>
       <c r="S15">
-        <v>3.1</v>
+        <v>8.9</v>
       </c>
       <c r="T15">
-        <v>52.6</v>
+        <v>60.7</v>
       </c>
       <c r="U15">
-        <v>24.6</v>
+        <v>22.5</v>
       </c>
       <c r="V15">
-        <v>30.8</v>
+        <v>28.7</v>
       </c>
       <c r="W15" t="s">
         <v>100</v>
       </c>
       <c r="X15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y15" t="s">
         <v>107</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>108</v>
       </c>
       <c r="Z15" t="s">
         <v>83</v>
@@ -3650,55 +3629,55 @@
         <v>100</v>
       </c>
       <c r="AB15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC15">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE15">
-        <v>0.171</v>
+        <v>0.225</v>
       </c>
       <c r="AF15">
-        <v>0.177</v>
+        <v>0.302</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AH15">
-        <v>0.015</v>
+        <v>0.263</v>
       </c>
       <c r="AI15">
-        <v>0.186</v>
+        <v>0.488</v>
       </c>
       <c r="AJ15">
-        <v>23</v>
+        <v>18.3</v>
       </c>
       <c r="AK15">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="AL15">
-        <v>1.91</v>
+        <v>5.54</v>
       </c>
       <c r="AM15">
-        <v>52.8</v>
+        <v>45.5</v>
       </c>
       <c r="AN15">
-        <v>34</v>
+        <v>42.4</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="AP15">
-        <v>16.7</v>
+        <v>37.9</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15">
         <v>1</v>
@@ -3716,28 +3695,374 @@
         <v>72</v>
       </c>
       <c r="AX15">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="AY15">
         <v>1.5</v>
       </c>
       <c r="AZ15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BB15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="BC15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BD15" t="s">
         <v>83</v>
       </c>
       <c r="BE15">
-        <v>-290</v>
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>46</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.152</v>
+      </c>
+      <c r="M16">
+        <v>0.236</v>
+      </c>
+      <c r="N16">
+        <v>0.13</v>
+      </c>
+      <c r="O16">
+        <v>0.235</v>
+      </c>
+      <c r="P16">
+        <v>0.283</v>
+      </c>
+      <c r="Q16">
+        <v>0.518</v>
+      </c>
+      <c r="R16">
+        <v>13.7</v>
+      </c>
+      <c r="S16">
+        <v>5.9</v>
+      </c>
+      <c r="T16">
+        <v>59</v>
+      </c>
+      <c r="U16">
+        <v>30.8</v>
+      </c>
+      <c r="V16">
+        <v>30.8</v>
+      </c>
+      <c r="W16" t="s">
+        <v>100</v>
+      </c>
+      <c r="X16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC16">
+        <v>82</v>
+      </c>
+      <c r="AD16">
+        <v>6</v>
+      </c>
+      <c r="AE16">
+        <v>0.225</v>
+      </c>
+      <c r="AF16">
+        <v>0.302</v>
+      </c>
+      <c r="AG16">
+        <v>7.3</v>
+      </c>
+      <c r="AH16">
+        <v>0.263</v>
+      </c>
+      <c r="AI16">
+        <v>0.488</v>
+      </c>
+      <c r="AJ16">
+        <v>18.3</v>
+      </c>
+      <c r="AK16">
+        <v>1.2</v>
+      </c>
+      <c r="AL16">
+        <v>5.54</v>
+      </c>
+      <c r="AM16">
+        <v>45.5</v>
+      </c>
+      <c r="AN16">
+        <v>42.4</v>
+      </c>
+      <c r="AO16">
+        <v>21.4</v>
+      </c>
+      <c r="AP16">
+        <v>37.9</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX16">
+        <v>170</v>
+      </c>
+      <c r="AY16">
+        <v>1.5</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE16">
+        <v>-235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>86</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.395</v>
+      </c>
+      <c r="M17">
+        <v>0.418</v>
+      </c>
+      <c r="N17">
+        <v>0.128</v>
+      </c>
+      <c r="O17">
+        <v>0.435</v>
+      </c>
+      <c r="P17">
+        <v>0.523</v>
+      </c>
+      <c r="Q17">
+        <v>0.958</v>
+      </c>
+      <c r="R17">
+        <v>12</v>
+      </c>
+      <c r="S17">
+        <v>6.5</v>
+      </c>
+      <c r="T17">
+        <v>42.5</v>
+      </c>
+      <c r="U17">
+        <v>32.9</v>
+      </c>
+      <c r="V17">
+        <v>34.7</v>
+      </c>
+      <c r="W17" t="s">
+        <v>101</v>
+      </c>
+      <c r="X17" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC17">
+        <v>79</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>0.181</v>
+      </c>
+      <c r="AF17">
+        <v>0.227</v>
+      </c>
+      <c r="AG17">
+        <v>1.3</v>
+      </c>
+      <c r="AH17">
+        <v>0.083</v>
+      </c>
+      <c r="AI17">
+        <v>0.264</v>
+      </c>
+      <c r="AJ17">
+        <v>31.6</v>
+      </c>
+      <c r="AK17">
+        <v>5.1</v>
+      </c>
+      <c r="AL17">
+        <v>2.25</v>
+      </c>
+      <c r="AM17">
+        <v>62.5</v>
+      </c>
+      <c r="AN17">
+        <v>20.8</v>
+      </c>
+      <c r="AO17">
+        <v>10</v>
+      </c>
+      <c r="AP17">
+        <v>14.6</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX17">
+        <v>180</v>
+      </c>
+      <c r="AY17">
+        <v>1.5</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE17">
+        <v>-250</v>
       </c>
     </row>
   </sheetData>
@@ -3747,7 +4072,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE3"/>
+  <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3928,130 +4253,130 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.327</v>
+        <v>0.353</v>
       </c>
       <c r="M2">
-        <v>0.347</v>
+        <v>0.419</v>
       </c>
       <c r="N2">
-        <v>0.082</v>
+        <v>0.227</v>
       </c>
       <c r="O2">
-        <v>0.377</v>
+        <v>0.41</v>
       </c>
       <c r="P2">
-        <v>0.408</v>
+        <v>0.58</v>
       </c>
       <c r="Q2">
-        <v>0.786</v>
+        <v>0.99</v>
       </c>
       <c r="R2">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="S2">
         <v>7.5</v>
       </c>
       <c r="T2">
-        <v>46.2</v>
+        <v>40</v>
       </c>
       <c r="U2">
-        <v>35.9</v>
+        <v>41.1</v>
       </c>
       <c r="V2">
-        <v>30.8</v>
+        <v>44.2</v>
       </c>
       <c r="W2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="X2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Y2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AA2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AB2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC2">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AD2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.304</v>
+        <v>0.306</v>
       </c>
       <c r="AF2">
-        <v>0.377</v>
+        <v>0.398</v>
       </c>
       <c r="AG2">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="AH2">
-        <v>0.228</v>
+        <v>0.166</v>
       </c>
       <c r="AI2">
-        <v>0.532</v>
+        <v>0.472</v>
       </c>
       <c r="AJ2">
-        <v>17.6</v>
+        <v>20.5</v>
       </c>
       <c r="AK2">
-        <v>4.7</v>
+        <v>18.2</v>
       </c>
       <c r="AL2">
-        <v>5.11</v>
+        <v>5.35</v>
       </c>
       <c r="AM2">
-        <v>39.1</v>
+        <v>55.6</v>
       </c>
       <c r="AN2">
-        <v>43.8</v>
+        <v>25.9</v>
       </c>
       <c r="AO2">
         <v>14.3</v>
       </c>
       <c r="AP2">
-        <v>34.4</v>
+        <v>29.6</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -4060,216 +4385,43 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AX2">
-        <v>-205</v>
+        <v>-265</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BA2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BB2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="BC2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BD2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="BE2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>250</v>
-      </c>
-      <c r="I3">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3</v>
-      </c>
-      <c r="M3">
-        <v>0.435</v>
-      </c>
-      <c r="N3">
-        <v>0.292</v>
-      </c>
-      <c r="O3">
-        <v>0.431</v>
-      </c>
-      <c r="P3">
-        <v>0.592</v>
-      </c>
-      <c r="Q3">
-        <v>1.023</v>
-      </c>
-      <c r="R3">
-        <v>17</v>
-      </c>
-      <c r="S3">
-        <v>18.6</v>
-      </c>
-      <c r="T3">
-        <v>44.2</v>
-      </c>
-      <c r="U3">
-        <v>37.1</v>
-      </c>
-      <c r="V3">
-        <v>40.7</v>
-      </c>
-      <c r="W3" t="s">
-        <v>125</v>
-      </c>
-      <c r="X3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC3">
-        <v>26</v>
-      </c>
-      <c r="AD3">
-        <v>2</v>
-      </c>
-      <c r="AE3">
-        <v>0.417</v>
-      </c>
-      <c r="AF3">
-        <v>0.512</v>
-      </c>
-      <c r="AG3">
-        <v>7.7</v>
-      </c>
-      <c r="AH3">
-        <v>0.333</v>
-      </c>
-      <c r="AI3">
-        <v>0.75</v>
-      </c>
-      <c r="AJ3">
-        <v>23.1</v>
-      </c>
-      <c r="AK3">
-        <v>7.7</v>
-      </c>
-      <c r="AL3">
-        <v>7.45</v>
-      </c>
-      <c r="AM3">
-        <v>16.7</v>
-      </c>
-      <c r="AN3">
-        <v>38.9</v>
-      </c>
-      <c r="AO3">
-        <v>28.6</v>
-      </c>
-      <c r="AP3">
-        <v>38.9</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX3">
-        <v>-195</v>
-      </c>
-      <c r="AY3">
-        <v>0.5</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>123</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE3">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="107">
   <si>
     <t>fg_name</t>
   </si>
@@ -196,40 +196,16 @@
     <t>Merge_Type</t>
   </si>
   <si>
-    <t>Christian Yelich</t>
-  </si>
-  <si>
-    <t>Brice Turang</t>
-  </si>
-  <si>
-    <t>Bryan Reynolds</t>
-  </si>
-  <si>
-    <t>Francisco Lindor</t>
-  </si>
-  <si>
-    <t>Brandon Nimmo</t>
-  </si>
-  <si>
-    <t>Bryce Harper</t>
-  </si>
-  <si>
     <t>Lourdes Gurriel Jr</t>
   </si>
   <si>
-    <t>Nico Hoerner</t>
-  </si>
-  <si>
-    <t>Matt Vierling</t>
+    <t>Corbin Carroll</t>
   </si>
   <si>
     <t>Colt Keith</t>
   </si>
   <si>
-    <t>Salvador Perez</t>
-  </si>
-  <si>
-    <t>Bobby Witt Jr</t>
+    <t>George Springer</t>
   </si>
   <si>
     <t>Rafael Devers</t>
@@ -241,100 +217,91 @@
     <t>Masataka Yoshida</t>
   </si>
   <si>
-    <t>Steven Kwan</t>
-  </si>
-  <si>
-    <t>Milwaukee Brewers</t>
-  </si>
-  <si>
-    <t>Pittsburgh Pirates</t>
-  </si>
-  <si>
-    <t>New York Mets</t>
-  </si>
-  <si>
-    <t>Philadelphia Phillies</t>
+    <t>Charlie Blackmon</t>
+  </si>
+  <si>
+    <t>Jordan Westburg</t>
+  </si>
+  <si>
+    <t>Maikel Garcia</t>
+  </si>
+  <si>
+    <t>Yainer Diaz</t>
   </si>
   <si>
     <t>Arizona Diamondbacks</t>
   </si>
   <si>
-    <t>Chicago Cubs</t>
-  </si>
-  <si>
     <t>Detroit Tigers</t>
   </si>
   <si>
+    <t>Toronto Blue Jays</t>
+  </si>
+  <si>
+    <t>Boston Red Sox</t>
+  </si>
+  <si>
+    <t>Colorado Rockies</t>
+  </si>
+  <si>
+    <t>Baltimore Orioles</t>
+  </si>
+  <si>
     <t>Kansas City Royals</t>
   </si>
   <si>
-    <t>Boston Red Sox</t>
+    <t>Houston Astros</t>
+  </si>
+  <si>
+    <t>Lourdes Gurriel Jr.</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>vs R</t>
+  </si>
+  <si>
+    <t>vs L</t>
+  </si>
+  <si>
+    <t>Alec Marsh</t>
+  </si>
+  <si>
+    <t>Xzavion Curry</t>
+  </si>
+  <si>
+    <t>Tyler Alexander</t>
+  </si>
+  <si>
+    <t>Ty Blach</t>
+  </si>
+  <si>
+    <t>Cooper Criswell</t>
+  </si>
+  <si>
+    <t>Kyle Tyler</t>
+  </si>
+  <si>
+    <t>J. Montgomery</t>
+  </si>
+  <si>
+    <t>Osvaldo Bido</t>
   </si>
   <si>
     <t>Cleveland Indians</t>
   </si>
   <si>
-    <t>Lourdes Gurriel Jr.</t>
-  </si>
-  <si>
-    <t>Bobby Witt Jr.</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>vs R</t>
-  </si>
-  <si>
-    <t>vs L</t>
-  </si>
-  <si>
-    <t>Javier Assad</t>
-  </si>
-  <si>
-    <t>Andre Pallante</t>
-  </si>
-  <si>
-    <t>Yonny Chirinos</t>
-  </si>
-  <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
-    <t>Cole Ragans</t>
-  </si>
-  <si>
-    <t>Tobias Myers</t>
-  </si>
-  <si>
-    <t>Carlos Carrasco</t>
-  </si>
-  <si>
-    <t>Yilber Diaz</t>
-  </si>
-  <si>
-    <t>Austin Gomber</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>St. Louis Cardinals</t>
+    <t>Tampa Bay Rays</t>
   </si>
   <si>
     <t>Miami Marlins</t>
   </si>
   <si>
-    <t>Minnesota Twins</t>
-  </si>
-  <si>
-    <t>Colorado Rockies</t>
+    <t>Oakland Athletics</t>
   </si>
   <si>
     <t>RHP</t>
@@ -343,46 +310,34 @@
     <t>LHP</t>
   </si>
   <si>
+    <t>Jordan Montgomery</t>
+  </si>
+  <si>
     <t>hits</t>
   </si>
   <si>
     <t>draftkings</t>
   </si>
   <si>
-    <t>2024-07-23T00:06:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-22T22:40:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-22T23:41:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-23T00:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-22T22:41:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-23T00:40:00Z</t>
+    <t>2024-07-24T00:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-23T22:41:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-23T23:08:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-24T00:41:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-24T01:41:00Z</t>
   </si>
   <si>
     <t>Cleveland Guardians</t>
   </si>
   <si>
-    <t>Yordan Alvarez</t>
-  </si>
-  <si>
-    <t>Houston Astros</t>
-  </si>
-  <si>
-    <t>Hogan Harris</t>
-  </si>
-  <si>
-    <t>Oakland Athletics</t>
-  </si>
-  <si>
-    <t>2024-07-23T01:41:00Z</t>
+    <t>Freddy Fermin</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE17"/>
+  <dimension ref="A1:BE12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1302,172 +1257,172 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>260</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
         <v>3</v>
-      </c>
-      <c r="H2">
-        <v>180</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>15</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.317</v>
+        <v>0.223</v>
       </c>
       <c r="M2">
-        <v>0.393</v>
+        <v>0.267</v>
       </c>
       <c r="N2">
-        <v>0.194</v>
+        <v>0.135</v>
       </c>
       <c r="O2">
-        <v>0.407</v>
+        <v>0.257</v>
       </c>
       <c r="P2">
-        <v>0.511</v>
+        <v>0.358</v>
       </c>
       <c r="Q2">
-        <v>0.918</v>
+        <v>0.615</v>
       </c>
       <c r="R2">
-        <v>19</v>
+        <v>20.7</v>
       </c>
       <c r="S2">
-        <v>12.9</v>
+        <v>3.6</v>
       </c>
       <c r="T2">
-        <v>50.4</v>
+        <v>38.8</v>
       </c>
       <c r="U2">
-        <v>27.7</v>
+        <v>43.2</v>
       </c>
       <c r="V2">
-        <v>34.8</v>
+        <v>33.5</v>
       </c>
       <c r="W2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="Z2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AB2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AC2">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="AD2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE2">
-        <v>0.223</v>
+        <v>0.262</v>
       </c>
       <c r="AF2">
-        <v>0.298</v>
+        <v>0.357</v>
       </c>
       <c r="AG2">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="AH2">
-        <v>0.154</v>
+        <v>0.248</v>
       </c>
       <c r="AI2">
-        <v>0.377</v>
+        <v>0.51</v>
       </c>
       <c r="AJ2">
-        <v>24.5</v>
+        <v>26.1</v>
       </c>
       <c r="AK2">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AL2">
-        <v>3.99</v>
+        <v>5.25</v>
       </c>
       <c r="AM2">
-        <v>39.7</v>
+        <v>35.9</v>
       </c>
       <c r="AN2">
-        <v>42.1</v>
+        <v>43.7</v>
       </c>
       <c r="AO2">
-        <v>11.3</v>
+        <v>20</v>
       </c>
       <c r="AP2">
-        <v>28.5</v>
+        <v>37.5</v>
       </c>
       <c r="AQ2">
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AX2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AY2">
         <v>1.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="BA2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="BB2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="BD2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BE2">
-        <v>-245</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="3" spans="1:57">
@@ -1475,7 +1430,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -1484,127 +1439,127 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="L3">
-        <v>0.271</v>
+        <v>0.221</v>
       </c>
       <c r="M3">
-        <v>0.318</v>
+        <v>0.303</v>
       </c>
       <c r="N3">
-        <v>0.12</v>
+        <v>0.149</v>
       </c>
       <c r="O3">
-        <v>0.332</v>
+        <v>0.315</v>
       </c>
       <c r="P3">
-        <v>0.391</v>
+        <v>0.369</v>
       </c>
       <c r="Q3">
-        <v>0.723</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R3">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="S3">
-        <v>8.199999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="T3">
-        <v>53.5</v>
+        <v>41</v>
       </c>
       <c r="U3">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="V3">
-        <v>27.8</v>
+        <v>32.7</v>
       </c>
       <c r="W3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="X3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="Z3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AB3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AC3">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="AD3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE3">
-        <v>0.223</v>
+        <v>0.228</v>
       </c>
       <c r="AF3">
-        <v>0.298</v>
+        <v>0.282</v>
       </c>
       <c r="AG3">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AH3">
-        <v>0.154</v>
+        <v>0.128</v>
       </c>
       <c r="AI3">
-        <v>0.377</v>
+        <v>0.356</v>
       </c>
       <c r="AJ3">
-        <v>24.5</v>
+        <v>19</v>
       </c>
       <c r="AK3">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="AL3">
-        <v>3.99</v>
+        <v>3.49</v>
       </c>
       <c r="AM3">
-        <v>39.7</v>
+        <v>36.9</v>
       </c>
       <c r="AN3">
-        <v>42.1</v>
+        <v>43.1</v>
       </c>
       <c r="AO3">
-        <v>11.3</v>
+        <v>5.8</v>
       </c>
       <c r="AP3">
-        <v>28.5</v>
+        <v>33.3</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1619,28 +1574,28 @@
         <v>60</v>
       </c>
       <c r="AX3">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="AY3">
         <v>1.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="BA3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="BB3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="BD3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BE3">
-        <v>-225</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="4" spans="1:57">
@@ -1648,7 +1603,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1657,163 +1612,163 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.25</v>
+      </c>
+      <c r="M4">
+        <v>0.313</v>
+      </c>
+      <c r="N4">
+        <v>0.159</v>
+      </c>
+      <c r="O4">
+        <v>0.309</v>
+      </c>
+      <c r="P4">
+        <v>0.409</v>
+      </c>
+      <c r="Q4">
+        <v>0.718</v>
+      </c>
+      <c r="R4">
+        <v>17.4</v>
+      </c>
+      <c r="S4">
+        <v>7.3</v>
+      </c>
+      <c r="T4">
+        <v>40.9</v>
+      </c>
+      <c r="U4">
+        <v>39.1</v>
+      </c>
+      <c r="V4">
+        <v>30.2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>84</v>
+      </c>
+      <c r="X4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC4">
+        <v>36</v>
+      </c>
+      <c r="AD4">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.291</v>
-      </c>
-      <c r="M4">
-        <v>0.377</v>
-      </c>
-      <c r="N4">
-        <v>0.218</v>
-      </c>
-      <c r="O4">
-        <v>0.368</v>
-      </c>
-      <c r="P4">
-        <v>0.509</v>
-      </c>
-      <c r="Q4">
-        <v>0.877</v>
-      </c>
-      <c r="R4">
-        <v>21.9</v>
-      </c>
-      <c r="S4">
-        <v>9.4</v>
-      </c>
-      <c r="T4">
-        <v>42.8</v>
-      </c>
-      <c r="U4">
-        <v>35.1</v>
-      </c>
-      <c r="V4">
-        <v>36.5</v>
-      </c>
-      <c r="W4" t="s">
-        <v>93</v>
-      </c>
-      <c r="X4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC4">
-        <v>103</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
       <c r="AE4">
-        <v>0.2</v>
+        <v>0.229</v>
       </c>
       <c r="AF4">
-        <v>0.235</v>
+        <v>0.334</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.053</v>
+        <v>0.314</v>
       </c>
       <c r="AI4">
-        <v>0.253</v>
+        <v>0.543</v>
       </c>
       <c r="AJ4">
-        <v>21.4</v>
+        <v>16.7</v>
       </c>
       <c r="AK4">
-        <v>7.8</v>
+        <v>2.8</v>
       </c>
       <c r="AL4">
-        <v>2.9</v>
+        <v>6.48</v>
       </c>
       <c r="AM4">
-        <v>74</v>
+        <v>20.7</v>
       </c>
       <c r="AN4">
-        <v>15.1</v>
+        <v>58.6</v>
       </c>
       <c r="AO4">
-        <v>9.1</v>
+        <v>17.6</v>
       </c>
       <c r="AP4">
-        <v>21.9</v>
+        <v>44.8</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="s">
         <v>61</v>
       </c>
       <c r="AX4">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AY4">
         <v>1.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="BA4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="BB4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BC4" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="BD4" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="BE4">
-        <v>-275</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="5" spans="1:57">
@@ -1821,7 +1776,7 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1830,118 +1785,118 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>284</v>
+        <v>71</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.243</v>
+        <v>0.197</v>
       </c>
       <c r="M5">
-        <v>0.327</v>
+        <v>0.301</v>
       </c>
       <c r="N5">
-        <v>0.173</v>
+        <v>0.155</v>
       </c>
       <c r="O5">
-        <v>0.329</v>
+        <v>0.318</v>
       </c>
       <c r="P5">
-        <v>0.415</v>
+        <v>0.352</v>
       </c>
       <c r="Q5">
-        <v>0.745</v>
+        <v>0.67</v>
       </c>
       <c r="R5">
         <v>18.8</v>
       </c>
       <c r="S5">
-        <v>9.800000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="T5">
-        <v>35</v>
+        <v>46.4</v>
       </c>
       <c r="U5">
         <v>42.9</v>
       </c>
       <c r="V5">
+        <v>33.9</v>
+      </c>
+      <c r="W5" t="s">
+        <v>85</v>
+      </c>
+      <c r="X5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC5">
+        <v>188</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>0.289</v>
+      </c>
+      <c r="AF5">
+        <v>0.365</v>
+      </c>
+      <c r="AG5">
+        <v>5.3</v>
+      </c>
+      <c r="AH5">
+        <v>0.237</v>
+      </c>
+      <c r="AI5">
+        <v>0.526</v>
+      </c>
+      <c r="AJ5">
+        <v>19.1</v>
+      </c>
+      <c r="AK5">
+        <v>5.9</v>
+      </c>
+      <c r="AL5">
+        <v>5.35</v>
+      </c>
+      <c r="AM5">
+        <v>29</v>
+      </c>
+      <c r="AN5">
+        <v>47.8</v>
+      </c>
+      <c r="AO5">
+        <v>15.2</v>
+      </c>
+      <c r="AP5">
         <v>33.6</v>
-      </c>
-      <c r="W5" t="s">
-        <v>94</v>
-      </c>
-      <c r="X5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC5">
-        <v>55</v>
-      </c>
-      <c r="AD5">
-        <v>2</v>
-      </c>
-      <c r="AE5">
-        <v>0.353</v>
-      </c>
-      <c r="AF5">
-        <v>0.423</v>
-      </c>
-      <c r="AG5">
-        <v>3.6</v>
-      </c>
-      <c r="AH5">
-        <v>0.235</v>
-      </c>
-      <c r="AI5">
-        <v>0.588</v>
-      </c>
-      <c r="AJ5">
-        <v>12.7</v>
-      </c>
-      <c r="AK5">
-        <v>7.3</v>
-      </c>
-      <c r="AL5">
-        <v>5.15</v>
-      </c>
-      <c r="AM5">
-        <v>34.9</v>
-      </c>
-      <c r="AN5">
-        <v>41.9</v>
-      </c>
-      <c r="AO5">
-        <v>11.1</v>
-      </c>
-      <c r="AP5">
-        <v>27.3</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1950,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5">
         <v>0</v>
@@ -1965,28 +1920,28 @@
         <v>62</v>
       </c>
       <c r="AX5">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AY5">
         <v>1.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="BA5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="BB5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="BC5" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="BD5" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="BE5">
-        <v>-260</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="6" spans="1:57">
@@ -1994,7 +1949,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -2003,124 +1958,124 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.211</v>
+      </c>
+      <c r="M6">
+        <v>0.275</v>
+      </c>
+      <c r="N6">
+        <v>0.138</v>
+      </c>
+      <c r="O6">
+        <v>0.274</v>
+      </c>
+      <c r="P6">
+        <v>0.35</v>
+      </c>
+      <c r="Q6">
+        <v>0.624</v>
+      </c>
+      <c r="R6">
+        <v>37</v>
+      </c>
+      <c r="S6">
+        <v>6.7</v>
+      </c>
+      <c r="T6">
+        <v>48.6</v>
+      </c>
+      <c r="U6">
+        <v>28.4</v>
+      </c>
+      <c r="V6">
+        <v>37.8</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC6">
+        <v>70</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AE6">
+        <v>0.212</v>
+      </c>
+      <c r="AF6">
+        <v>0.267</v>
+      </c>
+      <c r="AG6">
+        <v>4.3</v>
+      </c>
+      <c r="AH6">
+        <v>0.182</v>
+      </c>
+      <c r="AI6">
+        <v>0.394</v>
+      </c>
+      <c r="AJ6">
+        <v>11.4</v>
+      </c>
+      <c r="AK6">
+        <v>2.9</v>
+      </c>
+      <c r="AL6">
+        <v>4.67</v>
+      </c>
+      <c r="AM6">
+        <v>38.6</v>
+      </c>
+      <c r="AN6">
+        <v>43.9</v>
+      </c>
+      <c r="AO6">
         <v>12</v>
       </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0.234</v>
-      </c>
-      <c r="M6">
-        <v>0.35</v>
-      </c>
-      <c r="N6">
-        <v>0.194</v>
-      </c>
-      <c r="O6">
-        <v>0.365</v>
-      </c>
-      <c r="P6">
-        <v>0.427</v>
-      </c>
-      <c r="Q6">
-        <v>0.792</v>
-      </c>
-      <c r="R6">
-        <v>25.1</v>
-      </c>
-      <c r="S6">
-        <v>15.4</v>
-      </c>
-      <c r="T6">
-        <v>45.1</v>
-      </c>
-      <c r="U6">
-        <v>37.6</v>
-      </c>
-      <c r="V6">
-        <v>41.6</v>
-      </c>
-      <c r="W6" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC6">
-        <v>55</v>
-      </c>
-      <c r="AD6">
-        <v>2</v>
-      </c>
-      <c r="AE6">
-        <v>0.353</v>
-      </c>
-      <c r="AF6">
-        <v>0.423</v>
-      </c>
-      <c r="AG6">
-        <v>3.6</v>
-      </c>
-      <c r="AH6">
-        <v>0.235</v>
-      </c>
-      <c r="AI6">
-        <v>0.588</v>
-      </c>
-      <c r="AJ6">
-        <v>12.7</v>
-      </c>
-      <c r="AK6">
-        <v>7.3</v>
-      </c>
-      <c r="AL6">
-        <v>5.15</v>
-      </c>
-      <c r="AM6">
-        <v>34.9</v>
-      </c>
-      <c r="AN6">
-        <v>41.9</v>
-      </c>
-      <c r="AO6">
-        <v>11.1</v>
-      </c>
       <c r="AP6">
-        <v>27.3</v>
+        <v>31.7</v>
       </c>
       <c r="AQ6">
         <v>1</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>1</v>
@@ -2129,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <v>1</v>
@@ -2138,28 +2093,28 @@
         <v>63</v>
       </c>
       <c r="AX6">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="AY6">
         <v>1.5</v>
       </c>
       <c r="AZ6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="BA6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="BB6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="BC6" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="BD6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="BE6">
-        <v>-245</v>
+        <v>-195</v>
       </c>
     </row>
     <row r="7" spans="1:57">
@@ -2167,7 +2122,7 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -2176,163 +2131,163 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.286</v>
+        <v>0.265</v>
       </c>
       <c r="M7">
-        <v>0.398</v>
+        <v>0.31</v>
       </c>
       <c r="N7">
-        <v>0.281</v>
+        <v>0.091</v>
       </c>
       <c r="O7">
-        <v>0.387</v>
+        <v>0.338</v>
       </c>
       <c r="P7">
-        <v>0.5679999999999999</v>
+        <v>0.356</v>
       </c>
       <c r="Q7">
-        <v>0.954</v>
+        <v>0.694</v>
       </c>
       <c r="R7">
-        <v>17.8</v>
+        <v>24.8</v>
       </c>
       <c r="S7">
-        <v>14.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T7">
-        <v>37.9</v>
+        <v>60.9</v>
       </c>
       <c r="U7">
-        <v>41.2</v>
+        <v>22.8</v>
       </c>
       <c r="V7">
-        <v>42.5</v>
+        <v>28.9</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="Z7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="AB7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AC7">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="AD7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE7">
-        <v>0.209</v>
+        <v>0.212</v>
       </c>
       <c r="AF7">
-        <v>0.279</v>
+        <v>0.267</v>
       </c>
       <c r="AG7">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="AH7">
-        <v>0.184</v>
+        <v>0.182</v>
       </c>
       <c r="AI7">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="AJ7">
-        <v>25</v>
+        <v>11.4</v>
       </c>
       <c r="AK7">
-        <v>5.1</v>
+        <v>2.9</v>
       </c>
       <c r="AL7">
-        <v>3.66</v>
+        <v>4.67</v>
       </c>
       <c r="AM7">
-        <v>30</v>
+        <v>38.6</v>
       </c>
       <c r="AN7">
-        <v>52.5</v>
+        <v>43.9</v>
       </c>
       <c r="AO7">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AP7">
-        <v>29.8</v>
+        <v>31.7</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="s">
         <v>64</v>
       </c>
       <c r="AX7">
-        <v>195</v>
+        <v>-105</v>
       </c>
       <c r="AY7">
         <v>1.5</v>
       </c>
       <c r="AZ7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="BA7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="BB7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="BC7" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="BD7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="BE7">
-        <v>-270</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="8" spans="1:57">
@@ -2340,172 +2295,172 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>49</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.163</v>
+      </c>
+      <c r="M8">
+        <v>0.248</v>
+      </c>
+      <c r="N8">
+        <v>0.122</v>
+      </c>
+      <c r="O8">
+        <v>0.255</v>
+      </c>
+      <c r="P8">
+        <v>0.286</v>
+      </c>
+      <c r="Q8">
+        <v>0.54</v>
+      </c>
+      <c r="R8">
+        <v>14.5</v>
+      </c>
+      <c r="S8">
+        <v>7.3</v>
+      </c>
+      <c r="T8">
+        <v>56.1</v>
+      </c>
+      <c r="U8">
+        <v>29.3</v>
+      </c>
+      <c r="V8">
+        <v>29.3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC8">
+        <v>70</v>
+      </c>
+      <c r="AD8">
         <v>3</v>
       </c>
-      <c r="H8">
-        <v>110</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
+      <c r="AE8">
+        <v>0.212</v>
+      </c>
+      <c r="AF8">
+        <v>0.267</v>
+      </c>
+      <c r="AG8">
+        <v>4.3</v>
+      </c>
+      <c r="AH8">
+        <v>0.182</v>
+      </c>
+      <c r="AI8">
+        <v>0.394</v>
+      </c>
+      <c r="AJ8">
+        <v>11.4</v>
+      </c>
+      <c r="AK8">
+        <v>2.9</v>
+      </c>
+      <c r="AL8">
+        <v>4.67</v>
+      </c>
+      <c r="AM8">
+        <v>38.6</v>
+      </c>
+      <c r="AN8">
+        <v>43.9</v>
+      </c>
+      <c r="AO8">
+        <v>12</v>
+      </c>
+      <c r="AP8">
+        <v>31.7</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>1</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.345</v>
-      </c>
-      <c r="M8">
-        <v>0.39</v>
-      </c>
-      <c r="N8">
-        <v>0.191</v>
-      </c>
-      <c r="O8">
-        <v>0.368</v>
-      </c>
-      <c r="P8">
-        <v>0.536</v>
-      </c>
-      <c r="Q8">
-        <v>0.905</v>
-      </c>
-      <c r="R8">
-        <v>19.3</v>
-      </c>
-      <c r="S8">
-        <v>3.5</v>
-      </c>
-      <c r="T8">
-        <v>31.8</v>
-      </c>
-      <c r="U8">
-        <v>40.9</v>
-      </c>
-      <c r="V8">
-        <v>34.1</v>
-      </c>
-      <c r="W8" t="s">
-        <v>96</v>
-      </c>
-      <c r="X8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC8">
-        <v>385</v>
-      </c>
-      <c r="AD8">
-        <v>7</v>
-      </c>
-      <c r="AE8">
-        <v>0.204</v>
-      </c>
-      <c r="AF8">
-        <v>0.265</v>
-      </c>
-      <c r="AG8">
-        <v>1.8</v>
-      </c>
-      <c r="AH8">
-        <v>0.112</v>
-      </c>
-      <c r="AI8">
-        <v>0.316</v>
-      </c>
-      <c r="AJ8">
-        <v>31.2</v>
-      </c>
-      <c r="AK8">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AL8">
-        <v>2.7</v>
-      </c>
-      <c r="AM8">
-        <v>38.9</v>
-      </c>
-      <c r="AN8">
-        <v>39.4</v>
-      </c>
-      <c r="AO8">
-        <v>7.9</v>
-      </c>
-      <c r="AP8">
-        <v>30.4</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
       <c r="AT8">
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8">
         <v>0</v>
       </c>
       <c r="AW8" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AX8">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="AY8">
         <v>1.5</v>
       </c>
       <c r="AZ8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="BA8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="BB8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="BC8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="BD8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="BE8">
-        <v>-275</v>
+        <v>-235</v>
       </c>
     </row>
     <row r="9" spans="1:57">
@@ -2513,7 +2468,7 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -2522,127 +2477,127 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.238</v>
+      </c>
+      <c r="M9">
+        <v>0.314</v>
+      </c>
+      <c r="N9">
+        <v>0.168</v>
+      </c>
+      <c r="O9">
+        <v>0.315</v>
+      </c>
+      <c r="P9">
+        <v>0.407</v>
+      </c>
+      <c r="Q9">
+        <v>0.722</v>
+      </c>
+      <c r="R9">
+        <v>18.9</v>
+      </c>
+      <c r="S9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="T9">
+        <v>39.3</v>
+      </c>
+      <c r="U9">
+        <v>42.3</v>
+      </c>
+      <c r="V9">
+        <v>30.2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>87</v>
+      </c>
+      <c r="X9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC9">
+        <v>130</v>
+      </c>
+      <c r="AD9">
         <v>2</v>
       </c>
-      <c r="L9">
-        <v>0.258</v>
-      </c>
-      <c r="M9">
-        <v>0.313</v>
-      </c>
-      <c r="N9">
-        <v>0.106</v>
-      </c>
-      <c r="O9">
+      <c r="AE9">
+        <v>0.233</v>
+      </c>
+      <c r="AF9">
+        <v>0.283</v>
+      </c>
+      <c r="AG9">
+        <v>1.5</v>
+      </c>
+      <c r="AH9">
+        <v>0.103</v>
+      </c>
+      <c r="AI9">
         <v>0.336</v>
       </c>
-      <c r="P9">
-        <v>0.364</v>
-      </c>
-      <c r="Q9">
-        <v>0.7</v>
-      </c>
-      <c r="R9">
-        <v>10.3</v>
-      </c>
-      <c r="S9">
-        <v>8.1</v>
-      </c>
-      <c r="T9">
-        <v>47</v>
-      </c>
-      <c r="U9">
-        <v>30.8</v>
-      </c>
-      <c r="V9">
-        <v>19.4</v>
-      </c>
-      <c r="W9" t="s">
-        <v>97</v>
-      </c>
-      <c r="X9" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC9">
-        <v>149</v>
-      </c>
-      <c r="AD9">
-        <v>7</v>
-      </c>
-      <c r="AE9">
-        <v>0.193</v>
-      </c>
-      <c r="AF9">
-        <v>0.262</v>
-      </c>
-      <c r="AG9">
-        <v>4.7</v>
-      </c>
-      <c r="AH9">
-        <v>0.171</v>
-      </c>
-      <c r="AI9">
-        <v>0.364</v>
-      </c>
       <c r="AJ9">
-        <v>26.2</v>
+        <v>22.3</v>
       </c>
       <c r="AK9">
-        <v>4.7</v>
+        <v>7.7</v>
       </c>
       <c r="AL9">
-        <v>4.08</v>
+        <v>3.27</v>
       </c>
       <c r="AM9">
-        <v>33.7</v>
+        <v>50.6</v>
       </c>
       <c r="AN9">
-        <v>46.5</v>
+        <v>36</v>
       </c>
       <c r="AO9">
-        <v>14.9</v>
+        <v>6.3</v>
       </c>
       <c r="AP9">
-        <v>32.4</v>
+        <v>36</v>
       </c>
       <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -2663,22 +2618,22 @@
         <v>1.5</v>
       </c>
       <c r="AZ9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="BA9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="BB9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="BC9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="BD9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BE9">
-        <v>-240</v>
+        <v>-245</v>
       </c>
     </row>
     <row r="10" spans="1:57">
@@ -2686,7 +2641,7 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -2695,121 +2650,121 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.246</v>
+        <v>0.288</v>
       </c>
       <c r="M10">
-        <v>0.321</v>
+        <v>0.362</v>
       </c>
       <c r="N10">
-        <v>0.22</v>
+        <v>0.223</v>
       </c>
       <c r="O10">
-        <v>0.286</v>
+        <v>0.335</v>
       </c>
       <c r="P10">
-        <v>0.466</v>
+        <v>0.511</v>
       </c>
       <c r="Q10">
-        <v>0.752</v>
+        <v>0.846</v>
       </c>
       <c r="R10">
-        <v>24.6</v>
+        <v>19.4</v>
       </c>
       <c r="S10">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T10">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="U10">
-        <v>40.4</v>
+        <v>38.1</v>
       </c>
       <c r="V10">
-        <v>28.3</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB10" t="s">
         <v>81</v>
       </c>
-      <c r="AA10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>90</v>
-      </c>
       <c r="AC10">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="AD10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.275</v>
+        <v>0.167</v>
       </c>
       <c r="AF10">
-        <v>0.358</v>
+        <v>0.223</v>
       </c>
       <c r="AG10">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.24</v>
+        <v>0.041</v>
       </c>
       <c r="AI10">
-        <v>0.515</v>
+        <v>0.208</v>
       </c>
       <c r="AJ10">
-        <v>17.5</v>
+        <v>14.8</v>
       </c>
       <c r="AK10">
-        <v>4.4</v>
+        <v>7.4</v>
       </c>
       <c r="AL10">
-        <v>5.26</v>
+        <v>3.29</v>
       </c>
       <c r="AM10">
-        <v>41.6</v>
+        <v>70</v>
       </c>
       <c r="AN10">
-        <v>41.6</v>
+        <v>25</v>
       </c>
       <c r="AO10">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>33.3</v>
+        <v>20</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2821,10 +2776,10 @@
         <v>1</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="s">
         <v>67</v>
@@ -2836,22 +2791,22 @@
         <v>1.5</v>
       </c>
       <c r="AZ10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="BA10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="BB10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="BD10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BE10">
-        <v>-250</v>
+        <v>-255</v>
       </c>
     </row>
     <row r="11" spans="1:57">
@@ -2859,7 +2814,7 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -2868,118 +2823,118 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.25</v>
+        <v>0.237</v>
       </c>
       <c r="M11">
-        <v>0.308</v>
+        <v>0.303</v>
       </c>
       <c r="N11">
-        <v>0.15</v>
+        <v>0.197</v>
       </c>
       <c r="O11">
-        <v>0.307</v>
+        <v>0.275</v>
       </c>
       <c r="P11">
+        <v>0.434</v>
+      </c>
+      <c r="Q11">
+        <v>0.709</v>
+      </c>
+      <c r="R11">
+        <v>6.2</v>
+      </c>
+      <c r="S11">
+        <v>4.9</v>
+      </c>
+      <c r="T11">
+        <v>40</v>
+      </c>
+      <c r="U11">
+        <v>42.9</v>
+      </c>
+      <c r="V11">
+        <v>31.9</v>
+      </c>
+      <c r="W11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC11">
+        <v>251</v>
+      </c>
+      <c r="AD11">
+        <v>8</v>
+      </c>
+      <c r="AE11">
+        <v>0.338</v>
+      </c>
+      <c r="AF11">
         <v>0.4</v>
       </c>
-      <c r="Q11">
-        <v>0.707</v>
-      </c>
-      <c r="R11">
-        <v>17.7</v>
-      </c>
-      <c r="S11">
-        <v>7.1</v>
-      </c>
-      <c r="T11">
-        <v>41.7</v>
-      </c>
-      <c r="U11">
-        <v>38.9</v>
-      </c>
-      <c r="V11">
-        <v>29.9</v>
-      </c>
-      <c r="W11" t="s">
-        <v>98</v>
-      </c>
-      <c r="X11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC11">
-        <v>184</v>
-      </c>
-      <c r="AD11">
-        <v>5</v>
-      </c>
-      <c r="AE11">
-        <v>0.271</v>
-      </c>
-      <c r="AF11">
-        <v>0.347</v>
-      </c>
       <c r="AG11">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AH11">
-        <v>0.187</v>
+        <v>0.21</v>
       </c>
       <c r="AI11">
-        <v>0.458</v>
+        <v>0.548</v>
       </c>
       <c r="AJ11">
-        <v>19.6</v>
+        <v>13.5</v>
       </c>
       <c r="AK11">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AL11">
-        <v>4.26</v>
+        <v>4.95</v>
       </c>
       <c r="AM11">
-        <v>53.5</v>
+        <v>41.5</v>
       </c>
       <c r="AN11">
-        <v>25.6</v>
+        <v>35.4</v>
       </c>
       <c r="AO11">
-        <v>15.2</v>
+        <v>11.6</v>
       </c>
       <c r="AP11">
-        <v>28.5</v>
+        <v>38.3</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -3003,28 +2958,28 @@
         <v>68</v>
       </c>
       <c r="AX11">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AY11">
         <v>1.5</v>
       </c>
       <c r="AZ11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="BA11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="BB11" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="BC11" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="BD11" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="BE11">
-        <v>-245</v>
+        <v>-165</v>
       </c>
     </row>
     <row r="12" spans="1:57">
@@ -3032,7 +2987,7 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -3041,133 +2996,133 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
       <c r="H12">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="I12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.276</v>
+        <v>0.291</v>
       </c>
       <c r="M12">
-        <v>0.348</v>
+        <v>0.315</v>
       </c>
       <c r="N12">
-        <v>0.2</v>
+        <v>0.135</v>
       </c>
       <c r="O12">
-        <v>0.339</v>
+        <v>0.308</v>
       </c>
       <c r="P12">
-        <v>0.476</v>
+        <v>0.426</v>
       </c>
       <c r="Q12">
-        <v>0.8149999999999999</v>
+        <v>0.734</v>
       </c>
       <c r="R12">
-        <v>20.1</v>
+        <v>15.2</v>
       </c>
       <c r="S12">
-        <v>6.9</v>
+        <v>3</v>
       </c>
       <c r="T12">
+        <v>53</v>
+      </c>
+      <c r="U12">
+        <v>24.2</v>
+      </c>
+      <c r="V12">
+        <v>29.8</v>
+      </c>
+      <c r="W12" t="s">
+        <v>90</v>
+      </c>
+      <c r="X12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC12">
+        <v>50</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0.19</v>
+      </c>
+      <c r="AF12">
+        <v>0.268</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="AI12">
+        <v>0.262</v>
+      </c>
+      <c r="AJ12">
+        <v>26</v>
+      </c>
+      <c r="AK12">
+        <v>10</v>
+      </c>
+      <c r="AL12">
+        <v>2.98</v>
+      </c>
+      <c r="AM12">
         <v>31</v>
       </c>
-      <c r="U12">
-        <v>44</v>
-      </c>
-      <c r="V12">
-        <v>34.3</v>
-      </c>
-      <c r="W12" t="s">
-        <v>99</v>
-      </c>
-      <c r="X12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC12">
-        <v>29</v>
-      </c>
-      <c r="AD12">
+      <c r="AN12">
+        <v>37.9</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>20.7</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>1</v>
       </c>
-      <c r="AE12">
-        <v>0.185</v>
-      </c>
-      <c r="AF12">
-        <v>0.217</v>
-      </c>
-      <c r="AG12">
-        <v>3.4</v>
-      </c>
-      <c r="AH12">
-        <v>0.111</v>
-      </c>
-      <c r="AI12">
-        <v>0.296</v>
-      </c>
-      <c r="AJ12">
-        <v>13.8</v>
-      </c>
-      <c r="AK12">
-        <v>3.4</v>
-      </c>
-      <c r="AL12">
-        <v>4.11</v>
-      </c>
-      <c r="AM12">
-        <v>45.8</v>
-      </c>
-      <c r="AN12">
-        <v>33.3</v>
-      </c>
-      <c r="AO12">
-        <v>12.5</v>
-      </c>
-      <c r="AP12">
-        <v>37.5</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12">
         <v>0</v>
@@ -3176,893 +3131,28 @@
         <v>69</v>
       </c>
       <c r="AX12">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AY12">
         <v>1.5</v>
       </c>
       <c r="AZ12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="BA12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="BB12" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="BC12" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="BD12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BE12">
-        <v>-285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>334</v>
-      </c>
-      <c r="I13">
-        <v>14</v>
-      </c>
-      <c r="J13">
-        <v>18</v>
-      </c>
-      <c r="K13">
-        <v>7</v>
-      </c>
-      <c r="L13">
-        <v>0.335</v>
-      </c>
-      <c r="M13">
-        <v>0.407</v>
-      </c>
-      <c r="N13">
-        <v>0.243</v>
-      </c>
-      <c r="O13">
-        <v>0.388</v>
-      </c>
-      <c r="P13">
-        <v>0.578</v>
-      </c>
-      <c r="Q13">
-        <v>0.965</v>
-      </c>
-      <c r="R13">
-        <v>16.5</v>
-      </c>
-      <c r="S13">
-        <v>7.3</v>
-      </c>
-      <c r="T13">
-        <v>37.5</v>
-      </c>
-      <c r="U13">
-        <v>45.1</v>
-      </c>
-      <c r="V13">
-        <v>35</v>
-      </c>
-      <c r="W13" t="s">
-        <v>99</v>
-      </c>
-      <c r="X13" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC13">
-        <v>29</v>
-      </c>
-      <c r="AD13">
-        <v>1</v>
-      </c>
-      <c r="AE13">
-        <v>0.185</v>
-      </c>
-      <c r="AF13">
-        <v>0.217</v>
-      </c>
-      <c r="AG13">
-        <v>3.4</v>
-      </c>
-      <c r="AH13">
-        <v>0.111</v>
-      </c>
-      <c r="AI13">
-        <v>0.296</v>
-      </c>
-      <c r="AJ13">
-        <v>13.8</v>
-      </c>
-      <c r="AK13">
-        <v>3.4</v>
-      </c>
-      <c r="AL13">
-        <v>4.11</v>
-      </c>
-      <c r="AM13">
-        <v>45.8</v>
-      </c>
-      <c r="AN13">
-        <v>33.3</v>
-      </c>
-      <c r="AO13">
-        <v>12.5</v>
-      </c>
-      <c r="AP13">
-        <v>37.5</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>1</v>
-      </c>
-      <c r="AU13">
-        <v>1</v>
-      </c>
-      <c r="AV13">
-        <v>1</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX13">
-        <v>120</v>
-      </c>
-      <c r="AY13">
-        <v>1.5</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE13">
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>119</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.218</v>
-      </c>
-      <c r="M14">
-        <v>0.283</v>
-      </c>
-      <c r="N14">
-        <v>0.143</v>
-      </c>
-      <c r="O14">
-        <v>0.282</v>
-      </c>
-      <c r="P14">
-        <v>0.361</v>
-      </c>
-      <c r="Q14">
-        <v>0.644</v>
-      </c>
-      <c r="R14">
-        <v>37.4</v>
-      </c>
-      <c r="S14">
-        <v>6.9</v>
-      </c>
-      <c r="T14">
-        <v>47.9</v>
-      </c>
-      <c r="U14">
-        <v>28.2</v>
-      </c>
-      <c r="V14">
-        <v>36.6</v>
-      </c>
-      <c r="W14" t="s">
-        <v>100</v>
-      </c>
-      <c r="X14" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC14">
-        <v>82</v>
-      </c>
-      <c r="AD14">
-        <v>6</v>
-      </c>
-      <c r="AE14">
-        <v>0.225</v>
-      </c>
-      <c r="AF14">
-        <v>0.302</v>
-      </c>
-      <c r="AG14">
-        <v>7.3</v>
-      </c>
-      <c r="AH14">
-        <v>0.263</v>
-      </c>
-      <c r="AI14">
-        <v>0.488</v>
-      </c>
-      <c r="AJ14">
-        <v>18.3</v>
-      </c>
-      <c r="AK14">
-        <v>1.2</v>
-      </c>
-      <c r="AL14">
-        <v>5.54</v>
-      </c>
-      <c r="AM14">
-        <v>45.5</v>
-      </c>
-      <c r="AN14">
-        <v>42.4</v>
-      </c>
-      <c r="AO14">
-        <v>21.4</v>
-      </c>
-      <c r="AP14">
-        <v>37.9</v>
-      </c>
-      <c r="AQ14">
-        <v>1</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>1</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>1</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX14">
-        <v>145</v>
-      </c>
-      <c r="AY14">
-        <v>1.5</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>115</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE14">
-        <v>-195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>129</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.264</v>
-      </c>
-      <c r="M15">
-        <v>0.306</v>
-      </c>
-      <c r="N15">
-        <v>0.078</v>
-      </c>
-      <c r="O15">
-        <v>0.338</v>
-      </c>
-      <c r="P15">
-        <v>0.341</v>
-      </c>
-      <c r="Q15">
-        <v>0.679</v>
-      </c>
-      <c r="R15">
-        <v>25.3</v>
-      </c>
-      <c r="S15">
-        <v>8.9</v>
-      </c>
-      <c r="T15">
-        <v>60.7</v>
-      </c>
-      <c r="U15">
-        <v>22.5</v>
-      </c>
-      <c r="V15">
-        <v>28.7</v>
-      </c>
-      <c r="W15" t="s">
-        <v>100</v>
-      </c>
-      <c r="X15" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC15">
-        <v>82</v>
-      </c>
-      <c r="AD15">
-        <v>6</v>
-      </c>
-      <c r="AE15">
-        <v>0.225</v>
-      </c>
-      <c r="AF15">
-        <v>0.302</v>
-      </c>
-      <c r="AG15">
-        <v>7.3</v>
-      </c>
-      <c r="AH15">
-        <v>0.263</v>
-      </c>
-      <c r="AI15">
-        <v>0.488</v>
-      </c>
-      <c r="AJ15">
-        <v>18.3</v>
-      </c>
-      <c r="AK15">
-        <v>1.2</v>
-      </c>
-      <c r="AL15">
-        <v>5.54</v>
-      </c>
-      <c r="AM15">
-        <v>45.5</v>
-      </c>
-      <c r="AN15">
-        <v>42.4</v>
-      </c>
-      <c r="AO15">
-        <v>21.4</v>
-      </c>
-      <c r="AP15">
-        <v>37.9</v>
-      </c>
-      <c r="AQ15">
-        <v>1</v>
-      </c>
-      <c r="AR15">
-        <v>1</v>
-      </c>
-      <c r="AS15">
-        <v>1</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX15">
-        <v>110</v>
-      </c>
-      <c r="AY15">
-        <v>1.5</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>115</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE15">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>46</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0.152</v>
-      </c>
-      <c r="M16">
-        <v>0.236</v>
-      </c>
-      <c r="N16">
-        <v>0.13</v>
-      </c>
-      <c r="O16">
-        <v>0.235</v>
-      </c>
-      <c r="P16">
-        <v>0.283</v>
-      </c>
-      <c r="Q16">
-        <v>0.518</v>
-      </c>
-      <c r="R16">
-        <v>13.7</v>
-      </c>
-      <c r="S16">
-        <v>5.9</v>
-      </c>
-      <c r="T16">
-        <v>59</v>
-      </c>
-      <c r="U16">
-        <v>30.8</v>
-      </c>
-      <c r="V16">
-        <v>30.8</v>
-      </c>
-      <c r="W16" t="s">
-        <v>100</v>
-      </c>
-      <c r="X16" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC16">
-        <v>82</v>
-      </c>
-      <c r="AD16">
-        <v>6</v>
-      </c>
-      <c r="AE16">
-        <v>0.225</v>
-      </c>
-      <c r="AF16">
-        <v>0.302</v>
-      </c>
-      <c r="AG16">
-        <v>7.3</v>
-      </c>
-      <c r="AH16">
-        <v>0.263</v>
-      </c>
-      <c r="AI16">
-        <v>0.488</v>
-      </c>
-      <c r="AJ16">
-        <v>18.3</v>
-      </c>
-      <c r="AK16">
-        <v>1.2</v>
-      </c>
-      <c r="AL16">
-        <v>5.54</v>
-      </c>
-      <c r="AM16">
-        <v>45.5</v>
-      </c>
-      <c r="AN16">
-        <v>42.4</v>
-      </c>
-      <c r="AO16">
-        <v>21.4</v>
-      </c>
-      <c r="AP16">
-        <v>37.9</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>1</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX16">
-        <v>170</v>
-      </c>
-      <c r="AY16">
-        <v>1.5</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>115</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>105</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE16">
-        <v>-235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:57">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>86</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.395</v>
-      </c>
-      <c r="M17">
-        <v>0.418</v>
-      </c>
-      <c r="N17">
-        <v>0.128</v>
-      </c>
-      <c r="O17">
-        <v>0.435</v>
-      </c>
-      <c r="P17">
-        <v>0.523</v>
-      </c>
-      <c r="Q17">
-        <v>0.958</v>
-      </c>
-      <c r="R17">
-        <v>12</v>
-      </c>
-      <c r="S17">
-        <v>6.5</v>
-      </c>
-      <c r="T17">
-        <v>42.5</v>
-      </c>
-      <c r="U17">
-        <v>32.9</v>
-      </c>
-      <c r="V17">
-        <v>34.7</v>
-      </c>
-      <c r="W17" t="s">
-        <v>101</v>
-      </c>
-      <c r="X17" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC17">
-        <v>79</v>
-      </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
-      <c r="AE17">
-        <v>0.181</v>
-      </c>
-      <c r="AF17">
-        <v>0.227</v>
-      </c>
-      <c r="AG17">
-        <v>1.3</v>
-      </c>
-      <c r="AH17">
-        <v>0.083</v>
-      </c>
-      <c r="AI17">
-        <v>0.264</v>
-      </c>
-      <c r="AJ17">
-        <v>31.6</v>
-      </c>
-      <c r="AK17">
-        <v>5.1</v>
-      </c>
-      <c r="AL17">
-        <v>2.25</v>
-      </c>
-      <c r="AM17">
-        <v>62.5</v>
-      </c>
-      <c r="AN17">
-        <v>20.8</v>
-      </c>
-      <c r="AO17">
-        <v>10</v>
-      </c>
-      <c r="AP17">
-        <v>14.6</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>1</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX17">
-        <v>180</v>
-      </c>
-      <c r="AY17">
-        <v>1.5</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>108</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>116</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE17">
-        <v>-250</v>
+        <v>-260</v>
       </c>
     </row>
   </sheetData>
@@ -4253,31 +3343,31 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4286,142 +3376,142 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.353</v>
+        <v>0.37</v>
       </c>
       <c r="M2">
-        <v>0.419</v>
+        <v>0.397</v>
       </c>
       <c r="N2">
-        <v>0.227</v>
+        <v>0.111</v>
       </c>
       <c r="O2">
-        <v>0.41</v>
+        <v>0.433</v>
       </c>
       <c r="P2">
-        <v>0.58</v>
+        <v>0.481</v>
       </c>
       <c r="Q2">
-        <v>0.99</v>
+        <v>0.915</v>
       </c>
       <c r="R2">
-        <v>19.4</v>
+        <v>13.3</v>
       </c>
       <c r="S2">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="T2">
-        <v>40</v>
+        <v>48.9</v>
       </c>
       <c r="U2">
-        <v>41.1</v>
+        <v>28.9</v>
       </c>
       <c r="V2">
-        <v>44.2</v>
+        <v>34.8</v>
       </c>
       <c r="W2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="X2" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="AB2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AC2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="AD2">
+        <v>8</v>
+      </c>
+      <c r="AE2">
+        <v>0.338</v>
+      </c>
+      <c r="AF2">
+        <v>0.4</v>
+      </c>
+      <c r="AG2">
+        <v>3.2</v>
+      </c>
+      <c r="AH2">
+        <v>0.21</v>
+      </c>
+      <c r="AI2">
+        <v>0.548</v>
+      </c>
+      <c r="AJ2">
+        <v>13.5</v>
+      </c>
+      <c r="AK2">
+        <v>8</v>
+      </c>
+      <c r="AL2">
+        <v>4.95</v>
+      </c>
+      <c r="AM2">
+        <v>41.5</v>
+      </c>
+      <c r="AN2">
+        <v>35.4</v>
+      </c>
+      <c r="AO2">
+        <v>11.6</v>
+      </c>
+      <c r="AP2">
+        <v>38.3</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>1</v>
       </c>
-      <c r="AE2">
-        <v>0.306</v>
-      </c>
-      <c r="AF2">
-        <v>0.398</v>
-      </c>
-      <c r="AG2">
-        <v>2.3</v>
-      </c>
-      <c r="AH2">
-        <v>0.166</v>
-      </c>
-      <c r="AI2">
-        <v>0.472</v>
-      </c>
-      <c r="AJ2">
-        <v>20.5</v>
-      </c>
-      <c r="AK2">
-        <v>18.2</v>
-      </c>
-      <c r="AL2">
-        <v>5.35</v>
-      </c>
-      <c r="AM2">
-        <v>55.6</v>
-      </c>
-      <c r="AN2">
-        <v>25.9</v>
-      </c>
-      <c r="AO2">
-        <v>14.3</v>
-      </c>
-      <c r="AP2">
-        <v>29.6</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AX2">
-        <v>-265</v>
+        <v>-295</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="BA2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="BB2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="BC2" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="BD2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="BE2">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="131">
   <si>
     <t>fg_name</t>
   </si>
@@ -166,6 +166,15 @@
     <t>Date</t>
   </si>
   <si>
+    <t>commence_time</t>
+  </si>
+  <si>
+    <t>home_team</t>
+  </si>
+  <si>
+    <t>away_team</t>
+  </si>
+  <si>
     <t>Player</t>
   </si>
   <si>
@@ -181,31 +190,73 @@
     <t>bookmakers</t>
   </si>
   <si>
-    <t>commence_time</t>
-  </si>
-  <si>
-    <t>home_team</t>
-  </si>
-  <si>
-    <t>away_team</t>
-  </si>
-  <si>
     <t>Under Price</t>
   </si>
   <si>
     <t>Merge_Type</t>
   </si>
   <si>
+    <t>Rhys Hoskins</t>
+  </si>
+  <si>
     <t>Lourdes Gurriel Jr</t>
   </si>
   <si>
-    <t>Corbin Carroll</t>
+    <t>Manny Machado</t>
+  </si>
+  <si>
+    <t>Jurickson Profar</t>
+  </si>
+  <si>
+    <t>Kyle Schwarber</t>
+  </si>
+  <si>
+    <t>Garrett Stubbs</t>
+  </si>
+  <si>
+    <t>Nick Castellanos</t>
+  </si>
+  <si>
+    <t>Willi Castro</t>
+  </si>
+  <si>
+    <t>Max Kepler</t>
+  </si>
+  <si>
+    <t>Byron Buxton</t>
+  </si>
+  <si>
+    <t>Carlos Santana</t>
+  </si>
+  <si>
+    <t>Matt Wallner</t>
+  </si>
+  <si>
+    <t>Dansby Swanson</t>
+  </si>
+  <si>
+    <t>Mike Tauchman</t>
+  </si>
+  <si>
+    <t>Ian Happ</t>
+  </si>
+  <si>
+    <t>George Springer</t>
   </si>
   <si>
     <t>Colt Keith</t>
   </si>
   <si>
-    <t>George Springer</t>
+    <t>CJ Abrams</t>
+  </si>
+  <si>
+    <t>Jake Cave</t>
+  </si>
+  <si>
+    <t>Steven Kwan</t>
+  </si>
+  <si>
+    <t>Yordan Alvarez</t>
   </si>
   <si>
     <t>Rafael Devers</t>
@@ -214,130 +265,151 @@
     <t>Jarren Duran</t>
   </si>
   <si>
-    <t>Masataka Yoshida</t>
-  </si>
-  <si>
-    <t>Charlie Blackmon</t>
-  </si>
-  <si>
-    <t>Jordan Westburg</t>
-  </si>
-  <si>
-    <t>Maikel Garcia</t>
-  </si>
-  <si>
-    <t>Yainer Diaz</t>
+    <t>Ceddanne Rafaela</t>
+  </si>
+  <si>
+    <t>Milwaukee Brewers</t>
   </si>
   <si>
     <t>Arizona Diamondbacks</t>
   </si>
   <si>
+    <t>San Diego Padres</t>
+  </si>
+  <si>
+    <t>Philadelphia Phillies</t>
+  </si>
+  <si>
+    <t>Minnesota Twins</t>
+  </si>
+  <si>
+    <t>Chicago Cubs</t>
+  </si>
+  <si>
+    <t>Toronto Blue Jays</t>
+  </si>
+  <si>
     <t>Detroit Tigers</t>
   </si>
   <si>
-    <t>Toronto Blue Jays</t>
+    <t>Washington Nationals</t>
+  </si>
+  <si>
+    <t>Colorado Rockies</t>
+  </si>
+  <si>
+    <t>Cleveland Indians</t>
+  </si>
+  <si>
+    <t>Houston Astros</t>
   </si>
   <si>
     <t>Boston Red Sox</t>
   </si>
   <si>
-    <t>Colorado Rockies</t>
-  </si>
-  <si>
-    <t>Baltimore Orioles</t>
+    <t>Lourdes Gurriel Jr.</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>vs L</t>
+  </si>
+  <si>
+    <t>vs R</t>
+  </si>
+  <si>
+    <t>Justin Steele</t>
+  </si>
+  <si>
+    <t>Michael Wacha</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>David Festa</t>
+  </si>
+  <si>
+    <t>Aaron Nola</t>
+  </si>
+  <si>
+    <t>Jakob Junis</t>
+  </si>
+  <si>
+    <t>Zach Eflin</t>
+  </si>
+  <si>
+    <t>Tanner Bibee</t>
+  </si>
+  <si>
+    <t>Matt Waldron</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Cal Quantrill</t>
   </si>
   <si>
     <t>Kansas City Royals</t>
   </si>
   <si>
-    <t>Houston Astros</t>
-  </si>
-  <si>
-    <t>Lourdes Gurriel Jr.</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>vs R</t>
-  </si>
-  <si>
-    <t>vs L</t>
-  </si>
-  <si>
-    <t>Alec Marsh</t>
-  </si>
-  <si>
-    <t>Xzavion Curry</t>
-  </si>
-  <si>
-    <t>Tyler Alexander</t>
-  </si>
-  <si>
-    <t>Ty Blach</t>
-  </si>
-  <si>
-    <t>Cooper Criswell</t>
-  </si>
-  <si>
-    <t>Kyle Tyler</t>
-  </si>
-  <si>
-    <t>J. Montgomery</t>
-  </si>
-  <si>
-    <t>Osvaldo Bido</t>
-  </si>
-  <si>
-    <t>Cleveland Indians</t>
-  </si>
-  <si>
     <t>Tampa Bay Rays</t>
   </si>
   <si>
-    <t>Miami Marlins</t>
-  </si>
-  <si>
     <t>Oakland Athletics</t>
   </si>
   <si>
+    <t>LHP</t>
+  </si>
+  <si>
     <t>RHP</t>
   </si>
   <si>
-    <t>LHP</t>
-  </si>
-  <si>
-    <t>Jordan Montgomery</t>
+    <t>2024-07-24T18:21:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-25T00:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-24T22:46:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-24T17:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-24T23:08:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-24T22:41:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-24T19:10:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-24T19:37:00Z</t>
+  </si>
+  <si>
+    <t>Cleveland Guardians</t>
   </si>
   <si>
     <t>hits</t>
   </si>
   <si>
     <t>draftkings</t>
-  </si>
-  <si>
-    <t>2024-07-24T00:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-23T22:41:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-23T23:08:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-24T00:41:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-24T01:41:00Z</t>
-  </si>
-  <si>
-    <t>Cleveland Guardians</t>
-  </si>
-  <si>
-    <t>Freddy Fermin</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1145,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE12"/>
+  <dimension ref="A1:BE25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1257,172 +1329,172 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>260</v>
+        <v>56</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.223</v>
+        <v>0.196</v>
       </c>
       <c r="M2">
-        <v>0.267</v>
+        <v>0.308</v>
       </c>
       <c r="N2">
-        <v>0.135</v>
+        <v>0.232</v>
       </c>
       <c r="O2">
-        <v>0.257</v>
+        <v>0.299</v>
       </c>
       <c r="P2">
-        <v>0.358</v>
+        <v>0.429</v>
       </c>
       <c r="Q2">
-        <v>0.615</v>
+        <v>0.727</v>
       </c>
       <c r="R2">
-        <v>20.7</v>
+        <v>26.9</v>
       </c>
       <c r="S2">
-        <v>3.6</v>
+        <v>11.9</v>
       </c>
       <c r="T2">
-        <v>38.8</v>
+        <v>32.5</v>
       </c>
       <c r="U2">
-        <v>43.2</v>
+        <v>52.5</v>
       </c>
       <c r="V2">
-        <v>33.5</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" t="s">
         <v>83</v>
       </c>
-      <c r="X2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>70</v>
-      </c>
       <c r="AA2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC2">
+        <v>304</v>
+      </c>
+      <c r="AD2">
+        <v>7</v>
+      </c>
+      <c r="AE2">
+        <v>0.23</v>
+      </c>
+      <c r="AF2">
+        <v>0.277</v>
+      </c>
+      <c r="AG2">
+        <v>2.3</v>
+      </c>
+      <c r="AH2">
+        <v>0.134</v>
+      </c>
+      <c r="AI2">
+        <v>0.364</v>
+      </c>
+      <c r="AJ2">
+        <v>22.7</v>
+      </c>
+      <c r="AK2">
+        <v>4.9</v>
+      </c>
+      <c r="AL2">
+        <v>3.15</v>
+      </c>
+      <c r="AM2">
+        <v>40.8</v>
+      </c>
+      <c r="AN2">
+        <v>39</v>
+      </c>
+      <c r="AO2">
+        <v>8.4</v>
+      </c>
+      <c r="AP2">
+        <v>28.3</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY2" t="s">
         <v>83</v>
       </c>
-      <c r="AB2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC2">
-        <v>161</v>
-      </c>
-      <c r="AD2">
-        <v>9</v>
-      </c>
-      <c r="AE2">
-        <v>0.262</v>
-      </c>
-      <c r="AF2">
-        <v>0.357</v>
-      </c>
-      <c r="AG2">
-        <v>5.6</v>
-      </c>
-      <c r="AH2">
-        <v>0.248</v>
-      </c>
-      <c r="AI2">
-        <v>0.51</v>
-      </c>
-      <c r="AJ2">
-        <v>26.1</v>
-      </c>
-      <c r="AK2">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AL2">
-        <v>5.25</v>
-      </c>
-      <c r="AM2">
-        <v>35.9</v>
-      </c>
-      <c r="AN2">
-        <v>43.7</v>
-      </c>
-      <c r="AO2">
-        <v>20</v>
-      </c>
-      <c r="AP2">
-        <v>37.5</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX2">
-        <v>185</v>
-      </c>
-      <c r="AY2">
+      <c r="AZ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA2">
+        <v>145</v>
+      </c>
+      <c r="BB2">
         <v>1.5</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>100</v>
-      </c>
       <c r="BC2" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="BD2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="BE2">
-        <v>-260</v>
+        <v>-205</v>
       </c>
     </row>
     <row r="3" spans="1:57">
@@ -1430,133 +1502,133 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.221</v>
+        <v>0.224</v>
       </c>
       <c r="M3">
-        <v>0.303</v>
+        <v>0.268</v>
       </c>
       <c r="N3">
-        <v>0.149</v>
+        <v>0.133</v>
       </c>
       <c r="O3">
-        <v>0.315</v>
+        <v>0.258</v>
       </c>
       <c r="P3">
-        <v>0.369</v>
+        <v>0.357</v>
       </c>
       <c r="Q3">
-        <v>0.6840000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="R3">
-        <v>16.1</v>
+        <v>20.4</v>
       </c>
       <c r="S3">
-        <v>11.9</v>
+        <v>3.6</v>
       </c>
       <c r="T3">
-        <v>41</v>
+        <v>38.8</v>
       </c>
       <c r="U3">
-        <v>39</v>
+        <v>43.1</v>
       </c>
       <c r="V3">
-        <v>32.7</v>
+        <v>33.5</v>
       </c>
       <c r="W3" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="X3" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="Y3" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="Z3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="AA3" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="AB3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="AC3">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="AD3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE3">
-        <v>0.228</v>
+        <v>0.225</v>
       </c>
       <c r="AF3">
-        <v>0.282</v>
+        <v>0.268</v>
       </c>
       <c r="AG3">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AH3">
-        <v>0.128</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AI3">
-        <v>0.356</v>
+        <v>0.309</v>
       </c>
       <c r="AJ3">
-        <v>19</v>
+        <v>18.2</v>
       </c>
       <c r="AK3">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AL3">
-        <v>3.49</v>
+        <v>3.41</v>
       </c>
       <c r="AM3">
-        <v>36.9</v>
+        <v>50.6</v>
       </c>
       <c r="AN3">
-        <v>43.1</v>
+        <v>32.5</v>
       </c>
       <c r="AO3">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AP3">
-        <v>33.3</v>
+        <v>28.6</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -1571,31 +1643,31 @@
         <v>0</v>
       </c>
       <c r="AW3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX3">
-        <v>185</v>
-      </c>
-      <c r="AY3">
+        <v>121</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA3">
+        <v>200</v>
+      </c>
+      <c r="BB3">
         <v>1.5</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>100</v>
-      </c>
       <c r="BC3" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="BD3" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="BE3">
-        <v>-260</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="4" spans="1:57">
@@ -1603,7 +1675,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1612,124 +1684,124 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>264</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.25</v>
+        <v>0.244</v>
       </c>
       <c r="M4">
-        <v>0.313</v>
+        <v>0.322</v>
       </c>
       <c r="N4">
-        <v>0.159</v>
+        <v>0.167</v>
       </c>
       <c r="O4">
-        <v>0.309</v>
+        <v>0.34</v>
       </c>
       <c r="P4">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="Q4">
-        <v>0.718</v>
+        <v>0.751</v>
       </c>
       <c r="R4">
-        <v>17.4</v>
+        <v>21.4</v>
       </c>
       <c r="S4">
-        <v>7.3</v>
+        <v>12.6</v>
       </c>
       <c r="T4">
-        <v>40.9</v>
+        <v>38.2</v>
       </c>
       <c r="U4">
-        <v>39.1</v>
+        <v>42.6</v>
       </c>
       <c r="V4">
-        <v>30.2</v>
+        <v>27.9</v>
       </c>
       <c r="W4" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="X4" t="s">
         <v>91</v>
       </c>
       <c r="Y4" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="Z4" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AA4" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="AB4" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="AC4">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="AD4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE4">
-        <v>0.229</v>
+        <v>0.223</v>
       </c>
       <c r="AF4">
-        <v>0.334</v>
+        <v>0.288</v>
       </c>
       <c r="AG4">
-        <v>8.300000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="AH4">
-        <v>0.314</v>
+        <v>0.169</v>
       </c>
       <c r="AI4">
-        <v>0.543</v>
+        <v>0.392</v>
       </c>
       <c r="AJ4">
-        <v>16.7</v>
+        <v>19.3</v>
       </c>
       <c r="AK4">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="AL4">
-        <v>6.48</v>
+        <v>4.43</v>
       </c>
       <c r="AM4">
-        <v>20.7</v>
+        <v>38</v>
       </c>
       <c r="AN4">
-        <v>58.6</v>
+        <v>40.9</v>
       </c>
       <c r="AO4">
-        <v>17.6</v>
+        <v>12.9</v>
       </c>
       <c r="AP4">
-        <v>44.8</v>
+        <v>36.7</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -1744,31 +1816,31 @@
         <v>0</v>
       </c>
       <c r="AW4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>61</v>
       </c>
-      <c r="AX4">
-        <v>190</v>
-      </c>
-      <c r="AY4">
+      <c r="BA4">
+        <v>205</v>
+      </c>
+      <c r="BB4">
         <v>1.5</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>101</v>
-      </c>
       <c r="BC4" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="BD4" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="BE4">
-        <v>-270</v>
+        <v>-290</v>
       </c>
     </row>
     <row r="5" spans="1:57">
@@ -1776,7 +1848,7 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1785,163 +1857,163 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.197</v>
+        <v>0.34</v>
       </c>
       <c r="M5">
-        <v>0.301</v>
+        <v>0.419</v>
       </c>
       <c r="N5">
-        <v>0.155</v>
+        <v>0.208</v>
       </c>
       <c r="O5">
-        <v>0.318</v>
+        <v>0.426</v>
       </c>
       <c r="P5">
-        <v>0.352</v>
+        <v>0.547</v>
       </c>
       <c r="Q5">
-        <v>0.67</v>
+        <v>0.973</v>
       </c>
       <c r="R5">
-        <v>18.8</v>
+        <v>7.4</v>
       </c>
       <c r="S5">
-        <v>15.3</v>
+        <v>12.3</v>
       </c>
       <c r="T5">
-        <v>46.4</v>
+        <v>50</v>
       </c>
       <c r="U5">
-        <v>42.9</v>
+        <v>29.2</v>
       </c>
       <c r="V5">
-        <v>33.9</v>
+        <v>36.1</v>
       </c>
       <c r="W5" t="s">
+        <v>104</v>
+      </c>
+      <c r="X5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z5" t="s">
         <v>85</v>
       </c>
-      <c r="X5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>72</v>
-      </c>
       <c r="AA5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC5">
+        <v>280</v>
+      </c>
+      <c r="AD5">
+        <v>11</v>
+      </c>
+      <c r="AE5">
+        <v>0.223</v>
+      </c>
+      <c r="AF5">
+        <v>0.288</v>
+      </c>
+      <c r="AG5">
+        <v>3.9</v>
+      </c>
+      <c r="AH5">
+        <v>0.169</v>
+      </c>
+      <c r="AI5">
+        <v>0.392</v>
+      </c>
+      <c r="AJ5">
+        <v>19.3</v>
+      </c>
+      <c r="AK5">
+        <v>6.1</v>
+      </c>
+      <c r="AL5">
+        <v>4.43</v>
+      </c>
+      <c r="AM5">
+        <v>38</v>
+      </c>
+      <c r="AN5">
+        <v>40.9</v>
+      </c>
+      <c r="AO5">
+        <v>12.9</v>
+      </c>
+      <c r="AP5">
+        <v>36.7</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY5" t="s">
         <v>85</v>
       </c>
-      <c r="AB5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC5">
-        <v>188</v>
-      </c>
-      <c r="AD5">
-        <v>10</v>
-      </c>
-      <c r="AE5">
-        <v>0.289</v>
-      </c>
-      <c r="AF5">
-        <v>0.365</v>
-      </c>
-      <c r="AG5">
-        <v>5.3</v>
-      </c>
-      <c r="AH5">
-        <v>0.237</v>
-      </c>
-      <c r="AI5">
-        <v>0.526</v>
-      </c>
-      <c r="AJ5">
-        <v>19.1</v>
-      </c>
-      <c r="AK5">
-        <v>5.9</v>
-      </c>
-      <c r="AL5">
-        <v>5.35</v>
-      </c>
-      <c r="AM5">
-        <v>29</v>
-      </c>
-      <c r="AN5">
-        <v>47.8</v>
-      </c>
-      <c r="AO5">
-        <v>15.2</v>
-      </c>
-      <c r="AP5">
-        <v>33.6</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="s">
+      <c r="AZ5" t="s">
         <v>62</v>
       </c>
-      <c r="AX5">
-        <v>190</v>
-      </c>
-      <c r="AY5">
+      <c r="BA5">
+        <v>200</v>
+      </c>
+      <c r="BB5">
         <v>1.5</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>102</v>
-      </c>
       <c r="BC5" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="BD5" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="BE5">
-        <v>-270</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="6" spans="1:57">
@@ -1949,7 +2021,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1958,127 +2030,127 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.211</v>
+        <v>0.178</v>
       </c>
       <c r="M6">
-        <v>0.275</v>
+        <v>0.301</v>
       </c>
       <c r="N6">
-        <v>0.138</v>
+        <v>0.193</v>
       </c>
       <c r="O6">
-        <v>0.274</v>
+        <v>0.312</v>
       </c>
       <c r="P6">
-        <v>0.35</v>
+        <v>0.371</v>
       </c>
       <c r="Q6">
-        <v>0.624</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="R6">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="S6">
-        <v>6.7</v>
+        <v>16</v>
       </c>
       <c r="T6">
-        <v>48.6</v>
+        <v>37.7</v>
       </c>
       <c r="U6">
-        <v>28.4</v>
+        <v>47.1</v>
       </c>
       <c r="V6">
-        <v>37.8</v>
+        <v>44.2</v>
       </c>
       <c r="W6" t="s">
+        <v>105</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z6" t="s">
         <v>86</v>
       </c>
-      <c r="X6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>73</v>
-      </c>
       <c r="AA6" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="AB6" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AC6">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AD6">
         <v>3</v>
       </c>
       <c r="AE6">
-        <v>0.212</v>
+        <v>0.393</v>
       </c>
       <c r="AF6">
-        <v>0.267</v>
+        <v>0.537</v>
       </c>
       <c r="AG6">
-        <v>4.3</v>
+        <v>10.7</v>
       </c>
       <c r="AH6">
-        <v>0.182</v>
+        <v>0.5</v>
       </c>
       <c r="AI6">
-        <v>0.394</v>
+        <v>0.893</v>
       </c>
       <c r="AJ6">
-        <v>11.4</v>
+        <v>7.1</v>
       </c>
       <c r="AK6">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>4.67</v>
+        <v>9.31</v>
       </c>
       <c r="AM6">
-        <v>38.6</v>
+        <v>34.6</v>
       </c>
       <c r="AN6">
-        <v>43.9</v>
+        <v>50</v>
       </c>
       <c r="AO6">
-        <v>12</v>
+        <v>23.1</v>
       </c>
       <c r="AP6">
-        <v>31.7</v>
+        <v>26.9</v>
       </c>
       <c r="AQ6">
         <v>1</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -2090,31 +2162,31 @@
         <v>1</v>
       </c>
       <c r="AW6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>63</v>
       </c>
-      <c r="AX6">
-        <v>145</v>
-      </c>
-      <c r="AY6">
+      <c r="BA6">
+        <v>320</v>
+      </c>
+      <c r="BB6">
         <v>1.5</v>
       </c>
-      <c r="AZ6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>103</v>
-      </c>
       <c r="BC6" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="BD6" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="BE6">
-        <v>-195</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="7" spans="1:57">
@@ -2122,7 +2194,7 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -2131,118 +2203,118 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.265</v>
+        <v>0.184</v>
       </c>
       <c r="M7">
-        <v>0.31</v>
+        <v>0.242</v>
       </c>
       <c r="N7">
-        <v>0.091</v>
+        <v>0.066</v>
       </c>
       <c r="O7">
-        <v>0.338</v>
+        <v>0.271</v>
       </c>
       <c r="P7">
-        <v>0.356</v>
+        <v>0.25</v>
       </c>
       <c r="Q7">
-        <v>0.694</v>
+        <v>0.521</v>
       </c>
       <c r="R7">
-        <v>24.8</v>
+        <v>25.9</v>
       </c>
       <c r="S7">
-        <v>8.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="T7">
-        <v>60.9</v>
+        <v>34</v>
       </c>
       <c r="U7">
-        <v>22.8</v>
+        <v>37.7</v>
       </c>
       <c r="V7">
-        <v>28.9</v>
+        <v>13</v>
       </c>
       <c r="W7" t="s">
+        <v>105</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z7" t="s">
         <v>86</v>
       </c>
-      <c r="X7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>73</v>
-      </c>
       <c r="AA7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="AB7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AC7">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AD7">
         <v>3</v>
       </c>
       <c r="AE7">
-        <v>0.212</v>
+        <v>0.393</v>
       </c>
       <c r="AF7">
-        <v>0.267</v>
+        <v>0.537</v>
       </c>
       <c r="AG7">
-        <v>4.3</v>
+        <v>10.7</v>
       </c>
       <c r="AH7">
-        <v>0.182</v>
+        <v>0.5</v>
       </c>
       <c r="AI7">
-        <v>0.394</v>
+        <v>0.893</v>
       </c>
       <c r="AJ7">
-        <v>11.4</v>
+        <v>7.1</v>
       </c>
       <c r="AK7">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>4.67</v>
+        <v>9.31</v>
       </c>
       <c r="AM7">
-        <v>38.6</v>
+        <v>34.6</v>
       </c>
       <c r="AN7">
-        <v>43.9</v>
+        <v>50</v>
       </c>
       <c r="AO7">
-        <v>12</v>
+        <v>23.1</v>
       </c>
       <c r="AP7">
-        <v>31.7</v>
+        <v>26.9</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2251,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2263,31 +2335,31 @@
         <v>0</v>
       </c>
       <c r="AW7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>64</v>
       </c>
-      <c r="AX7">
-        <v>-105</v>
-      </c>
-      <c r="AY7">
+      <c r="BA7">
+        <v>320</v>
+      </c>
+      <c r="BB7">
         <v>1.5</v>
       </c>
-      <c r="AZ7" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>103</v>
-      </c>
       <c r="BC7" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="BD7" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="BE7">
-        <v>-130</v>
+        <v>-475</v>
       </c>
     </row>
     <row r="8" spans="1:57">
@@ -2295,7 +2367,7 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -2304,163 +2376,163 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
-        <v>0.163</v>
+        <v>0.23</v>
       </c>
       <c r="M8">
-        <v>0.248</v>
+        <v>0.29</v>
       </c>
       <c r="N8">
-        <v>0.122</v>
+        <v>0.142</v>
       </c>
       <c r="O8">
-        <v>0.255</v>
+        <v>0.288</v>
       </c>
       <c r="P8">
-        <v>0.286</v>
+        <v>0.372</v>
       </c>
       <c r="Q8">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="R8">
-        <v>14.5</v>
+        <v>21.6</v>
       </c>
       <c r="S8">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="T8">
-        <v>56.1</v>
+        <v>37.3</v>
       </c>
       <c r="U8">
-        <v>29.3</v>
+        <v>40.1</v>
       </c>
       <c r="V8">
-        <v>29.3</v>
+        <v>31.8</v>
       </c>
       <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z8" t="s">
         <v>86</v>
       </c>
-      <c r="X8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>73</v>
-      </c>
       <c r="AA8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC8">
+        <v>19</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0.278</v>
+      </c>
+      <c r="AF8">
+        <v>0.331</v>
+      </c>
+      <c r="AG8">
+        <v>5.3</v>
+      </c>
+      <c r="AH8">
+        <v>0.166</v>
+      </c>
+      <c r="AI8">
+        <v>0.444</v>
+      </c>
+      <c r="AJ8">
+        <v>31.6</v>
+      </c>
+      <c r="AK8">
+        <v>5.3</v>
+      </c>
+      <c r="AL8">
+        <v>4.06</v>
+      </c>
+      <c r="AM8">
+        <v>36.4</v>
+      </c>
+      <c r="AN8">
+        <v>36.4</v>
+      </c>
+      <c r="AO8">
+        <v>25</v>
+      </c>
+      <c r="AP8">
+        <v>25</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY8" t="s">
         <v>86</v>
       </c>
-      <c r="AB8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC8">
-        <v>70</v>
-      </c>
-      <c r="AD8">
-        <v>3</v>
-      </c>
-      <c r="AE8">
-        <v>0.212</v>
-      </c>
-      <c r="AF8">
-        <v>0.267</v>
-      </c>
-      <c r="AG8">
-        <v>4.3</v>
-      </c>
-      <c r="AH8">
-        <v>0.182</v>
-      </c>
-      <c r="AI8">
-        <v>0.394</v>
-      </c>
-      <c r="AJ8">
-        <v>11.4</v>
-      </c>
-      <c r="AK8">
-        <v>2.9</v>
-      </c>
-      <c r="AL8">
-        <v>4.67</v>
-      </c>
-      <c r="AM8">
-        <v>38.6</v>
-      </c>
-      <c r="AN8">
-        <v>43.9</v>
-      </c>
-      <c r="AO8">
-        <v>12</v>
-      </c>
-      <c r="AP8">
-        <v>31.7</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>1</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="s">
+      <c r="AZ8" t="s">
         <v>65</v>
       </c>
-      <c r="AX8">
-        <v>170</v>
-      </c>
-      <c r="AY8">
-        <v>1.5</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>103</v>
+      <c r="BA8">
+        <v>380</v>
+      </c>
+      <c r="BB8">
+        <v>3.5</v>
       </c>
       <c r="BC8" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="BD8" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="BE8">
-        <v>-235</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="9" spans="1:57">
@@ -2468,7 +2540,7 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -2477,163 +2549,163 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>0.238</v>
+        <v>0.235</v>
       </c>
       <c r="M9">
-        <v>0.314</v>
+        <v>0.321</v>
       </c>
       <c r="N9">
-        <v>0.168</v>
+        <v>0.136</v>
       </c>
       <c r="O9">
-        <v>0.315</v>
+        <v>0.343</v>
       </c>
       <c r="P9">
-        <v>0.407</v>
+        <v>0.371</v>
       </c>
       <c r="Q9">
-        <v>0.722</v>
+        <v>0.714</v>
       </c>
       <c r="R9">
-        <v>18.9</v>
+        <v>23.3</v>
       </c>
       <c r="S9">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T9">
+        <v>41.8</v>
+      </c>
+      <c r="U9">
+        <v>37</v>
+      </c>
+      <c r="V9">
+        <v>33.2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC9">
+        <v>253</v>
+      </c>
+      <c r="AD9">
+        <v>11</v>
+      </c>
+      <c r="AE9">
+        <v>0.215</v>
+      </c>
+      <c r="AF9">
+        <v>0.287</v>
+      </c>
+      <c r="AG9">
+        <v>4.3</v>
+      </c>
+      <c r="AH9">
+        <v>0.194</v>
+      </c>
+      <c r="AI9">
+        <v>0.409</v>
+      </c>
+      <c r="AJ9">
+        <v>21.7</v>
+      </c>
+      <c r="AK9">
+        <v>5.5</v>
+      </c>
+      <c r="AL9">
+        <v>4.3</v>
+      </c>
+      <c r="AM9">
+        <v>37.2</v>
+      </c>
+      <c r="AN9">
         <v>39.3</v>
       </c>
-      <c r="U9">
-        <v>42.3</v>
-      </c>
-      <c r="V9">
-        <v>30.2</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="AO9">
+        <v>15.3</v>
+      </c>
+      <c r="AP9">
+        <v>33.2</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX9" t="s">
         <v>87</v>
       </c>
-      <c r="X9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC9">
+      <c r="AY9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA9">
+        <v>180</v>
+      </c>
+      <c r="BB9">
+        <v>1.5</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD9" t="s">
         <v>130</v>
       </c>
-      <c r="AD9">
-        <v>2</v>
-      </c>
-      <c r="AE9">
-        <v>0.233</v>
-      </c>
-      <c r="AF9">
-        <v>0.283</v>
-      </c>
-      <c r="AG9">
-        <v>1.5</v>
-      </c>
-      <c r="AH9">
-        <v>0.103</v>
-      </c>
-      <c r="AI9">
-        <v>0.336</v>
-      </c>
-      <c r="AJ9">
-        <v>22.3</v>
-      </c>
-      <c r="AK9">
-        <v>7.7</v>
-      </c>
-      <c r="AL9">
-        <v>3.27</v>
-      </c>
-      <c r="AM9">
-        <v>50.6</v>
-      </c>
-      <c r="AN9">
-        <v>36</v>
-      </c>
-      <c r="AO9">
-        <v>6.3</v>
-      </c>
-      <c r="AP9">
-        <v>36</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>1</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX9">
-        <v>175</v>
-      </c>
-      <c r="AY9">
-        <v>1.5</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>73</v>
-      </c>
       <c r="BE9">
-        <v>-245</v>
+        <v>-255</v>
       </c>
     </row>
     <row r="10" spans="1:57">
@@ -2641,7 +2713,7 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -2650,118 +2722,118 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>211</v>
+      </c>
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="H10">
-        <v>264</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.261</v>
+      </c>
+      <c r="M10">
+        <v>0.317</v>
+      </c>
+      <c r="N10">
+        <v>0.142</v>
+      </c>
+      <c r="O10">
+        <v>0.322</v>
+      </c>
+      <c r="P10">
+        <v>0.403</v>
+      </c>
+      <c r="Q10">
+        <v>0.725</v>
+      </c>
+      <c r="R10">
+        <v>18.8</v>
+      </c>
+      <c r="S10">
+        <v>7.3</v>
+      </c>
+      <c r="T10">
+        <v>30.4</v>
+      </c>
+      <c r="U10">
+        <v>49.4</v>
+      </c>
+      <c r="V10">
+        <v>28.4</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC10">
+        <v>253</v>
+      </c>
+      <c r="AD10">
         <v>11</v>
       </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.288</v>
-      </c>
-      <c r="M10">
-        <v>0.362</v>
-      </c>
-      <c r="N10">
-        <v>0.223</v>
-      </c>
-      <c r="O10">
-        <v>0.335</v>
-      </c>
-      <c r="P10">
-        <v>0.511</v>
-      </c>
-      <c r="Q10">
-        <v>0.846</v>
-      </c>
-      <c r="R10">
-        <v>19.4</v>
-      </c>
-      <c r="S10">
-        <v>4.6</v>
-      </c>
-      <c r="T10">
-        <v>41</v>
-      </c>
-      <c r="U10">
-        <v>38.1</v>
-      </c>
-      <c r="V10">
-        <v>41</v>
-      </c>
-      <c r="W10" t="s">
-        <v>88</v>
-      </c>
-      <c r="X10" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC10">
-        <v>27</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
       <c r="AE10">
-        <v>0.167</v>
+        <v>0.215</v>
       </c>
       <c r="AF10">
-        <v>0.223</v>
+        <v>0.287</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AH10">
-        <v>0.041</v>
+        <v>0.194</v>
       </c>
       <c r="AI10">
-        <v>0.208</v>
+        <v>0.409</v>
       </c>
       <c r="AJ10">
-        <v>14.8</v>
+        <v>21.7</v>
       </c>
       <c r="AK10">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="AL10">
-        <v>3.29</v>
+        <v>4.3</v>
       </c>
       <c r="AM10">
-        <v>70</v>
+        <v>37.2</v>
       </c>
       <c r="AN10">
-        <v>25</v>
+        <v>39.3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="AP10">
-        <v>20</v>
+        <v>33.2</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2773,40 +2845,40 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>67</v>
       </c>
-      <c r="AX10">
-        <v>180</v>
-      </c>
-      <c r="AY10">
+      <c r="BA10">
+        <v>270</v>
+      </c>
+      <c r="BB10">
         <v>1.5</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>101</v>
-      </c>
       <c r="BC10" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="BD10" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="BE10">
-        <v>-255</v>
+        <v>-390</v>
       </c>
     </row>
     <row r="11" spans="1:57">
@@ -2814,7 +2886,7 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -2823,121 +2895,121 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.237</v>
+        <v>0.268</v>
       </c>
       <c r="M11">
-        <v>0.303</v>
+        <v>0.346</v>
       </c>
       <c r="N11">
-        <v>0.197</v>
+        <v>0.221</v>
       </c>
       <c r="O11">
-        <v>0.275</v>
+        <v>0.322</v>
       </c>
       <c r="P11">
-        <v>0.434</v>
+        <v>0.489</v>
       </c>
       <c r="Q11">
-        <v>0.709</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R11">
-        <v>6.2</v>
+        <v>26.4</v>
       </c>
       <c r="S11">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="T11">
-        <v>40</v>
+        <v>33.6</v>
       </c>
       <c r="U11">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="V11">
-        <v>31.9</v>
+        <v>39.4</v>
       </c>
       <c r="W11" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="X11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="Y11" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="Z11" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AA11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AB11" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AC11">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AD11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE11">
-        <v>0.338</v>
+        <v>0.225</v>
       </c>
       <c r="AF11">
-        <v>0.4</v>
+        <v>0.276</v>
       </c>
       <c r="AG11">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="AH11">
-        <v>0.21</v>
+        <v>0.123</v>
       </c>
       <c r="AI11">
-        <v>0.548</v>
+        <v>0.348</v>
       </c>
       <c r="AJ11">
-        <v>13.5</v>
+        <v>26.7</v>
       </c>
       <c r="AK11">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="AL11">
-        <v>4.95</v>
+        <v>3.07</v>
       </c>
       <c r="AM11">
-        <v>41.5</v>
+        <v>54.9</v>
       </c>
       <c r="AN11">
-        <v>35.4</v>
+        <v>25.9</v>
       </c>
       <c r="AO11">
-        <v>11.6</v>
+        <v>14.3</v>
       </c>
       <c r="AP11">
-        <v>38.3</v>
+        <v>23.5</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -2946,40 +3018,40 @@
         <v>0</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ11" t="s">
         <v>68</v>
       </c>
-      <c r="AX11">
-        <v>120</v>
-      </c>
-      <c r="AY11">
+      <c r="BA11">
+        <v>240</v>
+      </c>
+      <c r="BB11">
         <v>1.5</v>
       </c>
-      <c r="AZ11" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>100</v>
-      </c>
       <c r="BC11" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="BD11" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="BE11">
-        <v>-165</v>
+        <v>-340</v>
       </c>
     </row>
     <row r="12" spans="1:57">
@@ -2987,7 +3059,7 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -2996,162 +3068,2411 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>235</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.221</v>
+      </c>
+      <c r="M12">
+        <v>0.31</v>
+      </c>
+      <c r="N12">
+        <v>0.157</v>
+      </c>
+      <c r="O12">
+        <v>0.32</v>
+      </c>
+      <c r="P12">
+        <v>0.379</v>
+      </c>
+      <c r="Q12">
+        <v>0.698</v>
+      </c>
+      <c r="R12">
+        <v>16</v>
+      </c>
+      <c r="S12">
+        <v>11.5</v>
+      </c>
+      <c r="T12">
+        <v>36.5</v>
+      </c>
+      <c r="U12">
+        <v>46.4</v>
+      </c>
+      <c r="V12">
+        <v>30.2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC12">
+        <v>253</v>
+      </c>
+      <c r="AD12">
+        <v>11</v>
+      </c>
+      <c r="AE12">
+        <v>0.215</v>
+      </c>
+      <c r="AF12">
+        <v>0.287</v>
+      </c>
+      <c r="AG12">
+        <v>4.3</v>
+      </c>
+      <c r="AH12">
+        <v>0.194</v>
+      </c>
+      <c r="AI12">
+        <v>0.409</v>
+      </c>
+      <c r="AJ12">
+        <v>21.7</v>
+      </c>
+      <c r="AK12">
+        <v>5.5</v>
+      </c>
+      <c r="AL12">
+        <v>4.3</v>
+      </c>
+      <c r="AM12">
+        <v>37.2</v>
+      </c>
+      <c r="AN12">
+        <v>39.3</v>
+      </c>
+      <c r="AO12">
+        <v>15.3</v>
+      </c>
+      <c r="AP12">
+        <v>33.2</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA12">
+        <v>340</v>
+      </c>
+      <c r="BB12">
+        <v>1.5</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE12">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>48</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.25</v>
+      </c>
+      <c r="M13">
+        <v>0.384</v>
+      </c>
+      <c r="N13">
+        <v>0.271</v>
+      </c>
+      <c r="O13">
+        <v>0.373</v>
+      </c>
+      <c r="P13">
+        <v>0.521</v>
+      </c>
+      <c r="Q13">
+        <v>0.894</v>
+      </c>
+      <c r="R13">
+        <v>44.1</v>
+      </c>
+      <c r="S13">
+        <v>8.5</v>
+      </c>
+      <c r="T13">
+        <v>21.7</v>
+      </c>
+      <c r="U13">
+        <v>43.5</v>
+      </c>
+      <c r="V13">
+        <v>39.1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>106</v>
+      </c>
+      <c r="X13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC13">
+        <v>253</v>
+      </c>
+      <c r="AD13">
+        <v>11</v>
+      </c>
+      <c r="AE13">
+        <v>0.215</v>
+      </c>
+      <c r="AF13">
+        <v>0.287</v>
+      </c>
+      <c r="AG13">
+        <v>4.3</v>
+      </c>
+      <c r="AH13">
+        <v>0.194</v>
+      </c>
+      <c r="AI13">
+        <v>0.409</v>
+      </c>
+      <c r="AJ13">
+        <v>21.7</v>
+      </c>
+      <c r="AK13">
+        <v>5.5</v>
+      </c>
+      <c r="AL13">
+        <v>4.3</v>
+      </c>
+      <c r="AM13">
+        <v>37.2</v>
+      </c>
+      <c r="AN13">
+        <v>39.3</v>
+      </c>
+      <c r="AO13">
+        <v>15.3</v>
+      </c>
+      <c r="AP13">
+        <v>33.2</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA13">
+        <v>600</v>
+      </c>
+      <c r="BB13">
+        <v>1.5</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE13">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>267</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.213</v>
+      </c>
+      <c r="M14">
+        <v>0.267</v>
+      </c>
+      <c r="N14">
+        <v>0.112</v>
+      </c>
+      <c r="O14">
+        <v>0.277</v>
+      </c>
+      <c r="P14">
+        <v>0.326</v>
+      </c>
+      <c r="Q14">
+        <v>0.603</v>
+      </c>
+      <c r="R14">
+        <v>27.1</v>
+      </c>
+      <c r="S14">
+        <v>7.9</v>
+      </c>
+      <c r="T14">
+        <v>50.3</v>
+      </c>
+      <c r="U14">
+        <v>30.7</v>
+      </c>
+      <c r="V14">
+        <v>32.8</v>
+      </c>
+      <c r="W14" t="s">
+        <v>107</v>
+      </c>
+      <c r="X14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC14">
+        <v>45</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>0.262</v>
+      </c>
+      <c r="AF14">
+        <v>0.34</v>
+      </c>
+      <c r="AG14">
+        <v>4.4</v>
+      </c>
+      <c r="AH14">
+        <v>0.214</v>
+      </c>
+      <c r="AI14">
+        <v>0.476</v>
+      </c>
+      <c r="AJ14">
+        <v>17.8</v>
+      </c>
+      <c r="AK14">
+        <v>4.4</v>
+      </c>
+      <c r="AL14">
+        <v>4.92</v>
+      </c>
+      <c r="AM14">
+        <v>26.5</v>
+      </c>
+      <c r="AN14">
+        <v>47.1</v>
+      </c>
+      <c r="AO14">
+        <v>12.5</v>
+      </c>
+      <c r="AP14">
+        <v>32.4</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA14">
+        <v>-145</v>
+      </c>
+      <c r="BB14">
+        <v>1.5</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>187</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.246</v>
+      </c>
+      <c r="M15">
+        <v>0.327</v>
+      </c>
+      <c r="N15">
+        <v>0.134</v>
+      </c>
+      <c r="O15">
+        <v>0.352</v>
+      </c>
+      <c r="P15">
+        <v>0.38</v>
+      </c>
+      <c r="Q15">
+        <v>0.731</v>
+      </c>
+      <c r="R15">
+        <v>18.7</v>
+      </c>
+      <c r="S15">
+        <v>13.2</v>
+      </c>
+      <c r="T15">
+        <v>37.4</v>
+      </c>
+      <c r="U15">
+        <v>43.5</v>
+      </c>
+      <c r="V15">
+        <v>29.9</v>
+      </c>
+      <c r="W15" t="s">
+        <v>107</v>
+      </c>
+      <c r="X15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC15">
+        <v>37</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AE15">
+        <v>0.176</v>
+      </c>
+      <c r="AF15">
+        <v>0.244</v>
+      </c>
+      <c r="AG15">
+        <v>5.4</v>
+      </c>
+      <c r="AH15">
+        <v>0.177</v>
+      </c>
+      <c r="AI15">
+        <v>0.353</v>
+      </c>
+      <c r="AJ15">
+        <v>24.3</v>
+      </c>
+      <c r="AK15">
+        <v>5.4</v>
+      </c>
+      <c r="AL15">
+        <v>4.49</v>
+      </c>
+      <c r="AM15">
+        <v>42.3</v>
+      </c>
+      <c r="AN15">
+        <v>26.9</v>
+      </c>
+      <c r="AO15">
+        <v>28.6</v>
+      </c>
+      <c r="AP15">
+        <v>26.9</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BA15">
+        <v>-120</v>
+      </c>
+      <c r="BB15">
+        <v>1.5</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE15">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>266</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.233</v>
+      </c>
+      <c r="M16">
+        <v>0.349</v>
+      </c>
+      <c r="N16">
+        <v>0.214</v>
+      </c>
+      <c r="O16">
+        <v>0.352</v>
+      </c>
+      <c r="P16">
+        <v>0.447</v>
+      </c>
+      <c r="Q16">
+        <v>0.8</v>
+      </c>
+      <c r="R16">
+        <v>28.6</v>
+      </c>
+      <c r="S16">
+        <v>14.5</v>
+      </c>
+      <c r="T16">
+        <v>37.9</v>
+      </c>
+      <c r="U16">
+        <v>41.2</v>
+      </c>
+      <c r="V16">
+        <v>37.3</v>
+      </c>
+      <c r="W16" t="s">
+        <v>107</v>
+      </c>
+      <c r="X16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC16">
+        <v>37</v>
+      </c>
+      <c r="AD16">
+        <v>2</v>
+      </c>
+      <c r="AE16">
+        <v>0.176</v>
+      </c>
+      <c r="AF16">
+        <v>0.244</v>
+      </c>
+      <c r="AG16">
+        <v>5.4</v>
+      </c>
+      <c r="AH16">
+        <v>0.177</v>
+      </c>
+      <c r="AI16">
+        <v>0.353</v>
+      </c>
+      <c r="AJ16">
+        <v>24.3</v>
+      </c>
+      <c r="AK16">
+        <v>5.4</v>
+      </c>
+      <c r="AL16">
+        <v>4.49</v>
+      </c>
+      <c r="AM16">
+        <v>42.3</v>
+      </c>
+      <c r="AN16">
+        <v>26.9</v>
+      </c>
+      <c r="AO16">
+        <v>28.6</v>
+      </c>
+      <c r="AP16">
+        <v>26.9</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA16">
+        <v>145</v>
+      </c>
+      <c r="BB16">
+        <v>1.5</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE16">
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>269</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.238</v>
+      </c>
+      <c r="M17">
+        <v>0.313</v>
+      </c>
+      <c r="N17">
+        <v>0.167</v>
+      </c>
+      <c r="O17">
+        <v>0.309</v>
+      </c>
+      <c r="P17">
+        <v>0.405</v>
+      </c>
+      <c r="Q17">
+        <v>0.714</v>
+      </c>
+      <c r="R17">
+        <v>17.4</v>
+      </c>
+      <c r="S17">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="T17">
+        <v>51.4</v>
+      </c>
+      <c r="U17">
+        <v>28.9</v>
+      </c>
+      <c r="V17">
+        <v>31.7</v>
+      </c>
+      <c r="W17" t="s">
+        <v>108</v>
+      </c>
+      <c r="X17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC17">
+        <v>241</v>
+      </c>
+      <c r="AD17">
+        <v>9</v>
+      </c>
+      <c r="AE17">
+        <v>0.28</v>
+      </c>
+      <c r="AF17">
+        <v>0.329</v>
+      </c>
+      <c r="AG17">
+        <v>3.7</v>
+      </c>
+      <c r="AH17">
+        <v>0.19</v>
+      </c>
+      <c r="AI17">
+        <v>0.47</v>
+      </c>
+      <c r="AJ17">
+        <v>16.2</v>
+      </c>
+      <c r="AK17">
+        <v>2.1</v>
+      </c>
+      <c r="AL17">
+        <v>4.18</v>
+      </c>
+      <c r="AM17">
+        <v>45.9</v>
+      </c>
+      <c r="AN17">
+        <v>33.5</v>
+      </c>
+      <c r="AO17">
+        <v>13.8</v>
+      </c>
+      <c r="AP17">
+        <v>35.4</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA17">
+        <v>170</v>
+      </c>
+      <c r="BB17">
+        <v>1.5</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE17">
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>268</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.25</v>
+      </c>
+      <c r="M18">
+        <v>0.311</v>
+      </c>
+      <c r="N18">
+        <v>0.157</v>
+      </c>
+      <c r="O18">
+        <v>0.308</v>
+      </c>
+      <c r="P18">
+        <v>0.407</v>
+      </c>
+      <c r="Q18">
+        <v>0.715</v>
+      </c>
+      <c r="R18">
+        <v>17.1</v>
+      </c>
+      <c r="S18">
+        <v>7.2</v>
+      </c>
+      <c r="T18">
+        <v>41.1</v>
+      </c>
+      <c r="U18">
+        <v>39.7</v>
+      </c>
+      <c r="V18">
+        <v>30.1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>109</v>
+      </c>
+      <c r="X18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC18">
+        <v>271</v>
+      </c>
+      <c r="AD18">
+        <v>9</v>
+      </c>
+      <c r="AE18">
+        <v>0.258</v>
+      </c>
+      <c r="AF18">
+        <v>0.336</v>
+      </c>
+      <c r="AG18">
+        <v>3.3</v>
+      </c>
+      <c r="AH18">
+        <v>0.21</v>
+      </c>
+      <c r="AI18">
+        <v>0.468</v>
+      </c>
+      <c r="AJ18">
+        <v>26.6</v>
+      </c>
+      <c r="AK18">
+        <v>7</v>
+      </c>
+      <c r="AL18">
+        <v>3.7</v>
+      </c>
+      <c r="AM18">
+        <v>33.7</v>
+      </c>
+      <c r="AN18">
+        <v>44.4</v>
+      </c>
+      <c r="AO18">
+        <v>11.4</v>
+      </c>
+      <c r="AP18">
+        <v>25.8</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA18">
+        <v>195</v>
+      </c>
+      <c r="BB18">
+        <v>1.5</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE18">
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>252</v>
+      </c>
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>0.25</v>
+      </c>
+      <c r="M19">
+        <v>0.344</v>
+      </c>
+      <c r="N19">
+        <v>0.226</v>
+      </c>
+      <c r="O19">
+        <v>0.33</v>
+      </c>
+      <c r="P19">
+        <v>0.476</v>
+      </c>
+      <c r="Q19">
+        <v>0.806</v>
+      </c>
+      <c r="R19">
+        <v>17.8</v>
+      </c>
+      <c r="S19">
+        <v>8</v>
+      </c>
+      <c r="T19">
+        <v>38.9</v>
+      </c>
+      <c r="U19">
+        <v>39.4</v>
+      </c>
+      <c r="V19">
+        <v>35.8</v>
+      </c>
+      <c r="W19" t="s">
+        <v>110</v>
+      </c>
+      <c r="X19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC19">
+        <v>251</v>
+      </c>
+      <c r="AD19">
+        <v>7</v>
+      </c>
+      <c r="AE19">
+        <v>0.233</v>
+      </c>
+      <c r="AF19">
+        <v>0.306</v>
+      </c>
+      <c r="AG19">
+        <v>2.8</v>
+      </c>
+      <c r="AH19">
+        <v>0.168</v>
+      </c>
+      <c r="AI19">
+        <v>0.401</v>
+      </c>
+      <c r="AJ19">
+        <v>21.9</v>
+      </c>
+      <c r="AK19">
+        <v>7.6</v>
+      </c>
+      <c r="AL19">
+        <v>3.87</v>
+      </c>
+      <c r="AM19">
+        <v>33.9</v>
+      </c>
+      <c r="AN19">
+        <v>45.6</v>
+      </c>
+      <c r="AO19">
+        <v>9</v>
+      </c>
+      <c r="AP19">
+        <v>28.2</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA19">
+        <v>200</v>
+      </c>
+      <c r="BB19">
+        <v>1.5</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE19">
+        <v>-285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>167</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.269</v>
+      </c>
+      <c r="M20">
+        <v>0.315</v>
+      </c>
+      <c r="N20">
+        <v>0.138</v>
+      </c>
+      <c r="O20">
+        <v>0.322</v>
+      </c>
+      <c r="P20">
+        <v>0.407</v>
+      </c>
+      <c r="Q20">
+        <v>0.73</v>
+      </c>
+      <c r="R20">
+        <v>25.1</v>
+      </c>
+      <c r="S20">
+        <v>7.7</v>
+      </c>
+      <c r="T20">
+        <v>45.1</v>
+      </c>
+      <c r="U20">
+        <v>25.4</v>
+      </c>
+      <c r="V20">
+        <v>30.9</v>
+      </c>
+      <c r="W20" t="s">
+        <v>111</v>
+      </c>
+      <c r="X20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC20">
+        <v>147</v>
+      </c>
+      <c r="AD20">
+        <v>5</v>
+      </c>
+      <c r="AE20">
+        <v>0.193</v>
+      </c>
+      <c r="AF20">
+        <v>0.267</v>
+      </c>
+      <c r="AG20">
+        <v>3.4</v>
+      </c>
+      <c r="AH20">
+        <v>0.163</v>
+      </c>
+      <c r="AI20">
+        <v>0.356</v>
+      </c>
+      <c r="AJ20">
+        <v>29.9</v>
+      </c>
+      <c r="AK20">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL20">
+        <v>3.49</v>
+      </c>
+      <c r="AM20">
+        <v>35.2</v>
+      </c>
+      <c r="AN20">
+        <v>48.4</v>
+      </c>
+      <c r="AO20">
+        <v>11.4</v>
+      </c>
+      <c r="AP20">
+        <v>36.3</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA20">
+        <v>-160</v>
+      </c>
+      <c r="BB20">
+        <v>1.5</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE20">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>208</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.327</v>
+      </c>
+      <c r="M21">
+        <v>0.386</v>
+      </c>
+      <c r="N21">
+        <v>0.178</v>
+      </c>
+      <c r="O21">
+        <v>0.386</v>
+      </c>
+      <c r="P21">
+        <v>0.505</v>
+      </c>
+      <c r="Q21">
+        <v>0.891</v>
+      </c>
+      <c r="R21">
+        <v>6.6</v>
+      </c>
+      <c r="S21">
+        <v>7.4</v>
+      </c>
+      <c r="T21">
+        <v>37.4</v>
+      </c>
+      <c r="U21">
+        <v>37.4</v>
+      </c>
+      <c r="V21">
+        <v>21.6</v>
+      </c>
+      <c r="W21" t="s">
+        <v>112</v>
+      </c>
+      <c r="X21" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC21">
+        <v>196</v>
+      </c>
+      <c r="AD21">
+        <v>7</v>
+      </c>
+      <c r="AE21">
+        <v>0.205</v>
+      </c>
+      <c r="AF21">
+        <v>0.271</v>
+      </c>
+      <c r="AG21">
+        <v>3.6</v>
+      </c>
+      <c r="AH21">
+        <v>0.168</v>
+      </c>
+      <c r="AI21">
+        <v>0.373</v>
+      </c>
+      <c r="AJ21">
+        <v>31.6</v>
+      </c>
+      <c r="AK21">
+        <v>5.1</v>
+      </c>
+      <c r="AL21">
+        <v>3.14</v>
+      </c>
+      <c r="AM21">
+        <v>43</v>
+      </c>
+      <c r="AN21">
+        <v>39.7</v>
+      </c>
+      <c r="AO21">
+        <v>14.6</v>
+      </c>
+      <c r="AP21">
+        <v>27.6</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA21">
+        <v>170</v>
+      </c>
+      <c r="BB21">
+        <v>1.5</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE21">
+        <v>-235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57">
+      <c r="A22" t="s">
         <v>79</v>
       </c>
-      <c r="F12" t="s">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>122</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.361</v>
+      </c>
+      <c r="M22">
+        <v>0.43</v>
+      </c>
+      <c r="N22">
+        <v>0.238</v>
+      </c>
+      <c r="O22">
+        <v>0.42</v>
+      </c>
+      <c r="P22">
+        <v>0.598</v>
+      </c>
+      <c r="Q22">
+        <v>1.019</v>
+      </c>
+      <c r="R22">
+        <v>19.6</v>
+      </c>
+      <c r="S22">
+        <v>8</v>
+      </c>
+      <c r="T22">
+        <v>39.2</v>
+      </c>
+      <c r="U22">
+        <v>42.3</v>
+      </c>
+      <c r="V22">
+        <v>45.4</v>
+      </c>
+      <c r="W22" t="s">
+        <v>113</v>
+      </c>
+      <c r="X22" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC22">
+        <v>103</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
+      </c>
+      <c r="AE22">
+        <v>0.213</v>
+      </c>
+      <c r="AF22">
+        <v>0.262</v>
+      </c>
+      <c r="AG22">
+        <v>1.9</v>
+      </c>
+      <c r="AH22">
+        <v>0.138</v>
+      </c>
+      <c r="AI22">
+        <v>0.351</v>
+      </c>
+      <c r="AJ22">
+        <v>22.3</v>
+      </c>
+      <c r="AK22">
+        <v>3.9</v>
+      </c>
+      <c r="AL22">
+        <v>3.06</v>
+      </c>
+      <c r="AM22">
+        <v>41.7</v>
+      </c>
+      <c r="AN22">
+        <v>47.2</v>
+      </c>
+      <c r="AO22">
+        <v>5.9</v>
+      </c>
+      <c r="AP22">
+        <v>32.4</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>1</v>
+      </c>
+      <c r="AU22">
+        <v>1</v>
+      </c>
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA22">
+        <v>195</v>
+      </c>
+      <c r="BB22">
+        <v>1.5</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE22">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>208</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.327</v>
+      </c>
+      <c r="M23">
+        <v>0.457</v>
+      </c>
+      <c r="N23">
+        <v>0.38</v>
+      </c>
+      <c r="O23">
+        <v>0.419</v>
+      </c>
+      <c r="P23">
+        <v>0.707</v>
+      </c>
+      <c r="Q23">
+        <v>1.126</v>
+      </c>
+      <c r="R23">
+        <v>16.9</v>
+      </c>
+      <c r="S23">
+        <v>14.5</v>
+      </c>
+      <c r="T23">
+        <v>38.2</v>
+      </c>
+      <c r="U23">
+        <v>41.8</v>
+      </c>
+      <c r="V23">
+        <v>45.3</v>
+      </c>
+      <c r="W23" t="s">
+        <v>114</v>
+      </c>
+      <c r="X23" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC23">
+        <v>213</v>
+      </c>
+      <c r="AD23">
+        <v>6</v>
+      </c>
+      <c r="AE23">
+        <v>0.223</v>
+      </c>
+      <c r="AF23">
+        <v>0.315</v>
+      </c>
+      <c r="AG23">
+        <v>2.8</v>
+      </c>
+      <c r="AH23">
+        <v>0.168</v>
+      </c>
+      <c r="AI23">
+        <v>0.391</v>
+      </c>
+      <c r="AJ23">
+        <v>19.2</v>
+      </c>
+      <c r="AK23">
+        <v>12.2</v>
+      </c>
+      <c r="AL23">
+        <v>4.61</v>
+      </c>
+      <c r="AM23">
+        <v>48.6</v>
+      </c>
+      <c r="AN23">
+        <v>27.8</v>
+      </c>
+      <c r="AO23">
+        <v>15</v>
+      </c>
+      <c r="AP23">
+        <v>40.7</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>1</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA23">
+        <v>155</v>
+      </c>
+      <c r="BB23">
+        <v>1.5</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE23">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57">
+      <c r="A24" t="s">
         <v>81</v>
       </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>251</v>
-      </c>
-      <c r="I12">
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>287</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.296</v>
+      </c>
+      <c r="M24">
+        <v>0.385</v>
+      </c>
+      <c r="N24">
+        <v>0.265</v>
+      </c>
+      <c r="O24">
+        <v>0.35</v>
+      </c>
+      <c r="P24">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="Q24">
+        <v>0.911</v>
+      </c>
+      <c r="R24">
+        <v>20.4</v>
+      </c>
+      <c r="S24">
+        <v>7.6</v>
+      </c>
+      <c r="T24">
+        <v>41.3</v>
+      </c>
+      <c r="U24">
+        <v>39.6</v>
+      </c>
+      <c r="V24">
+        <v>37.8</v>
+      </c>
+      <c r="W24" t="s">
+        <v>114</v>
+      </c>
+      <c r="X24" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC24">
+        <v>213</v>
+      </c>
+      <c r="AD24">
         <v>6</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0.291</v>
-      </c>
-      <c r="M12">
+      <c r="AE24">
+        <v>0.223</v>
+      </c>
+      <c r="AF24">
         <v>0.315</v>
       </c>
-      <c r="N12">
-        <v>0.135</v>
-      </c>
-      <c r="O12">
-        <v>0.308</v>
-      </c>
-      <c r="P12">
-        <v>0.426</v>
-      </c>
-      <c r="Q12">
-        <v>0.734</v>
-      </c>
-      <c r="R12">
-        <v>15.2</v>
-      </c>
-      <c r="S12">
-        <v>3</v>
-      </c>
-      <c r="T12">
-        <v>53</v>
-      </c>
-      <c r="U12">
-        <v>24.2</v>
-      </c>
-      <c r="V12">
-        <v>29.8</v>
-      </c>
-      <c r="W12" t="s">
-        <v>90</v>
-      </c>
-      <c r="X12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="AG24">
+        <v>2.8</v>
+      </c>
+      <c r="AH24">
+        <v>0.168</v>
+      </c>
+      <c r="AI24">
+        <v>0.391</v>
+      </c>
+      <c r="AJ24">
+        <v>19.2</v>
+      </c>
+      <c r="AK24">
+        <v>12.2</v>
+      </c>
+      <c r="AL24">
+        <v>4.61</v>
+      </c>
+      <c r="AM24">
+        <v>48.6</v>
+      </c>
+      <c r="AN24">
+        <v>27.8</v>
+      </c>
+      <c r="AO24">
+        <v>15</v>
+      </c>
+      <c r="AP24">
+        <v>40.7</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>1</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY24" t="s">
         <v>95</v>
       </c>
-      <c r="Z12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AZ24" t="s">
         <v>81</v>
       </c>
-      <c r="AC12">
-        <v>50</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0.19</v>
-      </c>
-      <c r="AF12">
-        <v>0.268</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="AI12">
-        <v>0.262</v>
-      </c>
-      <c r="AJ12">
-        <v>26</v>
-      </c>
-      <c r="AK12">
-        <v>10</v>
-      </c>
-      <c r="AL12">
-        <v>2.98</v>
-      </c>
-      <c r="AM12">
-        <v>31</v>
-      </c>
-      <c r="AN12">
-        <v>37.9</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>20.7</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>1</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AX12">
+      <c r="BA24">
         <v>185</v>
       </c>
-      <c r="AY12">
+      <c r="BB24">
         <v>1.5</v>
       </c>
-      <c r="AZ12" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>77</v>
-      </c>
-      <c r="BE12">
+      <c r="BC24" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE24">
+        <v>-260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>255</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>0.247</v>
+      </c>
+      <c r="M25">
+        <v>0.288</v>
+      </c>
+      <c r="N25">
+        <v>0.161</v>
+      </c>
+      <c r="O25">
+        <v>0.264</v>
+      </c>
+      <c r="P25">
+        <v>0.408</v>
+      </c>
+      <c r="Q25">
+        <v>0.672</v>
+      </c>
+      <c r="R25">
+        <v>24.8</v>
+      </c>
+      <c r="S25">
+        <v>1.9</v>
+      </c>
+      <c r="T25">
+        <v>39.5</v>
+      </c>
+      <c r="U25">
+        <v>38.4</v>
+      </c>
+      <c r="V25">
+        <v>23.3</v>
+      </c>
+      <c r="W25" t="s">
+        <v>114</v>
+      </c>
+      <c r="X25" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC25">
+        <v>247</v>
+      </c>
+      <c r="AD25">
+        <v>8</v>
+      </c>
+      <c r="AE25">
+        <v>0.281</v>
+      </c>
+      <c r="AF25">
+        <v>0.342</v>
+      </c>
+      <c r="AG25">
+        <v>3.2</v>
+      </c>
+      <c r="AH25">
+        <v>0.157</v>
+      </c>
+      <c r="AI25">
+        <v>0.438</v>
+      </c>
+      <c r="AJ25">
+        <v>17</v>
+      </c>
+      <c r="AK25">
+        <v>6.1</v>
+      </c>
+      <c r="AL25">
+        <v>4.67</v>
+      </c>
+      <c r="AM25">
+        <v>44.5</v>
+      </c>
+      <c r="AN25">
+        <v>34.6</v>
+      </c>
+      <c r="AO25">
+        <v>12.7</v>
+      </c>
+      <c r="AP25">
+        <v>29.5</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA25">
+        <v>185</v>
+      </c>
+      <c r="BB25">
+        <v>1.5</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE25">
         <v>-260</v>
       </c>
     </row>
@@ -3162,7 +5483,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:BE1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3341,179 +5662,6 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>54</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.37</v>
-      </c>
-      <c r="M2">
-        <v>0.397</v>
-      </c>
-      <c r="N2">
-        <v>0.111</v>
-      </c>
-      <c r="O2">
-        <v>0.433</v>
-      </c>
-      <c r="P2">
-        <v>0.481</v>
-      </c>
-      <c r="Q2">
-        <v>0.915</v>
-      </c>
-      <c r="R2">
-        <v>13.3</v>
-      </c>
-      <c r="S2">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="T2">
-        <v>48.9</v>
-      </c>
-      <c r="U2">
-        <v>28.9</v>
-      </c>
-      <c r="V2">
-        <v>34.8</v>
-      </c>
-      <c r="W2" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC2">
-        <v>251</v>
-      </c>
-      <c r="AD2">
-        <v>8</v>
-      </c>
-      <c r="AE2">
-        <v>0.338</v>
-      </c>
-      <c r="AF2">
-        <v>0.4</v>
-      </c>
-      <c r="AG2">
-        <v>3.2</v>
-      </c>
-      <c r="AH2">
-        <v>0.21</v>
-      </c>
-      <c r="AI2">
-        <v>0.548</v>
-      </c>
-      <c r="AJ2">
-        <v>13.5</v>
-      </c>
-      <c r="AK2">
-        <v>8</v>
-      </c>
-      <c r="AL2">
-        <v>4.95</v>
-      </c>
-      <c r="AM2">
-        <v>41.5</v>
-      </c>
-      <c r="AN2">
-        <v>35.4</v>
-      </c>
-      <c r="AO2">
-        <v>11.6</v>
-      </c>
-      <c r="AP2">
-        <v>38.3</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>1</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>1</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX2">
-        <v>-295</v>
-      </c>
-      <c r="AY2">
-        <v>0.5</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE2">
-        <v>205</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="104">
   <si>
     <t>fg_name</t>
   </si>
@@ -166,6 +166,21 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Over Price</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>bookmakers</t>
+  </si>
+  <si>
     <t>commence_time</t>
   </si>
   <si>
@@ -175,67 +190,103 @@
     <t>away_team</t>
   </si>
   <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>Over Price</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>bookmakers</t>
-  </si>
-  <si>
     <t>Under Price</t>
   </si>
   <si>
     <t>Merge_Type</t>
   </si>
   <si>
-    <t>CJ Abrams</t>
-  </si>
-  <si>
-    <t>Manny Machado</t>
-  </si>
-  <si>
-    <t>George Springer</t>
-  </si>
-  <si>
-    <t>Washington Nationals</t>
+    <t>Nico Hoerner</t>
+  </si>
+  <si>
+    <t>Seiya Suzuki</t>
+  </si>
+  <si>
+    <t>Luis Arraez</t>
+  </si>
+  <si>
+    <t>Royce Lewis</t>
+  </si>
+  <si>
+    <t>Jarren Duran</t>
+  </si>
+  <si>
+    <t>Adam Frazier</t>
+  </si>
+  <si>
+    <t>Jorge Soler</t>
+  </si>
+  <si>
+    <t>Steven Kwan</t>
+  </si>
+  <si>
+    <t>Chicago Cubs</t>
   </si>
   <si>
     <t>San Diego Padres</t>
   </si>
   <si>
-    <t>Toronto Blue Jays</t>
+    <t>Minnesota Twins</t>
+  </si>
+  <si>
+    <t>Boston Red Sox</t>
+  </si>
+  <si>
+    <t>Kansas City Royals</t>
+  </si>
+  <si>
+    <t>San Francisco Giants</t>
+  </si>
+  <si>
+    <t>Cleveland Indians</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>vs R</t>
   </si>
   <si>
     <t>vs L</t>
   </si>
   <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
-    <t>Taj Bradley</t>
-  </si>
-  <si>
-    <t>Tampa Bay Rays</t>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>G. Rodriguez</t>
+  </si>
+  <si>
+    <t>Keider Montero</t>
+  </si>
+  <si>
+    <t>Nestor Cortes</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>C. Sanchez</t>
+  </si>
+  <si>
+    <t>Baltimore Orioles</t>
+  </si>
+  <si>
+    <t>Detroit Tigers</t>
+  </si>
+  <si>
+    <t>New York Yankees</t>
+  </si>
+  <si>
+    <t>Colorado Rockies</t>
+  </si>
+  <si>
+    <t>Philadelphia Phillies</t>
   </si>
   <si>
     <t>RHP</t>
@@ -244,10 +295,10 @@
     <t>LHP</t>
   </si>
   <si>
-    <t>2024-07-24T22:46:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-24T23:08:00Z</t>
+    <t>Grayson Rodriguez</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
   </si>
   <si>
     <t>hits</t>
@@ -256,46 +307,28 @@
     <t>draftkings</t>
   </si>
   <si>
-    <t>Gunnar Henderson</t>
-  </si>
-  <si>
-    <t>Miguel Andujar</t>
-  </si>
-  <si>
-    <t>Abraham Toro</t>
-  </si>
-  <si>
-    <t>Baltimore Orioles</t>
-  </si>
-  <si>
-    <t>Oakland Athletics</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Roddery Munoz</t>
-  </si>
-  <si>
-    <t>Kenny Rosenberg</t>
-  </si>
-  <si>
-    <t>Miami Marlins</t>
-  </si>
-  <si>
-    <t>Los Angeles Angels</t>
-  </si>
-  <si>
-    <t>Roddery Muñoz</t>
-  </si>
-  <si>
-    <t>2024-07-24T22:40:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-24T19:37:00Z</t>
-  </si>
-  <si>
-    <t>Houston Astros</t>
+    <t>2024-07-27T00:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-26T23:06:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-26T22:41:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-26T23:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-27T02:16:00Z</t>
+  </si>
+  <si>
+    <t>Cleveland Guardians</t>
+  </si>
+  <si>
+    <t>David Villar</t>
+  </si>
+  <si>
+    <t>Tyler Fitzgerald</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE4"/>
+  <dimension ref="A1:BE9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1215,7 +1248,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1224,118 +1257,118 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>293</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.253</v>
+      </c>
+      <c r="M2">
+        <v>0.307</v>
+      </c>
+      <c r="N2">
+        <v>0.106</v>
+      </c>
+      <c r="O2">
+        <v>0.329</v>
+      </c>
+      <c r="P2">
+        <v>0.358</v>
+      </c>
+      <c r="Q2">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>7.9</v>
+      </c>
+      <c r="T2">
+        <v>47.1</v>
+      </c>
+      <c r="U2">
+        <v>30.8</v>
+      </c>
+      <c r="V2">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z2" t="s">
         <v>67</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>255</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2">
-        <v>11</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <v>0.247</v>
-      </c>
-      <c r="M2">
-        <v>0.341</v>
-      </c>
-      <c r="N2">
-        <v>0.224</v>
-      </c>
-      <c r="O2">
-        <v>0.326</v>
-      </c>
-      <c r="P2">
-        <v>0.471</v>
-      </c>
-      <c r="Q2">
-        <v>0.797</v>
-      </c>
-      <c r="R2">
-        <v>17.6</v>
-      </c>
-      <c r="S2">
-        <v>8</v>
-      </c>
-      <c r="T2">
-        <v>38.8</v>
-      </c>
-      <c r="U2">
-        <v>39.8</v>
-      </c>
-      <c r="V2">
-        <v>35.3</v>
-      </c>
-      <c r="W2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>62</v>
-      </c>
       <c r="AA2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AC2">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="AD2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AE2">
-        <v>0.204</v>
+        <v>0.174</v>
       </c>
       <c r="AF2">
-        <v>0.287</v>
+        <v>0.219</v>
       </c>
       <c r="AG2">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.189</v>
+        <v>0.082</v>
       </c>
       <c r="AI2">
-        <v>0.393</v>
+        <v>0.256</v>
       </c>
       <c r="AJ2">
-        <v>27.7</v>
+        <v>25.2</v>
       </c>
       <c r="AK2">
-        <v>8.1</v>
+        <v>4.8</v>
       </c>
       <c r="AL2">
-        <v>3.95</v>
+        <v>2.47</v>
       </c>
       <c r="AM2">
-        <v>35.1</v>
+        <v>47.5</v>
       </c>
       <c r="AN2">
-        <v>50</v>
+        <v>32.6</v>
       </c>
       <c r="AO2">
-        <v>12.2</v>
+        <v>4.3</v>
       </c>
       <c r="AP2">
-        <v>30.9</v>
+        <v>25.2</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1344,43 +1377,43 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="AX2">
+        <v>160</v>
+      </c>
+      <c r="AY2">
+        <v>1.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA2">
-        <v>200</v>
-      </c>
-      <c r="BB2">
-        <v>1.5</v>
+        <v>94</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>96</v>
       </c>
       <c r="BC2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="BD2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="BE2">
-        <v>-285</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="3" spans="1:57">
@@ -1388,7 +1421,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -1397,163 +1430,163 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
-        <v>0.239</v>
+        <v>0.265</v>
       </c>
       <c r="M3">
-        <v>0.315</v>
+        <v>0.343</v>
       </c>
       <c r="N3">
-        <v>0.163</v>
+        <v>0.209</v>
       </c>
       <c r="O3">
-        <v>0.333</v>
+        <v>0.324</v>
       </c>
       <c r="P3">
-        <v>0.402</v>
+        <v>0.474</v>
       </c>
       <c r="Q3">
-        <v>0.736</v>
+        <v>0.799</v>
       </c>
       <c r="R3">
-        <v>21.9</v>
+        <v>30.9</v>
       </c>
       <c r="S3">
-        <v>12.4</v>
+        <v>6.9</v>
       </c>
       <c r="T3">
-        <v>39.1</v>
+        <v>35</v>
       </c>
       <c r="U3">
-        <v>42</v>
+        <v>46.5</v>
       </c>
       <c r="V3">
-        <v>27.5</v>
+        <v>37.6</v>
       </c>
       <c r="W3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="Z3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AA3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3">
+        <v>210</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>0.174</v>
+      </c>
+      <c r="AF3">
+        <v>0.219</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>0.082</v>
+      </c>
+      <c r="AI3">
+        <v>0.256</v>
+      </c>
+      <c r="AJ3">
+        <v>25.2</v>
+      </c>
+      <c r="AK3">
+        <v>4.8</v>
+      </c>
+      <c r="AL3">
+        <v>2.47</v>
+      </c>
+      <c r="AM3">
+        <v>47.5</v>
+      </c>
+      <c r="AN3">
+        <v>32.6</v>
+      </c>
+      <c r="AO3">
+        <v>4.3</v>
+      </c>
+      <c r="AP3">
+        <v>25.2</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX3">
+        <v>200</v>
+      </c>
+      <c r="AY3">
+        <v>1.5</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD3" t="s">
         <v>67</v>
       </c>
-      <c r="AC3">
-        <v>384</v>
-      </c>
-      <c r="AD3">
-        <v>13</v>
-      </c>
-      <c r="AE3">
-        <v>0.301</v>
-      </c>
-      <c r="AF3">
-        <v>0.365</v>
-      </c>
-      <c r="AG3">
-        <v>3.4</v>
-      </c>
-      <c r="AH3">
-        <v>0.206</v>
-      </c>
-      <c r="AI3">
-        <v>0.507</v>
-      </c>
-      <c r="AJ3">
-        <v>15.9</v>
-      </c>
-      <c r="AK3">
-        <v>6.8</v>
-      </c>
-      <c r="AL3">
-        <v>4.61</v>
-      </c>
-      <c r="AM3">
-        <v>44.3</v>
-      </c>
-      <c r="AN3">
-        <v>34.8</v>
-      </c>
-      <c r="AO3">
-        <v>13</v>
-      </c>
-      <c r="AP3">
-        <v>34.2</v>
-      </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA3">
-        <v>205</v>
-      </c>
-      <c r="BB3">
-        <v>1.5</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>78</v>
-      </c>
       <c r="BE3">
-        <v>-290</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="4" spans="1:57">
@@ -1561,7 +1594,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1570,163 +1603,1028 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>260</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.323</v>
+      </c>
+      <c r="M4">
+        <v>0.331</v>
+      </c>
+      <c r="N4">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.352</v>
+      </c>
+      <c r="P4">
+        <v>0.408</v>
+      </c>
+      <c r="Q4">
+        <v>0.759</v>
+      </c>
+      <c r="R4">
+        <v>2.6</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>37</v>
+      </c>
+      <c r="U4">
+        <v>30.7</v>
+      </c>
+      <c r="V4">
+        <v>24.8</v>
+      </c>
+      <c r="W4" t="s">
+        <v>79</v>
+      </c>
+      <c r="X4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC4">
+        <v>217</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>0.202</v>
+      </c>
+      <c r="AF4">
+        <v>0.264</v>
+      </c>
+      <c r="AG4">
+        <v>1.8</v>
+      </c>
+      <c r="AH4">
+        <v>0.116</v>
+      </c>
+      <c r="AI4">
+        <v>0.318</v>
+      </c>
+      <c r="AJ4">
+        <v>29</v>
+      </c>
+      <c r="AK4">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AL4">
+        <v>2.83</v>
+      </c>
+      <c r="AM4">
+        <v>43</v>
+      </c>
+      <c r="AN4">
+        <v>37.8</v>
+      </c>
+      <c r="AO4">
+        <v>7.8</v>
+      </c>
+      <c r="AP4">
+        <v>31.9</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX4">
+        <v>150</v>
+      </c>
+      <c r="AY4">
+        <v>1.5</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE4">
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>65</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.246</v>
+      </c>
+      <c r="M5">
+        <v>0.401</v>
+      </c>
+      <c r="N5">
+        <v>0.415</v>
+      </c>
+      <c r="O5">
+        <v>0.3</v>
+      </c>
+      <c r="P5">
+        <v>0.662</v>
+      </c>
+      <c r="Q5">
+        <v>0.962</v>
+      </c>
+      <c r="R5">
+        <v>21.4</v>
+      </c>
+      <c r="S5">
+        <v>7.1</v>
+      </c>
+      <c r="T5">
+        <v>38</v>
+      </c>
+      <c r="U5">
+        <v>42</v>
+      </c>
+      <c r="V5">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5">
+        <v>63</v>
+      </c>
+      <c r="AD5">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>0.281</v>
+      </c>
+      <c r="AF5">
+        <v>0.413</v>
+      </c>
+      <c r="AG5">
+        <v>7.9</v>
+      </c>
+      <c r="AH5">
+        <v>0.351</v>
+      </c>
+      <c r="AI5">
+        <v>0.632</v>
+      </c>
+      <c r="AJ5">
+        <v>17.5</v>
+      </c>
+      <c r="AK5">
+        <v>9.5</v>
+      </c>
+      <c r="AL5">
+        <v>7.5</v>
+      </c>
+      <c r="AM5">
+        <v>23.9</v>
+      </c>
+      <c r="AN5">
+        <v>52.2</v>
+      </c>
+      <c r="AO5">
+        <v>20.8</v>
+      </c>
+      <c r="AP5">
+        <v>47.8</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX5">
+        <v>195</v>
+      </c>
+      <c r="AY5">
+        <v>1.5</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE5">
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>133</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.271</v>
+      </c>
+      <c r="M6">
+        <v>0.317</v>
+      </c>
+      <c r="N6">
+        <v>0.09</v>
+      </c>
+      <c r="O6">
+        <v>0.347</v>
+      </c>
+      <c r="P6">
+        <v>0.361</v>
+      </c>
+      <c r="Q6">
+        <v>0.708</v>
+      </c>
+      <c r="R6">
+        <v>24.5</v>
+      </c>
+      <c r="S6">
+        <v>8.6</v>
+      </c>
+      <c r="T6">
+        <v>61.3</v>
+      </c>
+      <c r="U6">
+        <v>22.6</v>
+      </c>
+      <c r="V6">
+        <v>29.6</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC6">
+        <v>88</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>0.217</v>
+      </c>
+      <c r="AF6">
+        <v>0.242</v>
+      </c>
+      <c r="AG6">
+        <v>1.1</v>
+      </c>
+      <c r="AH6">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AI6">
+        <v>0.301</v>
+      </c>
+      <c r="AJ6">
+        <v>27.3</v>
+      </c>
+      <c r="AK6">
+        <v>4.5</v>
+      </c>
+      <c r="AL6">
+        <v>2.1</v>
+      </c>
+      <c r="AM6">
+        <v>23.3</v>
+      </c>
+      <c r="AN6">
+        <v>50</v>
+      </c>
+      <c r="AO6">
+        <v>3.3</v>
+      </c>
+      <c r="AP6">
+        <v>26.7</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX6">
+        <v>175</v>
+      </c>
+      <c r="AY6">
+        <v>1.5</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE6">
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>162</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.191</v>
+      </c>
+      <c r="M7">
+        <v>0.258</v>
+      </c>
+      <c r="N7">
+        <v>0.099</v>
+      </c>
+      <c r="O7">
+        <v>0.276</v>
+      </c>
+      <c r="P7">
+        <v>0.29</v>
+      </c>
+      <c r="Q7">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="R7">
+        <v>20.3</v>
+      </c>
+      <c r="S7">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="T7">
+        <v>37.4</v>
+      </c>
+      <c r="U7">
+        <v>39.8</v>
+      </c>
+      <c r="V7">
+        <v>23.8</v>
+      </c>
+      <c r="W7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7">
+        <v>166</v>
+      </c>
+      <c r="AD7">
+        <v>11</v>
+      </c>
+      <c r="AE7">
+        <v>0.303</v>
+      </c>
+      <c r="AF7">
+        <v>0.39</v>
+      </c>
+      <c r="AG7">
+        <v>6.6</v>
+      </c>
+      <c r="AH7">
+        <v>0.243</v>
+      </c>
+      <c r="AI7">
+        <v>0.546</v>
+      </c>
+      <c r="AJ7">
+        <v>14.5</v>
+      </c>
+      <c r="AK7">
+        <v>7.2</v>
+      </c>
+      <c r="AL7">
+        <v>6.88</v>
+      </c>
+      <c r="AM7">
+        <v>42.5</v>
+      </c>
+      <c r="AN7">
+        <v>35.4</v>
+      </c>
+      <c r="AO7">
+        <v>24.4</v>
+      </c>
+      <c r="AP7">
+        <v>24.2</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX7">
+        <v>180</v>
+      </c>
+      <c r="AY7">
+        <v>1.5</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE7">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>89</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.247</v>
+      </c>
+      <c r="M8">
+        <v>0.353</v>
+      </c>
+      <c r="N8">
+        <v>0.191</v>
+      </c>
+      <c r="O8">
+        <v>0.362</v>
+      </c>
+      <c r="P8">
+        <v>0.438</v>
+      </c>
+      <c r="Q8">
+        <v>0.8</v>
+      </c>
+      <c r="R8">
+        <v>23.8</v>
+      </c>
+      <c r="S8">
+        <v>13.3</v>
+      </c>
+      <c r="T8">
+        <v>28.1</v>
+      </c>
+      <c r="U8">
+        <v>53.1</v>
+      </c>
+      <c r="V8">
+        <v>32.8</v>
+      </c>
+      <c r="W8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC8">
+        <v>192</v>
+      </c>
+      <c r="AD8">
+        <v>6</v>
+      </c>
+      <c r="AE8">
+        <v>0.301</v>
+      </c>
+      <c r="AF8">
+        <v>0.358</v>
+      </c>
+      <c r="AG8">
+        <v>3.1</v>
+      </c>
+      <c r="AH8">
+        <v>0.176</v>
+      </c>
+      <c r="AI8">
+        <v>0.477</v>
+      </c>
+      <c r="AJ8">
+        <v>14.1</v>
+      </c>
+      <c r="AK8">
+        <v>6.8</v>
+      </c>
+      <c r="AL8">
+        <v>4.68</v>
+      </c>
+      <c r="AM8">
+        <v>40.3</v>
+      </c>
+      <c r="AN8">
+        <v>37.6</v>
+      </c>
+      <c r="AO8">
+        <v>10.7</v>
+      </c>
+      <c r="AP8">
+        <v>30.5</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX8">
+        <v>195</v>
+      </c>
+      <c r="AY8">
+        <v>1.5</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE8">
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>272</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.235</v>
-      </c>
-      <c r="M4">
-        <v>0.311</v>
-      </c>
-      <c r="N4">
-        <v>0.165</v>
-      </c>
-      <c r="O4">
-        <v>0.308</v>
-      </c>
-      <c r="P4">
-        <v>0.401</v>
-      </c>
-      <c r="Q4">
-        <v>0.709</v>
-      </c>
-      <c r="R4">
-        <v>17.5</v>
-      </c>
-      <c r="S4">
-        <v>8.9</v>
-      </c>
-      <c r="T4">
-        <v>51.4</v>
-      </c>
-      <c r="U4">
-        <v>28.6</v>
-      </c>
-      <c r="V4">
-        <v>31.4</v>
-      </c>
-      <c r="W4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="Z4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4">
-        <v>136</v>
-      </c>
-      <c r="AD4">
-        <v>5</v>
-      </c>
-      <c r="AE4">
-        <v>0.16</v>
-      </c>
-      <c r="AF4">
-        <v>0.236</v>
-      </c>
-      <c r="AG4">
-        <v>3.7</v>
-      </c>
-      <c r="AH4">
-        <v>0.126</v>
-      </c>
-      <c r="AI4">
-        <v>0.286</v>
-      </c>
-      <c r="AJ4">
-        <v>27.2</v>
-      </c>
-      <c r="AK4">
-        <v>9.6</v>
-      </c>
-      <c r="AL4">
-        <v>4</v>
-      </c>
-      <c r="AM4">
-        <v>46.4</v>
-      </c>
-      <c r="AN4">
-        <v>38.1</v>
-      </c>
-      <c r="AO4">
-        <v>15.6</v>
-      </c>
-      <c r="AP4">
-        <v>33.7</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>1</v>
-      </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA4">
-        <v>170</v>
-      </c>
-      <c r="BB4">
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>94</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.383</v>
+      </c>
+      <c r="M9">
+        <v>0.405</v>
+      </c>
+      <c r="N9">
+        <v>0.117</v>
+      </c>
+      <c r="O9">
+        <v>0.426</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>0.926</v>
+      </c>
+      <c r="R9">
+        <v>11.8</v>
+      </c>
+      <c r="S9">
+        <v>6.9</v>
+      </c>
+      <c r="T9">
+        <v>41.3</v>
+      </c>
+      <c r="U9">
+        <v>33.8</v>
+      </c>
+      <c r="V9">
+        <v>31.3</v>
+      </c>
+      <c r="W9" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC9">
+        <v>77</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0.219</v>
+      </c>
+      <c r="AF9">
+        <v>0.228</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0.041</v>
+      </c>
+      <c r="AI9">
+        <v>0.26</v>
+      </c>
+      <c r="AJ9">
+        <v>22.1</v>
+      </c>
+      <c r="AK9">
+        <v>3.9</v>
+      </c>
+      <c r="AL9">
+        <v>1.89</v>
+      </c>
+      <c r="AM9">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="AN9">
+        <v>12.5</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>26.3</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX9">
+        <v>195</v>
+      </c>
+      <c r="AY9">
         <v>1.5</v>
       </c>
-      <c r="BC4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE4">
-        <v>-240</v>
+      <c r="AZ9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE9">
+        <v>-275</v>
       </c>
     </row>
   </sheetData>
@@ -1736,7 +2634,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE4"/>
+  <dimension ref="A1:BE3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1917,312 +2815,312 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.302</v>
+        <v>0.364</v>
       </c>
       <c r="M2">
-        <v>0.413</v>
+        <v>0.389</v>
       </c>
       <c r="N2">
-        <v>0.302</v>
+        <v>0.182</v>
       </c>
       <c r="O2">
-        <v>0.373</v>
+        <v>0.364</v>
       </c>
       <c r="P2">
-        <v>0.604</v>
+        <v>0.545</v>
       </c>
       <c r="Q2">
-        <v>0.977</v>
+        <v>0.909</v>
       </c>
       <c r="R2">
-        <v>21.5</v>
+        <v>36.4</v>
       </c>
       <c r="S2">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>46.7</v>
+        <v>42.9</v>
       </c>
       <c r="U2">
-        <v>30.7</v>
+        <v>14.3</v>
       </c>
       <c r="V2">
-        <v>48.6</v>
+        <v>28.6</v>
       </c>
       <c r="W2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="Z2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AB2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AC2">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE2">
-        <v>0.302</v>
+        <v>0.301</v>
       </c>
       <c r="AF2">
-        <v>0.445</v>
+        <v>0.358</v>
       </c>
       <c r="AG2">
-        <v>8.800000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AH2">
-        <v>0.375</v>
+        <v>0.176</v>
       </c>
       <c r="AI2">
-        <v>0.677</v>
+        <v>0.477</v>
       </c>
       <c r="AJ2">
-        <v>20.2</v>
+        <v>14.1</v>
       </c>
       <c r="AK2">
-        <v>12.3</v>
+        <v>6.8</v>
       </c>
       <c r="AL2">
-        <v>8.720000000000001</v>
+        <v>4.68</v>
       </c>
       <c r="AM2">
-        <v>25.3</v>
+        <v>40.3</v>
       </c>
       <c r="AN2">
-        <v>52</v>
+        <v>37.6</v>
       </c>
       <c r="AO2">
-        <v>25.6</v>
+        <v>10.7</v>
       </c>
       <c r="AP2">
-        <v>37.3</v>
+        <v>30.5</v>
       </c>
       <c r="AQ2">
         <v>1</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>82</v>
+        <v>102</v>
+      </c>
+      <c r="AX2">
+        <v>-185</v>
+      </c>
+      <c r="AY2">
+        <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA2">
-        <v>-255</v>
-      </c>
-      <c r="BB2">
-        <v>0.5</v>
+        <v>94</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>100</v>
       </c>
       <c r="BC2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="BD2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="BE2">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>54</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.315</v>
+      </c>
+      <c r="M3">
+        <v>0.399</v>
+      </c>
+      <c r="N3">
+        <v>0.259</v>
+      </c>
+      <c r="O3">
+        <v>0.362</v>
+      </c>
+      <c r="P3">
+        <v>0.574</v>
+      </c>
+      <c r="Q3">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="R3">
+        <v>27.6</v>
+      </c>
+      <c r="S3">
+        <v>6.9</v>
+      </c>
+      <c r="T3">
+        <v>35.1</v>
+      </c>
+      <c r="U3">
+        <v>40.5</v>
+      </c>
+      <c r="V3">
+        <v>28.9</v>
+      </c>
+      <c r="W3" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>29</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.517</v>
-      </c>
-      <c r="M3">
-        <v>0.551</v>
-      </c>
-      <c r="N3">
-        <v>0.207</v>
-      </c>
-      <c r="O3">
-        <v>0.5629999999999999</v>
-      </c>
-      <c r="P3">
-        <v>0.724</v>
-      </c>
-      <c r="Q3">
-        <v>1.287</v>
-      </c>
-      <c r="R3">
-        <v>9.4</v>
-      </c>
-      <c r="S3">
-        <v>9.4</v>
-      </c>
-      <c r="T3">
-        <v>50</v>
-      </c>
-      <c r="U3">
-        <v>23.1</v>
-      </c>
-      <c r="V3">
-        <v>19.2</v>
-      </c>
-      <c r="W3" t="s">
-        <v>86</v>
       </c>
       <c r="X3" t="s">
         <v>88</v>
       </c>
       <c r="Y3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="Z3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" t="s">
         <v>83</v>
       </c>
-      <c r="AA3" t="s">
-        <v>86</v>
-      </c>
       <c r="AB3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="AC3">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE3">
-        <v>0.31</v>
+        <v>0.301</v>
       </c>
       <c r="AF3">
-        <v>0.363</v>
+        <v>0.358</v>
       </c>
       <c r="AG3">
         <v>3.1</v>
       </c>
       <c r="AH3">
-        <v>0.173</v>
+        <v>0.176</v>
       </c>
       <c r="AI3">
-        <v>0.483</v>
+        <v>0.477</v>
       </c>
       <c r="AJ3">
-        <v>9.4</v>
+        <v>14.1</v>
       </c>
       <c r="AK3">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="AL3">
-        <v>5.33</v>
+        <v>4.68</v>
       </c>
       <c r="AM3">
-        <v>26.9</v>
+        <v>40.3</v>
       </c>
       <c r="AN3">
-        <v>53.8</v>
+        <v>37.6</v>
       </c>
       <c r="AO3">
-        <v>7.1</v>
+        <v>10.7</v>
       </c>
       <c r="AP3">
-        <v>38.5</v>
+        <v>30.5</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -2234,204 +3132,31 @@
         <v>0</v>
       </c>
       <c r="AW3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>92</v>
+        <v>103</v>
+      </c>
+      <c r="AX3">
+        <v>-245</v>
+      </c>
+      <c r="AY3">
+        <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA3">
-        <v>-240</v>
-      </c>
-      <c r="BB3">
-        <v>0.5</v>
+        <v>94</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>100</v>
       </c>
       <c r="BC3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="BD3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="BE3">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>69</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.304</v>
-      </c>
-      <c r="M4">
-        <v>0.334</v>
-      </c>
-      <c r="N4">
-        <v>0.145</v>
-      </c>
-      <c r="O4">
-        <v>0.333</v>
-      </c>
-      <c r="P4">
-        <v>0.449</v>
-      </c>
-      <c r="Q4">
-        <v>0.783</v>
-      </c>
-      <c r="R4">
-        <v>11</v>
-      </c>
-      <c r="S4">
-        <v>2.7</v>
-      </c>
-      <c r="T4">
-        <v>47.5</v>
-      </c>
-      <c r="U4">
-        <v>31.1</v>
-      </c>
-      <c r="V4">
-        <v>22.6</v>
-      </c>
-      <c r="W4" t="s">
-        <v>86</v>
-      </c>
-      <c r="X4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4">
-        <v>32</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>0.31</v>
-      </c>
-      <c r="AF4">
-        <v>0.363</v>
-      </c>
-      <c r="AG4">
-        <v>3.1</v>
-      </c>
-      <c r="AH4">
-        <v>0.173</v>
-      </c>
-      <c r="AI4">
-        <v>0.483</v>
-      </c>
-      <c r="AJ4">
-        <v>9.4</v>
-      </c>
-      <c r="AK4">
-        <v>9.4</v>
-      </c>
-      <c r="AL4">
-        <v>5.33</v>
-      </c>
-      <c r="AM4">
-        <v>26.9</v>
-      </c>
-      <c r="AN4">
-        <v>53.8</v>
-      </c>
-      <c r="AO4">
-        <v>7.1</v>
-      </c>
-      <c r="AP4">
-        <v>38.5</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA4">
-        <v>-175</v>
-      </c>
-      <c r="BB4">
-        <v>0.5</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE4">
-        <v>130</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="114">
   <si>
     <t>fg_name</t>
   </si>
@@ -202,133 +202,163 @@
     <t>Seiya Suzuki</t>
   </si>
   <si>
+    <t>Manny Machado</t>
+  </si>
+  <si>
     <t>Luis Arraez</t>
   </si>
   <si>
-    <t>Royce Lewis</t>
-  </si>
-  <si>
-    <t>Jarren Duran</t>
-  </si>
-  <si>
-    <t>Adam Frazier</t>
-  </si>
-  <si>
-    <t>Jorge Soler</t>
+    <t>Jackson Merrill</t>
+  </si>
+  <si>
+    <t>Yandy Diaz</t>
+  </si>
+  <si>
+    <t>George Springer</t>
+  </si>
+  <si>
+    <t>Juan Soto</t>
   </si>
   <si>
     <t>Steven Kwan</t>
   </si>
   <si>
+    <t>Masyn Winn</t>
+  </si>
+  <si>
     <t>Chicago Cubs</t>
   </si>
   <si>
     <t>San Diego Padres</t>
   </si>
   <si>
-    <t>Minnesota Twins</t>
+    <t>Tampa Bay Rays</t>
+  </si>
+  <si>
+    <t>Toronto Blue Jays</t>
+  </si>
+  <si>
+    <t>New York Yankees</t>
+  </si>
+  <si>
+    <t>Cleveland Indians</t>
+  </si>
+  <si>
+    <t>St. Louis Cardinals</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>vs R</t>
+  </si>
+  <si>
+    <t>vs L</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Michael Lorenzen</t>
+  </si>
+  <si>
+    <t>Kutter Crawford</t>
+  </si>
+  <si>
+    <t>Tyler Phillips</t>
+  </si>
+  <si>
+    <t>Jake Irvin</t>
+  </si>
+  <si>
+    <t>Kansas City Royals</t>
+  </si>
+  <si>
+    <t>Baltimore Orioles</t>
+  </si>
+  <si>
+    <t>Cincinnati Reds</t>
+  </si>
+  <si>
+    <t>Texas Rangers</t>
   </si>
   <si>
     <t>Boston Red Sox</t>
   </si>
   <si>
-    <t>Kansas City Royals</t>
+    <t>Philadelphia Phillies</t>
+  </si>
+  <si>
+    <t>Washington Nationals</t>
+  </si>
+  <si>
+    <t>RHP</t>
+  </si>
+  <si>
+    <t>LHP</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>draftkings</t>
+  </si>
+  <si>
+    <t>2024-07-27T23:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-27T20:06:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-27T20:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-27T19:08:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-27T23:16:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-27T22:06:00Z</t>
+  </si>
+  <si>
+    <t>Cleveland Guardians</t>
+  </si>
+  <si>
+    <t>Tyler Fitzgerald</t>
+  </si>
+  <si>
+    <t>Yordan Alvarez</t>
   </si>
   <si>
     <t>San Francisco Giants</t>
   </si>
   <si>
-    <t>Cleveland Indians</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>vs R</t>
-  </si>
-  <si>
-    <t>vs L</t>
-  </si>
-  <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
-    <t>G. Rodriguez</t>
-  </si>
-  <si>
-    <t>Keider Montero</t>
-  </si>
-  <si>
-    <t>Nestor Cortes</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
-    <t>Kyle Freeland</t>
-  </si>
-  <si>
-    <t>C. Sanchez</t>
-  </si>
-  <si>
-    <t>Baltimore Orioles</t>
-  </si>
-  <si>
-    <t>Detroit Tigers</t>
-  </si>
-  <si>
-    <t>New York Yankees</t>
+    <t>Houston Astros</t>
+  </si>
+  <si>
+    <t>Tanner Gordon</t>
+  </si>
+  <si>
+    <t>Justin Wrobleski</t>
   </si>
   <si>
     <t>Colorado Rockies</t>
   </si>
   <si>
-    <t>Philadelphia Phillies</t>
-  </si>
-  <si>
-    <t>RHP</t>
-  </si>
-  <si>
-    <t>LHP</t>
-  </si>
-  <si>
-    <t>Grayson Rodriguez</t>
-  </si>
-  <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>draftkings</t>
-  </si>
-  <si>
-    <t>2024-07-27T00:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-26T23:06:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-26T22:41:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-26T23:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-27T02:16:00Z</t>
-  </si>
-  <si>
-    <t>Cleveland Guardians</t>
-  </si>
-  <si>
-    <t>David Villar</t>
-  </si>
-  <si>
-    <t>Tyler Fitzgerald</t>
+    <t>Los Angeles Dodgers</t>
+  </si>
+  <si>
+    <t>2024-07-27T23:05:00Z</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE9"/>
+  <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1248,7 +1278,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1257,16 +1287,16 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -1278,97 +1308,97 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>0.253</v>
+        <v>0.25</v>
       </c>
       <c r="M2">
-        <v>0.307</v>
+        <v>0.304</v>
       </c>
       <c r="N2">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="O2">
-        <v>0.329</v>
+        <v>0.326</v>
       </c>
       <c r="P2">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="Q2">
-        <v>0.6879999999999999</v>
+        <v>0.681</v>
       </c>
       <c r="R2">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="S2">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="T2">
-        <v>47.1</v>
+        <v>46.8</v>
       </c>
       <c r="U2">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="V2">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="W2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="s">
         <v>78</v>
       </c>
-      <c r="X2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>76</v>
-      </c>
       <c r="AC2">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="AD2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE2">
-        <v>0.174</v>
+        <v>0.205</v>
       </c>
       <c r="AF2">
-        <v>0.219</v>
+        <v>0.256</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="AH2">
-        <v>0.082</v>
+        <v>0.138</v>
       </c>
       <c r="AI2">
-        <v>0.256</v>
+        <v>0.343</v>
       </c>
       <c r="AJ2">
-        <v>25.2</v>
+        <v>21.1</v>
       </c>
       <c r="AK2">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="AL2">
-        <v>2.47</v>
+        <v>3.47</v>
       </c>
       <c r="AM2">
-        <v>47.5</v>
+        <v>40.6</v>
       </c>
       <c r="AN2">
-        <v>32.6</v>
+        <v>42.8</v>
       </c>
       <c r="AO2">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AP2">
-        <v>25.2</v>
+        <v>32.3</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1392,28 +1422,28 @@
         <v>59</v>
       </c>
       <c r="AX2">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AY2">
         <v>1.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BA2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BB2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BC2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="BD2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BE2">
-        <v>-220</v>
+        <v>-195</v>
       </c>
     </row>
     <row r="3" spans="1:57">
@@ -1421,7 +1451,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -1430,16 +1460,16 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I3">
         <v>11</v>
@@ -1451,97 +1481,97 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="M3">
+        <v>0.349</v>
+      </c>
+      <c r="N3">
+        <v>0.211</v>
+      </c>
+      <c r="O3">
+        <v>0.331</v>
+      </c>
+      <c r="P3">
+        <v>0.481</v>
+      </c>
+      <c r="Q3">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="R3">
+        <v>30.4</v>
+      </c>
+      <c r="S3">
+        <v>7.2</v>
+      </c>
+      <c r="T3">
+        <v>35.6</v>
+      </c>
+      <c r="U3">
+        <v>46.3</v>
+      </c>
+      <c r="V3">
+        <v>37.5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC3">
+        <v>256</v>
+      </c>
+      <c r="AD3">
+        <v>7</v>
+      </c>
+      <c r="AE3">
+        <v>0.205</v>
+      </c>
+      <c r="AF3">
+        <v>0.256</v>
+      </c>
+      <c r="AG3">
+        <v>2.7</v>
+      </c>
+      <c r="AH3">
+        <v>0.138</v>
+      </c>
+      <c r="AI3">
         <v>0.343</v>
       </c>
-      <c r="N3">
-        <v>0.209</v>
-      </c>
-      <c r="O3">
-        <v>0.324</v>
-      </c>
-      <c r="P3">
-        <v>0.474</v>
-      </c>
-      <c r="Q3">
-        <v>0.799</v>
-      </c>
-      <c r="R3">
-        <v>30.9</v>
-      </c>
-      <c r="S3">
-        <v>6.9</v>
-      </c>
-      <c r="T3">
-        <v>35</v>
-      </c>
-      <c r="U3">
-        <v>46.5</v>
-      </c>
-      <c r="V3">
-        <v>37.6</v>
-      </c>
-      <c r="W3" t="s">
-        <v>78</v>
-      </c>
-      <c r="X3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3">
-        <v>210</v>
-      </c>
-      <c r="AD3">
-        <v>2</v>
-      </c>
-      <c r="AE3">
-        <v>0.174</v>
-      </c>
-      <c r="AF3">
-        <v>0.219</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>0.082</v>
-      </c>
-      <c r="AI3">
-        <v>0.256</v>
-      </c>
       <c r="AJ3">
-        <v>25.2</v>
+        <v>21.1</v>
       </c>
       <c r="AK3">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="AL3">
-        <v>2.47</v>
+        <v>3.47</v>
       </c>
       <c r="AM3">
-        <v>47.5</v>
+        <v>40.6</v>
       </c>
       <c r="AN3">
-        <v>32.6</v>
+        <v>42.8</v>
       </c>
       <c r="AO3">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AP3">
-        <v>25.2</v>
+        <v>32.3</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1565,28 +1595,28 @@
         <v>60</v>
       </c>
       <c r="AX3">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AY3">
         <v>1.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BA3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BB3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BC3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="BD3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BE3">
-        <v>-280</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="4" spans="1:57">
@@ -1594,7 +1624,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1603,118 +1633,118 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.323</v>
+        <v>0.268</v>
       </c>
       <c r="M4">
-        <v>0.331</v>
+        <v>0.312</v>
       </c>
       <c r="N4">
-        <v>0.08500000000000001</v>
+        <v>0.146</v>
       </c>
       <c r="O4">
-        <v>0.352</v>
+        <v>0.309</v>
       </c>
       <c r="P4">
-        <v>0.408</v>
+        <v>0.414</v>
       </c>
       <c r="Q4">
-        <v>0.759</v>
+        <v>0.723</v>
       </c>
       <c r="R4">
-        <v>2.6</v>
+        <v>20.8</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="T4">
-        <v>37</v>
+        <v>46.8</v>
       </c>
       <c r="U4">
-        <v>30.7</v>
+        <v>33.5</v>
       </c>
       <c r="V4">
-        <v>24.8</v>
+        <v>35.6</v>
       </c>
       <c r="W4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Z4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="AD4">
         <v>4</v>
       </c>
       <c r="AE4">
-        <v>0.202</v>
+        <v>0.209</v>
       </c>
       <c r="AF4">
         <v>0.264</v>
       </c>
       <c r="AG4">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="AH4">
-        <v>0.116</v>
+        <v>0.124</v>
       </c>
       <c r="AI4">
-        <v>0.318</v>
+        <v>0.333</v>
       </c>
       <c r="AJ4">
-        <v>29</v>
+        <v>23.6</v>
       </c>
       <c r="AK4">
-        <v>8.300000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="AL4">
-        <v>2.83</v>
+        <v>3.64</v>
       </c>
       <c r="AM4">
-        <v>43</v>
+        <v>41.8</v>
       </c>
       <c r="AN4">
-        <v>37.8</v>
+        <v>40.8</v>
       </c>
       <c r="AO4">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AP4">
-        <v>31.9</v>
+        <v>29.3</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1723,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1732,34 +1762,34 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4" t="s">
         <v>61</v>
       </c>
       <c r="AX4">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="AY4">
         <v>1.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BA4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BB4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BC4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="BD4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BE4">
-        <v>-205</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="5" spans="1:57">
@@ -1767,7 +1797,7 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1776,121 +1806,121 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>264</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="H5">
-        <v>65</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
       <c r="J5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.246</v>
+        <v>0.322</v>
       </c>
       <c r="M5">
-        <v>0.401</v>
+        <v>0.33</v>
       </c>
       <c r="N5">
-        <v>0.415</v>
+        <v>0.083</v>
       </c>
       <c r="O5">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="P5">
-        <v>0.662</v>
+        <v>0.405</v>
       </c>
       <c r="Q5">
-        <v>0.962</v>
+        <v>0.755</v>
       </c>
       <c r="R5">
-        <v>21.4</v>
+        <v>2.5</v>
       </c>
       <c r="S5">
-        <v>7.1</v>
+        <v>4</v>
       </c>
       <c r="T5">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="U5">
-        <v>42</v>
+        <v>30.6</v>
       </c>
       <c r="V5">
-        <v>40</v>
+        <v>25.6</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Z5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC5">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="AD5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE5">
-        <v>0.281</v>
+        <v>0.221</v>
       </c>
       <c r="AF5">
-        <v>0.413</v>
+        <v>0.344</v>
       </c>
       <c r="AG5">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="AH5">
-        <v>0.351</v>
+        <v>0.26</v>
       </c>
       <c r="AI5">
-        <v>0.632</v>
+        <v>0.481</v>
       </c>
       <c r="AJ5">
-        <v>17.5</v>
+        <v>21.2</v>
       </c>
       <c r="AK5">
-        <v>9.5</v>
+        <v>12.6</v>
       </c>
       <c r="AL5">
-        <v>7.5</v>
+        <v>6.69</v>
       </c>
       <c r="AM5">
-        <v>23.9</v>
+        <v>39.4</v>
       </c>
       <c r="AN5">
-        <v>52.2</v>
+        <v>45.5</v>
       </c>
       <c r="AO5">
-        <v>20.8</v>
+        <v>22.2</v>
       </c>
       <c r="AP5">
-        <v>47.8</v>
+        <v>34</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1899,40 +1929,40 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="s">
         <v>62</v>
       </c>
       <c r="AX5">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="AY5">
         <v>1.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BA5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BB5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BC5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BD5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BE5">
-        <v>-275</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="6" spans="1:57">
@@ -1949,67 +1979,67 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>0.271</v>
+        <v>0.317</v>
       </c>
       <c r="M6">
-        <v>0.317</v>
+        <v>0.36</v>
       </c>
       <c r="N6">
-        <v>0.09</v>
+        <v>0.167</v>
       </c>
       <c r="O6">
-        <v>0.347</v>
+        <v>0.351</v>
       </c>
       <c r="P6">
-        <v>0.361</v>
+        <v>0.484</v>
       </c>
       <c r="Q6">
-        <v>0.708</v>
+        <v>0.835</v>
       </c>
       <c r="R6">
-        <v>24.5</v>
+        <v>20.2</v>
       </c>
       <c r="S6">
-        <v>8.6</v>
+        <v>4.5</v>
       </c>
       <c r="T6">
-        <v>61.3</v>
+        <v>36</v>
       </c>
       <c r="U6">
-        <v>22.6</v>
+        <v>36.5</v>
       </c>
       <c r="V6">
-        <v>29.6</v>
+        <v>33.5</v>
       </c>
       <c r="W6" t="s">
         <v>81</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Z6" t="s">
         <v>70</v>
@@ -2018,64 +2048,64 @@
         <v>81</v>
       </c>
       <c r="AB6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC6">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AE6">
-        <v>0.217</v>
+        <v>0.221</v>
       </c>
       <c r="AF6">
-        <v>0.242</v>
+        <v>0.344</v>
       </c>
       <c r="AG6">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="AH6">
-        <v>0.08400000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="AI6">
-        <v>0.301</v>
+        <v>0.481</v>
       </c>
       <c r="AJ6">
-        <v>27.3</v>
+        <v>21.2</v>
       </c>
       <c r="AK6">
-        <v>4.5</v>
+        <v>12.6</v>
       </c>
       <c r="AL6">
-        <v>2.1</v>
+        <v>6.69</v>
       </c>
       <c r="AM6">
-        <v>23.3</v>
+        <v>39.4</v>
       </c>
       <c r="AN6">
-        <v>50</v>
+        <v>45.5</v>
       </c>
       <c r="AO6">
-        <v>3.3</v>
+        <v>22.2</v>
       </c>
       <c r="AP6">
-        <v>26.7</v>
+        <v>34</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
         <v>0</v>
@@ -2084,28 +2114,28 @@
         <v>63</v>
       </c>
       <c r="AX6">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AY6">
         <v>1.5</v>
       </c>
       <c r="AZ6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BA6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BB6" t="s">
         <v>99</v>
       </c>
       <c r="BC6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD6" t="s">
         <v>70</v>
       </c>
-      <c r="BD6" t="s">
-        <v>87</v>
-      </c>
       <c r="BE6">
-        <v>-240</v>
+        <v>-265</v>
       </c>
     </row>
     <row r="7" spans="1:57">
@@ -2122,67 +2152,67 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.191</v>
+        <v>0.33</v>
       </c>
       <c r="M7">
-        <v>0.258</v>
+        <v>0.365</v>
       </c>
       <c r="N7">
-        <v>0.099</v>
+        <v>0.16</v>
       </c>
       <c r="O7">
-        <v>0.276</v>
+        <v>0.363</v>
       </c>
       <c r="P7">
-        <v>0.29</v>
+        <v>0.489</v>
       </c>
       <c r="Q7">
-        <v>0.5659999999999999</v>
+        <v>0.852</v>
       </c>
       <c r="R7">
-        <v>20.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S7">
-        <v>8.800000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="T7">
-        <v>37.4</v>
+        <v>46</v>
       </c>
       <c r="U7">
-        <v>39.8</v>
+        <v>32.2</v>
       </c>
       <c r="V7">
-        <v>23.8</v>
+        <v>42.5</v>
       </c>
       <c r="W7" t="s">
         <v>82</v>
       </c>
       <c r="X7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Z7" t="s">
         <v>71</v>
@@ -2191,94 +2221,94 @@
         <v>82</v>
       </c>
       <c r="AB7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7">
-        <v>166</v>
+        <v>357</v>
       </c>
       <c r="AD7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE7">
-        <v>0.303</v>
+        <v>0.213</v>
       </c>
       <c r="AF7">
-        <v>0.39</v>
+        <v>0.314</v>
       </c>
       <c r="AG7">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="AH7">
-        <v>0.243</v>
+        <v>0.21</v>
       </c>
       <c r="AI7">
-        <v>0.546</v>
+        <v>0.423</v>
       </c>
       <c r="AJ7">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK7">
-        <v>7.2</v>
+        <v>10.6</v>
       </c>
       <c r="AL7">
-        <v>6.88</v>
+        <v>5.36</v>
       </c>
       <c r="AM7">
-        <v>42.5</v>
+        <v>32.7</v>
       </c>
       <c r="AN7">
-        <v>35.4</v>
+        <v>52.6</v>
       </c>
       <c r="AO7">
-        <v>24.4</v>
+        <v>12.1</v>
       </c>
       <c r="AP7">
-        <v>24.2</v>
+        <v>27.3</v>
       </c>
       <c r="AQ7">
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7" t="s">
         <v>64</v>
       </c>
       <c r="AX7">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AY7">
         <v>1.5</v>
       </c>
       <c r="AZ7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BA7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BB7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="BC7" t="s">
         <v>71</v>
       </c>
       <c r="BD7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="BE7">
-        <v>-250</v>
+        <v>-265</v>
       </c>
     </row>
     <row r="8" spans="1:57">
@@ -2295,67 +2325,67 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.247</v>
+        <v>0.235</v>
       </c>
       <c r="M8">
-        <v>0.353</v>
+        <v>0.309</v>
       </c>
       <c r="N8">
-        <v>0.191</v>
+        <v>0.162</v>
       </c>
       <c r="O8">
-        <v>0.362</v>
+        <v>0.306</v>
       </c>
       <c r="P8">
-        <v>0.438</v>
+        <v>0.397</v>
       </c>
       <c r="Q8">
-        <v>0.8</v>
+        <v>0.703</v>
       </c>
       <c r="R8">
-        <v>23.8</v>
+        <v>17.5</v>
       </c>
       <c r="S8">
-        <v>13.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T8">
-        <v>28.1</v>
+        <v>50.9</v>
       </c>
       <c r="U8">
-        <v>53.1</v>
+        <v>29.5</v>
       </c>
       <c r="V8">
-        <v>32.8</v>
+        <v>30.8</v>
       </c>
       <c r="W8" t="s">
         <v>83</v>
       </c>
       <c r="X8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Z8" t="s">
         <v>72</v>
@@ -2364,64 +2394,64 @@
         <v>83</v>
       </c>
       <c r="AB8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC8">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AD8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE8">
-        <v>0.301</v>
+        <v>0.281</v>
       </c>
       <c r="AF8">
-        <v>0.358</v>
+        <v>0.369</v>
       </c>
       <c r="AG8">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="AH8">
-        <v>0.176</v>
+        <v>0.222</v>
       </c>
       <c r="AI8">
-        <v>0.477</v>
+        <v>0.503</v>
       </c>
       <c r="AJ8">
-        <v>14.1</v>
+        <v>15.1</v>
       </c>
       <c r="AK8">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AL8">
-        <v>4.68</v>
+        <v>5.76</v>
       </c>
       <c r="AM8">
-        <v>40.3</v>
+        <v>42.9</v>
       </c>
       <c r="AN8">
-        <v>37.6</v>
+        <v>39</v>
       </c>
       <c r="AO8">
-        <v>10.7</v>
+        <v>16.7</v>
       </c>
       <c r="AP8">
-        <v>30.5</v>
+        <v>35.7</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8">
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8">
         <v>0</v>
@@ -2430,28 +2460,28 @@
         <v>65</v>
       </c>
       <c r="AX8">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AY8">
         <v>1.5</v>
       </c>
       <c r="AZ8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BA8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BB8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BC8" t="s">
         <v>72</v>
       </c>
       <c r="BD8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BE8">
-        <v>-280</v>
+        <v>-265</v>
       </c>
     </row>
     <row r="9" spans="1:57">
@@ -2468,163 +2498,506 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
         <v>3</v>
       </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.383</v>
+        <v>0.308</v>
       </c>
       <c r="M9">
-        <v>0.405</v>
+        <v>0.443</v>
       </c>
       <c r="N9">
-        <v>0.117</v>
+        <v>0.308</v>
       </c>
       <c r="O9">
-        <v>0.426</v>
+        <v>0.432</v>
       </c>
       <c r="P9">
-        <v>0.5</v>
+        <v>0.616</v>
       </c>
       <c r="Q9">
-        <v>0.926</v>
+        <v>1.048</v>
       </c>
       <c r="R9">
-        <v>11.8</v>
+        <v>17</v>
       </c>
       <c r="S9">
-        <v>6.9</v>
+        <v>17.9</v>
       </c>
       <c r="T9">
-        <v>41.3</v>
+        <v>43.3</v>
       </c>
       <c r="U9">
-        <v>33.8</v>
+        <v>38</v>
       </c>
       <c r="V9">
-        <v>31.3</v>
+        <v>41.9</v>
       </c>
       <c r="W9" t="s">
         <v>84</v>
       </c>
       <c r="X9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Z9" t="s">
         <v>73</v>
       </c>
       <c r="AA9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AB9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC9">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE9">
-        <v>0.219</v>
+        <v>0.199</v>
       </c>
       <c r="AF9">
-        <v>0.228</v>
+        <v>0.278</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AH9">
-        <v>0.041</v>
+        <v>0.181</v>
       </c>
       <c r="AI9">
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
       <c r="AJ9">
-        <v>22.1</v>
+        <v>24.4</v>
       </c>
       <c r="AK9">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="AL9">
-        <v>1.89</v>
+        <v>4.45</v>
       </c>
       <c r="AM9">
-        <v>69.59999999999999</v>
+        <v>29.4</v>
       </c>
       <c r="AN9">
-        <v>12.5</v>
+        <v>53.1</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="AP9">
-        <v>26.3</v>
+        <v>28.5</v>
       </c>
       <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9">
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>1</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9" t="s">
         <v>66</v>
       </c>
       <c r="AX9">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="AY9">
         <v>1.5</v>
       </c>
       <c r="AZ9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE9">
+        <v>-255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>215</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.326</v>
+      </c>
+      <c r="M10">
+        <v>0.382</v>
+      </c>
+      <c r="N10">
+        <v>0.172</v>
+      </c>
+      <c r="O10">
+        <v>0.383</v>
+      </c>
+      <c r="P10">
+        <v>0.498</v>
+      </c>
+      <c r="Q10">
+        <v>0.881</v>
+      </c>
+      <c r="R10">
+        <v>7.2</v>
+      </c>
+      <c r="S10">
+        <v>7.2</v>
+      </c>
+      <c r="T10">
+        <v>37.1</v>
+      </c>
+      <c r="U10">
+        <v>37.6</v>
+      </c>
+      <c r="V10">
+        <v>21.1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>85</v>
+      </c>
+      <c r="X10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10" t="s">
         <v>94</v>
       </c>
-      <c r="BA9" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE9">
-        <v>-275</v>
+      <c r="Z10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC10">
+        <v>22</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0.095</v>
+      </c>
+      <c r="AF10">
+        <v>0.129</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0.048</v>
+      </c>
+      <c r="AI10">
+        <v>0.143</v>
+      </c>
+      <c r="AJ10">
+        <v>27.3</v>
+      </c>
+      <c r="AK10">
+        <v>4.5</v>
+      </c>
+      <c r="AL10">
+        <v>1.72</v>
+      </c>
+      <c r="AM10">
+        <v>60</v>
+      </c>
+      <c r="AN10">
+        <v>20</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>26.7</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX10">
+        <v>180</v>
+      </c>
+      <c r="AY10">
+        <v>1.5</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>103</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE10">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>233</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.305</v>
+      </c>
+      <c r="M11">
+        <v>0.322</v>
+      </c>
+      <c r="N11">
+        <v>0.09</v>
+      </c>
+      <c r="O11">
+        <v>0.344</v>
+      </c>
+      <c r="P11">
+        <v>0.395</v>
+      </c>
+      <c r="Q11">
+        <v>0.739</v>
+      </c>
+      <c r="R11">
+        <v>16.5</v>
+      </c>
+      <c r="S11">
+        <v>6.3</v>
+      </c>
+      <c r="T11">
+        <v>41.7</v>
+      </c>
+      <c r="U11">
+        <v>31.3</v>
+      </c>
+      <c r="V11">
+        <v>22.3</v>
+      </c>
+      <c r="W11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC11">
+        <v>229</v>
+      </c>
+      <c r="AD11">
+        <v>6</v>
+      </c>
+      <c r="AE11">
+        <v>0.214</v>
+      </c>
+      <c r="AF11">
+        <v>0.26</v>
+      </c>
+      <c r="AG11">
+        <v>2.6</v>
+      </c>
+      <c r="AH11">
+        <v>0.141</v>
+      </c>
+      <c r="AI11">
+        <v>0.355</v>
+      </c>
+      <c r="AJ11">
+        <v>22.7</v>
+      </c>
+      <c r="AK11">
+        <v>3.5</v>
+      </c>
+      <c r="AL11">
+        <v>3.16</v>
+      </c>
+      <c r="AM11">
+        <v>53</v>
+      </c>
+      <c r="AN11">
+        <v>29.2</v>
+      </c>
+      <c r="AO11">
+        <v>12.2</v>
+      </c>
+      <c r="AP11">
+        <v>26.8</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX11">
+        <v>180</v>
+      </c>
+      <c r="AY11">
+        <v>1.5</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>102</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE11">
+        <v>-250</v>
       </c>
     </row>
   </sheetData>
@@ -2634,7 +3007,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE3"/>
+  <dimension ref="A1:BE6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2815,142 +3188,142 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L2">
-        <v>0.364</v>
+        <v>0.333</v>
       </c>
       <c r="M2">
-        <v>0.389</v>
+        <v>0.478</v>
       </c>
       <c r="N2">
-        <v>0.182</v>
+        <v>0.378</v>
       </c>
       <c r="O2">
-        <v>0.364</v>
+        <v>0.434</v>
       </c>
       <c r="P2">
-        <v>0.545</v>
+        <v>0.711</v>
       </c>
       <c r="Q2">
-        <v>0.909</v>
+        <v>1.145</v>
       </c>
       <c r="R2">
-        <v>36.4</v>
+        <v>30.2</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="T2">
-        <v>42.9</v>
+        <v>20.7</v>
       </c>
       <c r="U2">
-        <v>14.3</v>
+        <v>41.4</v>
       </c>
       <c r="V2">
-        <v>28.6</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="X2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="Y2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Z2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AA2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="AB2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC2">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="AD2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE2">
-        <v>0.301</v>
+        <v>0.522</v>
       </c>
       <c r="AF2">
-        <v>0.358</v>
+        <v>0.747</v>
       </c>
       <c r="AG2">
-        <v>3.1</v>
+        <v>20.8</v>
       </c>
       <c r="AH2">
-        <v>0.176</v>
+        <v>0.739</v>
       </c>
       <c r="AI2">
-        <v>0.477</v>
+        <v>1.261</v>
       </c>
       <c r="AJ2">
-        <v>14.1</v>
+        <v>20.8</v>
       </c>
       <c r="AK2">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>4.68</v>
+        <v>18.96</v>
       </c>
       <c r="AM2">
-        <v>40.3</v>
+        <v>23.5</v>
       </c>
       <c r="AN2">
-        <v>37.6</v>
+        <v>35.3</v>
       </c>
       <c r="AO2">
-        <v>10.7</v>
+        <v>83.3</v>
       </c>
       <c r="AP2">
-        <v>30.5</v>
+        <v>44.4</v>
       </c>
       <c r="AQ2">
         <v>1</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>1</v>
@@ -2959,165 +3332,165 @@
         <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AX2">
-        <v>-185</v>
+        <v>-155</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BA2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BB2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="BC2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="BD2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="BE2">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3">
-        <v>0.315</v>
+        <v>0.333</v>
       </c>
       <c r="M3">
-        <v>0.399</v>
+        <v>0.478</v>
       </c>
       <c r="N3">
-        <v>0.259</v>
+        <v>0.378</v>
       </c>
       <c r="O3">
-        <v>0.362</v>
+        <v>0.434</v>
       </c>
       <c r="P3">
-        <v>0.574</v>
+        <v>0.711</v>
       </c>
       <c r="Q3">
-        <v>0.9360000000000001</v>
+        <v>1.145</v>
       </c>
       <c r="R3">
-        <v>27.6</v>
+        <v>30.2</v>
       </c>
       <c r="S3">
-        <v>6.9</v>
+        <v>13.2</v>
       </c>
       <c r="T3">
-        <v>35.1</v>
+        <v>20.7</v>
       </c>
       <c r="U3">
-        <v>40.5</v>
+        <v>41.4</v>
       </c>
       <c r="V3">
-        <v>28.9</v>
+        <v>31</v>
       </c>
       <c r="W3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="X3" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="Y3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Z3" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AA3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="AB3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC3">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="AD3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE3">
-        <v>0.301</v>
+        <v>0.522</v>
       </c>
       <c r="AF3">
-        <v>0.358</v>
+        <v>0.747</v>
       </c>
       <c r="AG3">
-        <v>3.1</v>
+        <v>20.8</v>
       </c>
       <c r="AH3">
-        <v>0.176</v>
+        <v>0.739</v>
       </c>
       <c r="AI3">
-        <v>0.477</v>
+        <v>1.261</v>
       </c>
       <c r="AJ3">
-        <v>14.1</v>
+        <v>20.8</v>
       </c>
       <c r="AK3">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>4.68</v>
+        <v>18.96</v>
       </c>
       <c r="AM3">
-        <v>40.3</v>
+        <v>23.5</v>
       </c>
       <c r="AN3">
-        <v>37.6</v>
+        <v>35.3</v>
       </c>
       <c r="AO3">
-        <v>10.7</v>
+        <v>83.3</v>
       </c>
       <c r="AP3">
-        <v>30.5</v>
+        <v>44.4</v>
       </c>
       <c r="AQ3">
         <v>1</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -3132,31 +3505,550 @@
         <v>0</v>
       </c>
       <c r="AW3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AX3">
-        <v>-245</v>
+        <v>-155</v>
       </c>
       <c r="AY3">
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>180</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>0.333</v>
+      </c>
+      <c r="M4">
+        <v>0.478</v>
+      </c>
+      <c r="N4">
+        <v>0.378</v>
+      </c>
+      <c r="O4">
+        <v>0.434</v>
+      </c>
+      <c r="P4">
+        <v>0.711</v>
+      </c>
+      <c r="Q4">
+        <v>1.145</v>
+      </c>
+      <c r="R4">
+        <v>30.2</v>
+      </c>
+      <c r="S4">
+        <v>13.2</v>
+      </c>
+      <c r="T4">
+        <v>20.7</v>
+      </c>
+      <c r="U4">
+        <v>41.4</v>
+      </c>
+      <c r="V4">
+        <v>31</v>
+      </c>
+      <c r="W4" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y4" t="s">
         <v>94</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="Z4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4">
+        <v>24</v>
+      </c>
+      <c r="AD4">
+        <v>5</v>
+      </c>
+      <c r="AE4">
+        <v>0.522</v>
+      </c>
+      <c r="AF4">
+        <v>0.747</v>
+      </c>
+      <c r="AG4">
+        <v>20.8</v>
+      </c>
+      <c r="AH4">
+        <v>0.739</v>
+      </c>
+      <c r="AI4">
+        <v>1.261</v>
+      </c>
+      <c r="AJ4">
+        <v>20.8</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>18.96</v>
+      </c>
+      <c r="AM4">
+        <v>23.5</v>
+      </c>
+      <c r="AN4">
+        <v>35.3</v>
+      </c>
+      <c r="AO4">
+        <v>83.3</v>
+      </c>
+      <c r="AP4">
+        <v>44.4</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX4">
+        <v>-155</v>
+      </c>
+      <c r="AY4">
+        <v>0.5</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>180</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>0.333</v>
+      </c>
+      <c r="M5">
+        <v>0.478</v>
+      </c>
+      <c r="N5">
+        <v>0.378</v>
+      </c>
+      <c r="O5">
+        <v>0.434</v>
+      </c>
+      <c r="P5">
+        <v>0.711</v>
+      </c>
+      <c r="Q5">
+        <v>1.145</v>
+      </c>
+      <c r="R5">
+        <v>30.2</v>
+      </c>
+      <c r="S5">
+        <v>13.2</v>
+      </c>
+      <c r="T5">
+        <v>20.7</v>
+      </c>
+      <c r="U5">
+        <v>41.4</v>
+      </c>
+      <c r="V5">
+        <v>31</v>
+      </c>
+      <c r="W5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC5">
+        <v>24</v>
+      </c>
+      <c r="AD5">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>0.522</v>
+      </c>
+      <c r="AF5">
+        <v>0.747</v>
+      </c>
+      <c r="AG5">
+        <v>20.8</v>
+      </c>
+      <c r="AH5">
+        <v>0.739</v>
+      </c>
+      <c r="AI5">
+        <v>1.261</v>
+      </c>
+      <c r="AJ5">
+        <v>20.8</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>18.96</v>
+      </c>
+      <c r="AM5">
+        <v>23.5</v>
+      </c>
+      <c r="AN5">
+        <v>35.3</v>
+      </c>
+      <c r="AO5">
+        <v>83.3</v>
+      </c>
+      <c r="AP5">
+        <v>44.4</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX5">
+        <v>-155</v>
+      </c>
+      <c r="AY5">
+        <v>0.5</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>128</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.352</v>
+      </c>
+      <c r="M6">
+        <v>0.421</v>
+      </c>
+      <c r="N6">
+        <v>0.234</v>
+      </c>
+      <c r="O6">
+        <v>0.41</v>
+      </c>
+      <c r="P6">
+        <v>0.586</v>
+      </c>
+      <c r="Q6">
+        <v>0.996</v>
+      </c>
+      <c r="R6">
+        <v>20.1</v>
+      </c>
+      <c r="S6">
+        <v>7.6</v>
+      </c>
+      <c r="T6">
+        <v>38.6</v>
+      </c>
+      <c r="U6">
+        <v>41.6</v>
+      </c>
+      <c r="V6">
+        <v>45.5</v>
+      </c>
+      <c r="W6" t="s">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s">
         <v>95</v>
       </c>
-      <c r="BB3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE3">
-        <v>175</v>
+      <c r="Z6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC6">
+        <v>17</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>0.4</v>
+      </c>
+      <c r="AF6">
+        <v>0.506</v>
+      </c>
+      <c r="AG6">
+        <v>5.9</v>
+      </c>
+      <c r="AH6">
+        <v>0.333</v>
+      </c>
+      <c r="AI6">
+        <v>0.733</v>
+      </c>
+      <c r="AJ6">
+        <v>5.9</v>
+      </c>
+      <c r="AK6">
+        <v>11.8</v>
+      </c>
+      <c r="AL6">
+        <v>8.24</v>
+      </c>
+      <c r="AM6">
+        <v>21.4</v>
+      </c>
+      <c r="AN6">
+        <v>42.9</v>
+      </c>
+      <c r="AO6">
+        <v>16.7</v>
+      </c>
+      <c r="AP6">
+        <v>35.7</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX6">
+        <v>-260</v>
+      </c>
+      <c r="AY6">
+        <v>0.5</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE6">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="106">
   <si>
     <t>fg_name</t>
   </si>
@@ -196,109 +196,115 @@
     <t>Merge_Type</t>
   </si>
   <si>
+    <t>Marcus Semien</t>
+  </si>
+  <si>
+    <t>Corey Seager</t>
+  </si>
+  <si>
+    <t>Wyatt Langford</t>
+  </si>
+  <si>
+    <t>Lane Thomas</t>
+  </si>
+  <si>
+    <t>CJ Abrams</t>
+  </si>
+  <si>
+    <t>Elly De La Cruz</t>
+  </si>
+  <si>
     <t>Nico Hoerner</t>
   </si>
   <si>
-    <t>Seiya Suzuki</t>
-  </si>
-  <si>
-    <t>Manny Machado</t>
-  </si>
-  <si>
-    <t>Luis Arraez</t>
-  </si>
-  <si>
-    <t>Jackson Merrill</t>
-  </si>
-  <si>
-    <t>Yandy Diaz</t>
-  </si>
-  <si>
-    <t>George Springer</t>
+    <t>Masyn Winn</t>
+  </si>
+  <si>
+    <t>Vinnie Pasquantino</t>
+  </si>
+  <si>
+    <t>Michael Massey</t>
   </si>
   <si>
     <t>Juan Soto</t>
   </si>
   <si>
-    <t>Steven Kwan</t>
-  </si>
-  <si>
-    <t>Masyn Winn</t>
+    <t>Yainer Diaz</t>
+  </si>
+  <si>
+    <t>Texas Rangers</t>
+  </si>
+  <si>
+    <t>Washington Nationals</t>
+  </si>
+  <si>
+    <t>Cincinnati Reds</t>
   </si>
   <si>
     <t>Chicago Cubs</t>
   </si>
   <si>
-    <t>San Diego Padres</t>
+    <t>St. Louis Cardinals</t>
+  </si>
+  <si>
+    <t>Kansas City Royals</t>
+  </si>
+  <si>
+    <t>New York Yankees</t>
+  </si>
+  <si>
+    <t>Houston Astros</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>vs R</t>
+  </si>
+  <si>
+    <t>vs L</t>
+  </si>
+  <si>
+    <t>Jose Berrios</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Tyler Alexander</t>
+  </si>
+  <si>
+    <t>Cole Ragans</t>
+  </si>
+  <si>
+    <t>DJ Herz</t>
+  </si>
+  <si>
+    <t>Javier Assad</t>
+  </si>
+  <si>
+    <t>Tanner Houck</t>
+  </si>
+  <si>
+    <t>River Ryan</t>
+  </si>
+  <si>
+    <t>Toronto Blue Jays</t>
   </si>
   <si>
     <t>Tampa Bay Rays</t>
   </si>
   <si>
-    <t>Toronto Blue Jays</t>
-  </si>
-  <si>
-    <t>New York Yankees</t>
-  </si>
-  <si>
-    <t>Cleveland Indians</t>
-  </si>
-  <si>
-    <t>St. Louis Cardinals</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>vs R</t>
-  </si>
-  <si>
-    <t>vs L</t>
-  </si>
-  <si>
-    <t>Seth Lugo</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
-    <t>Andrew Abbott</t>
-  </si>
-  <si>
-    <t>Michael Lorenzen</t>
-  </si>
-  <si>
-    <t>Kutter Crawford</t>
-  </si>
-  <si>
-    <t>Tyler Phillips</t>
-  </si>
-  <si>
-    <t>Jake Irvin</t>
-  </si>
-  <si>
-    <t>Kansas City Royals</t>
-  </si>
-  <si>
-    <t>Baltimore Orioles</t>
-  </si>
-  <si>
-    <t>Cincinnati Reds</t>
-  </si>
-  <si>
-    <t>Texas Rangers</t>
-  </si>
-  <si>
     <t>Boston Red Sox</t>
   </si>
   <si>
-    <t>Philadelphia Phillies</t>
-  </si>
-  <si>
-    <t>Washington Nationals</t>
+    <t>Los Angeles Dodgers</t>
   </si>
   <si>
     <t>RHP</t>
@@ -307,58 +313,28 @@
     <t>LHP</t>
   </si>
   <si>
+    <t>José Berríos</t>
+  </si>
+  <si>
     <t>hits</t>
   </si>
   <si>
     <t>draftkings</t>
   </si>
   <si>
-    <t>2024-07-27T23:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-27T20:06:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-27T20:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-27T19:08:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-27T23:16:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-27T22:06:00Z</t>
-  </si>
-  <si>
-    <t>Cleveland Guardians</t>
-  </si>
-  <si>
-    <t>Tyler Fitzgerald</t>
-  </si>
-  <si>
-    <t>Yordan Alvarez</t>
-  </si>
-  <si>
-    <t>San Francisco Giants</t>
-  </si>
-  <si>
-    <t>Houston Astros</t>
-  </si>
-  <si>
-    <t>Tanner Gordon</t>
-  </si>
-  <si>
-    <t>Justin Wrobleski</t>
-  </si>
-  <si>
-    <t>Colorado Rockies</t>
-  </si>
-  <si>
-    <t>Los Angeles Dodgers</t>
-  </si>
-  <si>
-    <t>2024-07-27T23:05:00Z</t>
+    <t>2024-07-28T17:38:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-28T18:15:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-28T15:36:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-28T18:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-28T23:11:00Z</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE11"/>
+  <dimension ref="A1:BE13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1278,7 +1254,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1287,127 +1263,127 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.25</v>
+        <v>0.225</v>
       </c>
       <c r="M2">
-        <v>0.304</v>
+        <v>0.297</v>
       </c>
       <c r="N2">
-        <v>0.105</v>
+        <v>0.152</v>
       </c>
       <c r="O2">
-        <v>0.326</v>
+        <v>0.299</v>
       </c>
       <c r="P2">
-        <v>0.355</v>
+        <v>0.377</v>
       </c>
       <c r="Q2">
-        <v>0.681</v>
+        <v>0.676</v>
       </c>
       <c r="R2">
-        <v>10.2</v>
+        <v>13.1</v>
       </c>
       <c r="S2">
-        <v>7.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T2">
-        <v>46.8</v>
+        <v>39.8</v>
       </c>
       <c r="U2">
+        <v>39.8</v>
+      </c>
+      <c r="V2">
         <v>31.3</v>
       </c>
-      <c r="V2">
-        <v>18.9</v>
-      </c>
       <c r="W2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AB2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AC2">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="AD2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE2">
-        <v>0.205</v>
+        <v>0.278</v>
       </c>
       <c r="AF2">
-        <v>0.256</v>
+        <v>0.33</v>
       </c>
       <c r="AG2">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AH2">
-        <v>0.138</v>
+        <v>0.147</v>
       </c>
       <c r="AI2">
-        <v>0.343</v>
+        <v>0.425</v>
       </c>
       <c r="AJ2">
-        <v>21.1</v>
+        <v>16.5</v>
       </c>
       <c r="AK2">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="AL2">
-        <v>3.47</v>
+        <v>4.57</v>
       </c>
       <c r="AM2">
-        <v>40.6</v>
+        <v>46.6</v>
       </c>
       <c r="AN2">
-        <v>42.8</v>
+        <v>34.5</v>
       </c>
       <c r="AO2">
-        <v>8.800000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="AP2">
-        <v>32.3</v>
+        <v>34.7</v>
       </c>
       <c r="AQ2">
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -1422,28 +1398,28 @@
         <v>59</v>
       </c>
       <c r="AX2">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="AY2">
         <v>1.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BA2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BB2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="BD2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BE2">
-        <v>-195</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="3" spans="1:57">
@@ -1451,7 +1427,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -1460,124 +1436,124 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.28</v>
+      </c>
+      <c r="M3">
+        <v>0.382</v>
+      </c>
+      <c r="N3">
+        <v>0.237</v>
+      </c>
+      <c r="O3">
+        <v>0.391</v>
+      </c>
+      <c r="P3">
+        <v>0.517</v>
+      </c>
+      <c r="Q3">
+        <v>0.909</v>
+      </c>
+      <c r="R3">
+        <v>13</v>
+      </c>
+      <c r="S3">
+        <v>14.9</v>
+      </c>
+      <c r="T3">
+        <v>39.6</v>
+      </c>
+      <c r="U3">
+        <v>45.7</v>
+      </c>
+      <c r="V3">
+        <v>42.1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3">
+        <v>280</v>
+      </c>
+      <c r="AD3">
+        <v>14</v>
+      </c>
+      <c r="AE3">
+        <v>0.213</v>
+      </c>
+      <c r="AF3">
+        <v>0.319</v>
+      </c>
+      <c r="AG3">
         <v>5</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.27</v>
-      </c>
-      <c r="M3">
-        <v>0.349</v>
-      </c>
-      <c r="N3">
-        <v>0.211</v>
-      </c>
-      <c r="O3">
-        <v>0.331</v>
-      </c>
-      <c r="P3">
-        <v>0.481</v>
-      </c>
-      <c r="Q3">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="R3">
-        <v>30.4</v>
-      </c>
-      <c r="S3">
-        <v>7.2</v>
-      </c>
-      <c r="T3">
-        <v>35.6</v>
-      </c>
-      <c r="U3">
-        <v>46.3</v>
-      </c>
-      <c r="V3">
-        <v>37.5</v>
-      </c>
-      <c r="W3" t="s">
-        <v>80</v>
-      </c>
-      <c r="X3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC3">
-        <v>256</v>
-      </c>
-      <c r="AD3">
-        <v>7</v>
-      </c>
-      <c r="AE3">
+      <c r="AH3">
         <v>0.205</v>
       </c>
-      <c r="AF3">
-        <v>0.256</v>
-      </c>
-      <c r="AG3">
-        <v>2.7</v>
-      </c>
-      <c r="AH3">
-        <v>0.138</v>
-      </c>
       <c r="AI3">
-        <v>0.343</v>
+        <v>0.418</v>
       </c>
       <c r="AJ3">
-        <v>21.1</v>
+        <v>19.3</v>
       </c>
       <c r="AK3">
-        <v>3.9</v>
+        <v>9.6</v>
       </c>
       <c r="AL3">
-        <v>3.47</v>
+        <v>5.73</v>
       </c>
       <c r="AM3">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="AN3">
-        <v>42.8</v>
+        <v>42.4</v>
       </c>
       <c r="AO3">
-        <v>8.800000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="AP3">
-        <v>32.3</v>
+        <v>36.1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -1595,28 +1571,28 @@
         <v>60</v>
       </c>
       <c r="AX3">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="AY3">
         <v>1.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BA3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BB3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="BD3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BE3">
-        <v>-240</v>
+        <v>-255</v>
       </c>
     </row>
     <row r="4" spans="1:57">
@@ -1624,7 +1600,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1633,118 +1609,118 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
+        <v>0.232</v>
+      </c>
+      <c r="M4">
         <v>0.268</v>
       </c>
-      <c r="M4">
-        <v>0.312</v>
-      </c>
       <c r="N4">
-        <v>0.146</v>
+        <v>0.091</v>
       </c>
       <c r="O4">
-        <v>0.309</v>
+        <v>0.285</v>
       </c>
       <c r="P4">
-        <v>0.414</v>
+        <v>0.324</v>
       </c>
       <c r="Q4">
-        <v>0.723</v>
+        <v>0.608</v>
       </c>
       <c r="R4">
-        <v>20.8</v>
+        <v>19.6</v>
       </c>
       <c r="S4">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="T4">
-        <v>46.8</v>
+        <v>41.9</v>
       </c>
       <c r="U4">
-        <v>33.5</v>
+        <v>41.9</v>
       </c>
       <c r="V4">
-        <v>35.6</v>
+        <v>34.6</v>
       </c>
       <c r="W4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="X4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Z4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="AB4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AC4">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="AD4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE4">
-        <v>0.209</v>
+        <v>0.278</v>
       </c>
       <c r="AF4">
-        <v>0.264</v>
+        <v>0.33</v>
       </c>
       <c r="AG4">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AH4">
-        <v>0.124</v>
+        <v>0.147</v>
       </c>
       <c r="AI4">
-        <v>0.333</v>
+        <v>0.425</v>
       </c>
       <c r="AJ4">
-        <v>23.6</v>
+        <v>16.5</v>
       </c>
       <c r="AK4">
-        <v>6.3</v>
+        <v>5.2</v>
       </c>
       <c r="AL4">
-        <v>3.64</v>
+        <v>4.57</v>
       </c>
       <c r="AM4">
-        <v>41.8</v>
+        <v>46.6</v>
       </c>
       <c r="AN4">
-        <v>40.8</v>
+        <v>34.5</v>
       </c>
       <c r="AO4">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="AP4">
-        <v>29.3</v>
+        <v>34.7</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1753,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1762,34 +1738,34 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="s">
         <v>61</v>
       </c>
       <c r="AX4">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="AY4">
         <v>1.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BA4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BB4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BC4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="BD4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BE4">
-        <v>-260</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="5" spans="1:57">
@@ -1797,7 +1773,7 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1806,124 +1782,124 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>0.322</v>
+        <v>0.218</v>
       </c>
       <c r="M5">
-        <v>0.33</v>
+        <v>0.285</v>
       </c>
       <c r="N5">
-        <v>0.083</v>
+        <v>0.133</v>
       </c>
       <c r="O5">
-        <v>0.35</v>
+        <v>0.294</v>
       </c>
       <c r="P5">
-        <v>0.405</v>
+        <v>0.351</v>
       </c>
       <c r="Q5">
-        <v>0.755</v>
+        <v>0.645</v>
       </c>
       <c r="R5">
-        <v>2.5</v>
+        <v>24.8</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T5">
-        <v>37.6</v>
+        <v>38.7</v>
       </c>
       <c r="U5">
-        <v>30.6</v>
+        <v>40</v>
       </c>
       <c r="V5">
-        <v>25.6</v>
+        <v>35.1</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Z5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AC5">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="AD5">
         <v>10</v>
       </c>
       <c r="AE5">
-        <v>0.221</v>
+        <v>0.274</v>
       </c>
       <c r="AF5">
-        <v>0.344</v>
+        <v>0.326</v>
       </c>
       <c r="AG5">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
       <c r="AH5">
-        <v>0.26</v>
+        <v>0.186</v>
       </c>
       <c r="AI5">
-        <v>0.481</v>
+        <v>0.46</v>
       </c>
       <c r="AJ5">
-        <v>21.2</v>
+        <v>15.1</v>
       </c>
       <c r="AK5">
-        <v>12.6</v>
+        <v>2.7</v>
       </c>
       <c r="AL5">
-        <v>6.69</v>
+        <v>4.41</v>
       </c>
       <c r="AM5">
-        <v>39.4</v>
+        <v>45.2</v>
       </c>
       <c r="AN5">
-        <v>45.5</v>
+        <v>37.1</v>
       </c>
       <c r="AO5">
-        <v>22.2</v>
+        <v>12.8</v>
       </c>
       <c r="AP5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -1935,34 +1911,34 @@
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="s">
         <v>62</v>
       </c>
       <c r="AX5">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="AY5">
         <v>1.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BA5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BB5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BC5" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="BD5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BE5">
-        <v>-190</v>
+        <v>-275</v>
       </c>
     </row>
     <row r="6" spans="1:57">
@@ -1970,7 +1946,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1979,118 +1955,118 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>266</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
         <v>6</v>
       </c>
-      <c r="H6">
-        <v>252</v>
-      </c>
-      <c r="I6">
+      <c r="L6">
+        <v>0.244</v>
+      </c>
+      <c r="M6">
+        <v>0.336</v>
+      </c>
+      <c r="N6">
+        <v>0.214</v>
+      </c>
+      <c r="O6">
+        <v>0.326</v>
+      </c>
+      <c r="P6">
+        <v>0.459</v>
+      </c>
+      <c r="Q6">
+        <v>0.784</v>
+      </c>
+      <c r="R6">
+        <v>18.2</v>
+      </c>
+      <c r="S6">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="T6">
+        <v>39</v>
+      </c>
+      <c r="U6">
+        <v>39.4</v>
+      </c>
+      <c r="V6">
+        <v>36</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC6">
+        <v>228</v>
+      </c>
+      <c r="AD6">
         <v>8</v>
       </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.317</v>
-      </c>
-      <c r="M6">
-        <v>0.36</v>
-      </c>
-      <c r="N6">
-        <v>0.167</v>
-      </c>
-      <c r="O6">
-        <v>0.351</v>
-      </c>
-      <c r="P6">
-        <v>0.484</v>
-      </c>
-      <c r="Q6">
-        <v>0.835</v>
-      </c>
-      <c r="R6">
-        <v>20.2</v>
-      </c>
-      <c r="S6">
-        <v>4.5</v>
-      </c>
-      <c r="T6">
-        <v>36</v>
-      </c>
-      <c r="U6">
-        <v>36.5</v>
-      </c>
-      <c r="V6">
-        <v>33.5</v>
-      </c>
-      <c r="W6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC6">
-        <v>151</v>
-      </c>
-      <c r="AD6">
-        <v>10</v>
-      </c>
       <c r="AE6">
-        <v>0.221</v>
+        <v>0.274</v>
       </c>
       <c r="AF6">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="AG6">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="AH6">
-        <v>0.26</v>
+        <v>0.217</v>
       </c>
       <c r="AI6">
-        <v>0.481</v>
+        <v>0.491</v>
       </c>
       <c r="AJ6">
-        <v>21.2</v>
+        <v>18</v>
       </c>
       <c r="AK6">
-        <v>12.6</v>
+        <v>5.3</v>
       </c>
       <c r="AL6">
-        <v>6.69</v>
+        <v>4.24</v>
       </c>
       <c r="AM6">
-        <v>39.4</v>
+        <v>35.5</v>
       </c>
       <c r="AN6">
-        <v>45.5</v>
+        <v>40.1</v>
       </c>
       <c r="AO6">
-        <v>22.2</v>
+        <v>11.6</v>
       </c>
       <c r="AP6">
-        <v>34</v>
+        <v>37.9</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2102,40 +2078,40 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6" t="s">
         <v>63</v>
       </c>
       <c r="AX6">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AY6">
         <v>1.5</v>
       </c>
       <c r="AZ6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BA6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BB6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="BC6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="BD6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BE6">
-        <v>-265</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="7" spans="1:57">
@@ -2143,7 +2119,7 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
@@ -2152,124 +2128,124 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>0.33</v>
+        <v>0.238</v>
       </c>
       <c r="M7">
-        <v>0.365</v>
+        <v>0.334</v>
       </c>
       <c r="N7">
-        <v>0.16</v>
+        <v>0.162</v>
       </c>
       <c r="O7">
-        <v>0.363</v>
+        <v>0.349</v>
       </c>
       <c r="P7">
-        <v>0.489</v>
+        <v>0.4</v>
       </c>
       <c r="Q7">
-        <v>0.852</v>
+        <v>0.749</v>
       </c>
       <c r="R7">
-        <v>8.800000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="S7">
-        <v>5.9</v>
+        <v>11.7</v>
       </c>
       <c r="T7">
-        <v>46</v>
+        <v>51.2</v>
       </c>
       <c r="U7">
+        <v>29.8</v>
+      </c>
+      <c r="V7">
+        <v>25</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7">
+        <v>197</v>
+      </c>
+      <c r="AD7">
+        <v>10</v>
+      </c>
+      <c r="AE7">
+        <v>0.286</v>
+      </c>
+      <c r="AF7">
+        <v>0.357</v>
+      </c>
+      <c r="AG7">
+        <v>5.1</v>
+      </c>
+      <c r="AH7">
+        <v>0.225</v>
+      </c>
+      <c r="AI7">
+        <v>0.511</v>
+      </c>
+      <c r="AJ7">
+        <v>19.8</v>
+      </c>
+      <c r="AK7">
+        <v>5.6</v>
+      </c>
+      <c r="AL7">
+        <v>5.1</v>
+      </c>
+      <c r="AM7">
+        <v>29.2</v>
+      </c>
+      <c r="AN7">
+        <v>47.2</v>
+      </c>
+      <c r="AO7">
+        <v>14.7</v>
+      </c>
+      <c r="AP7">
         <v>32.2</v>
       </c>
-      <c r="V7">
-        <v>42.5</v>
-      </c>
-      <c r="W7" t="s">
-        <v>82</v>
-      </c>
-      <c r="X7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC7">
-        <v>357</v>
-      </c>
-      <c r="AD7">
-        <v>16</v>
-      </c>
-      <c r="AE7">
-        <v>0.213</v>
-      </c>
-      <c r="AF7">
-        <v>0.314</v>
-      </c>
-      <c r="AG7">
-        <v>4.5</v>
-      </c>
-      <c r="AH7">
-        <v>0.21</v>
-      </c>
-      <c r="AI7">
-        <v>0.423</v>
-      </c>
-      <c r="AJ7">
-        <v>18.5</v>
-      </c>
-      <c r="AK7">
-        <v>10.6</v>
-      </c>
-      <c r="AL7">
-        <v>5.36</v>
-      </c>
-      <c r="AM7">
-        <v>32.7</v>
-      </c>
-      <c r="AN7">
-        <v>52.6</v>
-      </c>
-      <c r="AO7">
-        <v>12.1</v>
-      </c>
-      <c r="AP7">
-        <v>27.3</v>
-      </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7">
         <v>1</v>
@@ -2278,37 +2254,37 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="s">
         <v>64</v>
       </c>
       <c r="AX7">
-        <v>190</v>
+        <v>-125</v>
       </c>
       <c r="AY7">
         <v>1.5</v>
       </c>
       <c r="AZ7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BA7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BB7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="BC7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="BD7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="BE7">
-        <v>-265</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="8" spans="1:57">
@@ -2316,7 +2292,7 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -2325,118 +2301,118 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.264</v>
+      </c>
+      <c r="M8">
+        <v>0.294</v>
+      </c>
+      <c r="N8">
+        <v>0.042</v>
+      </c>
+      <c r="O8">
+        <v>0.346</v>
+      </c>
+      <c r="P8">
+        <v>0.306</v>
+      </c>
+      <c r="Q8">
+        <v>0.651</v>
+      </c>
+      <c r="R8">
+        <v>12.3</v>
+      </c>
+      <c r="S8">
+        <v>8.6</v>
+      </c>
+      <c r="T8">
+        <v>48.4</v>
+      </c>
+      <c r="U8">
+        <v>25.8</v>
+      </c>
+      <c r="V8">
+        <v>29</v>
+      </c>
+      <c r="W8" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>277</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC8">
+        <v>406</v>
+      </c>
+      <c r="AD8">
         <v>8</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.235</v>
-      </c>
-      <c r="M8">
-        <v>0.309</v>
-      </c>
-      <c r="N8">
-        <v>0.162</v>
-      </c>
-      <c r="O8">
-        <v>0.306</v>
-      </c>
-      <c r="P8">
-        <v>0.397</v>
-      </c>
-      <c r="Q8">
-        <v>0.703</v>
-      </c>
-      <c r="R8">
-        <v>17.5</v>
-      </c>
-      <c r="S8">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="T8">
-        <v>50.9</v>
-      </c>
-      <c r="U8">
-        <v>29.5</v>
-      </c>
-      <c r="V8">
-        <v>30.8</v>
-      </c>
-      <c r="W8" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC8">
-        <v>205</v>
-      </c>
-      <c r="AD8">
-        <v>10</v>
-      </c>
       <c r="AE8">
-        <v>0.281</v>
+        <v>0.207</v>
       </c>
       <c r="AF8">
-        <v>0.369</v>
+        <v>0.267</v>
       </c>
       <c r="AG8">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="AH8">
-        <v>0.222</v>
+        <v>0.116</v>
       </c>
       <c r="AI8">
-        <v>0.503</v>
+        <v>0.323</v>
       </c>
       <c r="AJ8">
-        <v>15.1</v>
+        <v>30.5</v>
       </c>
       <c r="AK8">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AL8">
-        <v>5.76</v>
+        <v>2.79</v>
       </c>
       <c r="AM8">
-        <v>42.9</v>
+        <v>38.4</v>
       </c>
       <c r="AN8">
-        <v>39</v>
+        <v>40.9</v>
       </c>
       <c r="AO8">
-        <v>16.7</v>
+        <v>8.1</v>
       </c>
       <c r="AP8">
-        <v>35.7</v>
+        <v>30.1</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2466,22 +2442,22 @@
         <v>1.5</v>
       </c>
       <c r="AZ8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BA8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BB8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="BC8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BD8" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="BE8">
-        <v>-265</v>
+        <v>-260</v>
       </c>
     </row>
     <row r="9" spans="1:57">
@@ -2489,7 +2465,7 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -2498,121 +2474,121 @@
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>118</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="H9">
-        <v>263</v>
-      </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.308</v>
+        <v>0.246</v>
       </c>
       <c r="M9">
-        <v>0.443</v>
+        <v>0.323</v>
       </c>
       <c r="N9">
-        <v>0.308</v>
+        <v>0.195</v>
       </c>
       <c r="O9">
-        <v>0.432</v>
+        <v>0.31</v>
       </c>
       <c r="P9">
-        <v>0.616</v>
+        <v>0.441</v>
       </c>
       <c r="Q9">
-        <v>1.048</v>
+        <v>0.751</v>
       </c>
       <c r="R9">
-        <v>17</v>
+        <v>21.7</v>
       </c>
       <c r="S9">
-        <v>17.9</v>
+        <v>8.5</v>
       </c>
       <c r="T9">
-        <v>43.3</v>
+        <v>31.1</v>
       </c>
       <c r="U9">
-        <v>38</v>
+        <v>44.4</v>
       </c>
       <c r="V9">
-        <v>41.9</v>
+        <v>27.8</v>
       </c>
       <c r="W9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="X9" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Z9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AB9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AC9">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="AD9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE9">
-        <v>0.199</v>
+        <v>0.252</v>
       </c>
       <c r="AF9">
-        <v>0.278</v>
+        <v>0.332</v>
       </c>
       <c r="AG9">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AH9">
-        <v>0.181</v>
+        <v>0.2</v>
       </c>
       <c r="AI9">
-        <v>0.38</v>
+        <v>0.452</v>
       </c>
       <c r="AJ9">
-        <v>24.4</v>
+        <v>28.6</v>
       </c>
       <c r="AK9">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="AL9">
-        <v>4.45</v>
+        <v>4.37</v>
       </c>
       <c r="AM9">
-        <v>29.4</v>
+        <v>33.3</v>
       </c>
       <c r="AN9">
-        <v>53.1</v>
+        <v>48.7</v>
       </c>
       <c r="AO9">
-        <v>12.9</v>
+        <v>15.8</v>
       </c>
       <c r="AP9">
-        <v>28.5</v>
+        <v>36.3</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>1</v>
@@ -2621,40 +2597,40 @@
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="s">
         <v>66</v>
       </c>
       <c r="AX9">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="AY9">
         <v>1.5</v>
       </c>
       <c r="AZ9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BA9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BB9" t="s">
         <v>102</v>
       </c>
       <c r="BC9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="BD9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BE9">
-        <v>-255</v>
+        <v>-280</v>
       </c>
     </row>
     <row r="10" spans="1:57">
@@ -2662,7 +2638,7 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
@@ -2671,121 +2647,124 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.326</v>
+        <v>0.263</v>
       </c>
       <c r="M10">
-        <v>0.382</v>
+        <v>0.329</v>
       </c>
       <c r="N10">
-        <v>0.172</v>
+        <v>0.171</v>
       </c>
       <c r="O10">
-        <v>0.383</v>
+        <v>0.332</v>
       </c>
       <c r="P10">
-        <v>0.498</v>
+        <v>0.433</v>
       </c>
       <c r="Q10">
-        <v>0.881</v>
+        <v>0.766</v>
       </c>
       <c r="R10">
-        <v>7.2</v>
+        <v>11.9</v>
       </c>
       <c r="S10">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="T10">
-        <v>37.1</v>
+        <v>35.9</v>
       </c>
       <c r="U10">
-        <v>37.6</v>
+        <v>45</v>
       </c>
       <c r="V10">
-        <v>21.1</v>
+        <v>36.3</v>
       </c>
       <c r="W10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="X10" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Z10" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>89</v>
       </c>
       <c r="AB10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AC10">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE10">
-        <v>0.095</v>
+        <v>0.215</v>
       </c>
       <c r="AF10">
-        <v>0.129</v>
+        <v>0.291</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH10">
-        <v>0.048</v>
+        <v>0.15</v>
       </c>
       <c r="AI10">
-        <v>0.143</v>
+        <v>0.365</v>
       </c>
       <c r="AJ10">
-        <v>27.3</v>
+        <v>24.6</v>
       </c>
       <c r="AK10">
-        <v>4.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL10">
-        <v>1.72</v>
+        <v>3.93</v>
       </c>
       <c r="AM10">
-        <v>60</v>
+        <v>40.8</v>
       </c>
       <c r="AN10">
-        <v>20</v>
+        <v>41.5</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="AP10">
-        <v>26.7</v>
+        <v>28.4</v>
       </c>
       <c r="AQ10">
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -2794,37 +2773,37 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="s">
         <v>67</v>
       </c>
       <c r="AX10">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AY10">
         <v>1.5</v>
       </c>
       <c r="AZ10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="BA10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BB10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BC10" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="BD10" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="BE10">
-        <v>-250</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="11" spans="1:57">
@@ -2832,7 +2811,7 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -2841,118 +2820,118 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>137</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.255</v>
+      </c>
+      <c r="M11">
+        <v>0.305</v>
+      </c>
+      <c r="N11">
+        <v>0.197</v>
+      </c>
+      <c r="O11">
+        <v>0.273</v>
+      </c>
+      <c r="P11">
+        <v>0.453</v>
+      </c>
+      <c r="Q11">
+        <v>0.725</v>
+      </c>
+      <c r="R11">
+        <v>12.6</v>
+      </c>
+      <c r="S11">
+        <v>2.1</v>
+      </c>
+      <c r="T11">
+        <v>40.8</v>
+      </c>
+      <c r="U11">
+        <v>44.2</v>
+      </c>
+      <c r="V11">
+        <v>33.1</v>
+      </c>
+      <c r="W11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z11" t="s">
         <v>76</v>
       </c>
-      <c r="F11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>233</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.305</v>
-      </c>
-      <c r="M11">
-        <v>0.322</v>
-      </c>
-      <c r="N11">
-        <v>0.09</v>
-      </c>
-      <c r="O11">
-        <v>0.344</v>
-      </c>
-      <c r="P11">
-        <v>0.395</v>
-      </c>
-      <c r="Q11">
-        <v>0.739</v>
-      </c>
-      <c r="R11">
-        <v>16.5</v>
-      </c>
-      <c r="S11">
-        <v>6.3</v>
-      </c>
-      <c r="T11">
-        <v>41.7</v>
-      </c>
-      <c r="U11">
-        <v>31.3</v>
-      </c>
-      <c r="V11">
-        <v>22.3</v>
-      </c>
-      <c r="W11" t="s">
-        <v>86</v>
-      </c>
-      <c r="X11" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>75</v>
-      </c>
       <c r="AA11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AC11">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="AD11">
         <v>6</v>
       </c>
       <c r="AE11">
-        <v>0.214</v>
+        <v>0.215</v>
       </c>
       <c r="AF11">
-        <v>0.26</v>
+        <v>0.291</v>
       </c>
       <c r="AG11">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AH11">
-        <v>0.141</v>
+        <v>0.15</v>
       </c>
       <c r="AI11">
-        <v>0.355</v>
+        <v>0.365</v>
       </c>
       <c r="AJ11">
-        <v>22.7</v>
+        <v>24.6</v>
       </c>
       <c r="AK11">
-        <v>3.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL11">
-        <v>3.16</v>
+        <v>3.93</v>
       </c>
       <c r="AM11">
-        <v>53</v>
+        <v>40.8</v>
       </c>
       <c r="AN11">
-        <v>29.2</v>
+        <v>41.5</v>
       </c>
       <c r="AO11">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="AP11">
-        <v>26.8</v>
+        <v>28.4</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -2976,28 +2955,374 @@
         <v>68</v>
       </c>
       <c r="AX11">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AY11">
         <v>1.5</v>
       </c>
       <c r="AZ11" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE11">
+        <v>-245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>267</v>
+      </c>
+      <c r="I12">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.311</v>
+      </c>
+      <c r="M12">
+        <v>0.446</v>
+      </c>
+      <c r="N12">
+        <v>0.315</v>
+      </c>
+      <c r="O12">
+        <v>0.433</v>
+      </c>
+      <c r="P12">
+        <v>0.625</v>
+      </c>
+      <c r="Q12">
+        <v>1.058</v>
+      </c>
+      <c r="R12">
+        <v>17.1</v>
+      </c>
+      <c r="S12">
+        <v>17.7</v>
+      </c>
+      <c r="T12">
+        <v>43.1</v>
+      </c>
+      <c r="U12">
+        <v>37.9</v>
+      </c>
+      <c r="V12">
+        <v>41.8</v>
+      </c>
+      <c r="W12" t="s">
+        <v>90</v>
+      </c>
+      <c r="X12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y12" t="s">
         <v>96</v>
       </c>
-      <c r="BA11" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>102</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE11">
-        <v>-250</v>
+      <c r="Z12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC12">
+        <v>267</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12">
+        <v>0.2</v>
+      </c>
+      <c r="AF12">
+        <v>0.239</v>
+      </c>
+      <c r="AG12">
+        <v>0.7</v>
+      </c>
+      <c r="AH12">
+        <v>0.061</v>
+      </c>
+      <c r="AI12">
+        <v>0.261</v>
+      </c>
+      <c r="AJ12">
+        <v>20.2</v>
+      </c>
+      <c r="AK12">
+        <v>6.4</v>
+      </c>
+      <c r="AL12">
+        <v>2.86</v>
+      </c>
+      <c r="AM12">
+        <v>57.4</v>
+      </c>
+      <c r="AN12">
+        <v>22.6</v>
+      </c>
+      <c r="AO12">
+        <v>4.7</v>
+      </c>
+      <c r="AP12">
+        <v>28.8</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX12">
+        <v>185</v>
+      </c>
+      <c r="AY12">
+        <v>1.5</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BE12">
+        <v>-255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>258</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.298</v>
+      </c>
+      <c r="M13">
+        <v>0.323</v>
+      </c>
+      <c r="N13">
+        <v>0.14</v>
+      </c>
+      <c r="O13">
+        <v>0.315</v>
+      </c>
+      <c r="P13">
+        <v>0.438</v>
+      </c>
+      <c r="Q13">
+        <v>0.753</v>
+      </c>
+      <c r="R13">
+        <v>15.2</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>52.9</v>
+      </c>
+      <c r="U13">
+        <v>24.4</v>
+      </c>
+      <c r="V13">
+        <v>29.9</v>
+      </c>
+      <c r="W13" t="s">
+        <v>91</v>
+      </c>
+      <c r="X13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC13">
+        <v>10</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0.138</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>10</v>
+      </c>
+      <c r="AK13">
+        <v>20</v>
+      </c>
+      <c r="AL13">
+        <v>4.65</v>
+      </c>
+      <c r="AM13">
+        <v>57.1</v>
+      </c>
+      <c r="AN13">
+        <v>28.6</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>14.3</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX13">
+        <v>190</v>
+      </c>
+      <c r="AY13">
+        <v>1.5</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE13">
+        <v>-270</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3332,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE6"/>
+  <dimension ref="A1:BE1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3186,871 +3511,6 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>180</v>
-      </c>
-      <c r="I2">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>8</v>
-      </c>
-      <c r="L2">
-        <v>0.333</v>
-      </c>
-      <c r="M2">
-        <v>0.478</v>
-      </c>
-      <c r="N2">
-        <v>0.378</v>
-      </c>
-      <c r="O2">
-        <v>0.434</v>
-      </c>
-      <c r="P2">
-        <v>0.711</v>
-      </c>
-      <c r="Q2">
-        <v>1.145</v>
-      </c>
-      <c r="R2">
-        <v>30.2</v>
-      </c>
-      <c r="S2">
-        <v>13.2</v>
-      </c>
-      <c r="T2">
-        <v>20.7</v>
-      </c>
-      <c r="U2">
-        <v>41.4</v>
-      </c>
-      <c r="V2">
-        <v>31</v>
-      </c>
-      <c r="W2" t="s">
-        <v>109</v>
-      </c>
-      <c r="X2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2">
-        <v>24</v>
-      </c>
-      <c r="AD2">
-        <v>5</v>
-      </c>
-      <c r="AE2">
-        <v>0.522</v>
-      </c>
-      <c r="AF2">
-        <v>0.747</v>
-      </c>
-      <c r="AG2">
-        <v>20.8</v>
-      </c>
-      <c r="AH2">
-        <v>0.739</v>
-      </c>
-      <c r="AI2">
-        <v>1.261</v>
-      </c>
-      <c r="AJ2">
-        <v>20.8</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>18.96</v>
-      </c>
-      <c r="AM2">
-        <v>23.5</v>
-      </c>
-      <c r="AN2">
-        <v>35.3</v>
-      </c>
-      <c r="AO2">
-        <v>83.3</v>
-      </c>
-      <c r="AP2">
-        <v>44.4</v>
-      </c>
-      <c r="AQ2">
-        <v>1</v>
-      </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>1</v>
-      </c>
-      <c r="AU2">
-        <v>1</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX2">
-        <v>-155</v>
-      </c>
-      <c r="AY2">
-        <v>0.5</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BE2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>180</v>
-      </c>
-      <c r="I3">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <v>0.333</v>
-      </c>
-      <c r="M3">
-        <v>0.478</v>
-      </c>
-      <c r="N3">
-        <v>0.378</v>
-      </c>
-      <c r="O3">
-        <v>0.434</v>
-      </c>
-      <c r="P3">
-        <v>0.711</v>
-      </c>
-      <c r="Q3">
-        <v>1.145</v>
-      </c>
-      <c r="R3">
-        <v>30.2</v>
-      </c>
-      <c r="S3">
-        <v>13.2</v>
-      </c>
-      <c r="T3">
-        <v>20.7</v>
-      </c>
-      <c r="U3">
-        <v>41.4</v>
-      </c>
-      <c r="V3">
-        <v>31</v>
-      </c>
-      <c r="W3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC3">
-        <v>24</v>
-      </c>
-      <c r="AD3">
-        <v>5</v>
-      </c>
-      <c r="AE3">
-        <v>0.522</v>
-      </c>
-      <c r="AF3">
-        <v>0.747</v>
-      </c>
-      <c r="AG3">
-        <v>20.8</v>
-      </c>
-      <c r="AH3">
-        <v>0.739</v>
-      </c>
-      <c r="AI3">
-        <v>1.261</v>
-      </c>
-      <c r="AJ3">
-        <v>20.8</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>18.96</v>
-      </c>
-      <c r="AM3">
-        <v>23.5</v>
-      </c>
-      <c r="AN3">
-        <v>35.3</v>
-      </c>
-      <c r="AO3">
-        <v>83.3</v>
-      </c>
-      <c r="AP3">
-        <v>44.4</v>
-      </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX3">
-        <v>-155</v>
-      </c>
-      <c r="AY3">
-        <v>0.5</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BE3">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>180</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>8</v>
-      </c>
-      <c r="L4">
-        <v>0.333</v>
-      </c>
-      <c r="M4">
-        <v>0.478</v>
-      </c>
-      <c r="N4">
-        <v>0.378</v>
-      </c>
-      <c r="O4">
-        <v>0.434</v>
-      </c>
-      <c r="P4">
-        <v>0.711</v>
-      </c>
-      <c r="Q4">
-        <v>1.145</v>
-      </c>
-      <c r="R4">
-        <v>30.2</v>
-      </c>
-      <c r="S4">
-        <v>13.2</v>
-      </c>
-      <c r="T4">
-        <v>20.7</v>
-      </c>
-      <c r="U4">
-        <v>41.4</v>
-      </c>
-      <c r="V4">
-        <v>31</v>
-      </c>
-      <c r="W4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC4">
-        <v>24</v>
-      </c>
-      <c r="AD4">
-        <v>5</v>
-      </c>
-      <c r="AE4">
-        <v>0.522</v>
-      </c>
-      <c r="AF4">
-        <v>0.747</v>
-      </c>
-      <c r="AG4">
-        <v>20.8</v>
-      </c>
-      <c r="AH4">
-        <v>0.739</v>
-      </c>
-      <c r="AI4">
-        <v>1.261</v>
-      </c>
-      <c r="AJ4">
-        <v>20.8</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>18.96</v>
-      </c>
-      <c r="AM4">
-        <v>23.5</v>
-      </c>
-      <c r="AN4">
-        <v>35.3</v>
-      </c>
-      <c r="AO4">
-        <v>83.3</v>
-      </c>
-      <c r="AP4">
-        <v>44.4</v>
-      </c>
-      <c r="AQ4">
-        <v>1</v>
-      </c>
-      <c r="AR4">
-        <v>1</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
-        <v>1</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX4">
-        <v>-155</v>
-      </c>
-      <c r="AY4">
-        <v>0.5</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BE4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>180</v>
-      </c>
-      <c r="I5">
-        <v>16</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <v>0.333</v>
-      </c>
-      <c r="M5">
-        <v>0.478</v>
-      </c>
-      <c r="N5">
-        <v>0.378</v>
-      </c>
-      <c r="O5">
-        <v>0.434</v>
-      </c>
-      <c r="P5">
-        <v>0.711</v>
-      </c>
-      <c r="Q5">
-        <v>1.145</v>
-      </c>
-      <c r="R5">
-        <v>30.2</v>
-      </c>
-      <c r="S5">
-        <v>13.2</v>
-      </c>
-      <c r="T5">
-        <v>20.7</v>
-      </c>
-      <c r="U5">
-        <v>41.4</v>
-      </c>
-      <c r="V5">
-        <v>31</v>
-      </c>
-      <c r="W5" t="s">
-        <v>109</v>
-      </c>
-      <c r="X5" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC5">
-        <v>24</v>
-      </c>
-      <c r="AD5">
-        <v>5</v>
-      </c>
-      <c r="AE5">
-        <v>0.522</v>
-      </c>
-      <c r="AF5">
-        <v>0.747</v>
-      </c>
-      <c r="AG5">
-        <v>20.8</v>
-      </c>
-      <c r="AH5">
-        <v>0.739</v>
-      </c>
-      <c r="AI5">
-        <v>1.261</v>
-      </c>
-      <c r="AJ5">
-        <v>20.8</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>18.96</v>
-      </c>
-      <c r="AM5">
-        <v>23.5</v>
-      </c>
-      <c r="AN5">
-        <v>35.3</v>
-      </c>
-      <c r="AO5">
-        <v>83.3</v>
-      </c>
-      <c r="AP5">
-        <v>44.4</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX5">
-        <v>-155</v>
-      </c>
-      <c r="AY5">
-        <v>0.5</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BE5">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57">
-      <c r="A6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>128</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0.352</v>
-      </c>
-      <c r="M6">
-        <v>0.421</v>
-      </c>
-      <c r="N6">
-        <v>0.234</v>
-      </c>
-      <c r="O6">
-        <v>0.41</v>
-      </c>
-      <c r="P6">
-        <v>0.586</v>
-      </c>
-      <c r="Q6">
-        <v>0.996</v>
-      </c>
-      <c r="R6">
-        <v>20.1</v>
-      </c>
-      <c r="S6">
-        <v>7.6</v>
-      </c>
-      <c r="T6">
-        <v>38.6</v>
-      </c>
-      <c r="U6">
-        <v>41.6</v>
-      </c>
-      <c r="V6">
-        <v>45.5</v>
-      </c>
-      <c r="W6" t="s">
-        <v>110</v>
-      </c>
-      <c r="X6" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC6">
-        <v>17</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>0.4</v>
-      </c>
-      <c r="AF6">
-        <v>0.506</v>
-      </c>
-      <c r="AG6">
-        <v>5.9</v>
-      </c>
-      <c r="AH6">
-        <v>0.333</v>
-      </c>
-      <c r="AI6">
-        <v>0.733</v>
-      </c>
-      <c r="AJ6">
-        <v>5.9</v>
-      </c>
-      <c r="AK6">
-        <v>11.8</v>
-      </c>
-      <c r="AL6">
-        <v>8.24</v>
-      </c>
-      <c r="AM6">
-        <v>21.4</v>
-      </c>
-      <c r="AN6">
-        <v>42.9</v>
-      </c>
-      <c r="AO6">
-        <v>16.7</v>
-      </c>
-      <c r="AP6">
-        <v>35.7</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>1</v>
-      </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX6">
-        <v>-260</v>
-      </c>
-      <c r="AY6">
-        <v>0.5</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>108</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>112</v>
-      </c>
-      <c r="BE6">
-        <v>185</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="115">
   <si>
     <t>fg_name</t>
   </si>
@@ -196,145 +196,172 @@
     <t>Merge_Type</t>
   </si>
   <si>
-    <t>Marcus Semien</t>
-  </si>
-  <si>
     <t>Corey Seager</t>
   </si>
   <si>
-    <t>Wyatt Langford</t>
+    <t>Nico Hoerner</t>
+  </si>
+  <si>
+    <t>Seiya Suzuki</t>
+  </si>
+  <si>
+    <t>Eloy Jimenez</t>
+  </si>
+  <si>
+    <t>George Springer</t>
+  </si>
+  <si>
+    <t>Jarren Duran</t>
+  </si>
+  <si>
+    <t>Steven Kwan</t>
+  </si>
+  <si>
+    <t>Tyler Stephenson</t>
+  </si>
+  <si>
+    <t>Jonathan India</t>
+  </si>
+  <si>
+    <t>Texas Rangers</t>
+  </si>
+  <si>
+    <t>Chicago Cubs</t>
+  </si>
+  <si>
+    <t>Chicago White Sox</t>
+  </si>
+  <si>
+    <t>Toronto Blue Jays</t>
+  </si>
+  <si>
+    <t>Boston Red Sox</t>
+  </si>
+  <si>
+    <t>Cleveland Indians</t>
+  </si>
+  <si>
+    <t>Cincinnati Reds</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>vs R</t>
+  </si>
+  <si>
+    <t>vs L</t>
+  </si>
+  <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Carson Spiers</t>
+  </si>
+  <si>
+    <t>Alec Marsh</t>
+  </si>
+  <si>
+    <t>Cade Povich</t>
+  </si>
+  <si>
+    <t>Zach Eflin</t>
+  </si>
+  <si>
+    <t>Logan Gilbert</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>St. Louis Cardinals</t>
+  </si>
+  <si>
+    <t>Kansas City Royals</t>
+  </si>
+  <si>
+    <t>Baltimore Orioles</t>
+  </si>
+  <si>
+    <t>Seattle Mariners</t>
+  </si>
+  <si>
+    <t>Detroit Tigers</t>
+  </si>
+  <si>
+    <t>RHP</t>
+  </si>
+  <si>
+    <t>LHP</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>draftkings</t>
+  </si>
+  <si>
+    <t>2024-07-29T23:46:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-29T23:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-30T00:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-29T19:06:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-29T22:40:00Z</t>
+  </si>
+  <si>
+    <t>Cleveland Guardians</t>
+  </si>
+  <si>
+    <t>Garrett Mitchell</t>
   </si>
   <si>
     <t>Lane Thomas</t>
   </si>
   <si>
-    <t>CJ Abrams</t>
-  </si>
-  <si>
-    <t>Elly De La Cruz</t>
-  </si>
-  <si>
-    <t>Nico Hoerner</t>
-  </si>
-  <si>
-    <t>Masyn Winn</t>
-  </si>
-  <si>
-    <t>Vinnie Pasquantino</t>
-  </si>
-  <si>
-    <t>Michael Massey</t>
-  </si>
-  <si>
-    <t>Juan Soto</t>
-  </si>
-  <si>
-    <t>Yainer Diaz</t>
-  </si>
-  <si>
-    <t>Texas Rangers</t>
+    <t>Juan Yepez</t>
+  </si>
+  <si>
+    <t>Jacob Young</t>
+  </si>
+  <si>
+    <t>Milwaukee Brewers</t>
   </si>
   <si>
     <t>Washington Nationals</t>
   </si>
   <si>
-    <t>Cincinnati Reds</t>
-  </si>
-  <si>
-    <t>Chicago Cubs</t>
-  </si>
-  <si>
-    <t>St. Louis Cardinals</t>
-  </si>
-  <si>
-    <t>Kansas City Royals</t>
-  </si>
-  <si>
-    <t>New York Yankees</t>
-  </si>
-  <si>
-    <t>Houston Astros</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>vs R</t>
-  </si>
-  <si>
-    <t>vs L</t>
-  </si>
-  <si>
-    <t>Jose Berrios</t>
-  </si>
-  <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
-    <t>Tyler Alexander</t>
-  </si>
-  <si>
-    <t>Cole Ragans</t>
-  </si>
-  <si>
-    <t>DJ Herz</t>
-  </si>
-  <si>
-    <t>Javier Assad</t>
-  </si>
-  <si>
-    <t>Tanner Houck</t>
-  </si>
-  <si>
-    <t>River Ryan</t>
-  </si>
-  <si>
-    <t>Toronto Blue Jays</t>
-  </si>
-  <si>
-    <t>Tampa Bay Rays</t>
-  </si>
-  <si>
-    <t>Boston Red Sox</t>
-  </si>
-  <si>
-    <t>Los Angeles Dodgers</t>
-  </si>
-  <si>
-    <t>RHP</t>
-  </si>
-  <si>
-    <t>LHP</t>
-  </si>
-  <si>
-    <t>José Berríos</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>draftkings</t>
-  </si>
-  <si>
-    <t>2024-07-28T17:38:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-28T18:15:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-28T15:36:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-28T18:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-07-28T23:11:00Z</t>
+    <t>Grant Holmes</t>
+  </si>
+  <si>
+    <t>J. Montgomery</t>
+  </si>
+  <si>
+    <t>Atlanta Braves</t>
+  </si>
+  <si>
+    <t>Arizona Diamondbacks</t>
+  </si>
+  <si>
+    <t>Jordan Montgomery</t>
+  </si>
+  <si>
+    <t>2024-07-30T00:10:00Z</t>
+  </si>
+  <si>
+    <t>2024-07-30T01:41:00Z</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE13"/>
+  <dimension ref="A1:BE17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1254,7 +1281,7 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -1263,118 +1290,118 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>236</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.284</v>
+      </c>
+      <c r="M2">
+        <v>0.383</v>
+      </c>
+      <c r="N2">
+        <v>0.233</v>
+      </c>
+      <c r="O2">
+        <v>0.393</v>
+      </c>
+      <c r="P2">
+        <v>0.517</v>
+      </c>
+      <c r="Q2">
+        <v>0.91</v>
+      </c>
+      <c r="R2">
+        <v>12.9</v>
+      </c>
+      <c r="S2">
+        <v>14.6</v>
+      </c>
+      <c r="T2">
+        <v>39.3</v>
+      </c>
+      <c r="U2">
+        <v>45.8</v>
+      </c>
+      <c r="V2">
+        <v>42.3</v>
+      </c>
+      <c r="W2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>302</v>
-      </c>
-      <c r="I2">
-        <v>11</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.225</v>
-      </c>
-      <c r="M2">
-        <v>0.297</v>
-      </c>
-      <c r="N2">
-        <v>0.152</v>
-      </c>
-      <c r="O2">
-        <v>0.299</v>
-      </c>
-      <c r="P2">
-        <v>0.377</v>
-      </c>
-      <c r="Q2">
-        <v>0.676</v>
-      </c>
-      <c r="R2">
-        <v>13.1</v>
-      </c>
-      <c r="S2">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="T2">
-        <v>39.8</v>
-      </c>
-      <c r="U2">
-        <v>39.8</v>
-      </c>
-      <c r="V2">
-        <v>31.3</v>
-      </c>
-      <c r="W2" t="s">
-        <v>84</v>
-      </c>
       <c r="X2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" t="s">
-        <v>96</v>
-      </c>
       <c r="Z2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AA2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AC2">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="AD2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.278</v>
+        <v>0.202</v>
       </c>
       <c r="AF2">
-        <v>0.33</v>
+        <v>0.243</v>
       </c>
       <c r="AG2">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="AH2">
-        <v>0.147</v>
+        <v>0.058</v>
       </c>
       <c r="AI2">
-        <v>0.425</v>
+        <v>0.26</v>
       </c>
       <c r="AJ2">
-        <v>16.5</v>
+        <v>19.3</v>
       </c>
       <c r="AK2">
-        <v>5.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL2">
-        <v>4.57</v>
+        <v>3.11</v>
       </c>
       <c r="AM2">
-        <v>46.6</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="AN2">
-        <v>34.5</v>
+        <v>14.6</v>
       </c>
       <c r="AO2">
-        <v>13.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AP2">
-        <v>34.7</v>
+        <v>23.2</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1386,40 +1413,40 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="s">
         <v>59</v>
       </c>
       <c r="AX2">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AY2">
         <v>1.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BA2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BB2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="BC2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="BD2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BE2">
-        <v>-240</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="3" spans="1:57">
@@ -1427,7 +1454,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -1436,163 +1463,163 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>301</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.246</v>
+      </c>
+      <c r="M3">
+        <v>0.3</v>
+      </c>
+      <c r="N3">
+        <v>0.103</v>
+      </c>
+      <c r="O3">
+        <v>0.322</v>
+      </c>
+      <c r="P3">
+        <v>0.349</v>
+      </c>
+      <c r="Q3">
+        <v>0.67</v>
+      </c>
+      <c r="R3">
+        <v>10.3</v>
+      </c>
+      <c r="S3">
+        <v>7.7</v>
+      </c>
+      <c r="T3">
+        <v>46.5</v>
+      </c>
+      <c r="U3">
+        <v>32</v>
+      </c>
+      <c r="V3">
+        <v>19</v>
+      </c>
+      <c r="W3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>232</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.28</v>
-      </c>
-      <c r="M3">
-        <v>0.382</v>
-      </c>
-      <c r="N3">
-        <v>0.237</v>
-      </c>
-      <c r="O3">
-        <v>0.391</v>
-      </c>
-      <c r="P3">
-        <v>0.517</v>
-      </c>
-      <c r="Q3">
-        <v>0.909</v>
-      </c>
-      <c r="R3">
-        <v>13</v>
-      </c>
-      <c r="S3">
-        <v>14.9</v>
-      </c>
-      <c r="T3">
-        <v>39.6</v>
-      </c>
-      <c r="U3">
-        <v>45.7</v>
-      </c>
-      <c r="V3">
-        <v>42.1</v>
-      </c>
-      <c r="W3" t="s">
-        <v>84</v>
-      </c>
       <c r="X3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" t="s">
         <v>92</v>
       </c>
-      <c r="Y3" t="s">
-        <v>96</v>
-      </c>
       <c r="Z3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AC3">
-        <v>280</v>
+        <v>92</v>
       </c>
       <c r="AD3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.213</v>
+        <v>0.218</v>
       </c>
       <c r="AF3">
-        <v>0.319</v>
+        <v>0.249</v>
       </c>
       <c r="AG3">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="AH3">
-        <v>0.205</v>
+        <v>0.081</v>
       </c>
       <c r="AI3">
-        <v>0.418</v>
+        <v>0.299</v>
       </c>
       <c r="AJ3">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="AK3">
-        <v>9.6</v>
+        <v>4.3</v>
       </c>
       <c r="AL3">
-        <v>5.73</v>
+        <v>2.8</v>
       </c>
       <c r="AM3">
-        <v>40.3</v>
+        <v>49.3</v>
       </c>
       <c r="AN3">
-        <v>42.4</v>
+        <v>39.1</v>
       </c>
       <c r="AO3">
-        <v>17.3</v>
+        <v>3.7</v>
       </c>
       <c r="AP3">
-        <v>36.1</v>
+        <v>30.4</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="s">
         <v>60</v>
       </c>
       <c r="AX3">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="AY3">
         <v>1.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BA3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BB3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="BC3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="BD3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BE3">
-        <v>-255</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="4" spans="1:57">
@@ -1600,7 +1627,7 @@
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -1609,121 +1636,121 @@
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.232</v>
+        <v>0.275</v>
       </c>
       <c r="M4">
-        <v>0.268</v>
+        <v>0.358</v>
       </c>
       <c r="N4">
-        <v>0.091</v>
+        <v>0.221</v>
       </c>
       <c r="O4">
-        <v>0.285</v>
+        <v>0.34</v>
       </c>
       <c r="P4">
-        <v>0.324</v>
+        <v>0.496</v>
       </c>
       <c r="Q4">
-        <v>0.608</v>
+        <v>0.835</v>
       </c>
       <c r="R4">
+        <v>29.9</v>
+      </c>
+      <c r="S4">
+        <v>7.5</v>
+      </c>
+      <c r="T4">
+        <v>36.2</v>
+      </c>
+      <c r="U4">
+        <v>45.4</v>
+      </c>
+      <c r="V4">
+        <v>38.7</v>
+      </c>
+      <c r="W4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC4">
+        <v>92</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>0.218</v>
+      </c>
+      <c r="AF4">
+        <v>0.249</v>
+      </c>
+      <c r="AG4">
+        <v>1.1</v>
+      </c>
+      <c r="AH4">
+        <v>0.081</v>
+      </c>
+      <c r="AI4">
+        <v>0.299</v>
+      </c>
+      <c r="AJ4">
         <v>19.6</v>
       </c>
-      <c r="S4">
-        <v>6.5</v>
-      </c>
-      <c r="T4">
-        <v>41.9</v>
-      </c>
-      <c r="U4">
-        <v>41.9</v>
-      </c>
-      <c r="V4">
-        <v>34.6</v>
-      </c>
-      <c r="W4" t="s">
-        <v>84</v>
-      </c>
-      <c r="X4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC4">
-        <v>231</v>
-      </c>
-      <c r="AD4">
-        <v>8</v>
-      </c>
-      <c r="AE4">
-        <v>0.278</v>
-      </c>
-      <c r="AF4">
-        <v>0.33</v>
-      </c>
-      <c r="AG4">
-        <v>3.5</v>
-      </c>
-      <c r="AH4">
-        <v>0.147</v>
-      </c>
-      <c r="AI4">
-        <v>0.425</v>
-      </c>
-      <c r="AJ4">
-        <v>16.5</v>
-      </c>
       <c r="AK4">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="AL4">
-        <v>4.57</v>
+        <v>2.8</v>
       </c>
       <c r="AM4">
-        <v>46.6</v>
+        <v>49.3</v>
       </c>
       <c r="AN4">
-        <v>34.5</v>
+        <v>39.1</v>
       </c>
       <c r="AO4">
-        <v>13.3</v>
+        <v>3.7</v>
       </c>
       <c r="AP4">
-        <v>34.7</v>
+        <v>30.4</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1732,40 +1759,40 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4" t="s">
         <v>61</v>
       </c>
       <c r="AX4">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AY4">
         <v>1.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BA4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BB4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="BC4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="BD4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BE4">
-        <v>-280</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="5" spans="1:57">
@@ -1773,7 +1800,7 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -1782,127 +1809,127 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="I5">
         <v>5</v>
       </c>
       <c r="J5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.222</v>
+      </c>
+      <c r="M5">
+        <v>0.272</v>
+      </c>
+      <c r="N5">
+        <v>0.117</v>
+      </c>
+      <c r="O5">
+        <v>0.281</v>
+      </c>
+      <c r="P5">
+        <v>0.339</v>
+      </c>
+      <c r="Q5">
+        <v>0.62</v>
+      </c>
+      <c r="R5">
+        <v>20.4</v>
+      </c>
+      <c r="S5">
+        <v>7.1</v>
+      </c>
+      <c r="T5">
+        <v>61</v>
+      </c>
+      <c r="U5">
+        <v>28.4</v>
+      </c>
+      <c r="V5">
+        <v>31.2</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5">
+        <v>170</v>
+      </c>
+      <c r="AD5">
         <v>9</v>
       </c>
-      <c r="L5">
-        <v>0.218</v>
-      </c>
-      <c r="M5">
-        <v>0.285</v>
-      </c>
-      <c r="N5">
-        <v>0.133</v>
-      </c>
-      <c r="O5">
-        <v>0.294</v>
-      </c>
-      <c r="P5">
-        <v>0.351</v>
-      </c>
-      <c r="Q5">
-        <v>0.645</v>
-      </c>
-      <c r="R5">
-        <v>24.8</v>
-      </c>
-      <c r="S5">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="T5">
-        <v>38.7</v>
-      </c>
-      <c r="U5">
-        <v>40</v>
-      </c>
-      <c r="V5">
-        <v>35.1</v>
-      </c>
-      <c r="W5" t="s">
-        <v>85</v>
-      </c>
-      <c r="X5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC5">
-        <v>259</v>
-      </c>
-      <c r="AD5">
-        <v>10</v>
-      </c>
       <c r="AE5">
-        <v>0.274</v>
+        <v>0.257</v>
       </c>
       <c r="AF5">
-        <v>0.326</v>
+        <v>0.347</v>
       </c>
       <c r="AG5">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="AH5">
-        <v>0.186</v>
+        <v>0.236</v>
       </c>
       <c r="AI5">
-        <v>0.46</v>
+        <v>0.493</v>
       </c>
       <c r="AJ5">
-        <v>15.1</v>
+        <v>25.3</v>
       </c>
       <c r="AK5">
-        <v>2.7</v>
+        <v>9.4</v>
       </c>
       <c r="AL5">
-        <v>4.41</v>
+        <v>5.16</v>
       </c>
       <c r="AM5">
-        <v>45.2</v>
+        <v>35.5</v>
       </c>
       <c r="AN5">
-        <v>37.1</v>
+        <v>44.5</v>
       </c>
       <c r="AO5">
-        <v>12.8</v>
+        <v>18.4</v>
       </c>
       <c r="AP5">
-        <v>31</v>
+        <v>37.8</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5">
         <v>0</v>
@@ -1911,34 +1938,34 @@
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="s">
         <v>62</v>
       </c>
       <c r="AX5">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AY5">
         <v>1.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BA5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BB5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="BC5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BD5" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="BE5">
-        <v>-275</v>
+        <v>-285</v>
       </c>
     </row>
     <row r="6" spans="1:57">
@@ -1946,7 +1973,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1955,130 +1982,130 @@
         <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>152</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.197</v>
+      </c>
+      <c r="M6">
+        <v>0.294</v>
+      </c>
+      <c r="N6">
+        <v>0.145</v>
+      </c>
+      <c r="O6">
+        <v>0.311</v>
+      </c>
+      <c r="P6">
+        <v>0.342</v>
+      </c>
+      <c r="Q6">
+        <v>0.653</v>
+      </c>
+      <c r="R6">
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <v>14.4</v>
+      </c>
+      <c r="T6">
+        <v>45.8</v>
+      </c>
+      <c r="U6">
+        <v>42.4</v>
+      </c>
+      <c r="V6">
+        <v>35.6</v>
+      </c>
+      <c r="W6" t="s">
         <v>82</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>266</v>
-      </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>14</v>
-      </c>
-      <c r="K6">
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC6">
+        <v>98</v>
+      </c>
+      <c r="AD6">
         <v>6</v>
       </c>
-      <c r="L6">
-        <v>0.244</v>
-      </c>
-      <c r="M6">
-        <v>0.336</v>
-      </c>
-      <c r="N6">
-        <v>0.214</v>
-      </c>
-      <c r="O6">
-        <v>0.326</v>
-      </c>
-      <c r="P6">
-        <v>0.459</v>
-      </c>
-      <c r="Q6">
-        <v>0.784</v>
-      </c>
-      <c r="R6">
-        <v>18.2</v>
-      </c>
-      <c r="S6">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="T6">
-        <v>39</v>
-      </c>
-      <c r="U6">
-        <v>39.4</v>
-      </c>
-      <c r="V6">
-        <v>36</v>
-      </c>
-      <c r="W6" t="s">
-        <v>85</v>
-      </c>
-      <c r="X6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC6">
-        <v>228</v>
-      </c>
-      <c r="AD6">
-        <v>8</v>
-      </c>
       <c r="AE6">
-        <v>0.274</v>
+        <v>0.271</v>
       </c>
       <c r="AF6">
-        <v>0.341</v>
+        <v>0.379</v>
       </c>
       <c r="AG6">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="AH6">
-        <v>0.217</v>
+        <v>0.258</v>
       </c>
       <c r="AI6">
-        <v>0.491</v>
+        <v>0.529</v>
       </c>
       <c r="AJ6">
-        <v>18</v>
+        <v>18.4</v>
       </c>
       <c r="AK6">
-        <v>5.3</v>
+        <v>12.2</v>
       </c>
       <c r="AL6">
-        <v>4.24</v>
+        <v>6.75</v>
       </c>
       <c r="AM6">
-        <v>35.5</v>
+        <v>34.3</v>
       </c>
       <c r="AN6">
-        <v>40.1</v>
+        <v>50.7</v>
       </c>
       <c r="AO6">
-        <v>11.6</v>
+        <v>17.6</v>
       </c>
       <c r="AP6">
-        <v>37.9</v>
+        <v>19.1</v>
       </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2090,159 +2117,159 @@
         <v>63</v>
       </c>
       <c r="AX6">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="AY6">
         <v>1.5</v>
       </c>
       <c r="AZ6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB6" t="s">
         <v>99</v>
       </c>
-      <c r="BA6" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>102</v>
-      </c>
       <c r="BC6" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="BD6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BE6">
-        <v>-260</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="7" spans="1:57">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>130</v>
+        <v>564</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J7">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.238</v>
+        <v>0.234</v>
       </c>
       <c r="M7">
-        <v>0.334</v>
+        <v>0.307</v>
       </c>
       <c r="N7">
-        <v>0.162</v>
+        <v>0.16</v>
       </c>
       <c r="O7">
-        <v>0.349</v>
+        <v>0.304</v>
       </c>
       <c r="P7">
-        <v>0.4</v>
+        <v>0.394</v>
       </c>
       <c r="Q7">
-        <v>0.749</v>
+        <v>0.698</v>
       </c>
       <c r="R7">
-        <v>28.6</v>
+        <v>17.6</v>
       </c>
       <c r="S7">
-        <v>11.7</v>
+        <v>8.6</v>
       </c>
       <c r="T7">
-        <v>51.2</v>
+        <v>50.9</v>
       </c>
       <c r="U7">
-        <v>29.8</v>
+        <v>29.4</v>
       </c>
       <c r="V7">
-        <v>25</v>
+        <v>30.3</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Z7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AB7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC7">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="AD7">
         <v>10</v>
       </c>
       <c r="AE7">
-        <v>0.286</v>
+        <v>0.279</v>
       </c>
       <c r="AF7">
-        <v>0.357</v>
+        <v>0.327</v>
       </c>
       <c r="AG7">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="AH7">
-        <v>0.225</v>
+        <v>0.191</v>
       </c>
       <c r="AI7">
-        <v>0.511</v>
+        <v>0.47</v>
       </c>
       <c r="AJ7">
-        <v>19.8</v>
+        <v>16</v>
       </c>
       <c r="AK7">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="AL7">
-        <v>5.1</v>
+        <v>4.27</v>
       </c>
       <c r="AM7">
-        <v>29.2</v>
+        <v>45.9</v>
       </c>
       <c r="AN7">
-        <v>47.2</v>
+        <v>32.4</v>
       </c>
       <c r="AO7">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="AP7">
-        <v>32.2</v>
+        <v>34.1</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <v>1</v>
@@ -2260,159 +2287,159 @@
         <v>0</v>
       </c>
       <c r="AW7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AX7">
-        <v>-125</v>
+        <v>155</v>
       </c>
       <c r="AY7">
         <v>1.5</v>
       </c>
       <c r="AZ7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB7" t="s">
         <v>99</v>
       </c>
-      <c r="BA7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>103</v>
-      </c>
       <c r="BC7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BD7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BE7">
-        <v>-115</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="8" spans="1:57">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.264</v>
+        <v>0.197</v>
       </c>
       <c r="M8">
         <v>0.294</v>
       </c>
       <c r="N8">
-        <v>0.042</v>
+        <v>0.145</v>
       </c>
       <c r="O8">
-        <v>0.346</v>
+        <v>0.311</v>
       </c>
       <c r="P8">
-        <v>0.306</v>
+        <v>0.342</v>
       </c>
       <c r="Q8">
-        <v>0.651</v>
+        <v>0.653</v>
       </c>
       <c r="R8">
-        <v>12.3</v>
+        <v>20</v>
       </c>
       <c r="S8">
-        <v>8.6</v>
+        <v>14.4</v>
       </c>
       <c r="T8">
-        <v>48.4</v>
+        <v>45.8</v>
       </c>
       <c r="U8">
-        <v>25.8</v>
+        <v>42.4</v>
       </c>
       <c r="V8">
-        <v>29</v>
+        <v>35.6</v>
       </c>
       <c r="W8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Z8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AB8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC8">
-        <v>406</v>
+        <v>98</v>
       </c>
       <c r="AD8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE8">
-        <v>0.207</v>
+        <v>0.271</v>
       </c>
       <c r="AF8">
-        <v>0.267</v>
+        <v>0.379</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="AH8">
-        <v>0.116</v>
+        <v>0.258</v>
       </c>
       <c r="AI8">
-        <v>0.323</v>
+        <v>0.529</v>
       </c>
       <c r="AJ8">
-        <v>30.5</v>
+        <v>18.4</v>
       </c>
       <c r="AK8">
-        <v>8.6</v>
+        <v>12.2</v>
       </c>
       <c r="AL8">
-        <v>2.79</v>
+        <v>6.75</v>
       </c>
       <c r="AM8">
-        <v>38.4</v>
+        <v>34.3</v>
       </c>
       <c r="AN8">
-        <v>40.9</v>
+        <v>50.7</v>
       </c>
       <c r="AO8">
-        <v>8.1</v>
+        <v>17.6</v>
       </c>
       <c r="AP8">
-        <v>30.1</v>
+        <v>19.1</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2430,171 +2457,171 @@
         <v>0</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AX8">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="AY8">
         <v>1.5</v>
       </c>
       <c r="AZ8" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB8" t="s">
         <v>99</v>
       </c>
-      <c r="BA8" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>104</v>
-      </c>
       <c r="BC8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="BD8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BE8">
-        <v>-260</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="9" spans="1:57">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>564</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.234</v>
+      </c>
+      <c r="M9">
+        <v>0.307</v>
+      </c>
+      <c r="N9">
+        <v>0.16</v>
+      </c>
+      <c r="O9">
+        <v>0.304</v>
+      </c>
+      <c r="P9">
+        <v>0.394</v>
+      </c>
+      <c r="Q9">
+        <v>0.698</v>
+      </c>
+      <c r="R9">
+        <v>17.6</v>
+      </c>
+      <c r="S9">
+        <v>8.6</v>
+      </c>
+      <c r="T9">
+        <v>50.9</v>
+      </c>
+      <c r="U9">
+        <v>29.4</v>
+      </c>
+      <c r="V9">
+        <v>30.3</v>
+      </c>
+      <c r="W9" t="s">
         <v>83</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>118</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
+      <c r="X9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC9">
+        <v>256</v>
+      </c>
+      <c r="AD9">
+        <v>10</v>
+      </c>
+      <c r="AE9">
+        <v>0.279</v>
+      </c>
+      <c r="AF9">
+        <v>0.327</v>
+      </c>
+      <c r="AG9">
+        <v>3.9</v>
+      </c>
+      <c r="AH9">
+        <v>0.191</v>
+      </c>
+      <c r="AI9">
+        <v>0.47</v>
+      </c>
+      <c r="AJ9">
+        <v>16</v>
+      </c>
+      <c r="AK9">
         <v>2</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.246</v>
-      </c>
-      <c r="M9">
-        <v>0.323</v>
-      </c>
-      <c r="N9">
-        <v>0.195</v>
-      </c>
-      <c r="O9">
-        <v>0.31</v>
-      </c>
-      <c r="P9">
-        <v>0.441</v>
-      </c>
-      <c r="Q9">
-        <v>0.751</v>
-      </c>
-      <c r="R9">
-        <v>21.7</v>
-      </c>
-      <c r="S9">
-        <v>8.5</v>
-      </c>
-      <c r="T9">
-        <v>31.1</v>
-      </c>
-      <c r="U9">
-        <v>44.4</v>
-      </c>
-      <c r="V9">
-        <v>27.8</v>
-      </c>
-      <c r="W9" t="s">
-        <v>88</v>
-      </c>
-      <c r="X9" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC9">
-        <v>126</v>
-      </c>
-      <c r="AD9">
-        <v>6</v>
-      </c>
-      <c r="AE9">
-        <v>0.252</v>
-      </c>
-      <c r="AF9">
-        <v>0.332</v>
-      </c>
-      <c r="AG9">
-        <v>4.8</v>
-      </c>
-      <c r="AH9">
-        <v>0.2</v>
-      </c>
-      <c r="AI9">
-        <v>0.452</v>
-      </c>
-      <c r="AJ9">
-        <v>28.6</v>
-      </c>
-      <c r="AK9">
-        <v>7.1</v>
-      </c>
       <c r="AL9">
-        <v>4.37</v>
+        <v>4.27</v>
       </c>
       <c r="AM9">
-        <v>33.3</v>
+        <v>45.9</v>
       </c>
       <c r="AN9">
-        <v>48.7</v>
+        <v>32.4</v>
       </c>
       <c r="AO9">
-        <v>15.8</v>
+        <v>14.9</v>
       </c>
       <c r="AP9">
-        <v>36.3</v>
+        <v>34.1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
         <v>0</v>
@@ -2606,159 +2633,159 @@
         <v>0</v>
       </c>
       <c r="AW9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AX9">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="AY9">
         <v>1.5</v>
       </c>
       <c r="AZ9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB9" t="s">
         <v>99</v>
       </c>
-      <c r="BA9" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>102</v>
-      </c>
       <c r="BC9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="BD9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BE9">
-        <v>-280</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="10" spans="1:57">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
       <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>152</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.197</v>
+      </c>
+      <c r="M10">
+        <v>0.294</v>
+      </c>
+      <c r="N10">
+        <v>0.145</v>
+      </c>
+      <c r="O10">
+        <v>0.311</v>
+      </c>
+      <c r="P10">
+        <v>0.342</v>
+      </c>
+      <c r="Q10">
+        <v>0.653</v>
+      </c>
+      <c r="R10">
+        <v>20</v>
+      </c>
+      <c r="S10">
+        <v>14.4</v>
+      </c>
+      <c r="T10">
+        <v>45.8</v>
+      </c>
+      <c r="U10">
+        <v>42.4</v>
+      </c>
+      <c r="V10">
+        <v>35.6</v>
+      </c>
+      <c r="W10" t="s">
         <v>82</v>
       </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>293</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0.263</v>
-      </c>
-      <c r="M10">
-        <v>0.329</v>
-      </c>
-      <c r="N10">
-        <v>0.171</v>
-      </c>
-      <c r="O10">
-        <v>0.332</v>
-      </c>
-      <c r="P10">
-        <v>0.433</v>
-      </c>
-      <c r="Q10">
-        <v>0.766</v>
-      </c>
-      <c r="R10">
-        <v>11.9</v>
-      </c>
-      <c r="S10">
-        <v>9.5</v>
-      </c>
-      <c r="T10">
-        <v>35.9</v>
-      </c>
-      <c r="U10">
-        <v>45</v>
-      </c>
-      <c r="V10">
-        <v>36.3</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>89</v>
       </c>
-      <c r="X10" t="s">
-        <v>74</v>
-      </c>
       <c r="Y10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Z10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AB10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AC10">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="AD10">
         <v>6</v>
       </c>
       <c r="AE10">
-        <v>0.215</v>
+        <v>0.271</v>
       </c>
       <c r="AF10">
-        <v>0.291</v>
+        <v>0.379</v>
       </c>
       <c r="AG10">
-        <v>2.9</v>
+        <v>6.1</v>
       </c>
       <c r="AH10">
-        <v>0.15</v>
+        <v>0.258</v>
       </c>
       <c r="AI10">
-        <v>0.365</v>
+        <v>0.529</v>
       </c>
       <c r="AJ10">
-        <v>24.6</v>
+        <v>18.4</v>
       </c>
       <c r="AK10">
-        <v>9.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="AL10">
-        <v>3.93</v>
+        <v>6.75</v>
       </c>
       <c r="AM10">
-        <v>40.8</v>
+        <v>34.3</v>
       </c>
       <c r="AN10">
-        <v>41.5</v>
+        <v>50.7</v>
       </c>
       <c r="AO10">
-        <v>11.1</v>
+        <v>17.6</v>
       </c>
       <c r="AP10">
-        <v>28.4</v>
+        <v>19.1</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2767,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10">
         <v>0</v>
@@ -2779,168 +2806,168 @@
         <v>1</v>
       </c>
       <c r="AW10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AX10">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="AY10">
         <v>1.5</v>
       </c>
       <c r="AZ10" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB10" t="s">
         <v>99</v>
       </c>
-      <c r="BA10" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>104</v>
-      </c>
       <c r="BC10" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="BD10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BE10">
-        <v>-270</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="11" spans="1:57">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>137</v>
+        <v>564</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.255</v>
+        <v>0.234</v>
       </c>
       <c r="M11">
-        <v>0.305</v>
+        <v>0.307</v>
       </c>
       <c r="N11">
-        <v>0.197</v>
+        <v>0.16</v>
       </c>
       <c r="O11">
-        <v>0.273</v>
+        <v>0.304</v>
       </c>
       <c r="P11">
-        <v>0.453</v>
+        <v>0.394</v>
       </c>
       <c r="Q11">
-        <v>0.725</v>
+        <v>0.698</v>
       </c>
       <c r="R11">
-        <v>12.6</v>
+        <v>17.6</v>
       </c>
       <c r="S11">
-        <v>2.1</v>
+        <v>8.6</v>
       </c>
       <c r="T11">
-        <v>40.8</v>
+        <v>50.9</v>
       </c>
       <c r="U11">
-        <v>44.2</v>
+        <v>29.4</v>
       </c>
       <c r="V11">
-        <v>33.1</v>
+        <v>30.3</v>
       </c>
       <c r="W11" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" t="s">
         <v>89</v>
       </c>
-      <c r="X11" t="s">
-        <v>74</v>
-      </c>
       <c r="Y11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Z11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AA11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AB11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AC11">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="AD11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE11">
-        <v>0.215</v>
+        <v>0.279</v>
       </c>
       <c r="AF11">
-        <v>0.291</v>
+        <v>0.327</v>
       </c>
       <c r="AG11">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="AH11">
-        <v>0.15</v>
+        <v>0.191</v>
       </c>
       <c r="AI11">
-        <v>0.365</v>
+        <v>0.47</v>
       </c>
       <c r="AJ11">
-        <v>24.6</v>
+        <v>16</v>
       </c>
       <c r="AK11">
-        <v>9.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="AL11">
-        <v>3.93</v>
+        <v>4.27</v>
       </c>
       <c r="AM11">
-        <v>40.8</v>
+        <v>45.9</v>
       </c>
       <c r="AN11">
-        <v>41.5</v>
+        <v>32.4</v>
       </c>
       <c r="AO11">
-        <v>11.1</v>
+        <v>14.9</v>
       </c>
       <c r="AP11">
-        <v>28.4</v>
+        <v>34.1</v>
       </c>
       <c r="AQ11">
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -2952,159 +2979,159 @@
         <v>0</v>
       </c>
       <c r="AW11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AX11">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="AY11">
         <v>1.5</v>
       </c>
       <c r="AZ11" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB11" t="s">
         <v>99</v>
       </c>
-      <c r="BA11" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>104</v>
-      </c>
       <c r="BC11" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="BD11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BE11">
-        <v>-245</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="12" spans="1:57">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>152</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.197</v>
+      </c>
+      <c r="M12">
+        <v>0.294</v>
+      </c>
+      <c r="N12">
+        <v>0.145</v>
+      </c>
+      <c r="O12">
+        <v>0.311</v>
+      </c>
+      <c r="P12">
+        <v>0.342</v>
+      </c>
+      <c r="Q12">
+        <v>0.653</v>
+      </c>
+      <c r="R12">
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <v>14.4</v>
+      </c>
+      <c r="T12">
+        <v>45.8</v>
+      </c>
+      <c r="U12">
+        <v>42.4</v>
+      </c>
+      <c r="V12">
+        <v>35.6</v>
+      </c>
+      <c r="W12" t="s">
+        <v>82</v>
+      </c>
+      <c r="X12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>267</v>
-      </c>
-      <c r="I12">
-        <v>21</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.311</v>
-      </c>
-      <c r="M12">
-        <v>0.446</v>
-      </c>
-      <c r="N12">
-        <v>0.315</v>
-      </c>
-      <c r="O12">
-        <v>0.433</v>
-      </c>
-      <c r="P12">
-        <v>0.625</v>
-      </c>
-      <c r="Q12">
-        <v>1.058</v>
-      </c>
-      <c r="R12">
-        <v>17.1</v>
-      </c>
-      <c r="S12">
-        <v>17.7</v>
-      </c>
-      <c r="T12">
-        <v>43.1</v>
-      </c>
-      <c r="U12">
-        <v>37.9</v>
-      </c>
-      <c r="V12">
-        <v>41.8</v>
-      </c>
-      <c r="W12" t="s">
-        <v>90</v>
-      </c>
-      <c r="X12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>83</v>
-      </c>
       <c r="AC12">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="AD12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE12">
-        <v>0.2</v>
+        <v>0.271</v>
       </c>
       <c r="AF12">
-        <v>0.239</v>
+        <v>0.379</v>
       </c>
       <c r="AG12">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="AH12">
-        <v>0.061</v>
+        <v>0.258</v>
       </c>
       <c r="AI12">
-        <v>0.261</v>
+        <v>0.529</v>
       </c>
       <c r="AJ12">
-        <v>20.2</v>
+        <v>18.4</v>
       </c>
       <c r="AK12">
-        <v>6.4</v>
+        <v>12.2</v>
       </c>
       <c r="AL12">
-        <v>2.86</v>
+        <v>6.75</v>
       </c>
       <c r="AM12">
-        <v>57.4</v>
+        <v>34.3</v>
       </c>
       <c r="AN12">
-        <v>22.6</v>
+        <v>50.7</v>
       </c>
       <c r="AO12">
-        <v>4.7</v>
+        <v>17.6</v>
       </c>
       <c r="AP12">
-        <v>28.8</v>
+        <v>19.1</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3113,177 +3140,177 @@
         <v>1</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12">
         <v>1</v>
       </c>
       <c r="AW12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AX12">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="AY12">
         <v>1.5</v>
       </c>
       <c r="AZ12" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB12" t="s">
         <v>99</v>
       </c>
-      <c r="BA12" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>105</v>
-      </c>
       <c r="BC12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="BD12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="BE12">
-        <v>-255</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="13" spans="1:57">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>258</v>
+        <v>564</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.298</v>
+        <v>0.234</v>
       </c>
       <c r="M13">
-        <v>0.323</v>
+        <v>0.307</v>
       </c>
       <c r="N13">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="O13">
-        <v>0.315</v>
+        <v>0.304</v>
       </c>
       <c r="P13">
-        <v>0.438</v>
+        <v>0.394</v>
       </c>
       <c r="Q13">
-        <v>0.753</v>
+        <v>0.698</v>
       </c>
       <c r="R13">
-        <v>15.2</v>
+        <v>17.6</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>8.6</v>
       </c>
       <c r="T13">
-        <v>52.9</v>
+        <v>50.9</v>
       </c>
       <c r="U13">
-        <v>24.4</v>
+        <v>29.4</v>
       </c>
       <c r="V13">
-        <v>29.9</v>
+        <v>30.3</v>
       </c>
       <c r="W13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="X13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Y13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Z13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AA13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AB13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC13">
+        <v>256</v>
+      </c>
+      <c r="AD13">
         <v>10</v>
       </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
       <c r="AE13">
-        <v>0</v>
+        <v>0.279</v>
       </c>
       <c r="AF13">
-        <v>0.138</v>
+        <v>0.327</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AJ13">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AK13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AL13">
-        <v>4.65</v>
+        <v>4.27</v>
       </c>
       <c r="AM13">
-        <v>57.1</v>
+        <v>45.9</v>
       </c>
       <c r="AN13">
-        <v>28.6</v>
+        <v>32.4</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="AP13">
-        <v>14.3</v>
+        <v>34.1</v>
       </c>
       <c r="AQ13">
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13">
         <v>1</v>
@@ -3298,31 +3325,723 @@
         <v>0</v>
       </c>
       <c r="AW13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AX13">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="AY13">
         <v>1.5</v>
       </c>
       <c r="AZ13" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB13" t="s">
         <v>99</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BC13" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE13">
+        <v>-215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>299</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.301</v>
+      </c>
+      <c r="M14">
+        <v>0.392</v>
+      </c>
+      <c r="N14">
+        <v>0.274</v>
+      </c>
+      <c r="O14">
+        <v>0.355</v>
+      </c>
+      <c r="P14">
+        <v>0.575</v>
+      </c>
+      <c r="Q14">
+        <v>0.93</v>
+      </c>
+      <c r="R14">
+        <v>20.8</v>
+      </c>
+      <c r="S14">
+        <v>7.6</v>
+      </c>
+      <c r="T14">
+        <v>40.8</v>
+      </c>
+      <c r="U14">
+        <v>39.1</v>
+      </c>
+      <c r="V14">
+        <v>37.3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>84</v>
+      </c>
+      <c r="X14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC14">
+        <v>237</v>
+      </c>
+      <c r="AD14">
+        <v>5</v>
+      </c>
+      <c r="AE14">
+        <v>0.193</v>
+      </c>
+      <c r="AF14">
+        <v>0.242</v>
+      </c>
+      <c r="AG14">
+        <v>2.1</v>
+      </c>
+      <c r="AH14">
+        <v>0.121</v>
+      </c>
+      <c r="AI14">
+        <v>0.314</v>
+      </c>
+      <c r="AJ14">
+        <v>26.2</v>
+      </c>
+      <c r="AK14">
+        <v>5.1</v>
+      </c>
+      <c r="AL14">
+        <v>2.83</v>
+      </c>
+      <c r="AM14">
+        <v>41.3</v>
+      </c>
+      <c r="AN14">
+        <v>43.1</v>
+      </c>
+      <c r="AO14">
+        <v>7.2</v>
+      </c>
+      <c r="AP14">
+        <v>35.2</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX14">
+        <v>165</v>
+      </c>
+      <c r="AY14">
+        <v>1.5</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE14">
+        <v>-230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>218</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.326</v>
+      </c>
+      <c r="M15">
+        <v>0.381</v>
+      </c>
+      <c r="N15">
+        <v>0.17</v>
+      </c>
+      <c r="O15">
+        <v>0.382</v>
+      </c>
+      <c r="P15">
+        <v>0.495</v>
+      </c>
+      <c r="Q15">
+        <v>0.878</v>
+      </c>
+      <c r="R15">
+        <v>7.1</v>
+      </c>
+      <c r="S15">
+        <v>7.1</v>
+      </c>
+      <c r="T15">
+        <v>36.5</v>
+      </c>
+      <c r="U15">
+        <v>38.1</v>
+      </c>
+      <c r="V15">
+        <v>21.3</v>
+      </c>
+      <c r="W15" t="s">
+        <v>85</v>
+      </c>
+      <c r="X15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC15">
+        <v>216</v>
+      </c>
+      <c r="AD15">
+        <v>7</v>
+      </c>
+      <c r="AE15">
+        <v>0.202</v>
+      </c>
+      <c r="AF15">
+        <v>0.264</v>
+      </c>
+      <c r="AG15">
+        <v>3.2</v>
+      </c>
+      <c r="AH15">
+        <v>0.153</v>
+      </c>
+      <c r="AI15">
+        <v>0.355</v>
+      </c>
+      <c r="AJ15">
+        <v>30.6</v>
+      </c>
+      <c r="AK15">
+        <v>5.6</v>
+      </c>
+      <c r="AL15">
+        <v>3.11</v>
+      </c>
+      <c r="AM15">
+        <v>42.2</v>
+      </c>
+      <c r="AN15">
+        <v>40.7</v>
+      </c>
+      <c r="AO15">
+        <v>12.7</v>
+      </c>
+      <c r="AP15">
+        <v>25.5</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX15">
+        <v>170</v>
+      </c>
+      <c r="AY15">
+        <v>1.5</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB15" t="s">
         <v>100</v>
       </c>
-      <c r="BB13" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD13" t="s">
+      <c r="BC15" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE15">
+        <v>-235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>189</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.238</v>
+      </c>
+      <c r="M16">
+        <v>0.323</v>
+      </c>
+      <c r="N16">
+        <v>0.18</v>
+      </c>
+      <c r="O16">
+        <v>0.319</v>
+      </c>
+      <c r="P16">
+        <v>0.418</v>
+      </c>
+      <c r="Q16">
+        <v>0.737</v>
+      </c>
+      <c r="R16">
+        <v>19.7</v>
+      </c>
+      <c r="S16">
+        <v>8.9</v>
+      </c>
+      <c r="T16">
+        <v>54.1</v>
+      </c>
+      <c r="U16">
+        <v>29.1</v>
+      </c>
+      <c r="V16">
+        <v>30.4</v>
+      </c>
+      <c r="W16" t="s">
+        <v>86</v>
+      </c>
+      <c r="X16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC16">
+        <v>202</v>
+      </c>
+      <c r="AD16">
+        <v>7</v>
+      </c>
+      <c r="AE16">
+        <v>0.253</v>
+      </c>
+      <c r="AF16">
+        <v>0.281</v>
+      </c>
+      <c r="AG16">
+        <v>3.5</v>
+      </c>
+      <c r="AH16">
+        <v>0.134</v>
+      </c>
+      <c r="AI16">
+        <v>0.387</v>
+      </c>
+      <c r="AJ16">
+        <v>17.3</v>
+      </c>
+      <c r="AK16">
+        <v>2</v>
+      </c>
+      <c r="AL16">
+        <v>3.79</v>
+      </c>
+      <c r="AM16">
+        <v>34.8</v>
+      </c>
+      <c r="AN16">
+        <v>48.4</v>
+      </c>
+      <c r="AO16">
+        <v>9</v>
+      </c>
+      <c r="AP16">
+        <v>25.2</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX16">
+        <v>200</v>
+      </c>
+      <c r="AY16">
+        <v>1.5</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA16" t="s">
         <v>95</v>
       </c>
-      <c r="BE13">
-        <v>-270</v>
+      <c r="BB16" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE16">
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>234</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.244</v>
+      </c>
+      <c r="M17">
+        <v>0.321</v>
+      </c>
+      <c r="N17">
+        <v>0.137</v>
+      </c>
+      <c r="O17">
+        <v>0.341</v>
+      </c>
+      <c r="P17">
+        <v>0.38</v>
+      </c>
+      <c r="Q17">
+        <v>0.721</v>
+      </c>
+      <c r="R17">
+        <v>20.5</v>
+      </c>
+      <c r="S17">
+        <v>11.4</v>
+      </c>
+      <c r="T17">
+        <v>45.9</v>
+      </c>
+      <c r="U17">
+        <v>35.4</v>
+      </c>
+      <c r="V17">
+        <v>32</v>
+      </c>
+      <c r="W17" t="s">
+        <v>86</v>
+      </c>
+      <c r="X17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC17">
+        <v>202</v>
+      </c>
+      <c r="AD17">
+        <v>7</v>
+      </c>
+      <c r="AE17">
+        <v>0.253</v>
+      </c>
+      <c r="AF17">
+        <v>0.281</v>
+      </c>
+      <c r="AG17">
+        <v>3.5</v>
+      </c>
+      <c r="AH17">
+        <v>0.134</v>
+      </c>
+      <c r="AI17">
+        <v>0.387</v>
+      </c>
+      <c r="AJ17">
+        <v>17.3</v>
+      </c>
+      <c r="AK17">
+        <v>2</v>
+      </c>
+      <c r="AL17">
+        <v>3.79</v>
+      </c>
+      <c r="AM17">
+        <v>34.8</v>
+      </c>
+      <c r="AN17">
+        <v>48.4</v>
+      </c>
+      <c r="AO17">
+        <v>9</v>
+      </c>
+      <c r="AP17">
+        <v>25.2</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX17">
+        <v>185</v>
+      </c>
+      <c r="AY17">
+        <v>1.5</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE17">
+        <v>-260</v>
       </c>
     </row>
   </sheetData>
@@ -3332,7 +4051,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE1"/>
+  <dimension ref="A1:BE5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3511,6 +4230,698 @@
         <v>57</v>
       </c>
     </row>
+    <row r="2" spans="1:57">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.3</v>
+      </c>
+      <c r="M2">
+        <v>0.377</v>
+      </c>
+      <c r="N2">
+        <v>0.15</v>
+      </c>
+      <c r="O2">
+        <v>0.404</v>
+      </c>
+      <c r="P2">
+        <v>0.45</v>
+      </c>
+      <c r="Q2">
+        <v>0.854</v>
+      </c>
+      <c r="R2">
+        <v>27.7</v>
+      </c>
+      <c r="S2">
+        <v>14.9</v>
+      </c>
+      <c r="T2">
+        <v>60</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>25.9</v>
+      </c>
+      <c r="W2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2">
+        <v>39</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0.306</v>
+      </c>
+      <c r="AF2">
+        <v>0.322</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0.055</v>
+      </c>
+      <c r="AI2">
+        <v>0.361</v>
+      </c>
+      <c r="AJ2">
+        <v>12.8</v>
+      </c>
+      <c r="AK2">
+        <v>5.1</v>
+      </c>
+      <c r="AL2">
+        <v>3.04</v>
+      </c>
+      <c r="AM2">
+        <v>40</v>
+      </c>
+      <c r="AN2">
+        <v>30</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>29</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX2">
+        <v>-120</v>
+      </c>
+      <c r="AY2">
+        <v>0.5</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE2">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>86</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>0.326</v>
+      </c>
+      <c r="M3">
+        <v>0.399</v>
+      </c>
+      <c r="N3">
+        <v>0.186</v>
+      </c>
+      <c r="O3">
+        <v>0.41</v>
+      </c>
+      <c r="P3">
+        <v>0.512</v>
+      </c>
+      <c r="Q3">
+        <v>0.922</v>
+      </c>
+      <c r="R3">
+        <v>13</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>33.8</v>
+      </c>
+      <c r="U3">
+        <v>41.9</v>
+      </c>
+      <c r="V3">
+        <v>32.4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3">
+        <v>267</v>
+      </c>
+      <c r="AD3">
+        <v>8</v>
+      </c>
+      <c r="AE3">
+        <v>0.329</v>
+      </c>
+      <c r="AF3">
+        <v>0.39</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <v>0.202</v>
+      </c>
+      <c r="AI3">
+        <v>0.531</v>
+      </c>
+      <c r="AJ3">
+        <v>13.5</v>
+      </c>
+      <c r="AK3">
+        <v>7.9</v>
+      </c>
+      <c r="AL3">
+        <v>4.8</v>
+      </c>
+      <c r="AM3">
+        <v>39.9</v>
+      </c>
+      <c r="AN3">
+        <v>36.5</v>
+      </c>
+      <c r="AO3">
+        <v>10.5</v>
+      </c>
+      <c r="AP3">
+        <v>39.2</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX3">
+        <v>-270</v>
+      </c>
+      <c r="AY3">
+        <v>0.5</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.412</v>
+      </c>
+      <c r="M4">
+        <v>0.457</v>
+      </c>
+      <c r="N4">
+        <v>0.176</v>
+      </c>
+      <c r="O4">
+        <v>0.474</v>
+      </c>
+      <c r="P4">
+        <v>0.588</v>
+      </c>
+      <c r="Q4">
+        <v>1.062</v>
+      </c>
+      <c r="R4">
+        <v>15.8</v>
+      </c>
+      <c r="S4">
+        <v>10.5</v>
+      </c>
+      <c r="T4">
+        <v>50</v>
+      </c>
+      <c r="U4">
+        <v>28.6</v>
+      </c>
+      <c r="V4">
+        <v>35.7</v>
+      </c>
+      <c r="W4" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC4">
+        <v>267</v>
+      </c>
+      <c r="AD4">
+        <v>8</v>
+      </c>
+      <c r="AE4">
+        <v>0.329</v>
+      </c>
+      <c r="AF4">
+        <v>0.39</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>0.202</v>
+      </c>
+      <c r="AI4">
+        <v>0.531</v>
+      </c>
+      <c r="AJ4">
+        <v>13.5</v>
+      </c>
+      <c r="AK4">
+        <v>7.9</v>
+      </c>
+      <c r="AL4">
+        <v>4.8</v>
+      </c>
+      <c r="AM4">
+        <v>39.9</v>
+      </c>
+      <c r="AN4">
+        <v>36.5</v>
+      </c>
+      <c r="AO4">
+        <v>10.5</v>
+      </c>
+      <c r="AP4">
+        <v>39.2</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX4">
+        <v>-210</v>
+      </c>
+      <c r="AY4">
+        <v>0.5</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>89</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0.303</v>
+      </c>
+      <c r="M5">
+        <v>0.342</v>
+      </c>
+      <c r="N5">
+        <v>0.079</v>
+      </c>
+      <c r="O5">
+        <v>0.38</v>
+      </c>
+      <c r="P5">
+        <v>0.382</v>
+      </c>
+      <c r="Q5">
+        <v>0.762</v>
+      </c>
+      <c r="R5">
+        <v>16</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5">
+        <v>49.3</v>
+      </c>
+      <c r="U5">
+        <v>26.1</v>
+      </c>
+      <c r="V5">
+        <v>31.5</v>
+      </c>
+      <c r="W5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5">
+        <v>267</v>
+      </c>
+      <c r="AD5">
+        <v>8</v>
+      </c>
+      <c r="AE5">
+        <v>0.329</v>
+      </c>
+      <c r="AF5">
+        <v>0.39</v>
+      </c>
+      <c r="AG5">
+        <v>3</v>
+      </c>
+      <c r="AH5">
+        <v>0.202</v>
+      </c>
+      <c r="AI5">
+        <v>0.531</v>
+      </c>
+      <c r="AJ5">
+        <v>13.5</v>
+      </c>
+      <c r="AK5">
+        <v>7.9</v>
+      </c>
+      <c r="AL5">
+        <v>4.8</v>
+      </c>
+      <c r="AM5">
+        <v>39.9</v>
+      </c>
+      <c r="AN5">
+        <v>36.5</v>
+      </c>
+      <c r="AO5">
+        <v>10.5</v>
+      </c>
+      <c r="AP5">
+        <v>39.2</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX5">
+        <v>-180</v>
+      </c>
+      <c r="AY5">
+        <v>0.5</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE5">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="132">
   <si>
     <t>fg_name</t>
   </si>
@@ -190,220 +190,229 @@
     <t>Under Price</t>
   </si>
   <si>
-    <t>Brandon Nimmo</t>
-  </si>
-  <si>
-    <t>New York Mets</t>
+    <t>Xander Bogaerts</t>
+  </si>
+  <si>
+    <t>Manny Machado</t>
+  </si>
+  <si>
+    <t>Yandy Diaz</t>
+  </si>
+  <si>
+    <t>San Diego Padres</t>
+  </si>
+  <si>
+    <t>Tampa Bay Rays</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>vs L</t>
+  </si>
+  <si>
+    <t>vs R</t>
+  </si>
+  <si>
+    <t>Bailey Falter</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates</t>
+  </si>
+  <si>
+    <t>St. Louis Cardinals</t>
+  </si>
+  <si>
+    <t>LHP</t>
+  </si>
+  <si>
+    <t>RHP</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>draftkings</t>
+  </si>
+  <si>
+    <t>2024-08-06T22:41:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-06T23:46:00Z</t>
+  </si>
+  <si>
+    <t>Trea Turner</t>
+  </si>
+  <si>
+    <t>Austin Hays</t>
+  </si>
+  <si>
+    <t>Aaron Judge</t>
+  </si>
+  <si>
+    <t>Philadelphia Phillies</t>
+  </si>
+  <si>
+    <t>New York Yankees</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>Davis Daniel</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers</t>
+  </si>
+  <si>
+    <t>Los Angeles Angels</t>
+  </si>
+  <si>
+    <t>2024-08-07T02:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-06T23:06:00Z</t>
+  </si>
+  <si>
+    <t>Victor Robles</t>
+  </si>
+  <si>
+    <t>Bryce Harper</t>
+  </si>
+  <si>
+    <t>Kyle Schwarber</t>
+  </si>
+  <si>
+    <t>Alec Bohm</t>
+  </si>
+  <si>
+    <t>Salvador Perez</t>
+  </si>
+  <si>
+    <t>Vinnie Pasquantino</t>
+  </si>
+  <si>
+    <t>Michael Conforto</t>
+  </si>
+  <si>
+    <t>Ryan Ohearn</t>
+  </si>
+  <si>
+    <t>Tommy Pham</t>
+  </si>
+  <si>
+    <t>Paul Goldschmidt</t>
+  </si>
+  <si>
+    <t>Bligh Madris</t>
+  </si>
+  <si>
+    <t>Seattle Mariners</t>
+  </si>
+  <si>
+    <t>Kansas City Royals</t>
+  </si>
+  <si>
+    <t>San Francisco Giants</t>
+  </si>
+  <si>
+    <t>Baltimore Orioles</t>
+  </si>
+  <si>
+    <t>Detroit Tigers</t>
+  </si>
+  <si>
+    <t>Ryan O Hearn</t>
+  </si>
+  <si>
+    <t>Ryan O'Hearn</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>vs R</t>
-  </si>
-  <si>
-    <t>Andre Pallante</t>
-  </si>
-  <si>
-    <t>St. Louis Cardinals</t>
-  </si>
-  <si>
-    <t>RHP</t>
-  </si>
-  <si>
-    <t>vs L</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>draftkings</t>
-  </si>
-  <si>
-    <t>2024-08-04T20:08:00Z</t>
-  </si>
-  <si>
-    <t>Los Angeles Angels</t>
-  </si>
-  <si>
-    <t>Matt Chapman</t>
+    <t>Keider Montero</t>
+  </si>
+  <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Boston Red Sox</t>
+  </si>
+  <si>
+    <t>Washington Nationals</t>
+  </si>
+  <si>
+    <t>Toronto Blue Jays</t>
+  </si>
+  <si>
+    <t>2024-08-07T01:41:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-07T00:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-06T22:46:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-06T23:08:00Z</t>
+  </si>
+  <si>
+    <t>Amed Rosario</t>
+  </si>
+  <si>
+    <t>Andy Pages</t>
+  </si>
+  <si>
+    <t>Carlos Santana</t>
+  </si>
+  <si>
+    <t>Royce Lewis</t>
+  </si>
+  <si>
+    <t>Brooks Lee</t>
+  </si>
+  <si>
+    <t>Marco Luciano</t>
   </si>
   <si>
     <t>Tyler Fitzgerald</t>
   </si>
   <si>
-    <t>Yordan Alvarez</t>
-  </si>
-  <si>
-    <t>San Francisco Giants</t>
-  </si>
-  <si>
-    <t>Houston Astros</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
-    <t>Washington Nationals</t>
-  </si>
-  <si>
-    <t>Texas Rangers</t>
-  </si>
-  <si>
-    <t>LHP</t>
-  </si>
-  <si>
-    <t>2024-08-04T16:06:00Z</t>
-  </si>
-  <si>
-    <t>2024-08-04T18:11:00Z</t>
-  </si>
-  <si>
-    <t>Cincinnati Reds</t>
-  </si>
-  <si>
-    <t>Tampa Bay Rays</t>
-  </si>
-  <si>
-    <t>Josh Jung</t>
-  </si>
-  <si>
-    <t>Alex Call</t>
-  </si>
-  <si>
-    <t>Juan Yepez</t>
-  </si>
-  <si>
-    <t>Harrison Bader</t>
-  </si>
-  <si>
-    <t>Francisco Alvarez</t>
-  </si>
-  <si>
-    <t>Byron Buxton</t>
-  </si>
-  <si>
-    <t>Jose Miranda</t>
-  </si>
-  <si>
-    <t>Jesus Sanchez</t>
-  </si>
-  <si>
-    <t>Andrew Vaughn</t>
-  </si>
-  <si>
-    <t>Miguel Vargas</t>
-  </si>
-  <si>
-    <t>Rafael Devers</t>
-  </si>
-  <si>
-    <t>Masataka Yoshida</t>
-  </si>
-  <si>
-    <t>Wilyer Abreu</t>
-  </si>
-  <si>
-    <t>Elly De La Cruz</t>
-  </si>
-  <si>
     <t>Minnesota Twins</t>
   </si>
   <si>
-    <t>Miami Marlins</t>
-  </si>
-  <si>
-    <t>Chicago White Sox</t>
-  </si>
-  <si>
-    <t>Boston Red Sox</t>
-  </si>
-  <si>
-    <t>Jesús Sánchez</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
-    <t>Logan Webb</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
-    <t>Nick Martinez</t>
-  </si>
-  <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
-    <t>Roddery Munoz</t>
+    <t>C. Sanchez</t>
+  </si>
+  <si>
+    <t>Shota Imanaga</t>
   </si>
   <si>
     <t>Chicago Cubs</t>
   </si>
   <si>
-    <t>Oakland Athletics</t>
-  </si>
-  <si>
-    <t>Kansas City Royals</t>
-  </si>
-  <si>
-    <t>Roddery Muñoz</t>
-  </si>
-  <si>
-    <t>2024-08-04T18:36:00Z</t>
-  </si>
-  <si>
-    <t>2024-08-04T17:36:00Z</t>
-  </si>
-  <si>
-    <t>Atlanta Braves</t>
-  </si>
-  <si>
-    <t>Milwaukee Brewers</t>
-  </si>
-  <si>
-    <t>Geraldo Perdomo</t>
-  </si>
-  <si>
-    <t>Ketel Marte</t>
-  </si>
-  <si>
-    <t>Freddy Fermin</t>
-  </si>
-  <si>
-    <t>Arizona Diamondbacks</t>
-  </si>
-  <si>
-    <t>Logan Allen</t>
-  </si>
-  <si>
-    <t>James Paxton</t>
-  </si>
-  <si>
-    <t>Cleveland Indians</t>
-  </si>
-  <si>
-    <t>2024-08-04T17:41:00Z</t>
-  </si>
-  <si>
-    <t>Pittsburgh Pirates</t>
-  </si>
-  <si>
-    <t>Detroit Tigers</t>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>2024-08-07T00:06:00Z</t>
   </si>
 </sst>
 </file>
@@ -761,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -945,7 +954,7 @@
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -954,127 +963,127 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.246</v>
+      </c>
+      <c r="M2">
+        <v>0.295</v>
+      </c>
+      <c r="N2">
+        <v>0.115</v>
+      </c>
+      <c r="O2">
+        <v>0.314</v>
+      </c>
+      <c r="P2">
+        <v>0.361</v>
+      </c>
+      <c r="Q2">
+        <v>0.675</v>
+      </c>
+      <c r="R2">
+        <v>11.4</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>54.5</v>
+      </c>
+      <c r="U2">
+        <v>30.9</v>
+      </c>
+      <c r="V2">
+        <v>29.1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" t="s">
         <v>60</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>287</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.216</v>
-      </c>
-      <c r="M2">
-        <v>0.327</v>
-      </c>
-      <c r="N2">
-        <v>0.171</v>
-      </c>
-      <c r="O2">
-        <v>0.347</v>
-      </c>
-      <c r="P2">
-        <v>0.387</v>
-      </c>
-      <c r="Q2">
-        <v>0.734</v>
-      </c>
-      <c r="R2">
-        <v>25.1</v>
-      </c>
-      <c r="S2">
-        <v>15.3</v>
-      </c>
-      <c r="T2">
-        <v>44.8</v>
-      </c>
-      <c r="U2">
-        <v>38.3</v>
-      </c>
-      <c r="V2">
-        <v>38.8</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>58</v>
-      </c>
       <c r="AA2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="s">
         <v>64</v>
       </c>
       <c r="AC2">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE2">
-        <v>0.217</v>
+        <v>0.235</v>
       </c>
       <c r="AF2">
-        <v>0.26</v>
+        <v>0.304</v>
       </c>
       <c r="AG2">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="AH2">
-        <v>0.061</v>
+        <v>0.169</v>
       </c>
       <c r="AI2">
-        <v>0.278</v>
+        <v>0.404</v>
       </c>
       <c r="AJ2">
-        <v>18.9</v>
+        <v>15.8</v>
       </c>
       <c r="AK2">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AL2">
-        <v>3.2</v>
+        <v>4.78</v>
       </c>
       <c r="AM2">
-        <v>74.7</v>
+        <v>34.8</v>
       </c>
       <c r="AN2">
-        <v>14.3</v>
+        <v>44.5</v>
       </c>
       <c r="AO2">
-        <v>7.7</v>
+        <v>10.9</v>
       </c>
       <c r="AP2">
-        <v>24.2</v>
+        <v>28.7</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>1</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -1083,34 +1092,380 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="s">
         <v>57</v>
       </c>
       <c r="AX2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AY2">
         <v>1.5</v>
       </c>
       <c r="AZ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE2">
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>102</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.245</v>
+      </c>
+      <c r="M3">
+        <v>0.334</v>
+      </c>
+      <c r="N3">
+        <v>0.216</v>
+      </c>
+      <c r="O3">
+        <v>0.33</v>
+      </c>
+      <c r="P3">
+        <v>0.461</v>
+      </c>
+      <c r="Q3">
+        <v>0.791</v>
+      </c>
+      <c r="R3">
+        <v>20.9</v>
+      </c>
+      <c r="S3">
+        <v>11.3</v>
+      </c>
+      <c r="T3">
+        <v>38.5</v>
+      </c>
+      <c r="U3">
+        <v>42.3</v>
+      </c>
+      <c r="V3">
+        <v>28.2</v>
+      </c>
+      <c r="W3" t="s">
         <v>65</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="X3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC3">
+        <v>303</v>
+      </c>
+      <c r="AD3">
+        <v>11</v>
+      </c>
+      <c r="AE3">
+        <v>0.235</v>
+      </c>
+      <c r="AF3">
+        <v>0.304</v>
+      </c>
+      <c r="AG3">
+        <v>3.6</v>
+      </c>
+      <c r="AH3">
+        <v>0.169</v>
+      </c>
+      <c r="AI3">
+        <v>0.404</v>
+      </c>
+      <c r="AJ3">
+        <v>15.8</v>
+      </c>
+      <c r="AK3">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AL3">
+        <v>4.78</v>
+      </c>
+      <c r="AM3">
+        <v>34.8</v>
+      </c>
+      <c r="AN3">
+        <v>44.5</v>
+      </c>
+      <c r="AO3">
+        <v>10.9</v>
+      </c>
+      <c r="AP3">
+        <v>28.7</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX3">
+        <v>190</v>
+      </c>
+      <c r="AY3">
+        <v>1.5</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE3">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>311</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.254</v>
+      </c>
+      <c r="M4">
+        <v>0.303</v>
+      </c>
+      <c r="N4">
+        <v>0.113</v>
+      </c>
+      <c r="O4">
+        <v>0.318</v>
+      </c>
+      <c r="P4">
+        <v>0.367</v>
+      </c>
+      <c r="Q4">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="R4">
+        <v>17.1</v>
+      </c>
+      <c r="S4">
+        <v>7.9</v>
+      </c>
+      <c r="T4">
+        <v>59.3</v>
+      </c>
+      <c r="U4">
+        <v>22.5</v>
+      </c>
+      <c r="V4">
+        <v>34</v>
+      </c>
+      <c r="W4" t="s">
         <v>66</v>
       </c>
-      <c r="BB2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="X4" t="s">
         <v>68</v>
       </c>
-      <c r="BD2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE2">
-        <v>-275</v>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC4">
+        <v>252</v>
+      </c>
+      <c r="AD4">
+        <v>8</v>
+      </c>
+      <c r="AE4">
+        <v>0.203</v>
+      </c>
+      <c r="AF4">
+        <v>0.251</v>
+      </c>
+      <c r="AG4">
+        <v>3.2</v>
+      </c>
+      <c r="AH4">
+        <v>0.14</v>
+      </c>
+      <c r="AI4">
+        <v>0.343</v>
+      </c>
+      <c r="AJ4">
+        <v>32.1</v>
+      </c>
+      <c r="AK4">
+        <v>4.4</v>
+      </c>
+      <c r="AL4">
+        <v>2.79</v>
+      </c>
+      <c r="AM4">
+        <v>47.8</v>
+      </c>
+      <c r="AN4">
+        <v>35.7</v>
+      </c>
+      <c r="AO4">
+        <v>14.3</v>
+      </c>
+      <c r="AP4">
+        <v>35.8</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX4">
+        <v>185</v>
+      </c>
+      <c r="AY4">
+        <v>1.5</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE4">
+        <v>-260</v>
       </c>
     </row>
   </sheetData>
@@ -1301,151 +1656,151 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>97</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.309</v>
+      </c>
+      <c r="M2">
+        <v>0.391</v>
+      </c>
+      <c r="N2">
+        <v>0.216</v>
+      </c>
+      <c r="O2">
+        <v>0.38</v>
+      </c>
+      <c r="P2">
+        <v>0.526</v>
+      </c>
+      <c r="Q2">
+        <v>0.905</v>
+      </c>
+      <c r="R2">
+        <v>18.5</v>
+      </c>
+      <c r="S2">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="T2">
+        <v>48.1</v>
+      </c>
+      <c r="U2">
+        <v>40.3</v>
+      </c>
+      <c r="V2">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="Z2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="s">
         <v>64</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>110</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.3</v>
-      </c>
-      <c r="M2">
-        <v>0.383</v>
-      </c>
-      <c r="N2">
-        <v>0.218</v>
-      </c>
-      <c r="O2">
+      <c r="AC2">
+        <v>34</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0.333</v>
+      </c>
+      <c r="AF2">
         <v>0.386</v>
       </c>
-      <c r="P2">
-        <v>0.518</v>
-      </c>
-      <c r="Q2">
-        <v>0.904</v>
-      </c>
-      <c r="R2">
-        <v>19.7</v>
-      </c>
-      <c r="S2">
-        <v>12.6</v>
-      </c>
-      <c r="T2">
-        <v>32.6</v>
-      </c>
-      <c r="U2">
-        <v>41.9</v>
-      </c>
-      <c r="V2">
-        <v>43</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="AG2">
+        <v>2.9</v>
+      </c>
+      <c r="AH2">
+        <v>0.2</v>
+      </c>
+      <c r="AI2">
+        <v>0.533</v>
+      </c>
+      <c r="AJ2">
+        <v>14.7</v>
+      </c>
+      <c r="AK2">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AL2">
+        <v>5.06</v>
+      </c>
+      <c r="AM2">
+        <v>32</v>
+      </c>
+      <c r="AN2">
+        <v>40</v>
+      </c>
+      <c r="AO2">
+        <v>10</v>
+      </c>
+      <c r="AP2">
+        <v>26.9</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="s">
         <v>75</v>
-      </c>
-      <c r="X2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2">
-        <v>423</v>
-      </c>
-      <c r="AD2">
-        <v>14</v>
-      </c>
-      <c r="AE2">
-        <v>0.311</v>
-      </c>
-      <c r="AF2">
-        <v>0.37</v>
-      </c>
-      <c r="AG2">
-        <v>3.3</v>
-      </c>
-      <c r="AH2">
-        <v>0.205</v>
-      </c>
-      <c r="AI2">
-        <v>0.516</v>
-      </c>
-      <c r="AJ2">
-        <v>16.3</v>
-      </c>
-      <c r="AK2">
-        <v>6.4</v>
-      </c>
-      <c r="AL2">
-        <v>4.51</v>
-      </c>
-      <c r="AM2">
-        <v>44.6</v>
-      </c>
-      <c r="AN2">
-        <v>34.5</v>
-      </c>
-      <c r="AO2">
-        <v>12.8</v>
-      </c>
-      <c r="AP2">
-        <v>34.2</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>1</v>
-      </c>
-      <c r="AU2">
-        <v>1</v>
-      </c>
-      <c r="AV2">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>69</v>
       </c>
       <c r="AX2">
         <v>-250</v>
@@ -1454,19 +1809,19 @@
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="BC2" t="s">
         <v>82</v>
       </c>
       <c r="BD2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BE2">
         <v>180</v>
@@ -1474,130 +1829,130 @@
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
         <v>70</v>
       </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.314</v>
+      </c>
+      <c r="M3">
+        <v>0.37</v>
+      </c>
+      <c r="N3">
+        <v>0.171</v>
+      </c>
+      <c r="O3">
+        <v>0.377</v>
+      </c>
+      <c r="P3">
+        <v>0.486</v>
+      </c>
+      <c r="Q3">
+        <v>0.862</v>
+      </c>
+      <c r="R3">
+        <v>29.5</v>
+      </c>
+      <c r="S3">
+        <v>6.4</v>
+      </c>
+      <c r="T3">
+        <v>31.9</v>
+      </c>
+      <c r="U3">
+        <v>42.6</v>
+      </c>
+      <c r="V3">
+        <v>37.5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" t="s">
         <v>64</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>67</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.313</v>
-      </c>
-      <c r="M3">
-        <v>0.396</v>
-      </c>
-      <c r="N3">
-        <v>0.269</v>
-      </c>
-      <c r="O3">
-        <v>0.352</v>
-      </c>
-      <c r="P3">
-        <v>0.582</v>
-      </c>
-      <c r="Q3">
-        <v>0.9340000000000001</v>
-      </c>
-      <c r="R3">
-        <v>29.6</v>
-      </c>
-      <c r="S3">
-        <v>5.6</v>
-      </c>
-      <c r="T3">
-        <v>37.8</v>
-      </c>
-      <c r="U3">
+      <c r="AC3">
+        <v>34</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>0.333</v>
+      </c>
+      <c r="AF3">
+        <v>0.386</v>
+      </c>
+      <c r="AG3">
+        <v>2.9</v>
+      </c>
+      <c r="AH3">
+        <v>0.2</v>
+      </c>
+      <c r="AI3">
+        <v>0.533</v>
+      </c>
+      <c r="AJ3">
+        <v>14.7</v>
+      </c>
+      <c r="AK3">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AL3">
+        <v>5.06</v>
+      </c>
+      <c r="AM3">
+        <v>32</v>
+      </c>
+      <c r="AN3">
         <v>40</v>
       </c>
-      <c r="V3">
-        <v>30.4</v>
-      </c>
-      <c r="W3" t="s">
-        <v>75</v>
-      </c>
-      <c r="X3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC3">
-        <v>423</v>
-      </c>
-      <c r="AD3">
-        <v>14</v>
-      </c>
-      <c r="AE3">
-        <v>0.311</v>
-      </c>
-      <c r="AF3">
-        <v>0.37</v>
-      </c>
-      <c r="AG3">
-        <v>3.3</v>
-      </c>
-      <c r="AH3">
-        <v>0.205</v>
-      </c>
-      <c r="AI3">
-        <v>0.516</v>
-      </c>
-      <c r="AJ3">
-        <v>16.3</v>
-      </c>
-      <c r="AK3">
-        <v>6.4</v>
-      </c>
-      <c r="AL3">
-        <v>4.51</v>
-      </c>
-      <c r="AM3">
-        <v>44.6</v>
-      </c>
-      <c r="AN3">
-        <v>34.5</v>
-      </c>
       <c r="AO3">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="AP3">
-        <v>34.2</v>
+        <v>26.9</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1609,57 +1964,57 @@
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AX3">
-        <v>-230</v>
+        <v>-180</v>
       </c>
       <c r="AY3">
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="BC3" t="s">
         <v>82</v>
       </c>
       <c r="BD3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BE3">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -1668,115 +2023,115 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>139</v>
+        <v>313</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.367</v>
+        <v>0.332</v>
       </c>
       <c r="M4">
-        <v>0.425</v>
+        <v>0.475</v>
       </c>
       <c r="N4">
-        <v>0.216</v>
+        <v>0.38</v>
       </c>
       <c r="O4">
-        <v>0.419</v>
+        <v>0.442</v>
       </c>
       <c r="P4">
-        <v>0.583</v>
+        <v>0.712</v>
       </c>
       <c r="Q4">
-        <v>1.002</v>
+        <v>1.154</v>
       </c>
       <c r="R4">
-        <v>18.7</v>
+        <v>23.7</v>
       </c>
       <c r="S4">
-        <v>7.1</v>
+        <v>15.3</v>
       </c>
       <c r="T4">
-        <v>39.3</v>
+        <v>31.1</v>
       </c>
       <c r="U4">
-        <v>38.4</v>
+        <v>46.7</v>
       </c>
       <c r="V4">
-        <v>44.6</v>
+        <v>46.7</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" t="s">
         <v>79</v>
       </c>
-      <c r="Z4" t="s">
-        <v>73</v>
-      </c>
       <c r="AA4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s">
         <v>64</v>
       </c>
       <c r="AC4">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4">
         <v>0.333</v>
       </c>
       <c r="AF4">
-        <v>0.367</v>
+        <v>0.378</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="AH4">
-        <v>0.104</v>
+        <v>0.2</v>
       </c>
       <c r="AI4">
-        <v>0.437</v>
+        <v>0.533</v>
       </c>
       <c r="AJ4">
-        <v>22.7</v>
+        <v>21.7</v>
       </c>
       <c r="AK4">
-        <v>9.300000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="AL4">
-        <v>2.96</v>
+        <v>4.07</v>
       </c>
       <c r="AM4">
-        <v>30.8</v>
+        <v>40</v>
       </c>
       <c r="AN4">
-        <v>43.1</v>
+        <v>40</v>
       </c>
       <c r="AO4">
-        <v>3.6</v>
+        <v>14.3</v>
       </c>
       <c r="AP4">
-        <v>27.3</v>
+        <v>22.9</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -1791,31 +2146,31 @@
         <v>1</v>
       </c>
       <c r="AW4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AX4">
-        <v>-240</v>
+        <v>-275</v>
       </c>
       <c r="AY4">
         <v>0.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="BC4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="BD4" t="s">
         <v>83</v>
       </c>
       <c r="BE4">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +2180,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE18"/>
+  <dimension ref="A1:BE15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2006,133 +2361,133 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.333</v>
+        <v>0.314</v>
       </c>
       <c r="M2">
-        <v>0.447</v>
+        <v>0.379</v>
       </c>
       <c r="N2">
-        <v>0.4</v>
+        <v>0.186</v>
       </c>
       <c r="O2">
-        <v>0.333</v>
+        <v>0.38</v>
       </c>
       <c r="P2">
-        <v>0.733</v>
+        <v>0.5</v>
       </c>
       <c r="Q2">
-        <v>1.067</v>
+        <v>0.88</v>
       </c>
       <c r="R2">
-        <v>23.3</v>
+        <v>19.8</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="T2">
-        <v>39.1</v>
+        <v>39.6</v>
       </c>
       <c r="U2">
-        <v>39.1</v>
+        <v>37.7</v>
       </c>
       <c r="V2">
-        <v>52.2</v>
+        <v>22.8</v>
       </c>
       <c r="W2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="Y2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AA2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC2">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="AD2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE2">
+        <v>0.293</v>
+      </c>
+      <c r="AF2">
+        <v>0.396</v>
+      </c>
+      <c r="AG2">
+        <v>6.7</v>
+      </c>
+      <c r="AH2">
         <v>0.292</v>
       </c>
-      <c r="AF2">
-        <v>0.344</v>
-      </c>
-      <c r="AG2">
-        <v>3</v>
-      </c>
-      <c r="AH2">
-        <v>0.118</v>
-      </c>
       <c r="AI2">
-        <v>0.41</v>
+        <v>0.585</v>
       </c>
       <c r="AJ2">
-        <v>22.5</v>
+        <v>16.9</v>
       </c>
       <c r="AK2">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="AL2">
-        <v>4.26</v>
+        <v>6.68</v>
       </c>
       <c r="AM2">
-        <v>48.1</v>
+        <v>31.3</v>
       </c>
       <c r="AN2">
-        <v>29.7</v>
+        <v>46.3</v>
       </c>
       <c r="AO2">
-        <v>14.9</v>
+        <v>19.4</v>
       </c>
       <c r="AP2">
-        <v>20.1</v>
+        <v>46.3</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2141,588 +2496,588 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AX2">
-        <v>-210</v>
+        <v>-245</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BC2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="BD2" t="s">
         <v>101</v>
       </c>
       <c r="BE2">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.474</v>
+        <v>0.309</v>
       </c>
       <c r="M3">
-        <v>0.514</v>
+        <v>0.391</v>
       </c>
       <c r="N3">
-        <v>0.105</v>
+        <v>0.216</v>
       </c>
       <c r="O3">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="P3">
-        <v>0.579</v>
+        <v>0.526</v>
       </c>
       <c r="Q3">
-        <v>1.179</v>
+        <v>0.905</v>
       </c>
       <c r="R3">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="S3">
-        <v>20</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="T3">
-        <v>62.5</v>
+        <v>48.1</v>
       </c>
       <c r="U3">
-        <v>25</v>
+        <v>40.3</v>
       </c>
       <c r="V3">
-        <v>31.3</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Z3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC3">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c r="AD3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.279</v>
+        <v>0.333</v>
       </c>
       <c r="AF3">
-        <v>0.291</v>
+        <v>0.386</v>
       </c>
       <c r="AG3">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="AH3">
-        <v>0.08500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AI3">
-        <v>0.364</v>
+        <v>0.533</v>
       </c>
       <c r="AJ3">
-        <v>18.2</v>
+        <v>14.7</v>
       </c>
       <c r="AK3">
-        <v>3.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL3">
-        <v>3.07</v>
+        <v>5.06</v>
       </c>
       <c r="AM3">
-        <v>56.3</v>
+        <v>32</v>
       </c>
       <c r="AN3">
-        <v>24.2</v>
+        <v>40</v>
       </c>
       <c r="AO3">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="AP3">
-        <v>30.3</v>
+        <v>26.9</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AX3">
-        <v>-165</v>
+        <v>-250</v>
       </c>
       <c r="AY3">
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="BC3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="BD3" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="BE3">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>133</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>76</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.289</v>
+        <v>0.301</v>
       </c>
       <c r="M4">
-        <v>0.348</v>
+        <v>0.41</v>
       </c>
       <c r="N4">
-        <v>0.197</v>
+        <v>0.271</v>
       </c>
       <c r="O4">
-        <v>0.333</v>
+        <v>0.397</v>
       </c>
       <c r="P4">
-        <v>0.487</v>
+        <v>0.571</v>
       </c>
       <c r="Q4">
-        <v>0.82</v>
+        <v>0.969</v>
       </c>
       <c r="R4">
-        <v>15.5</v>
+        <v>25.6</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>14.1</v>
       </c>
       <c r="T4">
-        <v>46.2</v>
+        <v>34</v>
       </c>
       <c r="U4">
-        <v>26.2</v>
+        <v>43.6</v>
       </c>
       <c r="V4">
-        <v>29.2</v>
+        <v>36.2</v>
       </c>
       <c r="W4" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" t="s">
         <v>63</v>
       </c>
-      <c r="Z4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>60</v>
-      </c>
       <c r="AC4">
-        <v>297</v>
+        <v>7</v>
       </c>
       <c r="AD4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.279</v>
+        <v>0.286</v>
       </c>
       <c r="AF4">
-        <v>0.291</v>
+        <v>0.252</v>
       </c>
       <c r="AG4">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.364</v>
+        <v>0.286</v>
       </c>
       <c r="AJ4">
-        <v>18.2</v>
+        <v>14.3</v>
       </c>
       <c r="AK4">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>3.07</v>
+        <v>1.67</v>
       </c>
       <c r="AM4">
-        <v>56.3</v>
+        <v>50</v>
       </c>
       <c r="AN4">
-        <v>24.2</v>
+        <v>16.7</v>
       </c>
       <c r="AO4">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>30.3</v>
+        <v>16.7</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>1</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AX4">
-        <v>-255</v>
+        <v>-215</v>
       </c>
       <c r="AY4">
         <v>0.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB4" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="BC4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="BD4" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="BE4">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:57">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.34</v>
+      </c>
+      <c r="M5">
+        <v>0.446</v>
+      </c>
+      <c r="N5">
+        <v>0.236</v>
+      </c>
+      <c r="O5">
+        <v>0.46</v>
+      </c>
+      <c r="P5">
+        <v>0.576</v>
+      </c>
+      <c r="Q5">
+        <v>1.037</v>
+      </c>
+      <c r="R5">
+        <v>25.6</v>
+      </c>
+      <c r="S5">
+        <v>17.6</v>
+      </c>
+      <c r="T5">
+        <v>47.5</v>
+      </c>
+      <c r="U5">
+        <v>33.3</v>
+      </c>
+      <c r="V5">
+        <v>44.4</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC5">
         <v>7</v>
       </c>
-      <c r="L5">
-        <v>0.298</v>
-      </c>
-      <c r="M5">
-        <v>0.339</v>
-      </c>
-      <c r="N5">
-        <v>0.152</v>
-      </c>
-      <c r="O5">
-        <v>0.335</v>
-      </c>
-      <c r="P5">
-        <v>0.449</v>
-      </c>
-      <c r="Q5">
-        <v>0.784</v>
-      </c>
-      <c r="R5">
-        <v>23.6</v>
-      </c>
-      <c r="S5">
-        <v>3.8</v>
-      </c>
-      <c r="T5">
-        <v>48.7</v>
-      </c>
-      <c r="U5">
-        <v>28</v>
-      </c>
-      <c r="V5">
-        <v>23.3</v>
-      </c>
-      <c r="W5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5">
-        <v>138</v>
-      </c>
       <c r="AD5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.296</v>
+        <v>0.286</v>
       </c>
       <c r="AF5">
-        <v>0.357</v>
+        <v>0.252</v>
       </c>
       <c r="AG5">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.456</v>
+        <v>0.286</v>
       </c>
       <c r="AJ5">
-        <v>18.1</v>
+        <v>14.3</v>
       </c>
       <c r="AK5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>4.53</v>
+        <v>1.67</v>
       </c>
       <c r="AM5">
         <v>50</v>
       </c>
       <c r="AN5">
-        <v>32</v>
+        <v>16.7</v>
       </c>
       <c r="AO5">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>25</v>
+        <v>16.7</v>
       </c>
       <c r="AQ5">
         <v>1</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
         <v>1</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AX5">
-        <v>-165</v>
+        <v>-175</v>
       </c>
       <c r="AY5">
         <v>0.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB5" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="BC5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="BD5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="BE5">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:57">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6">
         <v>7</v>
       </c>
       <c r="H6">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2731,97 +3086,97 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.271</v>
+        <v>0.314</v>
       </c>
       <c r="M6">
-        <v>0.331</v>
+        <v>0.37</v>
       </c>
       <c r="N6">
-        <v>0.165</v>
+        <v>0.171</v>
       </c>
       <c r="O6">
-        <v>0.329</v>
+        <v>0.377</v>
       </c>
       <c r="P6">
-        <v>0.436</v>
+        <v>0.486</v>
       </c>
       <c r="Q6">
-        <v>0.765</v>
+        <v>0.862</v>
       </c>
       <c r="R6">
-        <v>26</v>
+        <v>29.5</v>
       </c>
       <c r="S6">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="T6">
-        <v>51</v>
+        <v>31.9</v>
       </c>
       <c r="U6">
-        <v>30.2</v>
+        <v>42.6</v>
       </c>
       <c r="V6">
-        <v>28.1</v>
+        <v>37.5</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Z6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC6">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="AD6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.296</v>
+        <v>0.333</v>
       </c>
       <c r="AF6">
-        <v>0.357</v>
+        <v>0.386</v>
       </c>
       <c r="AG6">
         <v>2.9</v>
       </c>
       <c r="AH6">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="AI6">
-        <v>0.456</v>
+        <v>0.533</v>
       </c>
       <c r="AJ6">
-        <v>18.1</v>
+        <v>14.7</v>
       </c>
       <c r="AK6">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL6">
-        <v>4.53</v>
+        <v>5.06</v>
       </c>
       <c r="AM6">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AN6">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AO6">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AP6">
-        <v>25</v>
+        <v>26.9</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2830,43 +3185,43 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AX6">
-        <v>-195</v>
+        <v>-180</v>
       </c>
       <c r="AY6">
         <v>0.5</v>
       </c>
       <c r="AZ6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="BC6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="BD6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="BE6">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:57">
@@ -2874,7 +3229,7 @@
         <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
@@ -2883,121 +3238,121 @@
         <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.273</v>
+        <v>0.278</v>
       </c>
       <c r="M7">
-        <v>0.366</v>
+        <v>0.345</v>
       </c>
       <c r="N7">
-        <v>0.258</v>
+        <v>0.198</v>
       </c>
       <c r="O7">
+        <v>0.331</v>
+      </c>
+      <c r="P7">
+        <v>0.476</v>
+      </c>
+      <c r="Q7">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="R7">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="S7">
+        <v>7.4</v>
+      </c>
+      <c r="T7">
+        <v>43.9</v>
+      </c>
+      <c r="U7">
+        <v>41.2</v>
+      </c>
+      <c r="V7">
+        <v>42.1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC7">
+        <v>34</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
         <v>0.333</v>
       </c>
-      <c r="P7">
-        <v>0.531</v>
-      </c>
-      <c r="Q7">
-        <v>0.864</v>
-      </c>
-      <c r="R7">
-        <v>26.8</v>
-      </c>
-      <c r="S7">
-        <v>4.8</v>
-      </c>
-      <c r="T7">
-        <v>32.2</v>
-      </c>
-      <c r="U7">
-        <v>45</v>
-      </c>
-      <c r="V7">
-        <v>40.9</v>
-      </c>
-      <c r="W7" t="s">
-        <v>106</v>
-      </c>
-      <c r="X7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC7">
-        <v>184</v>
-      </c>
-      <c r="AD7">
-        <v>5</v>
-      </c>
-      <c r="AE7">
-        <v>0.281</v>
-      </c>
       <c r="AF7">
-        <v>0.32</v>
+        <v>0.386</v>
       </c>
       <c r="AG7">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AH7">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="AI7">
-        <v>0.401</v>
+        <v>0.533</v>
       </c>
       <c r="AJ7">
-        <v>17.4</v>
+        <v>14.7</v>
       </c>
       <c r="AK7">
-        <v>7.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL7">
-        <v>4.14</v>
+        <v>5.06</v>
       </c>
       <c r="AM7">
-        <v>47.1</v>
+        <v>32</v>
       </c>
       <c r="AN7">
-        <v>31.2</v>
+        <v>40</v>
       </c>
       <c r="AO7">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="AP7">
-        <v>29</v>
+        <v>26.9</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3006,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7">
         <v>1</v>
@@ -3024,19 +3379,19 @@
         <v>0.5</v>
       </c>
       <c r="AZ7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="BC7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="BD7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="BE7">
         <v>200</v>
@@ -3056,58 +3411,58 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="M8">
-        <v>0.419</v>
+        <v>0.34</v>
       </c>
       <c r="N8">
-        <v>0.222</v>
+        <v>0.201</v>
       </c>
       <c r="O8">
-        <v>0.406</v>
+        <v>0.328</v>
       </c>
       <c r="P8">
-        <v>0.582</v>
+        <v>0.47</v>
       </c>
       <c r="Q8">
-        <v>0.988</v>
+        <v>0.798</v>
       </c>
       <c r="R8">
-        <v>11.6</v>
+        <v>19.4</v>
       </c>
       <c r="S8">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="T8">
-        <v>35.3</v>
+        <v>31.1</v>
       </c>
       <c r="U8">
-        <v>40.7</v>
+        <v>44.9</v>
       </c>
       <c r="V8">
-        <v>31.7</v>
+        <v>33.9</v>
       </c>
       <c r="W8" t="s">
         <v>106</v>
@@ -3116,7 +3471,7 @@
         <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="s">
         <v>98</v>
@@ -3125,49 +3480,49 @@
         <v>106</v>
       </c>
       <c r="AB8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC8">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="AD8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE8">
-        <v>0.281</v>
+        <v>0.274</v>
       </c>
       <c r="AF8">
-        <v>0.32</v>
+        <v>0.324</v>
       </c>
       <c r="AG8">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AH8">
-        <v>0.12</v>
+        <v>0.127</v>
       </c>
       <c r="AI8">
         <v>0.401</v>
       </c>
       <c r="AJ8">
-        <v>17.4</v>
+        <v>25.1</v>
       </c>
       <c r="AK8">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AL8">
-        <v>4.14</v>
+        <v>3.59</v>
       </c>
       <c r="AM8">
-        <v>47.1</v>
+        <v>52.6</v>
       </c>
       <c r="AN8">
-        <v>31.2</v>
+        <v>19.5</v>
       </c>
       <c r="AO8">
-        <v>11.6</v>
+        <v>20</v>
       </c>
       <c r="AP8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -3191,28 +3546,28 @@
         <v>90</v>
       </c>
       <c r="AX8">
-        <v>-255</v>
+        <v>-285</v>
       </c>
       <c r="AY8">
         <v>0.5</v>
       </c>
       <c r="AZ8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB8" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="BC8" t="s">
         <v>98</v>
       </c>
       <c r="BD8" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="BE8">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:57">
@@ -3220,142 +3575,142 @@
         <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
         <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="I9">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.274</v>
+      </c>
+      <c r="M9">
+        <v>0.345</v>
+      </c>
+      <c r="N9">
+        <v>0.196</v>
+      </c>
+      <c r="O9">
+        <v>0.339</v>
+      </c>
+      <c r="P9">
+        <v>0.47</v>
+      </c>
+      <c r="Q9">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="R9">
+        <v>11.2</v>
+      </c>
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>34.6</v>
+      </c>
+      <c r="U9">
+        <v>45.3</v>
+      </c>
+      <c r="V9">
+        <v>36.9</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC9">
+        <v>235</v>
+      </c>
+      <c r="AD9">
         <v>11</v>
       </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.27</v>
-      </c>
-      <c r="M9">
-        <v>0.335</v>
-      </c>
-      <c r="N9">
-        <v>0.189</v>
-      </c>
-      <c r="O9">
-        <v>0.32</v>
-      </c>
-      <c r="P9">
-        <v>0.459</v>
-      </c>
-      <c r="Q9">
-        <v>0.779</v>
-      </c>
-      <c r="R9">
-        <v>24.4</v>
-      </c>
-      <c r="S9">
-        <v>5.8</v>
-      </c>
-      <c r="T9">
+      <c r="AE9">
+        <v>0.276</v>
+      </c>
+      <c r="AF9">
+        <v>0.365</v>
+      </c>
+      <c r="AG9">
+        <v>4.7</v>
+      </c>
+      <c r="AH9">
+        <v>0.224</v>
+      </c>
+      <c r="AI9">
+        <v>0.5</v>
+      </c>
+      <c r="AJ9">
+        <v>18.7</v>
+      </c>
+      <c r="AK9">
+        <v>8.9</v>
+      </c>
+      <c r="AL9">
+        <v>5.58</v>
+      </c>
+      <c r="AM9">
         <v>48.5</v>
       </c>
-      <c r="U9">
-        <v>32.5</v>
-      </c>
-      <c r="V9">
-        <v>41</v>
-      </c>
-      <c r="W9" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC9">
-        <v>165</v>
-      </c>
-      <c r="AD9">
-        <v>5</v>
-      </c>
-      <c r="AE9">
-        <v>0.271</v>
-      </c>
-      <c r="AF9">
-        <v>0.318</v>
-      </c>
-      <c r="AG9">
-        <v>3</v>
-      </c>
-      <c r="AH9">
-        <v>0.168</v>
-      </c>
-      <c r="AI9">
-        <v>0.439</v>
-      </c>
-      <c r="AJ9">
-        <v>18.8</v>
-      </c>
-      <c r="AK9">
-        <v>3</v>
-      </c>
-      <c r="AL9">
-        <v>3.78</v>
-      </c>
-      <c r="AM9">
-        <v>37.6</v>
-      </c>
       <c r="AN9">
-        <v>43.2</v>
+        <v>34.1</v>
       </c>
       <c r="AO9">
-        <v>9.300000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="AP9">
-        <v>25.4</v>
+        <v>29.3</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9">
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9">
         <v>1</v>
@@ -3364,28 +3719,28 @@
         <v>91</v>
       </c>
       <c r="AX9">
-        <v>-160</v>
+        <v>-235</v>
       </c>
       <c r="AY9">
         <v>0.5</v>
       </c>
       <c r="AZ9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BC9" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="BD9" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="BE9">
-        <v>115</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:57">
@@ -3393,7 +3748,7 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
@@ -3402,133 +3757,133 @@
         <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.291</v>
+        <v>0.286</v>
       </c>
       <c r="M10">
-        <v>0.338</v>
+        <v>0.372</v>
       </c>
       <c r="N10">
-        <v>0.19</v>
+        <v>0.229</v>
       </c>
       <c r="O10">
-        <v>0.309</v>
+        <v>0.351</v>
       </c>
       <c r="P10">
-        <v>0.481</v>
+        <v>0.514</v>
       </c>
       <c r="Q10">
-        <v>0.79</v>
+        <v>0.865</v>
       </c>
       <c r="R10">
-        <v>17.3</v>
+        <v>28.6</v>
       </c>
       <c r="S10">
-        <v>2.5</v>
+        <v>9.1</v>
       </c>
       <c r="T10">
-        <v>30.8</v>
+        <v>41.7</v>
       </c>
       <c r="U10">
-        <v>50.8</v>
+        <v>39.6</v>
       </c>
       <c r="V10">
-        <v>30.8</v>
+        <v>25</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X10" t="s">
         <v>112</v>
       </c>
       <c r="Y10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Z10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AC10">
-        <v>396</v>
+        <v>118</v>
       </c>
       <c r="AD10">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AE10">
-        <v>0.271</v>
+        <v>0.311</v>
       </c>
       <c r="AF10">
-        <v>0.351</v>
+        <v>0.368</v>
       </c>
       <c r="AG10">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="AH10">
-        <v>0.203</v>
+        <v>0.151</v>
       </c>
       <c r="AI10">
-        <v>0.474</v>
+        <v>0.462</v>
       </c>
       <c r="AJ10">
-        <v>16.7</v>
+        <v>21.2</v>
       </c>
       <c r="AK10">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AL10">
-        <v>5.16</v>
+        <v>3.63</v>
       </c>
       <c r="AM10">
-        <v>36.2</v>
+        <v>35.4</v>
       </c>
       <c r="AN10">
-        <v>44.9</v>
+        <v>34.2</v>
       </c>
       <c r="AO10">
-        <v>11.6</v>
+        <v>7.4</v>
       </c>
       <c r="AP10">
-        <v>33.8</v>
+        <v>28.4</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10">
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10">
         <v>0</v>
@@ -3537,28 +3892,28 @@
         <v>92</v>
       </c>
       <c r="AX10">
-        <v>-225</v>
+        <v>-190</v>
       </c>
       <c r="AY10">
         <v>0.5</v>
       </c>
       <c r="AZ10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB10" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="BC10" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="BD10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BE10">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:57">
@@ -3569,13 +3924,13 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
         <v>64</v>
@@ -3584,58 +3939,58 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.297</v>
+        <v>0.273</v>
       </c>
       <c r="M11">
-        <v>0.371</v>
+        <v>0.353</v>
       </c>
       <c r="N11">
-        <v>0.216</v>
+        <v>0.199</v>
       </c>
       <c r="O11">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="P11">
-        <v>0.514</v>
+        <v>0.472</v>
       </c>
       <c r="Q11">
-        <v>0.864</v>
+        <v>0.824</v>
       </c>
       <c r="R11">
-        <v>15</v>
+        <v>13.1</v>
       </c>
       <c r="S11">
-        <v>7.5</v>
+        <v>10.6</v>
       </c>
       <c r="T11">
-        <v>35.5</v>
+        <v>37.4</v>
       </c>
       <c r="U11">
-        <v>45.2</v>
+        <v>43.2</v>
       </c>
       <c r="V11">
-        <v>38.7</v>
+        <v>35.8</v>
       </c>
       <c r="W11" t="s">
         <v>108</v>
       </c>
       <c r="X11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="s">
         <v>100</v>
@@ -3644,61 +3999,61 @@
         <v>108</v>
       </c>
       <c r="AB11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AC11">
-        <v>396</v>
+        <v>279</v>
       </c>
       <c r="AD11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AE11">
-        <v>0.271</v>
+        <v>0.291</v>
       </c>
       <c r="AF11">
-        <v>0.351</v>
+        <v>0.357</v>
       </c>
       <c r="AG11">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="AH11">
-        <v>0.203</v>
+        <v>0.152</v>
       </c>
       <c r="AI11">
-        <v>0.474</v>
+        <v>0.443</v>
       </c>
       <c r="AJ11">
-        <v>16.7</v>
+        <v>18.3</v>
       </c>
       <c r="AK11">
-        <v>7.3</v>
+        <v>11.1</v>
       </c>
       <c r="AL11">
-        <v>5.16</v>
+        <v>5.05</v>
       </c>
       <c r="AM11">
-        <v>36.2</v>
+        <v>39.2</v>
       </c>
       <c r="AN11">
-        <v>44.9</v>
+        <v>37.6</v>
       </c>
       <c r="AO11">
-        <v>11.6</v>
+        <v>12.3</v>
       </c>
       <c r="AP11">
-        <v>33.8</v>
+        <v>41</v>
       </c>
       <c r="AQ11">
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11">
         <v>0</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>1</v>
@@ -3707,48 +4062,48 @@
         <v>1</v>
       </c>
       <c r="AW11" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AX11">
-        <v>-160</v>
+        <v>-255</v>
       </c>
       <c r="AY11">
         <v>0.5</v>
       </c>
       <c r="AZ11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB11" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="BC11" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="BD11" t="s">
         <v>100</v>
       </c>
       <c r="BE11">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:57">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -3757,288 +4112,288 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3</v>
+        <v>0.332</v>
       </c>
       <c r="M12">
-        <v>0.383</v>
+        <v>0.475</v>
       </c>
       <c r="N12">
-        <v>0.218</v>
+        <v>0.38</v>
       </c>
       <c r="O12">
-        <v>0.386</v>
+        <v>0.442</v>
       </c>
       <c r="P12">
-        <v>0.518</v>
+        <v>0.712</v>
       </c>
       <c r="Q12">
-        <v>0.904</v>
+        <v>1.154</v>
       </c>
       <c r="R12">
-        <v>19.7</v>
+        <v>23.7</v>
       </c>
       <c r="S12">
-        <v>12.6</v>
+        <v>15.3</v>
       </c>
       <c r="T12">
-        <v>32.6</v>
+        <v>31.1</v>
       </c>
       <c r="U12">
-        <v>41.9</v>
+        <v>46.7</v>
       </c>
       <c r="V12">
-        <v>43</v>
+        <v>46.7</v>
       </c>
       <c r="W12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC12">
+        <v>46</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12">
+        <v>0.333</v>
+      </c>
+      <c r="AF12">
+        <v>0.378</v>
+      </c>
+      <c r="AG12">
+        <v>4.3</v>
+      </c>
+      <c r="AH12">
+        <v>0.2</v>
+      </c>
+      <c r="AI12">
+        <v>0.533</v>
+      </c>
+      <c r="AJ12">
+        <v>21.7</v>
+      </c>
+      <c r="AK12">
+        <v>2.2</v>
+      </c>
+      <c r="AL12">
+        <v>4.07</v>
+      </c>
+      <c r="AM12">
+        <v>40</v>
+      </c>
+      <c r="AN12">
+        <v>40</v>
+      </c>
+      <c r="AO12">
+        <v>14.3</v>
+      </c>
+      <c r="AP12">
+        <v>22.9</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="s">
         <v>77</v>
       </c>
-      <c r="Y12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC12">
-        <v>423</v>
-      </c>
-      <c r="AD12">
-        <v>14</v>
-      </c>
-      <c r="AE12">
-        <v>0.311</v>
-      </c>
-      <c r="AF12">
-        <v>0.37</v>
-      </c>
-      <c r="AG12">
-        <v>3.3</v>
-      </c>
-      <c r="AH12">
-        <v>0.205</v>
-      </c>
-      <c r="AI12">
-        <v>0.516</v>
-      </c>
-      <c r="AJ12">
-        <v>16.3</v>
-      </c>
-      <c r="AK12">
-        <v>6.4</v>
-      </c>
-      <c r="AL12">
-        <v>4.51</v>
-      </c>
-      <c r="AM12">
-        <v>44.6</v>
-      </c>
-      <c r="AN12">
-        <v>34.5</v>
-      </c>
-      <c r="AO12">
-        <v>12.8</v>
-      </c>
-      <c r="AP12">
-        <v>34.2</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>1</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>1</v>
-      </c>
-      <c r="AU12">
-        <v>1</v>
-      </c>
-      <c r="AV12">
-        <v>1</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>69</v>
-      </c>
       <c r="AX12">
-        <v>-250</v>
+        <v>-275</v>
       </c>
       <c r="AY12">
         <v>0.5</v>
       </c>
       <c r="AZ12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BC12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="BE12">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:57">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>65</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.277</v>
+      </c>
+      <c r="M13">
+        <v>0.375</v>
+      </c>
+      <c r="N13">
+        <v>0.215</v>
+      </c>
+      <c r="O13">
+        <v>0.373</v>
+      </c>
+      <c r="P13">
+        <v>0.492</v>
+      </c>
+      <c r="Q13">
+        <v>0.866</v>
+      </c>
+      <c r="R13">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
+      <c r="T13">
+        <v>36</v>
+      </c>
+      <c r="U13">
+        <v>30</v>
+      </c>
+      <c r="V13">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>109</v>
+      </c>
+      <c r="X13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB13" t="s">
         <v>64</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>67</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0.313</v>
-      </c>
-      <c r="M13">
-        <v>0.396</v>
-      </c>
-      <c r="N13">
-        <v>0.269</v>
-      </c>
-      <c r="O13">
-        <v>0.352</v>
-      </c>
-      <c r="P13">
-        <v>0.582</v>
-      </c>
-      <c r="Q13">
-        <v>0.9340000000000001</v>
-      </c>
-      <c r="R13">
-        <v>29.6</v>
-      </c>
-      <c r="S13">
-        <v>5.6</v>
-      </c>
-      <c r="T13">
-        <v>37.8</v>
-      </c>
-      <c r="U13">
-        <v>40</v>
-      </c>
-      <c r="V13">
-        <v>30.4</v>
-      </c>
-      <c r="W13" t="s">
-        <v>75</v>
-      </c>
-      <c r="X13" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>60</v>
-      </c>
       <c r="AC13">
-        <v>423</v>
+        <v>14</v>
       </c>
       <c r="AD13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0.311</v>
+        <v>0.385</v>
       </c>
       <c r="AF13">
-        <v>0.37</v>
+        <v>0.474</v>
       </c>
       <c r="AG13">
-        <v>3.3</v>
+        <v>7.1</v>
       </c>
       <c r="AH13">
-        <v>0.205</v>
+        <v>0.307</v>
       </c>
       <c r="AI13">
-        <v>0.516</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="AJ13">
-        <v>16.3</v>
+        <v>14.3</v>
       </c>
       <c r="AK13">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="AL13">
-        <v>4.51</v>
+        <v>7.67</v>
       </c>
       <c r="AM13">
-        <v>44.6</v>
+        <v>30</v>
       </c>
       <c r="AN13">
-        <v>34.5</v>
+        <v>50</v>
       </c>
       <c r="AO13">
-        <v>12.8</v>
+        <v>20</v>
       </c>
       <c r="AP13">
-        <v>34.2</v>
+        <v>27.3</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13">
         <v>0</v>
@@ -4050,114 +4405,114 @@
         <v>1</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW13" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AX13">
-        <v>-230</v>
+        <v>-255</v>
       </c>
       <c r="AY13">
         <v>0.5</v>
       </c>
       <c r="AZ13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="BC13" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="BD13" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="BE13">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:57">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="I14">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.338</v>
+        <v>0.286</v>
       </c>
       <c r="M14">
-        <v>0.461</v>
+        <v>0.341</v>
       </c>
       <c r="N14">
-        <v>0.376</v>
+        <v>0.143</v>
       </c>
       <c r="O14">
-        <v>0.42</v>
+        <v>0.355</v>
       </c>
       <c r="P14">
-        <v>0.714</v>
+        <v>0.429</v>
       </c>
       <c r="Q14">
-        <v>1.133</v>
+        <v>0.783</v>
       </c>
       <c r="R14">
-        <v>16.8</v>
+        <v>19.8</v>
       </c>
       <c r="S14">
-        <v>13.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T14">
-        <v>36.5</v>
+        <v>41.4</v>
       </c>
       <c r="U14">
-        <v>41.7</v>
+        <v>37.9</v>
       </c>
       <c r="V14">
-        <v>46.9</v>
+        <v>35.6</v>
       </c>
       <c r="W14" t="s">
         <v>109</v>
       </c>
       <c r="X14" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="Y14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Z14" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="AA14" t="s">
         <v>109</v>
@@ -4166,46 +4521,46 @@
         <v>64</v>
       </c>
       <c r="AC14">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="AD14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0.284</v>
+        <v>0.385</v>
       </c>
       <c r="AF14">
-        <v>0.368</v>
+        <v>0.474</v>
       </c>
       <c r="AG14">
-        <v>3.9</v>
+        <v>7.1</v>
       </c>
       <c r="AH14">
-        <v>0.208</v>
+        <v>0.307</v>
       </c>
       <c r="AI14">
-        <v>0.492</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="AJ14">
-        <v>20.6</v>
+        <v>14.3</v>
       </c>
       <c r="AK14">
-        <v>8.9</v>
+        <v>7.1</v>
       </c>
       <c r="AL14">
-        <v>5.03</v>
+        <v>7.67</v>
       </c>
       <c r="AM14">
-        <v>51.8</v>
+        <v>30</v>
       </c>
       <c r="AN14">
-        <v>25.1</v>
+        <v>50</v>
       </c>
       <c r="AO14">
-        <v>22.9</v>
+        <v>20</v>
       </c>
       <c r="AP14">
-        <v>38.1</v>
+        <v>27.3</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -4217,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>1</v>
@@ -4226,28 +4581,28 @@
         <v>1</v>
       </c>
       <c r="AW14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AX14">
-        <v>-245</v>
+        <v>-240</v>
       </c>
       <c r="AY14">
         <v>0.5</v>
       </c>
       <c r="AZ14" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB14" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="BC14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="BD14" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="BE14">
         <v>175</v>
@@ -4255,31 +4610,31 @@
     </row>
     <row r="15" spans="1:57">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4288,100 +4643,100 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.304</v>
+        <v>0.382</v>
       </c>
       <c r="M15">
-        <v>0.347</v>
+        <v>0.407</v>
       </c>
       <c r="N15">
-        <v>0.101</v>
+        <v>0.147</v>
       </c>
       <c r="O15">
-        <v>0.375</v>
+        <v>0.421</v>
       </c>
       <c r="P15">
-        <v>0.405</v>
+        <v>0.529</v>
       </c>
       <c r="Q15">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="R15">
-        <v>14.8</v>
+        <v>26.3</v>
       </c>
       <c r="S15">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="T15">
-        <v>39.4</v>
+        <v>16</v>
       </c>
       <c r="U15">
-        <v>35.6</v>
+        <v>52</v>
       </c>
       <c r="V15">
-        <v>35.6</v>
+        <v>40</v>
       </c>
       <c r="W15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X15" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="Y15" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="Z15" t="s">
         <v>101</v>
       </c>
       <c r="AA15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC15">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="AD15">
         <v>11</v>
       </c>
       <c r="AE15">
-        <v>0.284</v>
+        <v>0.279</v>
       </c>
       <c r="AF15">
-        <v>0.368</v>
+        <v>0.353</v>
       </c>
       <c r="AG15">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AH15">
-        <v>0.208</v>
+        <v>0.205</v>
       </c>
       <c r="AI15">
-        <v>0.492</v>
+        <v>0.484</v>
       </c>
       <c r="AJ15">
-        <v>20.6</v>
+        <v>17.5</v>
       </c>
       <c r="AK15">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AL15">
-        <v>5.03</v>
+        <v>5.12</v>
       </c>
       <c r="AM15">
-        <v>51.8</v>
+        <v>36.4</v>
       </c>
       <c r="AN15">
-        <v>25.1</v>
+        <v>43.6</v>
       </c>
       <c r="AO15">
-        <v>22.9</v>
+        <v>12.9</v>
       </c>
       <c r="AP15">
-        <v>38.1</v>
+        <v>36.4</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4399,550 +4754,31 @@
         <v>1</v>
       </c>
       <c r="AW15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AX15">
-        <v>-235</v>
+        <v>-170</v>
       </c>
       <c r="AY15">
         <v>0.5</v>
       </c>
       <c r="AZ15" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BC15" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="BD15" t="s">
         <v>101</v>
       </c>
       <c r="BE15">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>221</v>
-      </c>
-      <c r="I16">
-        <v>11</v>
-      </c>
-      <c r="J16">
-        <v>7</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.29</v>
-      </c>
-      <c r="M16">
-        <v>0.385</v>
-      </c>
-      <c r="N16">
-        <v>0.271</v>
-      </c>
-      <c r="O16">
-        <v>0.352</v>
-      </c>
-      <c r="P16">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="Q16">
-        <v>0.913</v>
-      </c>
-      <c r="R16">
-        <v>27.5</v>
-      </c>
-      <c r="S16">
-        <v>8.9</v>
-      </c>
-      <c r="T16">
-        <v>31.4</v>
-      </c>
-      <c r="U16">
-        <v>50</v>
-      </c>
-      <c r="V16">
-        <v>37.2</v>
-      </c>
-      <c r="W16" t="s">
-        <v>109</v>
-      </c>
-      <c r="X16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC16">
-        <v>281</v>
-      </c>
-      <c r="AD16">
-        <v>11</v>
-      </c>
-      <c r="AE16">
-        <v>0.284</v>
-      </c>
-      <c r="AF16">
-        <v>0.368</v>
-      </c>
-      <c r="AG16">
-        <v>3.9</v>
-      </c>
-      <c r="AH16">
-        <v>0.208</v>
-      </c>
-      <c r="AI16">
-        <v>0.492</v>
-      </c>
-      <c r="AJ16">
-        <v>20.6</v>
-      </c>
-      <c r="AK16">
-        <v>8.9</v>
-      </c>
-      <c r="AL16">
-        <v>5.03</v>
-      </c>
-      <c r="AM16">
-        <v>51.8</v>
-      </c>
-      <c r="AN16">
-        <v>25.1</v>
-      </c>
-      <c r="AO16">
-        <v>22.9</v>
-      </c>
-      <c r="AP16">
-        <v>38.1</v>
-      </c>
-      <c r="AQ16">
-        <v>1</v>
-      </c>
-      <c r="AR16">
-        <v>1</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>1</v>
-      </c>
-      <c r="AU16">
-        <v>1</v>
-      </c>
-      <c r="AV16">
-        <v>1</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX16">
-        <v>-165</v>
-      </c>
-      <c r="AY16">
-        <v>0.5</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>115</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE16">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:57">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>268</v>
-      </c>
-      <c r="I17">
-        <v>13</v>
-      </c>
-      <c r="J17">
-        <v>35</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>0.276</v>
-      </c>
-      <c r="M17">
-        <v>0.378</v>
-      </c>
-      <c r="N17">
-        <v>0.257</v>
-      </c>
-      <c r="O17">
-        <v>0.355</v>
-      </c>
-      <c r="P17">
-        <v>0.534</v>
-      </c>
-      <c r="Q17">
-        <v>0.889</v>
-      </c>
-      <c r="R17">
-        <v>31.6</v>
-      </c>
-      <c r="S17">
-        <v>10.3</v>
-      </c>
-      <c r="T17">
-        <v>45.1</v>
-      </c>
-      <c r="U17">
-        <v>35.3</v>
-      </c>
-      <c r="V17">
-        <v>41</v>
-      </c>
-      <c r="W17" t="s">
-        <v>110</v>
-      </c>
-      <c r="X17" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC17">
-        <v>133</v>
-      </c>
-      <c r="AD17">
-        <v>12</v>
-      </c>
-      <c r="AE17">
-        <v>0.286</v>
-      </c>
-      <c r="AF17">
-        <v>0.436</v>
-      </c>
-      <c r="AG17">
-        <v>9</v>
-      </c>
-      <c r="AH17">
-        <v>0.384</v>
-      </c>
-      <c r="AI17">
-        <v>0.67</v>
-      </c>
-      <c r="AJ17">
-        <v>19.5</v>
-      </c>
-      <c r="AK17">
-        <v>12.8</v>
-      </c>
-      <c r="AL17">
-        <v>8.99</v>
-      </c>
-      <c r="AM17">
-        <v>26.1</v>
-      </c>
-      <c r="AN17">
-        <v>51.1</v>
-      </c>
-      <c r="AO17">
-        <v>26.7</v>
-      </c>
-      <c r="AP17">
-        <v>40.9</v>
-      </c>
-      <c r="AQ17">
-        <v>1</v>
-      </c>
-      <c r="AR17">
-        <v>1</v>
-      </c>
-      <c r="AS17">
-        <v>1</v>
-      </c>
-      <c r="AT17">
-        <v>1</v>
-      </c>
-      <c r="AU17">
-        <v>1</v>
-      </c>
-      <c r="AV17">
-        <v>1</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX17">
-        <v>-145</v>
-      </c>
-      <c r="AY17">
-        <v>0.5</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>72</v>
-      </c>
-      <c r="BE17">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:57">
-      <c r="A18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>139</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.367</v>
-      </c>
-      <c r="M18">
-        <v>0.425</v>
-      </c>
-      <c r="N18">
-        <v>0.216</v>
-      </c>
-      <c r="O18">
-        <v>0.419</v>
-      </c>
-      <c r="P18">
-        <v>0.583</v>
-      </c>
-      <c r="Q18">
-        <v>1.002</v>
-      </c>
-      <c r="R18">
-        <v>18.7</v>
-      </c>
-      <c r="S18">
-        <v>7.1</v>
-      </c>
-      <c r="T18">
-        <v>39.3</v>
-      </c>
-      <c r="U18">
-        <v>38.4</v>
-      </c>
-      <c r="V18">
-        <v>44.6</v>
-      </c>
-      <c r="W18" t="s">
-        <v>76</v>
-      </c>
-      <c r="X18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC18">
-        <v>97</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>0.333</v>
-      </c>
-      <c r="AF18">
-        <v>0.367</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>0.104</v>
-      </c>
-      <c r="AI18">
-        <v>0.437</v>
-      </c>
-      <c r="AJ18">
-        <v>22.7</v>
-      </c>
-      <c r="AK18">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AL18">
-        <v>2.96</v>
-      </c>
-      <c r="AM18">
-        <v>30.8</v>
-      </c>
-      <c r="AN18">
-        <v>43.1</v>
-      </c>
-      <c r="AO18">
-        <v>3.6</v>
-      </c>
-      <c r="AP18">
-        <v>27.3</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>1</v>
-      </c>
-      <c r="AU18">
-        <v>1</v>
-      </c>
-      <c r="AV18">
-        <v>1</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX18">
-        <v>-240</v>
-      </c>
-      <c r="AY18">
-        <v>0.5</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE18">
-        <v>175</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4952,7 +4788,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE12"/>
+  <dimension ref="A1:BE15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5133,312 +4969,312 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.33</v>
+      </c>
+      <c r="M2">
+        <v>0.354</v>
+      </c>
+      <c r="N2">
+        <v>0.14</v>
+      </c>
+      <c r="O2">
+        <v>0.352</v>
+      </c>
+      <c r="P2">
+        <v>0.47</v>
+      </c>
+      <c r="Q2">
+        <v>0.822</v>
+      </c>
+      <c r="R2">
+        <v>16.2</v>
+      </c>
+      <c r="S2">
+        <v>1.9</v>
+      </c>
+      <c r="T2">
+        <v>47.6</v>
+      </c>
+      <c r="U2">
+        <v>29.8</v>
+      </c>
+      <c r="V2">
+        <v>28.6</v>
+      </c>
+      <c r="W2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.333</v>
-      </c>
-      <c r="M2">
-        <v>0.447</v>
-      </c>
-      <c r="N2">
-        <v>0.4</v>
-      </c>
-      <c r="O2">
-        <v>0.333</v>
-      </c>
-      <c r="P2">
-        <v>0.733</v>
-      </c>
-      <c r="Q2">
-        <v>1.067</v>
-      </c>
-      <c r="R2">
-        <v>23.3</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>39.1</v>
-      </c>
-      <c r="U2">
-        <v>39.1</v>
-      </c>
-      <c r="V2">
-        <v>52.2</v>
-      </c>
-      <c r="W2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X2" t="s">
-        <v>73</v>
-      </c>
       <c r="Y2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Z2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AA2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC2">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="AD2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE2">
-        <v>0.292</v>
+        <v>0.269</v>
       </c>
       <c r="AF2">
-        <v>0.344</v>
+        <v>0.296</v>
       </c>
       <c r="AG2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.118</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="AI2">
-        <v>0.41</v>
+        <v>0.354</v>
       </c>
       <c r="AJ2">
-        <v>22.5</v>
+        <v>19.4</v>
       </c>
       <c r="AK2">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="AL2">
-        <v>4.26</v>
+        <v>2.9</v>
       </c>
       <c r="AM2">
-        <v>48.1</v>
+        <v>56</v>
       </c>
       <c r="AN2">
-        <v>29.7</v>
+        <v>20.5</v>
       </c>
       <c r="AO2">
-        <v>14.9</v>
+        <v>6.6</v>
       </c>
       <c r="AP2">
-        <v>20.1</v>
+        <v>31.1</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="AX2">
-        <v>-210</v>
+        <v>-265</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB2" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="BC2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD2" t="s">
         <v>78</v>
       </c>
-      <c r="BD2" t="s">
-        <v>101</v>
-      </c>
       <c r="BE2">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.474</v>
+        <v>0.309</v>
       </c>
       <c r="M3">
-        <v>0.514</v>
+        <v>0.341</v>
       </c>
       <c r="N3">
-        <v>0.105</v>
+        <v>0.136</v>
       </c>
       <c r="O3">
-        <v>0.6</v>
+        <v>0.345</v>
       </c>
       <c r="P3">
-        <v>0.579</v>
+        <v>0.444</v>
       </c>
       <c r="Q3">
-        <v>1.179</v>
+        <v>0.789</v>
       </c>
       <c r="R3">
-        <v>12</v>
+        <v>25.3</v>
       </c>
       <c r="S3">
-        <v>20</v>
+        <v>5.7</v>
       </c>
       <c r="T3">
-        <v>62.5</v>
+        <v>30</v>
       </c>
       <c r="U3">
-        <v>25</v>
+        <v>48.3</v>
       </c>
       <c r="V3">
-        <v>31.3</v>
+        <v>31.7</v>
       </c>
       <c r="W3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="X3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Z3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC3">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="AD3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE3">
-        <v>0.279</v>
+        <v>0.269</v>
       </c>
       <c r="AF3">
-        <v>0.291</v>
+        <v>0.296</v>
       </c>
       <c r="AG3">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>0.08500000000000001</v>
       </c>
       <c r="AI3">
-        <v>0.364</v>
+        <v>0.354</v>
       </c>
       <c r="AJ3">
-        <v>18.2</v>
+        <v>19.4</v>
       </c>
       <c r="AK3">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="AL3">
-        <v>3.07</v>
+        <v>2.9</v>
       </c>
       <c r="AM3">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="AN3">
-        <v>24.2</v>
+        <v>20.5</v>
       </c>
       <c r="AO3">
-        <v>8.9</v>
+        <v>6.6</v>
       </c>
       <c r="AP3">
-        <v>30.3</v>
+        <v>31.1</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -5450,159 +5286,159 @@
         <v>0</v>
       </c>
       <c r="AW3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="AX3">
-        <v>-165</v>
+        <v>-175</v>
       </c>
       <c r="AY3">
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="BC3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="BD3" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="BE3">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.34</v>
+        <v>0.314</v>
       </c>
       <c r="M4">
-        <v>0.329</v>
+        <v>0.379</v>
       </c>
       <c r="N4">
-        <v>0.06</v>
+        <v>0.186</v>
       </c>
       <c r="O4">
-        <v>0.353</v>
+        <v>0.38</v>
       </c>
       <c r="P4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q4">
-        <v>0.753</v>
+        <v>0.88</v>
       </c>
       <c r="R4">
-        <v>11.1</v>
+        <v>19.8</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="T4">
-        <v>56.1</v>
+        <v>39.6</v>
       </c>
       <c r="U4">
-        <v>24.4</v>
+        <v>37.7</v>
       </c>
       <c r="V4">
-        <v>17</v>
+        <v>22.8</v>
       </c>
       <c r="W4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="X4" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="Y4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Z4" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="AA4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="AB4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC4">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE4">
-        <v>0.25</v>
+        <v>0.293</v>
       </c>
       <c r="AF4">
-        <v>0.316</v>
+        <v>0.396</v>
       </c>
       <c r="AG4">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
       <c r="AH4">
-        <v>0.125</v>
+        <v>0.292</v>
       </c>
       <c r="AI4">
-        <v>0.375</v>
+        <v>0.585</v>
       </c>
       <c r="AJ4">
-        <v>17.3</v>
+        <v>16.9</v>
       </c>
       <c r="AK4">
-        <v>9.9</v>
+        <v>7.9</v>
       </c>
       <c r="AL4">
-        <v>4.56</v>
+        <v>6.68</v>
       </c>
       <c r="AM4">
-        <v>43.1</v>
+        <v>31.3</v>
       </c>
       <c r="AN4">
-        <v>31</v>
+        <v>46.3</v>
       </c>
       <c r="AO4">
-        <v>11.1</v>
+        <v>19.4</v>
       </c>
       <c r="AP4">
-        <v>32.8</v>
+        <v>46.3</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -5611,171 +5447,171 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
         <v>0</v>
       </c>
       <c r="AW4" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="AX4">
-        <v>-140</v>
+        <v>-245</v>
       </c>
       <c r="AY4">
         <v>0.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BC4" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="BD4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="BE4">
-        <v>100</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:57">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.357</v>
+        <v>0.309</v>
       </c>
       <c r="M5">
-        <v>0.455</v>
+        <v>0.391</v>
       </c>
       <c r="N5">
-        <v>0.325</v>
+        <v>0.216</v>
       </c>
       <c r="O5">
-        <v>0.413</v>
+        <v>0.38</v>
       </c>
       <c r="P5">
-        <v>0.6820000000000001</v>
+        <v>0.526</v>
       </c>
       <c r="Q5">
-        <v>1.094</v>
+        <v>0.905</v>
       </c>
       <c r="R5">
-        <v>15.1</v>
+        <v>18.5</v>
       </c>
       <c r="S5">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="T5">
-        <v>51.1</v>
+        <v>48.1</v>
       </c>
       <c r="U5">
-        <v>32.1</v>
+        <v>40.3</v>
       </c>
       <c r="V5">
-        <v>49.6</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC5">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.25</v>
+        <v>0.333</v>
       </c>
       <c r="AF5">
-        <v>0.316</v>
+        <v>0.386</v>
       </c>
       <c r="AG5">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AH5">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="AI5">
-        <v>0.375</v>
+        <v>0.533</v>
       </c>
       <c r="AJ5">
-        <v>17.3</v>
+        <v>14.7</v>
       </c>
       <c r="AK5">
-        <v>9.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL5">
-        <v>4.56</v>
+        <v>5.06</v>
       </c>
       <c r="AM5">
-        <v>43.1</v>
+        <v>32</v>
       </c>
       <c r="AN5">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AO5">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="AP5">
-        <v>32.8</v>
+        <v>26.9</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -5796,60 +5632,60 @@
         <v>1</v>
       </c>
       <c r="AW5" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AX5">
-        <v>-210</v>
+        <v>-250</v>
       </c>
       <c r="AY5">
         <v>0.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB5" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="BC5" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="BD5" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="BE5">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:57">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -5858,103 +5694,103 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.36</v>
+        <v>0.301</v>
       </c>
       <c r="M6">
-        <v>0.419</v>
+        <v>0.41</v>
       </c>
       <c r="N6">
-        <v>0.222</v>
+        <v>0.271</v>
       </c>
       <c r="O6">
-        <v>0.406</v>
+        <v>0.397</v>
       </c>
       <c r="P6">
-        <v>0.582</v>
+        <v>0.571</v>
       </c>
       <c r="Q6">
-        <v>0.988</v>
+        <v>0.969</v>
       </c>
       <c r="R6">
-        <v>11.6</v>
+        <v>25.6</v>
       </c>
       <c r="S6">
-        <v>5.8</v>
+        <v>14.1</v>
       </c>
       <c r="T6">
-        <v>35.3</v>
+        <v>34</v>
       </c>
       <c r="U6">
-        <v>40.7</v>
+        <v>43.6</v>
       </c>
       <c r="V6">
-        <v>31.7</v>
+        <v>36.2</v>
       </c>
       <c r="W6" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="s">
         <v>63</v>
       </c>
-      <c r="Z6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>60</v>
-      </c>
       <c r="AC6">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="AD6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.281</v>
+        <v>0.286</v>
       </c>
       <c r="AF6">
-        <v>0.32</v>
+        <v>0.252</v>
       </c>
       <c r="AG6">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.401</v>
+        <v>0.286</v>
       </c>
       <c r="AJ6">
-        <v>17.4</v>
+        <v>14.3</v>
       </c>
       <c r="AK6">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>4.14</v>
+        <v>1.67</v>
       </c>
       <c r="AM6">
-        <v>47.1</v>
+        <v>50</v>
       </c>
       <c r="AN6">
-        <v>31.2</v>
+        <v>16.7</v>
       </c>
       <c r="AO6">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>29</v>
+        <v>16.7</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -5966,174 +5802,174 @@
         <v>1</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AX6">
-        <v>-255</v>
+        <v>-215</v>
       </c>
       <c r="AY6">
         <v>0.5</v>
       </c>
       <c r="AZ6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="BC6" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="BD6" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="BE6">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:57">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.354</v>
+        <v>0.34</v>
       </c>
       <c r="M7">
-        <v>0.381</v>
+        <v>0.446</v>
       </c>
       <c r="N7">
-        <v>0.092</v>
+        <v>0.236</v>
       </c>
       <c r="O7">
-        <v>0.425</v>
+        <v>0.46</v>
       </c>
       <c r="P7">
-        <v>0.446</v>
+        <v>0.576</v>
       </c>
       <c r="Q7">
-        <v>0.871</v>
+        <v>1.037</v>
       </c>
       <c r="R7">
-        <v>12.2</v>
+        <v>25.6</v>
       </c>
       <c r="S7">
-        <v>8.1</v>
+        <v>17.6</v>
       </c>
       <c r="T7">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="U7">
-        <v>29.1</v>
+        <v>33.3</v>
       </c>
       <c r="V7">
-        <v>35.1</v>
+        <v>44.4</v>
       </c>
       <c r="W7" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Z7" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AC7">
-        <v>345</v>
+        <v>7</v>
       </c>
       <c r="AD7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.247</v>
+        <v>0.286</v>
       </c>
       <c r="AF7">
-        <v>0.337</v>
+        <v>0.252</v>
       </c>
       <c r="AG7">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.425</v>
+        <v>0.286</v>
       </c>
       <c r="AJ7">
-        <v>17.1</v>
+        <v>14.3</v>
       </c>
       <c r="AK7">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>5.34</v>
+        <v>1.67</v>
       </c>
       <c r="AM7">
-        <v>31.9</v>
+        <v>50</v>
       </c>
       <c r="AN7">
-        <v>47.7</v>
+        <v>16.7</v>
       </c>
       <c r="AO7">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>34.3</v>
+        <v>16.7</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7">
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>1</v>
@@ -6142,171 +5978,171 @@
         <v>1</v>
       </c>
       <c r="AW7" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="AX7">
-        <v>-250</v>
+        <v>-175</v>
       </c>
       <c r="AY7">
         <v>0.5</v>
       </c>
       <c r="AZ7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB7" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="BC7" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="BD7" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="BE7">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:57">
       <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>70</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.314</v>
+      </c>
+      <c r="M8">
+        <v>0.37</v>
+      </c>
+      <c r="N8">
+        <v>0.171</v>
+      </c>
+      <c r="O8">
+        <v>0.377</v>
+      </c>
+      <c r="P8">
+        <v>0.486</v>
+      </c>
+      <c r="Q8">
+        <v>0.862</v>
+      </c>
+      <c r="R8">
+        <v>29.5</v>
+      </c>
+      <c r="S8">
+        <v>6.4</v>
+      </c>
+      <c r="T8">
+        <v>31.9</v>
+      </c>
+      <c r="U8">
+        <v>42.6</v>
+      </c>
+      <c r="V8">
+        <v>37.5</v>
+      </c>
+      <c r="W8" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="Z8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB8" t="s">
         <v>64</v>
       </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>110</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.3</v>
-      </c>
-      <c r="M8">
-        <v>0.383</v>
-      </c>
-      <c r="N8">
-        <v>0.218</v>
-      </c>
-      <c r="O8">
+      <c r="AC8">
+        <v>34</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0.333</v>
+      </c>
+      <c r="AF8">
         <v>0.386</v>
       </c>
-      <c r="P8">
-        <v>0.518</v>
-      </c>
-      <c r="Q8">
-        <v>0.904</v>
-      </c>
-      <c r="R8">
-        <v>19.7</v>
-      </c>
-      <c r="S8">
-        <v>12.6</v>
-      </c>
-      <c r="T8">
-        <v>32.6</v>
-      </c>
-      <c r="U8">
-        <v>41.9</v>
-      </c>
-      <c r="V8">
-        <v>43</v>
-      </c>
-      <c r="W8" t="s">
-        <v>75</v>
-      </c>
-      <c r="X8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC8">
-        <v>423</v>
-      </c>
-      <c r="AD8">
-        <v>14</v>
-      </c>
-      <c r="AE8">
-        <v>0.311</v>
-      </c>
-      <c r="AF8">
-        <v>0.37</v>
-      </c>
       <c r="AG8">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AH8">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="AI8">
-        <v>0.516</v>
+        <v>0.533</v>
       </c>
       <c r="AJ8">
-        <v>16.3</v>
+        <v>14.7</v>
       </c>
       <c r="AK8">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL8">
-        <v>4.51</v>
+        <v>5.06</v>
       </c>
       <c r="AM8">
-        <v>44.6</v>
+        <v>32</v>
       </c>
       <c r="AN8">
-        <v>34.5</v>
+        <v>40</v>
       </c>
       <c r="AO8">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="AP8">
-        <v>34.2</v>
+        <v>26.9</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>1</v>
@@ -6315,168 +6151,168 @@
         <v>1</v>
       </c>
       <c r="AW8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AX8">
-        <v>-250</v>
+        <v>-180</v>
       </c>
       <c r="AY8">
         <v>0.5</v>
       </c>
       <c r="AZ8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="BC8" t="s">
         <v>82</v>
       </c>
       <c r="BD8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="BE8">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:57">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.313</v>
+        <v>0.307</v>
       </c>
       <c r="M9">
-        <v>0.396</v>
+        <v>0.381</v>
       </c>
       <c r="N9">
-        <v>0.269</v>
+        <v>0.238</v>
       </c>
       <c r="O9">
         <v>0.352</v>
       </c>
       <c r="P9">
-        <v>0.582</v>
+        <v>0.545</v>
       </c>
       <c r="Q9">
-        <v>0.9340000000000001</v>
+        <v>0.896</v>
       </c>
       <c r="R9">
-        <v>29.6</v>
+        <v>17.6</v>
       </c>
       <c r="S9">
         <v>5.6</v>
       </c>
       <c r="T9">
-        <v>37.8</v>
+        <v>50</v>
       </c>
       <c r="U9">
-        <v>40</v>
+        <v>32.9</v>
       </c>
       <c r="V9">
-        <v>30.4</v>
+        <v>32.9</v>
       </c>
       <c r="W9" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="X9" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="Y9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Z9" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AB9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AC9">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="AD9">
         <v>14</v>
       </c>
       <c r="AE9">
-        <v>0.311</v>
+        <v>0.251</v>
       </c>
       <c r="AF9">
-        <v>0.37</v>
+        <v>0.304</v>
       </c>
       <c r="AG9">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AH9">
-        <v>0.205</v>
+        <v>0.166</v>
       </c>
       <c r="AI9">
-        <v>0.516</v>
+        <v>0.417</v>
       </c>
       <c r="AJ9">
-        <v>16.3</v>
+        <v>24.4</v>
       </c>
       <c r="AK9">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="AL9">
-        <v>4.51</v>
+        <v>3.71</v>
       </c>
       <c r="AM9">
-        <v>44.6</v>
+        <v>36.1</v>
       </c>
       <c r="AN9">
-        <v>34.5</v>
+        <v>47.2</v>
       </c>
       <c r="AO9">
-        <v>12.8</v>
+        <v>11</v>
       </c>
       <c r="AP9">
-        <v>34.2</v>
+        <v>31.1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
         <v>1</v>
@@ -6488,159 +6324,159 @@
         <v>0</v>
       </c>
       <c r="AW9" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AX9">
-        <v>-230</v>
+        <v>-185</v>
       </c>
       <c r="AY9">
         <v>0.5</v>
       </c>
       <c r="AZ9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB9" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="BC9" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="BD9" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="BE9">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:57">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="I10">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.338</v>
+        <v>0.343</v>
       </c>
       <c r="M10">
-        <v>0.461</v>
+        <v>0.446</v>
       </c>
       <c r="N10">
-        <v>0.376</v>
+        <v>0.314</v>
       </c>
       <c r="O10">
-        <v>0.42</v>
+        <v>0.442</v>
       </c>
       <c r="P10">
-        <v>0.714</v>
+        <v>0.657</v>
       </c>
       <c r="Q10">
-        <v>1.133</v>
+        <v>1.099</v>
       </c>
       <c r="R10">
-        <v>16.8</v>
+        <v>20.9</v>
       </c>
       <c r="S10">
-        <v>13.1</v>
+        <v>16.3</v>
       </c>
       <c r="T10">
-        <v>36.5</v>
+        <v>22.2</v>
       </c>
       <c r="U10">
-        <v>41.7</v>
+        <v>51.9</v>
       </c>
       <c r="V10">
-        <v>46.9</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Z10" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="AA10" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="AB10" t="s">
         <v>64</v>
       </c>
       <c r="AC10">
-        <v>281</v>
+        <v>381</v>
       </c>
       <c r="AD10">
+        <v>14</v>
+      </c>
+      <c r="AE10">
+        <v>0.251</v>
+      </c>
+      <c r="AF10">
+        <v>0.304</v>
+      </c>
+      <c r="AG10">
+        <v>3.7</v>
+      </c>
+      <c r="AH10">
+        <v>0.166</v>
+      </c>
+      <c r="AI10">
+        <v>0.417</v>
+      </c>
+      <c r="AJ10">
+        <v>24.4</v>
+      </c>
+      <c r="AK10">
+        <v>3.9</v>
+      </c>
+      <c r="AL10">
+        <v>3.71</v>
+      </c>
+      <c r="AM10">
+        <v>36.1</v>
+      </c>
+      <c r="AN10">
+        <v>47.2</v>
+      </c>
+      <c r="AO10">
         <v>11</v>
       </c>
-      <c r="AE10">
-        <v>0.284</v>
-      </c>
-      <c r="AF10">
-        <v>0.368</v>
-      </c>
-      <c r="AG10">
-        <v>3.9</v>
-      </c>
-      <c r="AH10">
-        <v>0.208</v>
-      </c>
-      <c r="AI10">
-        <v>0.492</v>
-      </c>
-      <c r="AJ10">
-        <v>20.6</v>
-      </c>
-      <c r="AK10">
-        <v>8.9</v>
-      </c>
-      <c r="AL10">
-        <v>5.03</v>
-      </c>
-      <c r="AM10">
-        <v>51.8</v>
-      </c>
-      <c r="AN10">
-        <v>25.1</v>
-      </c>
-      <c r="AO10">
-        <v>22.9</v>
-      </c>
       <c r="AP10">
-        <v>38.1</v>
+        <v>31.1</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -6661,159 +6497,159 @@
         <v>1</v>
       </c>
       <c r="AW10" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="AX10">
-        <v>-245</v>
+        <v>-210</v>
       </c>
       <c r="AY10">
         <v>0.5</v>
       </c>
       <c r="AZ10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB10" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="BC10" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="BD10" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="BE10">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:57">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.304</v>
+        <v>0.308</v>
       </c>
       <c r="M11">
-        <v>0.347</v>
+        <v>0.291</v>
       </c>
       <c r="N11">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.375</v>
+        <v>0.345</v>
       </c>
       <c r="P11">
-        <v>0.405</v>
+        <v>0.308</v>
       </c>
       <c r="Q11">
-        <v>0.78</v>
+        <v>0.653</v>
       </c>
       <c r="R11">
-        <v>14.8</v>
+        <v>17.2</v>
       </c>
       <c r="S11">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="T11">
-        <v>39.4</v>
+        <v>40.9</v>
       </c>
       <c r="U11">
-        <v>35.6</v>
+        <v>36.4</v>
       </c>
       <c r="V11">
-        <v>35.6</v>
+        <v>22.7</v>
       </c>
       <c r="W11" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Z11" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="AA11" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="AB11" t="s">
         <v>64</v>
       </c>
       <c r="AC11">
-        <v>281</v>
+        <v>381</v>
       </c>
       <c r="AD11">
+        <v>14</v>
+      </c>
+      <c r="AE11">
+        <v>0.251</v>
+      </c>
+      <c r="AF11">
+        <v>0.304</v>
+      </c>
+      <c r="AG11">
+        <v>3.7</v>
+      </c>
+      <c r="AH11">
+        <v>0.166</v>
+      </c>
+      <c r="AI11">
+        <v>0.417</v>
+      </c>
+      <c r="AJ11">
+        <v>24.4</v>
+      </c>
+      <c r="AK11">
+        <v>3.9</v>
+      </c>
+      <c r="AL11">
+        <v>3.71</v>
+      </c>
+      <c r="AM11">
+        <v>36.1</v>
+      </c>
+      <c r="AN11">
+        <v>47.2</v>
+      </c>
+      <c r="AO11">
         <v>11</v>
       </c>
-      <c r="AE11">
-        <v>0.284</v>
-      </c>
-      <c r="AF11">
-        <v>0.368</v>
-      </c>
-      <c r="AG11">
-        <v>3.9</v>
-      </c>
-      <c r="AH11">
-        <v>0.208</v>
-      </c>
-      <c r="AI11">
-        <v>0.492</v>
-      </c>
-      <c r="AJ11">
-        <v>20.6</v>
-      </c>
-      <c r="AK11">
-        <v>8.9</v>
-      </c>
-      <c r="AL11">
-        <v>5.03</v>
-      </c>
-      <c r="AM11">
-        <v>51.8</v>
-      </c>
-      <c r="AN11">
-        <v>25.1</v>
-      </c>
-      <c r="AO11">
-        <v>22.9</v>
-      </c>
       <c r="AP11">
-        <v>38.1</v>
+        <v>31.1</v>
       </c>
       <c r="AQ11">
         <v>0</v>
@@ -6828,66 +6664,66 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="AX11">
-        <v>-235</v>
+        <v>-155</v>
       </c>
       <c r="AY11">
         <v>0.5</v>
       </c>
       <c r="AZ11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA11" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE11">
         <v>115</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE11">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:57">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -6896,142 +6732,661 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.367</v>
+        <v>0.313</v>
       </c>
       <c r="M12">
-        <v>0.425</v>
+        <v>0.322</v>
       </c>
       <c r="N12">
-        <v>0.216</v>
+        <v>0.125</v>
       </c>
       <c r="O12">
-        <v>0.419</v>
+        <v>0.313</v>
       </c>
       <c r="P12">
-        <v>0.583</v>
+        <v>0.438</v>
       </c>
       <c r="Q12">
-        <v>1.002</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
-        <v>18.7</v>
+        <v>31.3</v>
       </c>
       <c r="S12">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>39.3</v>
+        <v>45.5</v>
       </c>
       <c r="U12">
-        <v>38.4</v>
+        <v>36.4</v>
       </c>
       <c r="V12">
-        <v>44.6</v>
+        <v>9.1</v>
       </c>
       <c r="W12" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="X12" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="Y12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Z12" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="AA12" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AB12" t="s">
         <v>64</v>
       </c>
       <c r="AC12">
-        <v>97</v>
+        <v>378</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE12">
-        <v>0.333</v>
+        <v>0.269</v>
       </c>
       <c r="AF12">
-        <v>0.367</v>
+        <v>0.325</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AH12">
-        <v>0.104</v>
+        <v>0.125</v>
       </c>
       <c r="AI12">
-        <v>0.437</v>
+        <v>0.394</v>
       </c>
       <c r="AJ12">
-        <v>22.7</v>
+        <v>25.7</v>
       </c>
       <c r="AK12">
-        <v>9.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AL12">
-        <v>2.96</v>
+        <v>3.33</v>
       </c>
       <c r="AM12">
-        <v>30.8</v>
+        <v>36.5</v>
       </c>
       <c r="AN12">
-        <v>43.1</v>
+        <v>37.8</v>
       </c>
       <c r="AO12">
-        <v>3.6</v>
+        <v>7.7</v>
       </c>
       <c r="AP12">
-        <v>27.3</v>
+        <v>29.3</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="AX12">
-        <v>-240</v>
+        <v>-170</v>
       </c>
       <c r="AY12">
         <v>0.5</v>
       </c>
       <c r="AZ12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BA12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BB12" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.329</v>
+      </c>
+      <c r="M13">
+        <v>0.42</v>
+      </c>
+      <c r="N13">
+        <v>0.3</v>
+      </c>
+      <c r="O13">
+        <v>0.365</v>
+      </c>
+      <c r="P13">
+        <v>0.629</v>
+      </c>
+      <c r="Q13">
+        <v>0.993</v>
+      </c>
+      <c r="R13">
+        <v>28.4</v>
+      </c>
+      <c r="S13">
+        <v>5.4</v>
+      </c>
+      <c r="T13">
+        <v>35.4</v>
+      </c>
+      <c r="U13">
+        <v>41.7</v>
+      </c>
+      <c r="V13">
+        <v>34.7</v>
+      </c>
+      <c r="W13" t="s">
+        <v>107</v>
+      </c>
+      <c r="X13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC13">
+        <v>378</v>
+      </c>
+      <c r="AD13">
+        <v>7</v>
+      </c>
+      <c r="AE13">
+        <v>0.269</v>
+      </c>
+      <c r="AF13">
+        <v>0.325</v>
+      </c>
+      <c r="AG13">
+        <v>1.9</v>
+      </c>
+      <c r="AH13">
+        <v>0.125</v>
+      </c>
+      <c r="AI13">
+        <v>0.394</v>
+      </c>
+      <c r="AJ13">
+        <v>25.7</v>
+      </c>
+      <c r="AK13">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AL13">
+        <v>3.33</v>
+      </c>
+      <c r="AM13">
+        <v>36.5</v>
+      </c>
+      <c r="AN13">
+        <v>37.8</v>
+      </c>
+      <c r="AO13">
+        <v>7.7</v>
+      </c>
+      <c r="AP13">
+        <v>29.3</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX13">
+        <v>-255</v>
+      </c>
+      <c r="AY13">
+        <v>0.5</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>313</v>
+      </c>
+      <c r="I14">
+        <v>32</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.332</v>
+      </c>
+      <c r="M14">
+        <v>0.475</v>
+      </c>
+      <c r="N14">
+        <v>0.38</v>
+      </c>
+      <c r="O14">
+        <v>0.442</v>
+      </c>
+      <c r="P14">
+        <v>0.712</v>
+      </c>
+      <c r="Q14">
+        <v>1.154</v>
+      </c>
+      <c r="R14">
+        <v>23.7</v>
+      </c>
+      <c r="S14">
+        <v>15.3</v>
+      </c>
+      <c r="T14">
+        <v>31.1</v>
+      </c>
+      <c r="U14">
+        <v>46.7</v>
+      </c>
+      <c r="V14">
+        <v>46.7</v>
+      </c>
+      <c r="W14" t="s">
         <v>81</v>
       </c>
-      <c r="BC12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD12" t="s">
+      <c r="X14" t="s">
         <v>83</v>
       </c>
-      <c r="BE12">
-        <v>175</v>
+      <c r="Y14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC14">
+        <v>46</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>0.333</v>
+      </c>
+      <c r="AF14">
+        <v>0.378</v>
+      </c>
+      <c r="AG14">
+        <v>4.3</v>
+      </c>
+      <c r="AH14">
+        <v>0.2</v>
+      </c>
+      <c r="AI14">
+        <v>0.533</v>
+      </c>
+      <c r="AJ14">
+        <v>21.7</v>
+      </c>
+      <c r="AK14">
+        <v>2.2</v>
+      </c>
+      <c r="AL14">
+        <v>4.07</v>
+      </c>
+      <c r="AM14">
+        <v>40</v>
+      </c>
+      <c r="AN14">
+        <v>40</v>
+      </c>
+      <c r="AO14">
+        <v>14.3</v>
+      </c>
+      <c r="AP14">
+        <v>22.9</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX14">
+        <v>-275</v>
+      </c>
+      <c r="AY14">
+        <v>0.5</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>34</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.382</v>
+      </c>
+      <c r="M15">
+        <v>0.407</v>
+      </c>
+      <c r="N15">
+        <v>0.147</v>
+      </c>
+      <c r="O15">
+        <v>0.421</v>
+      </c>
+      <c r="P15">
+        <v>0.529</v>
+      </c>
+      <c r="Q15">
+        <v>0.95</v>
+      </c>
+      <c r="R15">
+        <v>26.3</v>
+      </c>
+      <c r="S15">
+        <v>7.9</v>
+      </c>
+      <c r="T15">
+        <v>16</v>
+      </c>
+      <c r="U15">
+        <v>52</v>
+      </c>
+      <c r="V15">
+        <v>40</v>
+      </c>
+      <c r="W15" t="s">
+        <v>110</v>
+      </c>
+      <c r="X15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC15">
+        <v>268</v>
+      </c>
+      <c r="AD15">
+        <v>11</v>
+      </c>
+      <c r="AE15">
+        <v>0.279</v>
+      </c>
+      <c r="AF15">
+        <v>0.353</v>
+      </c>
+      <c r="AG15">
+        <v>4.1</v>
+      </c>
+      <c r="AH15">
+        <v>0.205</v>
+      </c>
+      <c r="AI15">
+        <v>0.484</v>
+      </c>
+      <c r="AJ15">
+        <v>17.5</v>
+      </c>
+      <c r="AK15">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL15">
+        <v>5.12</v>
+      </c>
+      <c r="AM15">
+        <v>36.4</v>
+      </c>
+      <c r="AN15">
+        <v>43.6</v>
+      </c>
+      <c r="AO15">
+        <v>12.9</v>
+      </c>
+      <c r="AP15">
+        <v>36.4</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX15">
+        <v>-170</v>
+      </c>
+      <c r="AY15">
+        <v>0.5</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE15">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="116">
   <si>
     <t>fg_name</t>
   </si>
@@ -190,148 +190,181 @@
     <t>Under Price</t>
   </si>
   <si>
-    <t>Sal Frelick</t>
-  </si>
-  <si>
-    <t>Garrett Mitchell</t>
-  </si>
-  <si>
-    <t>Alex Call</t>
-  </si>
-  <si>
-    <t>Juan Yepez</t>
-  </si>
-  <si>
-    <t>Brent Rooker</t>
-  </si>
-  <si>
-    <t>Max Kepler</t>
-  </si>
-  <si>
-    <t>Ryan Ohearn</t>
-  </si>
-  <si>
-    <t>Freddy Fermin</t>
-  </si>
-  <si>
-    <t>Jake Fraley</t>
-  </si>
-  <si>
-    <t>Elly De La Cruz</t>
-  </si>
-  <si>
-    <t>Milwaukee Brewers</t>
+    <t>Otto Lopez</t>
+  </si>
+  <si>
+    <t>Zach Neto</t>
+  </si>
+  <si>
+    <t>Nolan Arenado</t>
+  </si>
+  <si>
+    <t>Masyn Winn</t>
+  </si>
+  <si>
+    <t>Alex Bregman</t>
+  </si>
+  <si>
+    <t>Miami Marlins</t>
+  </si>
+  <si>
+    <t>Los Angeles Angels</t>
+  </si>
+  <si>
+    <t>St. Louis Cardinals</t>
+  </si>
+  <si>
+    <t>Houston Astros</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>vs L</t>
+  </si>
+  <si>
+    <t>vs R</t>
+  </si>
+  <si>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>S. Schwellenbach</t>
+  </si>
+  <si>
+    <t>Justin Wrobleski</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
+    <t>New York Mets</t>
+  </si>
+  <si>
+    <t>Atlanta Braves</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers</t>
+  </si>
+  <si>
+    <t>Chicago White Sox</t>
+  </si>
+  <si>
+    <t>LHP</t>
+  </si>
+  <si>
+    <t>RHP</t>
+  </si>
+  <si>
+    <t>Spencer Schwellenbach</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>draftkings</t>
+  </si>
+  <si>
+    <t>2024-08-09T23:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-09T22:46:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-10T00:11:00Z</t>
   </si>
   <si>
     <t>Washington Nationals</t>
   </si>
   <si>
+    <t>Kansas City Royals</t>
+  </si>
+  <si>
+    <t>Boston Red Sox</t>
+  </si>
+  <si>
+    <t>San Diego Padres</t>
+  </si>
+  <si>
+    <t>Xander Bogaerts</t>
+  </si>
+  <si>
+    <t>Manny Machado</t>
+  </si>
+  <si>
+    <t>Kyle Schwarber</t>
+  </si>
+  <si>
+    <t>Jt Realmuto</t>
+  </si>
+  <si>
+    <t>Miguel Rojas</t>
+  </si>
+  <si>
+    <t>Shohei Ohtani</t>
+  </si>
+  <si>
+    <t>Freddie Freeman</t>
+  </si>
+  <si>
+    <t>Ernie Clement</t>
+  </si>
+  <si>
+    <t>Spencer Horwitz</t>
+  </si>
+  <si>
+    <t>Philadelphia Phillies</t>
+  </si>
+  <si>
+    <t>Toronto Blue Jays</t>
+  </si>
+  <si>
+    <t>J T Realmuto</t>
+  </si>
+  <si>
+    <t>J.T. Realmuto</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Cal Quantrill</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Colorado Rockies</t>
+  </si>
+  <si>
+    <t>Chicago Cubs</t>
+  </si>
+  <si>
+    <t>2024-08-10T01:41:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-10T02:11:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-09T23:08:00Z</t>
+  </si>
+  <si>
+    <t>Arizona Diamondbacks</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates</t>
+  </si>
+  <si>
     <t>Oakland Athletics</t>
   </si>
   <si>
-    <t>Minnesota Twins</t>
-  </si>
-  <si>
-    <t>Baltimore Orioles</t>
-  </si>
-  <si>
-    <t>Kansas City Royals</t>
-  </si>
-  <si>
-    <t>Cincinnati Reds</t>
-  </si>
-  <si>
-    <t>Ryan O Hearn</t>
-  </si>
-  <si>
-    <t>Ryan O'Hearn</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>vs R</t>
-  </si>
-  <si>
-    <t>vs L</t>
-  </si>
-  <si>
-    <t>Carson Spiers</t>
-  </si>
-  <si>
-    <t>Jose Soriano</t>
-  </si>
-  <si>
-    <t>Jose Berrios</t>
-  </si>
-  <si>
-    <t>Joey Cantillo</t>
-  </si>
-  <si>
-    <t>Zack Littell</t>
-  </si>
-  <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
-    <t>Los Angeles Angels</t>
-  </si>
-  <si>
-    <t>Toronto Blue Jays</t>
-  </si>
-  <si>
-    <t>Cleveland Indians</t>
-  </si>
-  <si>
-    <t>Tampa Bay Rays</t>
-  </si>
-  <si>
-    <t>St. Louis Cardinals</t>
-  </si>
-  <si>
-    <t>RHP</t>
-  </si>
-  <si>
-    <t>LHP</t>
-  </si>
-  <si>
-    <t>José Soriano</t>
-  </si>
-  <si>
-    <t>José Berríos</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>draftkings</t>
-  </si>
-  <si>
-    <t>2024-08-10T00:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-08-09T22:46:00Z</t>
-  </si>
-  <si>
-    <t>2024-08-09T23:08:00Z</t>
-  </si>
-  <si>
-    <t>2024-08-09T18:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-08-09T22:51:00Z</t>
-  </si>
-  <si>
-    <t>Cleveland Guardians</t>
+    <t>Jackson Merrill</t>
   </si>
 </sst>
 </file>
@@ -689,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE1"/>
+  <dimension ref="A1:BE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -866,6 +899,871 @@
       </c>
       <c r="BE1" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.197</v>
+      </c>
+      <c r="M2">
+        <v>0.206</v>
+      </c>
+      <c r="N2">
+        <v>0.053</v>
+      </c>
+      <c r="O2">
+        <v>0.218</v>
+      </c>
+      <c r="P2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2">
+        <v>0.468</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>2.5</v>
+      </c>
+      <c r="T2">
+        <v>51.6</v>
+      </c>
+      <c r="U2">
+        <v>23.4</v>
+      </c>
+      <c r="V2">
+        <v>23.1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2">
+        <v>412</v>
+      </c>
+      <c r="AD2">
+        <v>8</v>
+      </c>
+      <c r="AE2">
+        <v>0.207</v>
+      </c>
+      <c r="AF2">
+        <v>0.277</v>
+      </c>
+      <c r="AG2">
+        <v>1.9</v>
+      </c>
+      <c r="AH2">
+        <v>0.115</v>
+      </c>
+      <c r="AI2">
+        <v>0.322</v>
+      </c>
+      <c r="AJ2">
+        <v>23.5</v>
+      </c>
+      <c r="AK2">
+        <v>10</v>
+      </c>
+      <c r="AL2">
+        <v>3.66</v>
+      </c>
+      <c r="AM2">
+        <v>34.3</v>
+      </c>
+      <c r="AN2">
+        <v>47</v>
+      </c>
+      <c r="AO2">
+        <v>6.3</v>
+      </c>
+      <c r="AP2">
+        <v>32.7</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX2">
+        <v>195</v>
+      </c>
+      <c r="AY2">
+        <v>1.5</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE2">
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>325</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>0.231</v>
+      </c>
+      <c r="M3">
+        <v>0.315</v>
+      </c>
+      <c r="N3">
+        <v>0.197</v>
+      </c>
+      <c r="O3">
+        <v>0.299</v>
+      </c>
+      <c r="P3">
+        <v>0.428</v>
+      </c>
+      <c r="Q3">
+        <v>0.727</v>
+      </c>
+      <c r="R3">
+        <v>23.3</v>
+      </c>
+      <c r="S3">
+        <v>6.1</v>
+      </c>
+      <c r="T3">
+        <v>44.6</v>
+      </c>
+      <c r="U3">
+        <v>38.8</v>
+      </c>
+      <c r="V3">
+        <v>32.7</v>
+      </c>
+      <c r="W3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3">
+        <v>127</v>
+      </c>
+      <c r="AD3">
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <v>0.208</v>
+      </c>
+      <c r="AF3">
+        <v>0.26</v>
+      </c>
+      <c r="AG3">
+        <v>3.1</v>
+      </c>
+      <c r="AH3">
+        <v>0.134</v>
+      </c>
+      <c r="AI3">
+        <v>0.342</v>
+      </c>
+      <c r="AJ3">
+        <v>33.9</v>
+      </c>
+      <c r="AK3">
+        <v>3.9</v>
+      </c>
+      <c r="AL3">
+        <v>2.77</v>
+      </c>
+      <c r="AM3">
+        <v>46.8</v>
+      </c>
+      <c r="AN3">
+        <v>35.1</v>
+      </c>
+      <c r="AO3">
+        <v>14.8</v>
+      </c>
+      <c r="AP3">
+        <v>23.4</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX3">
+        <v>190</v>
+      </c>
+      <c r="AY3">
+        <v>1.5</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE3">
+        <v>-270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>114</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.246</v>
+      </c>
+      <c r="M4">
+        <v>0.29</v>
+      </c>
+      <c r="N4">
+        <v>0.158</v>
+      </c>
+      <c r="O4">
+        <v>0.273</v>
+      </c>
+      <c r="P4">
+        <v>0.404</v>
+      </c>
+      <c r="Q4">
+        <v>0.676</v>
+      </c>
+      <c r="R4">
+        <v>9.1</v>
+      </c>
+      <c r="S4">
+        <v>3.3</v>
+      </c>
+      <c r="T4">
+        <v>30.5</v>
+      </c>
+      <c r="U4">
+        <v>43.8</v>
+      </c>
+      <c r="V4">
+        <v>31.4</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4">
+        <v>58</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>0.189</v>
+      </c>
+      <c r="AF4">
+        <v>0.291</v>
+      </c>
+      <c r="AG4">
+        <v>5.2</v>
+      </c>
+      <c r="AH4">
+        <v>0.226</v>
+      </c>
+      <c r="AI4">
+        <v>0.415</v>
+      </c>
+      <c r="AJ4">
+        <v>22.4</v>
+      </c>
+      <c r="AK4">
+        <v>8.6</v>
+      </c>
+      <c r="AL4">
+        <v>5</v>
+      </c>
+      <c r="AM4">
+        <v>28.2</v>
+      </c>
+      <c r="AN4">
+        <v>53.8</v>
+      </c>
+      <c r="AO4">
+        <v>14.3</v>
+      </c>
+      <c r="AP4">
+        <v>32.5</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX4">
+        <v>195</v>
+      </c>
+      <c r="AY4">
+        <v>1.5</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE4">
+        <v>-285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>145</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.241</v>
+      </c>
+      <c r="M5">
+        <v>0.327</v>
+      </c>
+      <c r="N5">
+        <v>0.214</v>
+      </c>
+      <c r="O5">
+        <v>0.308</v>
+      </c>
+      <c r="P5">
+        <v>0.455</v>
+      </c>
+      <c r="Q5">
+        <v>0.763</v>
+      </c>
+      <c r="R5">
+        <v>20.8</v>
+      </c>
+      <c r="S5">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T5">
+        <v>33</v>
+      </c>
+      <c r="U5">
+        <v>45.5</v>
+      </c>
+      <c r="V5">
+        <v>29.5</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5">
+        <v>58</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5">
+        <v>0.189</v>
+      </c>
+      <c r="AF5">
+        <v>0.291</v>
+      </c>
+      <c r="AG5">
+        <v>5.2</v>
+      </c>
+      <c r="AH5">
+        <v>0.226</v>
+      </c>
+      <c r="AI5">
+        <v>0.415</v>
+      </c>
+      <c r="AJ5">
+        <v>22.4</v>
+      </c>
+      <c r="AK5">
+        <v>8.6</v>
+      </c>
+      <c r="AL5">
+        <v>5</v>
+      </c>
+      <c r="AM5">
+        <v>28.2</v>
+      </c>
+      <c r="AN5">
+        <v>53.8</v>
+      </c>
+      <c r="AO5">
+        <v>14.3</v>
+      </c>
+      <c r="AP5">
+        <v>32.5</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX5">
+        <v>155</v>
+      </c>
+      <c r="AY5">
+        <v>1.5</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE5">
+        <v>-215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>137</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.219</v>
+      </c>
+      <c r="M6">
+        <v>0.292</v>
+      </c>
+      <c r="N6">
+        <v>0.19</v>
+      </c>
+      <c r="O6">
+        <v>0.267</v>
+      </c>
+      <c r="P6">
+        <v>0.409</v>
+      </c>
+      <c r="Q6">
+        <v>0.676</v>
+      </c>
+      <c r="R6">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S6">
+        <v>6.2</v>
+      </c>
+      <c r="T6">
+        <v>32.8</v>
+      </c>
+      <c r="U6">
+        <v>46.4</v>
+      </c>
+      <c r="V6">
+        <v>30.4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6">
+        <v>413</v>
+      </c>
+      <c r="AD6">
+        <v>15</v>
+      </c>
+      <c r="AE6">
+        <v>0.214</v>
+      </c>
+      <c r="AF6">
+        <v>0.279</v>
+      </c>
+      <c r="AG6">
+        <v>3.6</v>
+      </c>
+      <c r="AH6">
+        <v>0.159</v>
+      </c>
+      <c r="AI6">
+        <v>0.373</v>
+      </c>
+      <c r="AJ6">
+        <v>32</v>
+      </c>
+      <c r="AK6">
+        <v>5.6</v>
+      </c>
+      <c r="AL6">
+        <v>3.32</v>
+      </c>
+      <c r="AM6">
+        <v>45.2</v>
+      </c>
+      <c r="AN6">
+        <v>38.1</v>
+      </c>
+      <c r="AO6">
+        <v>15.6</v>
+      </c>
+      <c r="AP6">
+        <v>35.2</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX6">
+        <v>160</v>
+      </c>
+      <c r="AY6">
+        <v>1.5</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE6">
+        <v>-225</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +1959,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE14"/>
+  <dimension ref="A1:BE10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1242,139 +2140,139 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.273</v>
+        <v>0.279</v>
       </c>
       <c r="M2">
-        <v>0.311</v>
+        <v>0.3</v>
       </c>
       <c r="N2">
-        <v>0.066</v>
+        <v>0.095</v>
       </c>
       <c r="O2">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="P2">
-        <v>0.339</v>
+        <v>0.374</v>
       </c>
       <c r="Q2">
-        <v>0.6889999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R2">
-        <v>15.8</v>
+        <v>19.4</v>
       </c>
       <c r="S2">
-        <v>9.6</v>
+        <v>3.9</v>
       </c>
       <c r="T2">
-        <v>48.9</v>
+        <v>43.5</v>
       </c>
       <c r="U2">
-        <v>30.9</v>
+        <v>33.9</v>
       </c>
       <c r="V2">
-        <v>20.8</v>
+        <v>27.1</v>
       </c>
       <c r="W2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="X2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="Y2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="AA2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AB2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="AC2">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="AD2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE2">
-        <v>0.289</v>
+        <v>0.281</v>
       </c>
       <c r="AF2">
-        <v>0.357</v>
+        <v>0.344</v>
       </c>
       <c r="AG2">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="AH2">
-        <v>0.215</v>
+        <v>0.157</v>
       </c>
       <c r="AI2">
-        <v>0.504</v>
+        <v>0.438</v>
       </c>
       <c r="AJ2">
-        <v>19.5</v>
+        <v>17.4</v>
       </c>
       <c r="AK2">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="AL2">
-        <v>4.4</v>
+        <v>4.83</v>
       </c>
       <c r="AM2">
-        <v>27.4</v>
+        <v>44.1</v>
       </c>
       <c r="AN2">
-        <v>48.4</v>
+        <v>34.9</v>
       </c>
       <c r="AO2">
-        <v>10.9</v>
+        <v>13.2</v>
       </c>
       <c r="AP2">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="AQ2">
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -1386,335 +2284,335 @@
         <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="AX2">
-        <v>-175</v>
+        <v>-190</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="BA2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="BC2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="BD2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="BE2">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>328</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3</v>
+        <v>0.274</v>
       </c>
       <c r="M3">
-        <v>0.385</v>
+        <v>0.323</v>
       </c>
       <c r="N3">
-        <v>0.183</v>
+        <v>0.165</v>
       </c>
       <c r="O3">
-        <v>0.4</v>
+        <v>0.315</v>
       </c>
       <c r="P3">
-        <v>0.483</v>
+        <v>0.439</v>
       </c>
       <c r="Q3">
-        <v>0.883</v>
+        <v>0.754</v>
       </c>
       <c r="R3">
-        <v>25.7</v>
+        <v>18.8</v>
       </c>
       <c r="S3">
-        <v>14.3</v>
+        <v>5.7</v>
       </c>
       <c r="T3">
-        <v>52.5</v>
+        <v>44.7</v>
       </c>
       <c r="U3">
-        <v>22.5</v>
+        <v>36</v>
       </c>
       <c r="V3">
-        <v>28.6</v>
+        <v>35.8</v>
       </c>
       <c r="W3" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="X3" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="Y3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="AA3" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AB3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="AC3">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="AD3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE3">
-        <v>0.289</v>
+        <v>0.281</v>
       </c>
       <c r="AF3">
-        <v>0.357</v>
+        <v>0.344</v>
       </c>
       <c r="AG3">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="AH3">
-        <v>0.215</v>
+        <v>0.157</v>
       </c>
       <c r="AI3">
-        <v>0.504</v>
+        <v>0.438</v>
       </c>
       <c r="AJ3">
-        <v>19.5</v>
+        <v>17.4</v>
       </c>
       <c r="AK3">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="AL3">
-        <v>4.4</v>
+        <v>4.83</v>
       </c>
       <c r="AM3">
-        <v>27.4</v>
+        <v>44.1</v>
       </c>
       <c r="AN3">
-        <v>48.4</v>
+        <v>34.9</v>
       </c>
       <c r="AO3">
-        <v>10.9</v>
+        <v>13.2</v>
       </c>
       <c r="AP3">
-        <v>30.2</v>
+        <v>29.4</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="AX3">
-        <v>-210</v>
+        <v>-220</v>
       </c>
       <c r="AY3">
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="BA3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="BC3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="BD3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="BE3">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>156</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.333</v>
+      </c>
+      <c r="M4">
+        <v>0.433</v>
+      </c>
+      <c r="N4">
+        <v>0.218</v>
+      </c>
+      <c r="O4">
+        <v>0.45</v>
+      </c>
+      <c r="P4">
+        <v>0.551</v>
+      </c>
+      <c r="Q4">
+        <v>1.001</v>
+      </c>
+      <c r="R4">
+        <v>27.5</v>
+      </c>
+      <c r="S4">
+        <v>16.9</v>
+      </c>
+      <c r="T4">
+        <v>46.2</v>
+      </c>
+      <c r="U4">
+        <v>33.7</v>
+      </c>
+      <c r="V4">
+        <v>44.2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>104</v>
+      </c>
+      <c r="X4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y4" t="s">
         <v>77</v>
       </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>31</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="Z4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC4">
+        <v>114</v>
+      </c>
+      <c r="AD4">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.387</v>
-      </c>
-      <c r="M4">
-        <v>0.446</v>
-      </c>
-      <c r="N4">
-        <v>0.129</v>
-      </c>
-      <c r="O4">
-        <v>0.5</v>
-      </c>
-      <c r="P4">
-        <v>0.516</v>
-      </c>
-      <c r="Q4">
-        <v>1.016</v>
-      </c>
-      <c r="R4">
-        <v>10.5</v>
-      </c>
-      <c r="S4">
-        <v>15.8</v>
-      </c>
-      <c r="T4">
-        <v>48.1</v>
-      </c>
-      <c r="U4">
-        <v>37</v>
-      </c>
-      <c r="V4">
-        <v>29.6</v>
-      </c>
-      <c r="W4" t="s">
-        <v>82</v>
-      </c>
-      <c r="X4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4">
-        <v>183</v>
-      </c>
-      <c r="AD4">
-        <v>4</v>
-      </c>
       <c r="AE4">
-        <v>0.275</v>
+        <v>0.27</v>
       </c>
       <c r="AF4">
-        <v>0.353</v>
+        <v>0.334</v>
       </c>
       <c r="AG4">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AH4">
-        <v>0.143</v>
+        <v>0.15</v>
       </c>
       <c r="AI4">
-        <v>0.418</v>
+        <v>0.42</v>
       </c>
       <c r="AJ4">
-        <v>21.9</v>
+        <v>19.3</v>
       </c>
       <c r="AK4">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="AL4">
-        <v>4.49</v>
+        <v>3.99</v>
       </c>
       <c r="AM4">
-        <v>60</v>
+        <v>55.7</v>
       </c>
       <c r="AN4">
-        <v>21.7</v>
+        <v>22.8</v>
       </c>
       <c r="AO4">
-        <v>16</v>
+        <v>11.1</v>
       </c>
       <c r="AP4">
-        <v>29.6</v>
+        <v>31.6</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>1</v>
@@ -1723,171 +2621,171 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>1</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="AX4">
-        <v>-155</v>
+        <v>-225</v>
       </c>
       <c r="AY4">
         <v>0.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="BA4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD4" t="s">
         <v>98</v>
       </c>
-      <c r="BB4" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>88</v>
-      </c>
       <c r="BE4">
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:57">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.287</v>
+        <v>0.275</v>
       </c>
       <c r="M5">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="N5">
-        <v>0.172</v>
+        <v>0.163</v>
       </c>
       <c r="O5">
         <v>0.333</v>
       </c>
       <c r="P5">
-        <v>0.46</v>
+        <v>0.438</v>
       </c>
       <c r="Q5">
-        <v>0.793</v>
+        <v>0.771</v>
       </c>
       <c r="R5">
-        <v>16.7</v>
+        <v>24.1</v>
       </c>
       <c r="S5">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="T5">
-        <v>46.6</v>
+        <v>50.8</v>
       </c>
       <c r="U5">
-        <v>26</v>
+        <v>30.5</v>
       </c>
       <c r="V5">
-        <v>28.8</v>
+        <v>40.7</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB5" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>79</v>
-      </c>
       <c r="AC5">
-        <v>183</v>
+        <v>463</v>
       </c>
       <c r="AD5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AE5">
-        <v>0.275</v>
+        <v>0.318</v>
       </c>
       <c r="AF5">
-        <v>0.353</v>
+        <v>0.377</v>
       </c>
       <c r="AG5">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="AH5">
-        <v>0.143</v>
+        <v>0.21</v>
       </c>
       <c r="AI5">
-        <v>0.418</v>
+        <v>0.528</v>
       </c>
       <c r="AJ5">
-        <v>21.9</v>
+        <v>16.2</v>
       </c>
       <c r="AK5">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AL5">
-        <v>4.49</v>
+        <v>4.76</v>
       </c>
       <c r="AM5">
-        <v>60</v>
+        <v>43.8</v>
       </c>
       <c r="AN5">
-        <v>21.7</v>
+        <v>35.4</v>
       </c>
       <c r="AO5">
-        <v>16</v>
+        <v>13.8</v>
       </c>
       <c r="AP5">
-        <v>29.6</v>
+        <v>34.8</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1899,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AX5">
         <v>-245</v>
@@ -1914,672 +2812,672 @@
         <v>0.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="BA5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD5" t="s">
         <v>98</v>
       </c>
-      <c r="BB5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>88</v>
-      </c>
       <c r="BE5">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:57">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="I6">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.292</v>
+        <v>0.279</v>
       </c>
       <c r="M6">
-        <v>0.395</v>
+        <v>0.306</v>
       </c>
       <c r="N6">
-        <v>0.265</v>
+        <v>0.107</v>
       </c>
       <c r="O6">
-        <v>0.373</v>
+        <v>0.315</v>
       </c>
       <c r="P6">
-        <v>0.5570000000000001</v>
+        <v>0.386</v>
       </c>
       <c r="Q6">
-        <v>0.929</v>
+        <v>0.701</v>
       </c>
       <c r="R6">
-        <v>30</v>
+        <v>11.3</v>
       </c>
       <c r="S6">
-        <v>10.3</v>
+        <v>4.7</v>
       </c>
       <c r="T6">
-        <v>30.6</v>
+        <v>47.5</v>
       </c>
       <c r="U6">
-        <v>44.6</v>
+        <v>29.5</v>
       </c>
       <c r="V6">
-        <v>43</v>
+        <v>17.6</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Z6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AB6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AC6">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="AD6">
         <v>10</v>
       </c>
       <c r="AE6">
-        <v>0.278</v>
+        <v>0.288</v>
       </c>
       <c r="AF6">
         <v>0.335</v>
       </c>
       <c r="AG6">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AH6">
-        <v>0.165</v>
+        <v>0.178</v>
       </c>
       <c r="AI6">
-        <v>0.443</v>
+        <v>0.466</v>
       </c>
       <c r="AJ6">
-        <v>16.8</v>
+        <v>14.9</v>
       </c>
       <c r="AK6">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="AL6">
-        <v>4.85</v>
+        <v>4.29</v>
       </c>
       <c r="AM6">
-        <v>46.3</v>
+        <v>44.8</v>
       </c>
       <c r="AN6">
-        <v>35.6</v>
+        <v>35.1</v>
       </c>
       <c r="AO6">
-        <v>14.9</v>
+        <v>11.9</v>
       </c>
       <c r="AP6">
-        <v>35.3</v>
+        <v>30.5</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="AX6">
-        <v>-250</v>
+        <v>-215</v>
       </c>
       <c r="AY6">
         <v>0.5</v>
       </c>
       <c r="AZ6" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="BA6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="BC6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="BD6" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="BE6">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:57">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.274</v>
+        <v>0.303</v>
       </c>
       <c r="M7">
-        <v>0.299</v>
+        <v>0.444</v>
       </c>
       <c r="N7">
-        <v>0.113</v>
+        <v>0.378</v>
       </c>
       <c r="O7">
-        <v>0.303</v>
+        <v>0.404</v>
       </c>
       <c r="P7">
-        <v>0.387</v>
+        <v>0.681</v>
       </c>
       <c r="Q7">
-        <v>0.6899999999999999</v>
+        <v>1.085</v>
       </c>
       <c r="R7">
-        <v>24.2</v>
+        <v>22.1</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>13.9</v>
       </c>
       <c r="T7">
-        <v>40.4</v>
+        <v>35.8</v>
       </c>
       <c r="U7">
-        <v>31.9</v>
+        <v>42.8</v>
       </c>
       <c r="V7">
-        <v>38.3</v>
+        <v>46.7</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="Y7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC7">
+        <v>258</v>
+      </c>
+      <c r="AD7">
+        <v>8</v>
+      </c>
+      <c r="AE7">
+        <v>0.282</v>
+      </c>
+      <c r="AF7">
+        <v>0.343</v>
+      </c>
+      <c r="AG7">
+        <v>3.1</v>
+      </c>
+      <c r="AH7">
+        <v>0.216</v>
+      </c>
+      <c r="AI7">
+        <v>0.498</v>
+      </c>
+      <c r="AJ7">
+        <v>17.4</v>
+      </c>
+      <c r="AK7">
+        <v>4.7</v>
+      </c>
+      <c r="AL7">
+        <v>4.02</v>
+      </c>
+      <c r="AM7">
+        <v>36.4</v>
+      </c>
+      <c r="AN7">
+        <v>39.9</v>
+      </c>
+      <c r="AO7">
+        <v>10.1</v>
+      </c>
+      <c r="AP7">
+        <v>37</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="s">
         <v>94</v>
       </c>
-      <c r="Z7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC7">
-        <v>14</v>
-      </c>
-      <c r="AD7">
-        <v>2</v>
-      </c>
-      <c r="AE7">
-        <v>0.583</v>
-      </c>
-      <c r="AF7">
-        <v>0.732</v>
-      </c>
-      <c r="AG7">
-        <v>14.3</v>
-      </c>
-      <c r="AH7">
-        <v>0.584</v>
-      </c>
-      <c r="AI7">
-        <v>1.167</v>
-      </c>
-      <c r="AJ7">
-        <v>14.3</v>
-      </c>
-      <c r="AK7">
-        <v>14.3</v>
-      </c>
-      <c r="AL7">
-        <v>19.98</v>
-      </c>
-      <c r="AM7">
-        <v>30</v>
-      </c>
-      <c r="AN7">
-        <v>50</v>
-      </c>
-      <c r="AO7">
-        <v>40</v>
-      </c>
-      <c r="AP7">
-        <v>60</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>1</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>62</v>
-      </c>
       <c r="AX7">
-        <v>-195</v>
+        <v>-285</v>
       </c>
       <c r="AY7">
         <v>0.5</v>
       </c>
       <c r="AZ7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="BA7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="BC7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BD7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="BE7">
-        <v>140</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:57">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
-        <v>0.274</v>
+        <v>0.314</v>
       </c>
       <c r="M8">
-        <v>0.299</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
-        <v>0.113</v>
+        <v>0.213</v>
       </c>
       <c r="O8">
-        <v>0.303</v>
+        <v>0.415</v>
       </c>
       <c r="P8">
-        <v>0.387</v>
+        <v>0.527</v>
       </c>
       <c r="Q8">
-        <v>0.6899999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="R8">
-        <v>24.2</v>
+        <v>15.5</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>13.9</v>
       </c>
       <c r="T8">
-        <v>40.4</v>
+        <v>37.1</v>
       </c>
       <c r="U8">
-        <v>31.9</v>
+        <v>37.6</v>
       </c>
       <c r="V8">
-        <v>38.3</v>
+        <v>34.1</v>
       </c>
       <c r="W8" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="AB8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AC8">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE8">
-        <v>0.583</v>
+        <v>0.282</v>
       </c>
       <c r="AF8">
-        <v>0.732</v>
+        <v>0.343</v>
       </c>
       <c r="AG8">
-        <v>14.3</v>
+        <v>3.1</v>
       </c>
       <c r="AH8">
-        <v>0.584</v>
+        <v>0.216</v>
       </c>
       <c r="AI8">
-        <v>1.167</v>
+        <v>0.498</v>
       </c>
       <c r="AJ8">
-        <v>14.3</v>
+        <v>17.4</v>
       </c>
       <c r="AK8">
-        <v>14.3</v>
+        <v>4.7</v>
       </c>
       <c r="AL8">
-        <v>19.98</v>
+        <v>4.02</v>
       </c>
       <c r="AM8">
-        <v>30</v>
+        <v>36.4</v>
       </c>
       <c r="AN8">
-        <v>50</v>
+        <v>39.9</v>
       </c>
       <c r="AO8">
-        <v>40</v>
+        <v>10.1</v>
       </c>
       <c r="AP8">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8">
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="AX8">
-        <v>-195</v>
+        <v>-255</v>
       </c>
       <c r="AY8">
         <v>0.5</v>
       </c>
       <c r="AZ8" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="BA8" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="BC8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BD8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="BE8">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:57">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.275</v>
+      </c>
+      <c r="M9">
+        <v>0.294</v>
+      </c>
+      <c r="N9">
+        <v>0.116</v>
+      </c>
+      <c r="O9">
+        <v>0.291</v>
+      </c>
+      <c r="P9">
+        <v>0.392</v>
+      </c>
+      <c r="Q9">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="R9">
+        <v>7.7</v>
+      </c>
+      <c r="S9">
         <v>2</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="T9">
+        <v>41.4</v>
+      </c>
+      <c r="U9">
+        <v>39.7</v>
+      </c>
+      <c r="V9">
+        <v>23.3</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC9">
+        <v>193</v>
+      </c>
+      <c r="AD9">
+        <v>6</v>
+      </c>
+      <c r="AE9">
         <v>0.274</v>
       </c>
-      <c r="M9">
-        <v>0.299</v>
-      </c>
-      <c r="N9">
-        <v>0.113</v>
-      </c>
-      <c r="O9">
-        <v>0.303</v>
-      </c>
-      <c r="P9">
-        <v>0.387</v>
-      </c>
-      <c r="Q9">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R9">
-        <v>24.2</v>
-      </c>
-      <c r="S9">
-        <v>3</v>
-      </c>
-      <c r="T9">
-        <v>40.4</v>
-      </c>
-      <c r="U9">
-        <v>31.9</v>
-      </c>
-      <c r="V9">
-        <v>38.3</v>
-      </c>
-      <c r="W9" t="s">
-        <v>84</v>
-      </c>
-      <c r="X9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC9">
-        <v>14</v>
-      </c>
-      <c r="AD9">
-        <v>2</v>
-      </c>
-      <c r="AE9">
-        <v>0.583</v>
-      </c>
       <c r="AF9">
-        <v>0.732</v>
+        <v>0.315</v>
       </c>
       <c r="AG9">
-        <v>14.3</v>
+        <v>3.1</v>
       </c>
       <c r="AH9">
-        <v>0.584</v>
+        <v>0.132</v>
       </c>
       <c r="AI9">
-        <v>1.167</v>
+        <v>0.406</v>
       </c>
       <c r="AJ9">
-        <v>14.3</v>
+        <v>17.1</v>
       </c>
       <c r="AK9">
-        <v>14.3</v>
+        <v>6.7</v>
       </c>
       <c r="AL9">
-        <v>19.98</v>
+        <v>4.33</v>
       </c>
       <c r="AM9">
-        <v>30</v>
+        <v>46.6</v>
       </c>
       <c r="AN9">
-        <v>50</v>
+        <v>32.2</v>
       </c>
       <c r="AO9">
-        <v>40</v>
+        <v>12.8</v>
       </c>
       <c r="AP9">
-        <v>60</v>
+        <v>30.1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2594,63 +3492,63 @@
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="AX9">
-        <v>-195</v>
+        <v>-240</v>
       </c>
       <c r="AY9">
         <v>0.5</v>
       </c>
       <c r="AZ9" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="BA9" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="BC9" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="BD9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="BE9">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:57">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2659,103 +3557,103 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.274</v>
+        <v>0.288</v>
       </c>
       <c r="M10">
-        <v>0.299</v>
+        <v>0.367</v>
       </c>
       <c r="N10">
-        <v>0.113</v>
+        <v>0.179</v>
       </c>
       <c r="O10">
-        <v>0.303</v>
+        <v>0.383</v>
       </c>
       <c r="P10">
-        <v>0.387</v>
+        <v>0.468</v>
       </c>
       <c r="Q10">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="R10">
-        <v>24.2</v>
+        <v>19.1</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="T10">
-        <v>40.4</v>
+        <v>35.8</v>
       </c>
       <c r="U10">
-        <v>31.9</v>
+        <v>36.6</v>
       </c>
       <c r="V10">
-        <v>38.3</v>
+        <v>30.9</v>
       </c>
       <c r="W10" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="X10" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="Y10" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="AA10" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="AB10" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AC10">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AE10">
-        <v>0.583</v>
+        <v>0.308</v>
       </c>
       <c r="AF10">
-        <v>0.732</v>
+        <v>0.388</v>
       </c>
       <c r="AG10">
-        <v>14.3</v>
+        <v>6</v>
       </c>
       <c r="AH10">
-        <v>0.584</v>
+        <v>0.233</v>
       </c>
       <c r="AI10">
-        <v>1.167</v>
+        <v>0.541</v>
       </c>
       <c r="AJ10">
-        <v>14.3</v>
+        <v>15.9</v>
       </c>
       <c r="AK10">
-        <v>14.3</v>
+        <v>7</v>
       </c>
       <c r="AL10">
-        <v>19.98</v>
+        <v>6.31</v>
       </c>
       <c r="AM10">
-        <v>30</v>
+        <v>41.4</v>
       </c>
       <c r="AN10">
-        <v>50</v>
+        <v>36.2</v>
       </c>
       <c r="AO10">
-        <v>40</v>
+        <v>21.8</v>
       </c>
       <c r="AP10">
-        <v>60</v>
+        <v>26.1</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10">
         <v>0</v>
@@ -2764,729 +3662,37 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="AX10">
-        <v>-195</v>
+        <v>-205</v>
       </c>
       <c r="AY10">
         <v>0.5</v>
       </c>
       <c r="AZ10" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="BA10" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="BC10" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="BD10" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="BE10">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>291</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.271</v>
-      </c>
-      <c r="M11">
-        <v>0.35</v>
-      </c>
-      <c r="N11">
-        <v>0.192</v>
-      </c>
-      <c r="O11">
-        <v>0.35</v>
-      </c>
-      <c r="P11">
-        <v>0.464</v>
-      </c>
-      <c r="Q11">
-        <v>0.8139999999999999</v>
-      </c>
-      <c r="R11">
-        <v>13.3</v>
-      </c>
-      <c r="S11">
-        <v>10.6</v>
-      </c>
-      <c r="T11">
-        <v>38</v>
-      </c>
-      <c r="U11">
-        <v>43.2</v>
-      </c>
-      <c r="V11">
-        <v>36.8</v>
-      </c>
-      <c r="W11" t="s">
-        <v>85</v>
-      </c>
-      <c r="X11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC11">
-        <v>266</v>
-      </c>
-      <c r="AD11">
-        <v>9</v>
-      </c>
-      <c r="AE11">
-        <v>0.279</v>
-      </c>
-      <c r="AF11">
-        <v>0.336</v>
-      </c>
-      <c r="AG11">
-        <v>3.4</v>
-      </c>
-      <c r="AH11">
-        <v>0.183</v>
-      </c>
-      <c r="AI11">
-        <v>0.462</v>
-      </c>
-      <c r="AJ11">
-        <v>19.5</v>
-      </c>
-      <c r="AK11">
-        <v>5.3</v>
-      </c>
-      <c r="AL11">
-        <v>4.03</v>
-      </c>
-      <c r="AM11">
-        <v>30.8</v>
-      </c>
-      <c r="AN11">
-        <v>43.9</v>
-      </c>
-      <c r="AO11">
-        <v>10.3</v>
-      </c>
-      <c r="AP11">
-        <v>30.5</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>1</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>1</v>
-      </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX11">
-        <v>-260</v>
-      </c>
-      <c r="AY11">
-        <v>0.5</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>91</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE11">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>161</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0.273</v>
-      </c>
-      <c r="M12">
-        <v>0.311</v>
-      </c>
-      <c r="N12">
-        <v>0.137</v>
-      </c>
-      <c r="O12">
-        <v>0.308</v>
-      </c>
-      <c r="P12">
-        <v>0.41</v>
-      </c>
-      <c r="Q12">
-        <v>0.718</v>
-      </c>
-      <c r="R12">
-        <v>20.9</v>
-      </c>
-      <c r="S12">
-        <v>5.2</v>
-      </c>
-      <c r="T12">
-        <v>44.3</v>
-      </c>
-      <c r="U12">
-        <v>37.7</v>
-      </c>
-      <c r="V12">
-        <v>22.8</v>
-      </c>
-      <c r="W12" t="s">
-        <v>86</v>
-      </c>
-      <c r="X12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC12">
-        <v>285</v>
-      </c>
-      <c r="AD12">
-        <v>10</v>
-      </c>
-      <c r="AE12">
-        <v>0.289</v>
-      </c>
-      <c r="AF12">
-        <v>0.338</v>
-      </c>
-      <c r="AG12">
-        <v>3.5</v>
-      </c>
-      <c r="AH12">
-        <v>0.181</v>
-      </c>
-      <c r="AI12">
-        <v>0.47</v>
-      </c>
-      <c r="AJ12">
-        <v>14.4</v>
-      </c>
-      <c r="AK12">
-        <v>3.5</v>
-      </c>
-      <c r="AL12">
-        <v>4.43</v>
-      </c>
-      <c r="AM12">
-        <v>45.5</v>
-      </c>
-      <c r="AN12">
-        <v>35.1</v>
-      </c>
-      <c r="AO12">
-        <v>12.3</v>
-      </c>
-      <c r="AP12">
-        <v>29.4</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX12">
-        <v>-235</v>
-      </c>
-      <c r="AY12">
-        <v>0.5</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>99</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE12">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:57">
-      <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>209</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>0.282</v>
-      </c>
-      <c r="M13">
-        <v>0.318</v>
-      </c>
-      <c r="N13">
-        <v>0.105</v>
-      </c>
-      <c r="O13">
-        <v>0.336</v>
-      </c>
-      <c r="P13">
-        <v>0.388</v>
-      </c>
-      <c r="Q13">
-        <v>0.724</v>
-      </c>
-      <c r="R13">
-        <v>21</v>
-      </c>
-      <c r="S13">
-        <v>7</v>
-      </c>
-      <c r="T13">
-        <v>45.4</v>
-      </c>
-      <c r="U13">
-        <v>31.3</v>
-      </c>
-      <c r="V13">
-        <v>22.1</v>
-      </c>
-      <c r="W13" t="s">
-        <v>87</v>
-      </c>
-      <c r="X13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC13">
-        <v>233</v>
-      </c>
-      <c r="AD13">
-        <v>10</v>
-      </c>
-      <c r="AE13">
-        <v>0.271</v>
-      </c>
-      <c r="AF13">
-        <v>0.358</v>
-      </c>
-      <c r="AG13">
-        <v>4.3</v>
-      </c>
-      <c r="AH13">
-        <v>0.215</v>
-      </c>
-      <c r="AI13">
-        <v>0.486</v>
-      </c>
-      <c r="AJ13">
-        <v>26.6</v>
-      </c>
-      <c r="AK13">
-        <v>8.6</v>
-      </c>
-      <c r="AL13">
-        <v>4.66</v>
-      </c>
-      <c r="AM13">
-        <v>30.4</v>
-      </c>
-      <c r="AN13">
-        <v>43.9</v>
-      </c>
-      <c r="AO13">
-        <v>15.4</v>
-      </c>
-      <c r="AP13">
-        <v>35.1</v>
-      </c>
-      <c r="AQ13">
-        <v>1</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>1</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX13">
-        <v>-200</v>
-      </c>
-      <c r="AY13">
-        <v>0.5</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>99</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE13">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:57">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>285</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="J14">
-        <v>37</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>0.298</v>
-      </c>
-      <c r="M14">
-        <v>0.402</v>
-      </c>
-      <c r="N14">
-        <v>0.277</v>
-      </c>
-      <c r="O14">
-        <v>0.375</v>
-      </c>
-      <c r="P14">
-        <v>0.575</v>
-      </c>
-      <c r="Q14">
-        <v>0.95</v>
-      </c>
-      <c r="R14">
-        <v>30.9</v>
-      </c>
-      <c r="S14">
-        <v>10.3</v>
-      </c>
-      <c r="T14">
-        <v>44.1</v>
-      </c>
-      <c r="U14">
-        <v>34.4</v>
-      </c>
-      <c r="V14">
-        <v>43.5</v>
-      </c>
-      <c r="W14" t="s">
-        <v>87</v>
-      </c>
-      <c r="X14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC14">
-        <v>233</v>
-      </c>
-      <c r="AD14">
-        <v>10</v>
-      </c>
-      <c r="AE14">
-        <v>0.271</v>
-      </c>
-      <c r="AF14">
-        <v>0.358</v>
-      </c>
-      <c r="AG14">
-        <v>4.3</v>
-      </c>
-      <c r="AH14">
-        <v>0.215</v>
-      </c>
-      <c r="AI14">
-        <v>0.486</v>
-      </c>
-      <c r="AJ14">
-        <v>26.6</v>
-      </c>
-      <c r="AK14">
-        <v>8.6</v>
-      </c>
-      <c r="AL14">
-        <v>4.66</v>
-      </c>
-      <c r="AM14">
-        <v>30.4</v>
-      </c>
-      <c r="AN14">
-        <v>43.9</v>
-      </c>
-      <c r="AO14">
-        <v>15.4</v>
-      </c>
-      <c r="AP14">
-        <v>35.1</v>
-      </c>
-      <c r="AQ14">
-        <v>1</v>
-      </c>
-      <c r="AR14">
-        <v>1</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>1</v>
-      </c>
-      <c r="AU14">
-        <v>1</v>
-      </c>
-      <c r="AV14">
-        <v>1</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX14">
-        <v>-215</v>
-      </c>
-      <c r="AY14">
-        <v>0.5</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>99</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE14">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3496,7 +3702,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE3"/>
+  <dimension ref="A1:BE5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3677,306 +3883,306 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>297</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.316</v>
+      </c>
+      <c r="M2">
+        <v>0.371</v>
+      </c>
+      <c r="N2">
+        <v>0.209</v>
+      </c>
+      <c r="O2">
+        <v>0.35</v>
+      </c>
+      <c r="P2">
+        <v>0.525</v>
+      </c>
+      <c r="Q2">
+        <v>0.875</v>
+      </c>
+      <c r="R2">
+        <v>19.7</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>33.5</v>
+      </c>
+      <c r="U2">
+        <v>40.7</v>
+      </c>
+      <c r="V2">
+        <v>35.8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3</v>
-      </c>
-      <c r="M2">
-        <v>0.385</v>
-      </c>
-      <c r="N2">
-        <v>0.183</v>
-      </c>
-      <c r="O2">
-        <v>0.4</v>
-      </c>
-      <c r="P2">
-        <v>0.483</v>
-      </c>
-      <c r="Q2">
-        <v>0.883</v>
-      </c>
-      <c r="R2">
-        <v>25.7</v>
-      </c>
-      <c r="S2">
+      <c r="AC2">
+        <v>259</v>
+      </c>
+      <c r="AD2">
+        <v>8</v>
+      </c>
+      <c r="AE2">
+        <v>0.249</v>
+      </c>
+      <c r="AF2">
+        <v>0.342</v>
+      </c>
+      <c r="AG2">
+        <v>3.1</v>
+      </c>
+      <c r="AH2">
+        <v>0.195</v>
+      </c>
+      <c r="AI2">
+        <v>0.444</v>
+      </c>
+      <c r="AJ2">
+        <v>17.4</v>
+      </c>
+      <c r="AK2">
+        <v>12</v>
+      </c>
+      <c r="AL2">
+        <v>4.97</v>
+      </c>
+      <c r="AM2">
+        <v>44.2</v>
+      </c>
+      <c r="AN2">
+        <v>30.9</v>
+      </c>
+      <c r="AO2">
         <v>14.3</v>
       </c>
-      <c r="T2">
-        <v>52.5</v>
-      </c>
-      <c r="U2">
-        <v>22.5</v>
-      </c>
-      <c r="V2">
-        <v>28.6</v>
-      </c>
-      <c r="W2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC2">
-        <v>128</v>
-      </c>
-      <c r="AD2">
-        <v>5</v>
-      </c>
-      <c r="AE2">
-        <v>0.289</v>
-      </c>
-      <c r="AF2">
-        <v>0.357</v>
-      </c>
-      <c r="AG2">
-        <v>3.9</v>
-      </c>
-      <c r="AH2">
-        <v>0.215</v>
-      </c>
-      <c r="AI2">
-        <v>0.504</v>
-      </c>
-      <c r="AJ2">
-        <v>19.5</v>
-      </c>
-      <c r="AK2">
-        <v>4.7</v>
-      </c>
-      <c r="AL2">
-        <v>4.4</v>
-      </c>
-      <c r="AM2">
-        <v>27.4</v>
-      </c>
-      <c r="AN2">
-        <v>48.4</v>
-      </c>
-      <c r="AO2">
-        <v>10.9</v>
-      </c>
       <c r="AP2">
-        <v>30.2</v>
+        <v>39.6</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="AX2">
-        <v>-210</v>
+        <v>-240</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="BA2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="BC2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="BD2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="BE2">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>156</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.333</v>
+      </c>
+      <c r="M3">
+        <v>0.433</v>
+      </c>
+      <c r="N3">
+        <v>0.218</v>
+      </c>
+      <c r="O3">
+        <v>0.45</v>
+      </c>
+      <c r="P3">
+        <v>0.551</v>
+      </c>
+      <c r="Q3">
+        <v>1.001</v>
+      </c>
+      <c r="R3">
+        <v>27.5</v>
+      </c>
+      <c r="S3">
+        <v>16.9</v>
+      </c>
+      <c r="T3">
+        <v>46.2</v>
+      </c>
+      <c r="U3">
+        <v>33.7</v>
+      </c>
+      <c r="V3">
+        <v>44.2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>104</v>
+      </c>
+      <c r="X3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y3" t="s">
         <v>77</v>
       </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>31</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="Z3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC3">
+        <v>114</v>
+      </c>
+      <c r="AD3">
         <v>2</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.387</v>
-      </c>
-      <c r="M3">
-        <v>0.446</v>
-      </c>
-      <c r="N3">
-        <v>0.129</v>
-      </c>
-      <c r="O3">
-        <v>0.5</v>
-      </c>
-      <c r="P3">
-        <v>0.516</v>
-      </c>
-      <c r="Q3">
-        <v>1.016</v>
-      </c>
-      <c r="R3">
-        <v>10.5</v>
-      </c>
-      <c r="S3">
-        <v>15.8</v>
-      </c>
-      <c r="T3">
-        <v>48.1</v>
-      </c>
-      <c r="U3">
-        <v>37</v>
-      </c>
-      <c r="V3">
-        <v>29.6</v>
-      </c>
-      <c r="W3" t="s">
-        <v>82</v>
-      </c>
-      <c r="X3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3">
-        <v>183</v>
-      </c>
-      <c r="AD3">
-        <v>4</v>
-      </c>
       <c r="AE3">
-        <v>0.275</v>
+        <v>0.27</v>
       </c>
       <c r="AF3">
-        <v>0.353</v>
+        <v>0.334</v>
       </c>
       <c r="AG3">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AH3">
-        <v>0.143</v>
+        <v>0.15</v>
       </c>
       <c r="AI3">
-        <v>0.418</v>
+        <v>0.42</v>
       </c>
       <c r="AJ3">
-        <v>21.9</v>
+        <v>19.3</v>
       </c>
       <c r="AK3">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="AL3">
-        <v>4.49</v>
+        <v>3.99</v>
       </c>
       <c r="AM3">
-        <v>60</v>
+        <v>55.7</v>
       </c>
       <c r="AN3">
-        <v>21.7</v>
+        <v>22.8</v>
       </c>
       <c r="AO3">
-        <v>16</v>
+        <v>11.1</v>
       </c>
       <c r="AP3">
-        <v>29.6</v>
+        <v>31.6</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>1</v>
@@ -3985,40 +4191,386 @@
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="AX3">
-        <v>-155</v>
+        <v>-225</v>
       </c>
       <c r="AY3">
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="BA3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD3" t="s">
         <v>98</v>
       </c>
-      <c r="BB3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC3" t="s">
+      <c r="BE3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
         <v>68</v>
       </c>
-      <c r="BD3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE3">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>307</v>
+      </c>
+      <c r="I4">
+        <v>29</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0.303</v>
+      </c>
+      <c r="M4">
+        <v>0.444</v>
+      </c>
+      <c r="N4">
+        <v>0.378</v>
+      </c>
+      <c r="O4">
+        <v>0.404</v>
+      </c>
+      <c r="P4">
+        <v>0.681</v>
+      </c>
+      <c r="Q4">
+        <v>1.085</v>
+      </c>
+      <c r="R4">
+        <v>22.1</v>
+      </c>
+      <c r="S4">
+        <v>13.9</v>
+      </c>
+      <c r="T4">
+        <v>35.8</v>
+      </c>
+      <c r="U4">
+        <v>42.8</v>
+      </c>
+      <c r="V4">
+        <v>46.7</v>
+      </c>
+      <c r="W4" t="s">
+        <v>105</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC4">
+        <v>258</v>
+      </c>
+      <c r="AD4">
+        <v>8</v>
+      </c>
+      <c r="AE4">
+        <v>0.282</v>
+      </c>
+      <c r="AF4">
+        <v>0.343</v>
+      </c>
+      <c r="AG4">
+        <v>3.1</v>
+      </c>
+      <c r="AH4">
+        <v>0.216</v>
+      </c>
+      <c r="AI4">
+        <v>0.498</v>
+      </c>
+      <c r="AJ4">
+        <v>17.4</v>
+      </c>
+      <c r="AK4">
+        <v>4.7</v>
+      </c>
+      <c r="AL4">
+        <v>4.02</v>
+      </c>
+      <c r="AM4">
+        <v>36.4</v>
+      </c>
+      <c r="AN4">
+        <v>39.9</v>
+      </c>
+      <c r="AO4">
+        <v>10.1</v>
+      </c>
+      <c r="AP4">
+        <v>37</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX4">
+        <v>-285</v>
+      </c>
+      <c r="AY4">
+        <v>0.5</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="s">
         <v>110</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>277</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.314</v>
+      </c>
+      <c r="M5">
+        <v>0.4</v>
+      </c>
+      <c r="N5">
+        <v>0.213</v>
+      </c>
+      <c r="O5">
+        <v>0.415</v>
+      </c>
+      <c r="P5">
+        <v>0.527</v>
+      </c>
+      <c r="Q5">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="R5">
+        <v>15.5</v>
+      </c>
+      <c r="S5">
+        <v>13.9</v>
+      </c>
+      <c r="T5">
+        <v>37.1</v>
+      </c>
+      <c r="U5">
+        <v>37.6</v>
+      </c>
+      <c r="V5">
+        <v>34.1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>105</v>
+      </c>
+      <c r="X5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC5">
+        <v>258</v>
+      </c>
+      <c r="AD5">
+        <v>8</v>
+      </c>
+      <c r="AE5">
+        <v>0.282</v>
+      </c>
+      <c r="AF5">
+        <v>0.343</v>
+      </c>
+      <c r="AG5">
+        <v>3.1</v>
+      </c>
+      <c r="AH5">
+        <v>0.216</v>
+      </c>
+      <c r="AI5">
+        <v>0.498</v>
+      </c>
+      <c r="AJ5">
+        <v>17.4</v>
+      </c>
+      <c r="AK5">
+        <v>4.7</v>
+      </c>
+      <c r="AL5">
+        <v>4.02</v>
+      </c>
+      <c r="AM5">
+        <v>36.4</v>
+      </c>
+      <c r="AN5">
+        <v>39.9</v>
+      </c>
+      <c r="AO5">
+        <v>10.1</v>
+      </c>
+      <c r="AP5">
+        <v>37</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX5">
+        <v>-255</v>
+      </c>
+      <c r="AY5">
+        <v>0.5</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE5">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="138">
   <si>
     <t>fg_name</t>
   </si>
@@ -199,103 +199,238 @@
     <t>R</t>
   </si>
   <si>
+    <t>vs R</t>
+  </si>
+  <si>
+    <t>Casey Kelly</t>
+  </si>
+  <si>
+    <t>Cincinnati Reds</t>
+  </si>
+  <si>
+    <t>RHP</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>draftkings</t>
+  </si>
+  <si>
+    <t>2024-08-28T22:41:00Z</t>
+  </si>
+  <si>
+    <t>David Hensley</t>
+  </si>
+  <si>
+    <t>Starling Marte</t>
+  </si>
+  <si>
+    <t>Mark Vientos</t>
+  </si>
+  <si>
+    <t>Miami Marlins</t>
+  </si>
+  <si>
+    <t>New York Mets</t>
+  </si>
+  <si>
     <t>vs L</t>
   </si>
   <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
-    <t>Tampa Bay Rays</t>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>E. Rodriguez</t>
+  </si>
+  <si>
+    <t>Colorado Rockies</t>
+  </si>
+  <si>
+    <t>Arizona Diamondbacks</t>
   </si>
   <si>
     <t>LHP</t>
   </si>
   <si>
-    <t>vs R</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>draftkings</t>
-  </si>
-  <si>
-    <t>2024-08-22T19:38:00Z</t>
-  </si>
-  <si>
-    <t>Seiya Suzuki</t>
-  </si>
-  <si>
-    <t>Brent Rooker</t>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>2024-08-29T00:41:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-29T01:41:00Z</t>
   </si>
   <si>
     <t>Marcell Ozuna</t>
   </si>
   <si>
+    <t>Spencer Horwitz</t>
+  </si>
+  <si>
+    <t>Will Wagner</t>
+  </si>
+  <si>
+    <t>Ryan Ohearn</t>
+  </si>
+  <si>
+    <t>Juan Soto</t>
+  </si>
+  <si>
+    <t>Oneil Cruz</t>
+  </si>
+  <si>
+    <t>Masataka Yoshida</t>
+  </si>
+  <si>
+    <t>Triston Casas</t>
+  </si>
+  <si>
+    <t>Wilyer Abreu</t>
+  </si>
+  <si>
+    <t>Nolan Arenado</t>
+  </si>
+  <si>
+    <t>Riley Greene</t>
+  </si>
+  <si>
+    <t>Kerry Carpenter</t>
+  </si>
+  <si>
+    <t>Atlanta Braves</t>
+  </si>
+  <si>
+    <t>Toronto Blue Jays</t>
+  </si>
+  <si>
+    <t>Baltimore Orioles</t>
+  </si>
+  <si>
+    <t>New York Yankees</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates</t>
+  </si>
+  <si>
+    <t>Boston Red Sox</t>
+  </si>
+  <si>
+    <t>St. Louis Cardinals</t>
+  </si>
+  <si>
+    <t>Detroit Tigers</t>
+  </si>
+  <si>
+    <t>Ryan O Hearn</t>
+  </si>
+  <si>
+    <t>Ryan O'Hearn</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>David Festa</t>
+  </si>
+  <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Joe Musgrove</t>
+  </si>
+  <si>
+    <t>Griffin Canning</t>
+  </si>
+  <si>
+    <t>Minnesota Twins</t>
+  </si>
+  <si>
+    <t>Los Angeles Dodgers</t>
+  </si>
+  <si>
+    <t>Washington Nationals</t>
+  </si>
+  <si>
     <t>Chicago Cubs</t>
   </si>
   <si>
-    <t>Atlanta Braves</t>
-  </si>
-  <si>
-    <t>Kenta Maeda</t>
-  </si>
-  <si>
-    <t>C. Sanchez</t>
-  </si>
-  <si>
-    <t>Detroit Tigers</t>
-  </si>
-  <si>
-    <t>Philadelphia Phillies</t>
-  </si>
-  <si>
-    <t>RHP</t>
-  </si>
-  <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
-    <t>2024-08-22T18:21:00Z</t>
-  </si>
-  <si>
-    <t>2024-08-22T23:16:00Z</t>
-  </si>
-  <si>
-    <t>Jackson Merrill</t>
-  </si>
-  <si>
-    <t>Anthony Rendon</t>
-  </si>
-  <si>
-    <t>Zach Neto</t>
-  </si>
-  <si>
     <t>San Diego Padres</t>
   </si>
   <si>
     <t>Los Angeles Angels</t>
   </si>
   <si>
-    <t>L</t>
+    <t>2024-08-28T23:40:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-28T23:10:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-29T02:10:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-28T22:45:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-28T16:35:00Z</t>
+  </si>
+  <si>
+    <t>2024-08-28T23:45:00Z</t>
+  </si>
+  <si>
+    <t>William Contreras</t>
+  </si>
+  <si>
+    <t>Juan Yepez</t>
+  </si>
+  <si>
+    <t>Dylan Crews</t>
+  </si>
+  <si>
+    <t>Adrian Del Castillo</t>
+  </si>
+  <si>
+    <t>Mason McCoy</t>
+  </si>
+  <si>
+    <t>Alec Burleson</t>
+  </si>
+  <si>
+    <t>Milwaukee Brewers</t>
+  </si>
+  <si>
+    <t>Kyle Harrison</t>
+  </si>
+  <si>
+    <t>Carlos Rodon</t>
   </si>
   <si>
     <t>Luis Severino</t>
   </si>
   <si>
-    <t>Ryan Yarbrough</t>
-  </si>
-  <si>
-    <t>New York Mets</t>
-  </si>
-  <si>
-    <t>Toronto Blue Jays</t>
-  </si>
-  <si>
-    <t>2024-08-23T01:41:00Z</t>
-  </si>
-  <si>
-    <t>2024-08-22T23:08:00Z</t>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>San Francisco Giants</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>2024-08-29T00:10:00Z</t>
   </si>
 </sst>
 </file>
@@ -653,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE1"/>
+  <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -830,6 +965,179 @@
       </c>
       <c r="BE1" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>246</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.256</v>
+      </c>
+      <c r="M2">
+        <v>0.276</v>
+      </c>
+      <c r="N2">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.287</v>
+      </c>
+      <c r="P2">
+        <v>0.341</v>
+      </c>
+      <c r="Q2">
+        <v>0.628</v>
+      </c>
+      <c r="R2">
+        <v>14</v>
+      </c>
+      <c r="S2">
+        <v>3.1</v>
+      </c>
+      <c r="T2">
+        <v>50.7</v>
+      </c>
+      <c r="U2">
+        <v>32.2</v>
+      </c>
+      <c r="V2">
+        <v>21.3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC2">
+        <v>4</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>25</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1.67</v>
+      </c>
+      <c r="AM2">
+        <v>33.3</v>
+      </c>
+      <c r="AN2">
+        <v>66.7</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX2">
+        <v>165</v>
+      </c>
+      <c r="AY2">
+        <v>1.5</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE2">
+        <v>-235</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +1147,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1020,133 +1328,133 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.316</v>
+      </c>
+      <c r="M2">
+        <v>0.39</v>
+      </c>
+      <c r="N2">
+        <v>0.211</v>
+      </c>
+      <c r="O2">
+        <v>0.381</v>
+      </c>
+      <c r="P2">
+        <v>0.526</v>
+      </c>
+      <c r="Q2">
+        <v>0.907</v>
+      </c>
+      <c r="R2">
+        <v>23.8</v>
+      </c>
+      <c r="S2">
+        <v>9.5</v>
+      </c>
+      <c r="T2">
+        <v>53.8</v>
+      </c>
+      <c r="U2">
+        <v>23.1</v>
+      </c>
+      <c r="V2">
+        <v>28.6</v>
+      </c>
+      <c r="W2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
         <v>60</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>53</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.415</v>
-      </c>
-      <c r="M2">
-        <v>0.439</v>
-      </c>
-      <c r="N2">
-        <v>0.132</v>
-      </c>
-      <c r="O2">
-        <v>0.466</v>
-      </c>
-      <c r="P2">
-        <v>0.547</v>
-      </c>
-      <c r="Q2">
-        <v>1.013</v>
-      </c>
-      <c r="R2">
-        <v>10.3</v>
-      </c>
-      <c r="S2">
-        <v>8.6</v>
-      </c>
-      <c r="T2">
-        <v>48.9</v>
-      </c>
-      <c r="U2">
-        <v>29.8</v>
-      </c>
-      <c r="V2">
-        <v>17</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>64</v>
-      </c>
       <c r="AC2">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="AD2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AE2">
-        <v>0.327</v>
+        <v>0.304</v>
       </c>
       <c r="AF2">
-        <v>0.404</v>
+        <v>0.369</v>
       </c>
       <c r="AG2">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="AH2">
         <v>0.218</v>
       </c>
       <c r="AI2">
-        <v>0.545</v>
+        <v>0.522</v>
       </c>
       <c r="AJ2">
-        <v>24.6</v>
+        <v>17.5</v>
       </c>
       <c r="AK2">
-        <v>8.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="AL2">
-        <v>5.29</v>
+        <v>4.93</v>
       </c>
       <c r="AM2">
-        <v>33.3</v>
+        <v>40</v>
       </c>
       <c r="AN2">
-        <v>43.6</v>
+        <v>38.2</v>
       </c>
       <c r="AO2">
-        <v>17.6</v>
+        <v>15.1</v>
       </c>
       <c r="AP2">
-        <v>27.5</v>
+        <v>34.4</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>1</v>
@@ -1155,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>1</v>
@@ -1164,31 +1472,377 @@
         <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AX2">
-        <v>-265</v>
+        <v>-250</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA2" t="s">
         <v>65</v>
       </c>
-      <c r="BA2" t="s">
-        <v>66</v>
-      </c>
       <c r="BB2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="BC2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="BD2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="BE2">
-        <v>185</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>78</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.321</v>
+      </c>
+      <c r="M3">
+        <v>0.374</v>
+      </c>
+      <c r="N3">
+        <v>0.167</v>
+      </c>
+      <c r="O3">
+        <v>0.376</v>
+      </c>
+      <c r="P3">
+        <v>0.487</v>
+      </c>
+      <c r="Q3">
+        <v>0.864</v>
+      </c>
+      <c r="R3">
+        <v>22.1</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>36.2</v>
+      </c>
+      <c r="U3">
+        <v>20.7</v>
+      </c>
+      <c r="V3">
+        <v>33.3</v>
+      </c>
+      <c r="W3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3">
+        <v>55</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>0.314</v>
+      </c>
+      <c r="AF3">
+        <v>0.383</v>
+      </c>
+      <c r="AG3">
+        <v>3.6</v>
+      </c>
+      <c r="AH3">
+        <v>0.255</v>
+      </c>
+      <c r="AI3">
+        <v>0.569</v>
+      </c>
+      <c r="AJ3">
+        <v>14.5</v>
+      </c>
+      <c r="AK3">
+        <v>5.5</v>
+      </c>
+      <c r="AL3">
+        <v>4.75</v>
+      </c>
+      <c r="AM3">
+        <v>36.4</v>
+      </c>
+      <c r="AN3">
+        <v>36.4</v>
+      </c>
+      <c r="AO3">
+        <v>12.5</v>
+      </c>
+      <c r="AP3">
+        <v>25</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX3">
+        <v>-220</v>
+      </c>
+      <c r="AY3">
+        <v>0.5</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>98</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.347</v>
+      </c>
+      <c r="M4">
+        <v>0.431</v>
+      </c>
+      <c r="N4">
+        <v>0.286</v>
+      </c>
+      <c r="O4">
+        <v>0.385</v>
+      </c>
+      <c r="P4">
+        <v>0.633</v>
+      </c>
+      <c r="Q4">
+        <v>1.017</v>
+      </c>
+      <c r="R4">
+        <v>26</v>
+      </c>
+      <c r="S4">
+        <v>5.8</v>
+      </c>
+      <c r="T4">
+        <v>46.5</v>
+      </c>
+      <c r="U4">
+        <v>36.6</v>
+      </c>
+      <c r="V4">
+        <v>40.8</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC4">
+        <v>55</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>0.314</v>
+      </c>
+      <c r="AF4">
+        <v>0.383</v>
+      </c>
+      <c r="AG4">
+        <v>3.6</v>
+      </c>
+      <c r="AH4">
+        <v>0.255</v>
+      </c>
+      <c r="AI4">
+        <v>0.569</v>
+      </c>
+      <c r="AJ4">
+        <v>14.5</v>
+      </c>
+      <c r="AK4">
+        <v>5.5</v>
+      </c>
+      <c r="AL4">
+        <v>4.75</v>
+      </c>
+      <c r="AM4">
+        <v>36.4</v>
+      </c>
+      <c r="AN4">
+        <v>36.4</v>
+      </c>
+      <c r="AO4">
+        <v>12.5</v>
+      </c>
+      <c r="AP4">
+        <v>25</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX4">
+        <v>-260</v>
+      </c>
+      <c r="AY4">
+        <v>0.5</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE4">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1852,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE5"/>
+  <dimension ref="A1:BE16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1379,70 +2033,70 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>296</v>
+        <v>19</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.27</v>
+        <v>0.316</v>
       </c>
       <c r="M2">
-        <v>0.349</v>
+        <v>0.39</v>
       </c>
       <c r="N2">
-        <v>0.209</v>
+        <v>0.211</v>
       </c>
       <c r="O2">
-        <v>0.335</v>
+        <v>0.381</v>
       </c>
       <c r="P2">
-        <v>0.48</v>
+        <v>0.526</v>
       </c>
       <c r="Q2">
-        <v>0.8149999999999999</v>
+        <v>0.907</v>
       </c>
       <c r="R2">
-        <v>29.9</v>
+        <v>23.8</v>
       </c>
       <c r="S2">
-        <v>7.9</v>
+        <v>9.5</v>
       </c>
       <c r="T2">
-        <v>32.8</v>
+        <v>53.8</v>
       </c>
       <c r="U2">
-        <v>48.3</v>
+        <v>23.1</v>
       </c>
       <c r="V2">
-        <v>38.3</v>
+        <v>28.6</v>
       </c>
       <c r="W2" t="s">
         <v>73</v>
@@ -1454,64 +2108,64 @@
         <v>77</v>
       </c>
       <c r="Z2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="s">
         <v>73</v>
       </c>
       <c r="AB2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AC2">
-        <v>196</v>
+        <v>297</v>
       </c>
       <c r="AD2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE2">
-        <v>0.286</v>
+        <v>0.304</v>
       </c>
       <c r="AF2">
-        <v>0.365</v>
+        <v>0.369</v>
       </c>
       <c r="AG2">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="AH2">
-        <v>0.244</v>
+        <v>0.218</v>
       </c>
       <c r="AI2">
-        <v>0.53</v>
+        <v>0.522</v>
       </c>
       <c r="AJ2">
-        <v>16.3</v>
+        <v>17.5</v>
       </c>
       <c r="AK2">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="AL2">
-        <v>5.6</v>
+        <v>4.93</v>
       </c>
       <c r="AM2">
-        <v>37.9</v>
+        <v>40</v>
       </c>
       <c r="AN2">
-        <v>43.8</v>
+        <v>38.2</v>
       </c>
       <c r="AO2">
-        <v>16.4</v>
+        <v>15.1</v>
       </c>
       <c r="AP2">
-        <v>30.1</v>
+        <v>34.4</v>
       </c>
       <c r="AQ2">
         <v>1</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -1520,171 +2174,171 @@
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AX2">
-        <v>-245</v>
+        <v>-250</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA2" t="s">
         <v>65</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>66</v>
       </c>
       <c r="BB2" t="s">
         <v>79</v>
       </c>
       <c r="BC2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="BD2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BE2">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
         <v>59</v>
       </c>
       <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>78</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.321</v>
+      </c>
+      <c r="M3">
+        <v>0.374</v>
+      </c>
+      <c r="N3">
+        <v>0.167</v>
+      </c>
+      <c r="O3">
+        <v>0.376</v>
+      </c>
+      <c r="P3">
+        <v>0.487</v>
+      </c>
+      <c r="Q3">
+        <v>0.864</v>
+      </c>
+      <c r="R3">
+        <v>22.1</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>36.2</v>
+      </c>
+      <c r="U3">
+        <v>20.7</v>
+      </c>
+      <c r="V3">
+        <v>33.3</v>
+      </c>
+      <c r="W3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" t="s">
         <v>60</v>
       </c>
-      <c r="G3">
+      <c r="AC3">
+        <v>55</v>
+      </c>
+      <c r="AD3">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>53</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.415</v>
-      </c>
-      <c r="M3">
-        <v>0.439</v>
-      </c>
-      <c r="N3">
-        <v>0.132</v>
-      </c>
-      <c r="O3">
-        <v>0.466</v>
-      </c>
-      <c r="P3">
-        <v>0.547</v>
-      </c>
-      <c r="Q3">
-        <v>1.013</v>
-      </c>
-      <c r="R3">
-        <v>10.3</v>
-      </c>
-      <c r="S3">
-        <v>8.6</v>
-      </c>
-      <c r="T3">
-        <v>48.9</v>
-      </c>
-      <c r="U3">
-        <v>29.8</v>
-      </c>
-      <c r="V3">
-        <v>17</v>
-      </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC3">
-        <v>61</v>
-      </c>
-      <c r="AD3">
-        <v>3</v>
-      </c>
       <c r="AE3">
-        <v>0.327</v>
+        <v>0.314</v>
       </c>
       <c r="AF3">
-        <v>0.404</v>
+        <v>0.383</v>
       </c>
       <c r="AG3">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="AH3">
-        <v>0.218</v>
+        <v>0.255</v>
       </c>
       <c r="AI3">
-        <v>0.545</v>
+        <v>0.569</v>
       </c>
       <c r="AJ3">
-        <v>24.6</v>
+        <v>14.5</v>
       </c>
       <c r="AK3">
-        <v>8.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="AL3">
-        <v>5.29</v>
+        <v>4.75</v>
       </c>
       <c r="AM3">
-        <v>33.3</v>
+        <v>36.4</v>
       </c>
       <c r="AN3">
-        <v>43.6</v>
+        <v>36.4</v>
       </c>
       <c r="AO3">
-        <v>17.6</v>
+        <v>12.5</v>
       </c>
       <c r="AP3">
-        <v>27.5</v>
+        <v>25</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1696,31 +2350,31 @@
         <v>0</v>
       </c>
       <c r="AW3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AX3">
-        <v>-265</v>
+        <v>-220</v>
       </c>
       <c r="AY3">
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA3" t="s">
         <v>65</v>
       </c>
-      <c r="BA3" t="s">
-        <v>66</v>
-      </c>
       <c r="BB3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BC3" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="BD3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="BE3">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:57">
@@ -1728,7 +2382,7 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -1740,124 +2394,124 @@
         <v>59</v>
       </c>
       <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>98</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.347</v>
+      </c>
+      <c r="M4">
+        <v>0.431</v>
+      </c>
+      <c r="N4">
+        <v>0.286</v>
+      </c>
+      <c r="O4">
+        <v>0.385</v>
+      </c>
+      <c r="P4">
+        <v>0.633</v>
+      </c>
+      <c r="Q4">
+        <v>1.017</v>
+      </c>
+      <c r="R4">
+        <v>26</v>
+      </c>
+      <c r="S4">
+        <v>5.8</v>
+      </c>
+      <c r="T4">
+        <v>46.5</v>
+      </c>
+      <c r="U4">
+        <v>36.6</v>
+      </c>
+      <c r="V4">
+        <v>40.8</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" t="s">
         <v>60</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>81</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.296</v>
-      </c>
-      <c r="M4">
-        <v>0.429</v>
-      </c>
-      <c r="N4">
-        <v>0.395</v>
-      </c>
-      <c r="O4">
-        <v>0.359</v>
-      </c>
-      <c r="P4">
-        <v>0.6909999999999999</v>
-      </c>
-      <c r="Q4">
-        <v>1.05</v>
-      </c>
-      <c r="R4">
-        <v>28.3</v>
-      </c>
-      <c r="S4">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="T4">
-        <v>29.8</v>
-      </c>
-      <c r="U4">
-        <v>56.1</v>
-      </c>
-      <c r="V4">
-        <v>42.1</v>
-      </c>
-      <c r="W4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>64</v>
-      </c>
       <c r="AC4">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AD4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE4">
-        <v>0.327</v>
+        <v>0.314</v>
       </c>
       <c r="AF4">
-        <v>0.404</v>
+        <v>0.383</v>
       </c>
       <c r="AG4">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="AH4">
-        <v>0.218</v>
+        <v>0.255</v>
       </c>
       <c r="AI4">
-        <v>0.545</v>
+        <v>0.569</v>
       </c>
       <c r="AJ4">
-        <v>24.6</v>
+        <v>14.5</v>
       </c>
       <c r="AK4">
-        <v>8.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="AL4">
-        <v>5.29</v>
+        <v>4.75</v>
       </c>
       <c r="AM4">
-        <v>33.3</v>
+        <v>36.4</v>
       </c>
       <c r="AN4">
-        <v>43.6</v>
+        <v>36.4</v>
       </c>
       <c r="AO4">
-        <v>17.6</v>
+        <v>12.5</v>
       </c>
       <c r="AP4">
-        <v>27.5</v>
+        <v>25</v>
       </c>
       <c r="AQ4">
         <v>1</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1872,42 +2526,42 @@
         <v>69</v>
       </c>
       <c r="AX4">
-        <v>-195</v>
+        <v>-260</v>
       </c>
       <c r="AY4">
         <v>0.5</v>
       </c>
       <c r="AZ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA4" t="s">
         <v>65</v>
       </c>
-      <c r="BA4" t="s">
-        <v>66</v>
-      </c>
       <c r="BB4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BC4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="BD4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="BE4">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:57">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -1919,10 +2573,10 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>108</v>
+        <v>379</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1931,97 +2585,97 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.324</v>
+        <v>0.306</v>
       </c>
       <c r="M5">
-        <v>0.413</v>
+        <v>0.411</v>
       </c>
       <c r="N5">
-        <v>0.213</v>
+        <v>0.301</v>
       </c>
       <c r="O5">
-        <v>0.421</v>
+        <v>0.372</v>
       </c>
       <c r="P5">
-        <v>0.537</v>
+        <v>0.607</v>
       </c>
       <c r="Q5">
-        <v>0.958</v>
+        <v>0.979</v>
       </c>
       <c r="R5">
-        <v>28.6</v>
+        <v>23.5</v>
       </c>
       <c r="S5">
-        <v>14.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T5">
-        <v>36.1</v>
+        <v>38.2</v>
       </c>
       <c r="U5">
-        <v>36.1</v>
+        <v>39.9</v>
       </c>
       <c r="V5">
-        <v>34.7</v>
+        <v>42.4</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="Y5" t="s">
         <v>63</v>
       </c>
       <c r="Z5" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AA5" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AB5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AC5">
-        <v>456</v>
+        <v>67</v>
       </c>
       <c r="AD5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE5">
-        <v>0.27</v>
+        <v>0.286</v>
       </c>
       <c r="AF5">
-        <v>0.298</v>
+        <v>0.358</v>
       </c>
       <c r="AG5">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="AH5">
-        <v>0.089</v>
+        <v>0.222</v>
       </c>
       <c r="AI5">
-        <v>0.359</v>
+        <v>0.508</v>
       </c>
       <c r="AJ5">
-        <v>18.2</v>
+        <v>28.4</v>
       </c>
       <c r="AK5">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AL5">
-        <v>3.03</v>
+        <v>4.02</v>
       </c>
       <c r="AM5">
-        <v>56</v>
+        <v>27.9</v>
       </c>
       <c r="AN5">
-        <v>20.1</v>
+        <v>37.2</v>
       </c>
       <c r="AO5">
-        <v>7.2</v>
+        <v>18.8</v>
       </c>
       <c r="AP5">
-        <v>30.5</v>
+        <v>31.8</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2039,34 +2693,1937 @@
         <v>1</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AX5">
-        <v>-265</v>
+        <v>-255</v>
       </c>
       <c r="AY5">
         <v>0.5</v>
       </c>
       <c r="AZ5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA5" t="s">
         <v>65</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>187</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.283</v>
+      </c>
+      <c r="M6">
+        <v>0.37</v>
+      </c>
+      <c r="N6">
+        <v>0.193</v>
+      </c>
+      <c r="O6">
+        <v>0.382</v>
+      </c>
+      <c r="P6">
+        <v>0.476</v>
+      </c>
+      <c r="Q6">
+        <v>0.858</v>
+      </c>
+      <c r="R6">
+        <v>18.6</v>
+      </c>
+      <c r="S6">
+        <v>12.3</v>
+      </c>
+      <c r="T6">
+        <v>37.8</v>
+      </c>
+      <c r="U6">
+        <v>38.5</v>
+      </c>
+      <c r="V6">
+        <v>33.1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>105</v>
+      </c>
+      <c r="X6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6">
+        <v>296</v>
+      </c>
+      <c r="AD6">
+        <v>13</v>
+      </c>
+      <c r="AE6">
+        <v>0.273</v>
+      </c>
+      <c r="AF6">
+        <v>0.364</v>
+      </c>
+      <c r="AG6">
+        <v>4.4</v>
+      </c>
+      <c r="AH6">
+        <v>0.212</v>
+      </c>
+      <c r="AI6">
+        <v>0.485</v>
+      </c>
+      <c r="AJ6">
+        <v>17.6</v>
+      </c>
+      <c r="AK6">
+        <v>10.5</v>
+      </c>
+      <c r="AL6">
+        <v>5.76</v>
+      </c>
+      <c r="AM6">
+        <v>48.6</v>
+      </c>
+      <c r="AN6">
+        <v>34.6</v>
+      </c>
+      <c r="AO6">
+        <v>18.1</v>
+      </c>
+      <c r="AP6">
+        <v>29.2</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX6">
+        <v>-255</v>
+      </c>
+      <c r="AY6">
+        <v>0.5</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.375</v>
+      </c>
+      <c r="M7">
+        <v>0.406</v>
+      </c>
+      <c r="N7">
+        <v>0.156</v>
+      </c>
+      <c r="O7">
+        <v>0.412</v>
+      </c>
+      <c r="P7">
+        <v>0.531</v>
+      </c>
+      <c r="Q7">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="R7">
+        <v>14.7</v>
+      </c>
+      <c r="S7">
+        <v>5.9</v>
+      </c>
+      <c r="T7">
+        <v>55.6</v>
+      </c>
+      <c r="U7">
+        <v>14.8</v>
+      </c>
+      <c r="V7">
+        <v>40.7</v>
+      </c>
+      <c r="W7" t="s">
+        <v>105</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC7">
+        <v>296</v>
+      </c>
+      <c r="AD7">
+        <v>13</v>
+      </c>
+      <c r="AE7">
+        <v>0.273</v>
+      </c>
+      <c r="AF7">
+        <v>0.364</v>
+      </c>
+      <c r="AG7">
+        <v>4.4</v>
+      </c>
+      <c r="AH7">
+        <v>0.212</v>
+      </c>
+      <c r="AI7">
+        <v>0.485</v>
+      </c>
+      <c r="AJ7">
+        <v>17.6</v>
+      </c>
+      <c r="AK7">
+        <v>10.5</v>
+      </c>
+      <c r="AL7">
+        <v>5.76</v>
+      </c>
+      <c r="AM7">
+        <v>48.6</v>
+      </c>
+      <c r="AN7">
+        <v>34.6</v>
+      </c>
+      <c r="AO7">
+        <v>18.1</v>
+      </c>
+      <c r="AP7">
+        <v>29.2</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX7">
+        <v>-235</v>
+      </c>
+      <c r="AY7">
+        <v>0.5</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>324</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.272</v>
+      </c>
+      <c r="M8">
+        <v>0.346</v>
+      </c>
+      <c r="N8">
+        <v>0.182</v>
+      </c>
+      <c r="O8">
+        <v>0.349</v>
+      </c>
+      <c r="P8">
+        <v>0.454</v>
+      </c>
+      <c r="Q8">
+        <v>0.802</v>
+      </c>
+      <c r="R8">
+        <v>12.5</v>
+      </c>
+      <c r="S8">
+        <v>10.4</v>
+      </c>
+      <c r="T8">
+        <v>37.7</v>
+      </c>
+      <c r="U8">
+        <v>43.4</v>
+      </c>
+      <c r="V8">
+        <v>37</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC8">
+        <v>105</v>
+      </c>
+      <c r="AD8">
+        <v>5</v>
+      </c>
+      <c r="AE8">
+        <v>0.372</v>
+      </c>
+      <c r="AF8">
+        <v>0.45</v>
+      </c>
+      <c r="AG8">
+        <v>4.8</v>
+      </c>
+      <c r="AH8">
+        <v>0.266</v>
+      </c>
+      <c r="AI8">
+        <v>0.638</v>
+      </c>
+      <c r="AJ8">
+        <v>19</v>
+      </c>
+      <c r="AK8">
+        <v>7.6</v>
+      </c>
+      <c r="AL8">
+        <v>5.87</v>
+      </c>
+      <c r="AM8">
+        <v>45.3</v>
+      </c>
+      <c r="AN8">
+        <v>29.3</v>
+      </c>
+      <c r="AO8">
+        <v>22.7</v>
+      </c>
+      <c r="AP8">
+        <v>44</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX8">
+        <v>-245</v>
+      </c>
+      <c r="AY8">
+        <v>0.5</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>152</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.283</v>
+      </c>
+      <c r="M9">
+        <v>0.424</v>
+      </c>
+      <c r="N9">
+        <v>0.296</v>
+      </c>
+      <c r="O9">
+        <v>0.422</v>
+      </c>
+      <c r="P9">
+        <v>0.579</v>
+      </c>
+      <c r="Q9">
+        <v>1.001</v>
+      </c>
+      <c r="R9">
+        <v>12</v>
+      </c>
+      <c r="S9">
+        <v>19.3</v>
+      </c>
+      <c r="T9">
+        <v>42.2</v>
+      </c>
+      <c r="U9">
+        <v>36.7</v>
+      </c>
+      <c r="V9">
+        <v>44.3</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC9">
+        <v>143</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9">
+        <v>0.305</v>
+      </c>
+      <c r="AF9">
+        <v>0.373</v>
+      </c>
+      <c r="AG9">
+        <v>2.8</v>
+      </c>
+      <c r="AH9">
+        <v>0.179</v>
+      </c>
+      <c r="AI9">
+        <v>0.484</v>
+      </c>
+      <c r="AJ9">
+        <v>20.3</v>
+      </c>
+      <c r="AK9">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AL9">
+        <v>4.37</v>
+      </c>
+      <c r="AM9">
+        <v>38.1</v>
+      </c>
+      <c r="AN9">
+        <v>30.9</v>
+      </c>
+      <c r="AO9">
+        <v>13.3</v>
+      </c>
+      <c r="AP9">
+        <v>31.3</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX9">
+        <v>-240</v>
+      </c>
+      <c r="AY9">
+        <v>0.5</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>328</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.287</v>
+      </c>
+      <c r="M10">
+        <v>0.356</v>
+      </c>
+      <c r="N10">
+        <v>0.201</v>
+      </c>
+      <c r="O10">
+        <v>0.352</v>
+      </c>
+      <c r="P10">
+        <v>0.488</v>
+      </c>
+      <c r="Q10">
+        <v>0.839</v>
+      </c>
+      <c r="R10">
+        <v>31</v>
+      </c>
+      <c r="S10">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="T10">
+        <v>42.9</v>
+      </c>
+      <c r="U10">
+        <v>35.9</v>
+      </c>
+      <c r="V10">
+        <v>45.2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC10">
+        <v>218</v>
+      </c>
+      <c r="AD10">
+        <v>12</v>
+      </c>
+      <c r="AE10">
+        <v>0.305</v>
+      </c>
+      <c r="AF10">
+        <v>0.38</v>
+      </c>
+      <c r="AG10">
+        <v>5.5</v>
+      </c>
+      <c r="AH10">
+        <v>0.215</v>
+      </c>
+      <c r="AI10">
+        <v>0.52</v>
+      </c>
+      <c r="AJ10">
+        <v>15.6</v>
+      </c>
+      <c r="AK10">
+        <v>7.3</v>
+      </c>
+      <c r="AL10">
+        <v>6.11</v>
+      </c>
+      <c r="AM10">
+        <v>41.8</v>
+      </c>
+      <c r="AN10">
+        <v>35.2</v>
+      </c>
+      <c r="AO10">
+        <v>20.7</v>
+      </c>
+      <c r="AP10">
+        <v>26.5</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX10">
+        <v>-270</v>
+      </c>
+      <c r="AY10">
+        <v>0.5</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>222</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.324</v>
+      </c>
+      <c r="M11">
+        <v>0.377</v>
+      </c>
+      <c r="N11">
+        <v>0.153</v>
+      </c>
+      <c r="O11">
+        <v>0.388</v>
+      </c>
+      <c r="P11">
+        <v>0.477</v>
+      </c>
+      <c r="Q11">
+        <v>0.865</v>
+      </c>
+      <c r="R11">
+        <v>14.7</v>
+      </c>
+      <c r="S11">
+        <v>6.5</v>
+      </c>
+      <c r="T11">
+        <v>38.2</v>
+      </c>
+      <c r="U11">
+        <v>37.1</v>
+      </c>
+      <c r="V11">
+        <v>35.5</v>
+      </c>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC11">
+        <v>324</v>
+      </c>
+      <c r="AD11">
+        <v>12</v>
+      </c>
+      <c r="AE11">
+        <v>0.286</v>
+      </c>
+      <c r="AF11">
+        <v>0.361</v>
+      </c>
+      <c r="AG11">
+        <v>3.7</v>
+      </c>
+      <c r="AH11">
+        <v>0.173</v>
+      </c>
+      <c r="AI11">
+        <v>0.459</v>
+      </c>
+      <c r="AJ11">
+        <v>20.1</v>
+      </c>
+      <c r="AK11">
+        <v>11.1</v>
+      </c>
+      <c r="AL11">
+        <v>5.18</v>
+      </c>
+      <c r="AM11">
+        <v>37.2</v>
+      </c>
+      <c r="AN11">
+        <v>40.4</v>
+      </c>
+      <c r="AO11">
+        <v>13.6</v>
+      </c>
+      <c r="AP11">
+        <v>41.8</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX11">
+        <v>-275</v>
+      </c>
+      <c r="AY11">
+        <v>0.5</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.291</v>
+      </c>
+      <c r="M12">
+        <v>0.389</v>
+      </c>
+      <c r="N12">
+        <v>0.244</v>
+      </c>
+      <c r="O12">
+        <v>0.384</v>
+      </c>
+      <c r="P12">
+        <v>0.535</v>
+      </c>
+      <c r="Q12">
+        <v>0.919</v>
+      </c>
+      <c r="R12">
+        <v>28.3</v>
+      </c>
+      <c r="S12">
+        <v>13.1</v>
+      </c>
+      <c r="T12">
+        <v>46.6</v>
+      </c>
+      <c r="U12">
+        <v>29.3</v>
+      </c>
+      <c r="V12">
+        <v>31</v>
+      </c>
+      <c r="W12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC12">
+        <v>324</v>
+      </c>
+      <c r="AD12">
+        <v>12</v>
+      </c>
+      <c r="AE12">
+        <v>0.286</v>
+      </c>
+      <c r="AF12">
+        <v>0.361</v>
+      </c>
+      <c r="AG12">
+        <v>3.7</v>
+      </c>
+      <c r="AH12">
+        <v>0.173</v>
+      </c>
+      <c r="AI12">
+        <v>0.459</v>
+      </c>
+      <c r="AJ12">
+        <v>20.1</v>
+      </c>
+      <c r="AK12">
+        <v>11.1</v>
+      </c>
+      <c r="AL12">
+        <v>5.18</v>
+      </c>
+      <c r="AM12">
+        <v>37.2</v>
+      </c>
+      <c r="AN12">
+        <v>40.4</v>
+      </c>
+      <c r="AO12">
+        <v>13.6</v>
+      </c>
+      <c r="AP12">
+        <v>41.8</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX12">
+        <v>-180</v>
+      </c>
+      <c r="AY12">
+        <v>0.5</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE12">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>274</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.285</v>
+      </c>
+      <c r="M13">
+        <v>0.379</v>
+      </c>
+      <c r="N13">
+        <v>0.255</v>
+      </c>
+      <c r="O13">
+        <v>0.354</v>
+      </c>
+      <c r="P13">
+        <v>0.54</v>
+      </c>
+      <c r="Q13">
+        <v>0.894</v>
+      </c>
+      <c r="R13">
+        <v>27.9</v>
+      </c>
+      <c r="S13">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="T13">
+        <v>30.4</v>
+      </c>
+      <c r="U13">
+        <v>50.8</v>
+      </c>
+      <c r="V13">
+        <v>38.2</v>
+      </c>
+      <c r="W13" t="s">
+        <v>109</v>
+      </c>
+      <c r="X13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC13">
+        <v>324</v>
+      </c>
+      <c r="AD13">
+        <v>12</v>
+      </c>
+      <c r="AE13">
+        <v>0.286</v>
+      </c>
+      <c r="AF13">
+        <v>0.361</v>
+      </c>
+      <c r="AG13">
+        <v>3.7</v>
+      </c>
+      <c r="AH13">
+        <v>0.173</v>
+      </c>
+      <c r="AI13">
+        <v>0.459</v>
+      </c>
+      <c r="AJ13">
+        <v>20.1</v>
+      </c>
+      <c r="AK13">
+        <v>11.1</v>
+      </c>
+      <c r="AL13">
+        <v>5.18</v>
+      </c>
+      <c r="AM13">
+        <v>37.2</v>
+      </c>
+      <c r="AN13">
+        <v>40.4</v>
+      </c>
+      <c r="AO13">
+        <v>13.6</v>
+      </c>
+      <c r="AP13">
+        <v>41.8</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX13">
+        <v>-195</v>
+      </c>
+      <c r="AY13">
+        <v>0.5</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>353</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.283</v>
+      </c>
+      <c r="M14">
+        <v>0.327</v>
+      </c>
+      <c r="N14">
+        <v>0.122</v>
+      </c>
+      <c r="O14">
+        <v>0.342</v>
+      </c>
+      <c r="P14">
+        <v>0.405</v>
+      </c>
+      <c r="Q14">
+        <v>0.747</v>
+      </c>
+      <c r="R14">
+        <v>15.1</v>
+      </c>
+      <c r="S14">
+        <v>7.7</v>
+      </c>
+      <c r="T14">
+        <v>41.8</v>
+      </c>
+      <c r="U14">
+        <v>37.7</v>
+      </c>
+      <c r="V14">
+        <v>22.2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>110</v>
+      </c>
+      <c r="X14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC14">
+        <v>158</v>
+      </c>
+      <c r="AD14">
+        <v>7</v>
+      </c>
+      <c r="AE14">
+        <v>0.27</v>
+      </c>
+      <c r="AF14">
+        <v>0.358</v>
+      </c>
+      <c r="AG14">
+        <v>4.4</v>
+      </c>
+      <c r="AH14">
+        <v>0.205</v>
+      </c>
+      <c r="AI14">
+        <v>0.475</v>
+      </c>
+      <c r="AJ14">
+        <v>22.8</v>
+      </c>
+      <c r="AK14">
+        <v>7</v>
+      </c>
+      <c r="AL14">
+        <v>5.01</v>
+      </c>
+      <c r="AM14">
+        <v>38.1</v>
+      </c>
+      <c r="AN14">
+        <v>41</v>
+      </c>
+      <c r="AO14">
+        <v>16.3</v>
+      </c>
+      <c r="AP14">
+        <v>41.9</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX14">
+        <v>-240</v>
+      </c>
+      <c r="AY14">
+        <v>0.5</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:57">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>299</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.278</v>
+      </c>
+      <c r="M15">
+        <v>0.379</v>
+      </c>
+      <c r="N15">
+        <v>0.227</v>
+      </c>
+      <c r="O15">
+        <v>0.38</v>
+      </c>
+      <c r="P15">
+        <v>0.505</v>
+      </c>
+      <c r="Q15">
+        <v>0.885</v>
+      </c>
+      <c r="R15">
+        <v>26.6</v>
+      </c>
+      <c r="S15">
+        <v>13.7</v>
+      </c>
+      <c r="T15">
+        <v>43.5</v>
+      </c>
+      <c r="U15">
+        <v>34.3</v>
+      </c>
+      <c r="V15">
+        <v>31.9</v>
+      </c>
+      <c r="W15" t="s">
+        <v>111</v>
+      </c>
+      <c r="X15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC15">
+        <v>308</v>
+      </c>
+      <c r="AD15">
+        <v>13</v>
+      </c>
+      <c r="AE15">
+        <v>0.277</v>
+      </c>
+      <c r="AF15">
+        <v>0.362</v>
+      </c>
+      <c r="AG15">
+        <v>4.2</v>
+      </c>
+      <c r="AH15">
+        <v>0.217</v>
+      </c>
+      <c r="AI15">
+        <v>0.494</v>
+      </c>
+      <c r="AJ15">
+        <v>16.2</v>
+      </c>
+      <c r="AK15">
+        <v>10.1</v>
+      </c>
+      <c r="AL15">
+        <v>5.55</v>
+      </c>
+      <c r="AM15">
+        <v>39</v>
+      </c>
+      <c r="AN15">
+        <v>39.5</v>
+      </c>
+      <c r="AO15">
+        <v>14.8</v>
+      </c>
+      <c r="AP15">
+        <v>35</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX15">
+        <v>-235</v>
+      </c>
+      <c r="AY15">
+        <v>0.5</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB15" t="s">
         <v>66</v>
       </c>
-      <c r="BB5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC5" t="s">
+      <c r="BC15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:57">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>169</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.314</v>
+      </c>
+      <c r="M16">
+        <v>0.424</v>
+      </c>
+      <c r="N16">
+        <v>0.343</v>
+      </c>
+      <c r="O16">
+        <v>0.366</v>
+      </c>
+      <c r="P16">
+        <v>0.657</v>
+      </c>
+      <c r="Q16">
+        <v>1.022</v>
+      </c>
+      <c r="R16">
+        <v>26.6</v>
+      </c>
+      <c r="S16">
+        <v>6.4</v>
+      </c>
+      <c r="T16">
+        <v>36.4</v>
+      </c>
+      <c r="U16">
+        <v>47.1</v>
+      </c>
+      <c r="V16">
+        <v>29.8</v>
+      </c>
+      <c r="W16" t="s">
+        <v>111</v>
+      </c>
+      <c r="X16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB16" t="s">
         <v>72</v>
       </c>
-      <c r="BD5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE5">
-        <v>185</v>
+      <c r="AC16">
+        <v>308</v>
+      </c>
+      <c r="AD16">
+        <v>13</v>
+      </c>
+      <c r="AE16">
+        <v>0.277</v>
+      </c>
+      <c r="AF16">
+        <v>0.362</v>
+      </c>
+      <c r="AG16">
+        <v>4.2</v>
+      </c>
+      <c r="AH16">
+        <v>0.217</v>
+      </c>
+      <c r="AI16">
+        <v>0.494</v>
+      </c>
+      <c r="AJ16">
+        <v>16.2</v>
+      </c>
+      <c r="AK16">
+        <v>10.1</v>
+      </c>
+      <c r="AL16">
+        <v>5.55</v>
+      </c>
+      <c r="AM16">
+        <v>39</v>
+      </c>
+      <c r="AN16">
+        <v>39.5</v>
+      </c>
+      <c r="AO16">
+        <v>14.8</v>
+      </c>
+      <c r="AP16">
+        <v>35</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX16">
+        <v>-200</v>
+      </c>
+      <c r="AY16">
+        <v>0.5</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE16">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2076,7 +4633,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE6"/>
+  <dimension ref="A1:BE14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2257,133 +4814,133 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>114</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.325</v>
+      </c>
+      <c r="M2">
+        <v>0.372</v>
+      </c>
+      <c r="N2">
+        <v>0.149</v>
+      </c>
+      <c r="O2">
+        <v>0.397</v>
+      </c>
+      <c r="P2">
+        <v>0.474</v>
+      </c>
+      <c r="Q2">
+        <v>0.871</v>
+      </c>
+      <c r="R2">
+        <v>22.1</v>
+      </c>
+      <c r="S2">
+        <v>11.5</v>
+      </c>
+      <c r="T2">
+        <v>58.6</v>
+      </c>
+      <c r="U2">
+        <v>25.3</v>
+      </c>
+      <c r="V2">
+        <v>42.5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB2" t="s">
         <v>60</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>53</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.415</v>
-      </c>
-      <c r="M2">
-        <v>0.439</v>
-      </c>
-      <c r="N2">
-        <v>0.132</v>
-      </c>
-      <c r="O2">
-        <v>0.466</v>
-      </c>
-      <c r="P2">
-        <v>0.547</v>
-      </c>
-      <c r="Q2">
-        <v>1.013</v>
-      </c>
-      <c r="R2">
-        <v>10.3</v>
-      </c>
-      <c r="S2">
-        <v>8.6</v>
-      </c>
-      <c r="T2">
-        <v>48.9</v>
-      </c>
-      <c r="U2">
-        <v>29.8</v>
-      </c>
-      <c r="V2">
-        <v>17</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>64</v>
-      </c>
       <c r="AC2">
-        <v>61</v>
+        <v>393</v>
       </c>
       <c r="AD2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AE2">
-        <v>0.327</v>
+        <v>0.259</v>
       </c>
       <c r="AF2">
-        <v>0.404</v>
+        <v>0.325</v>
       </c>
       <c r="AG2">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="AH2">
-        <v>0.218</v>
+        <v>0.17</v>
       </c>
       <c r="AI2">
-        <v>0.545</v>
+        <v>0.429</v>
       </c>
       <c r="AJ2">
-        <v>24.6</v>
+        <v>20.4</v>
       </c>
       <c r="AK2">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AL2">
-        <v>5.29</v>
+        <v>4.39</v>
       </c>
       <c r="AM2">
-        <v>33.3</v>
+        <v>38.5</v>
       </c>
       <c r="AN2">
-        <v>43.6</v>
+        <v>41.8</v>
       </c>
       <c r="AO2">
-        <v>17.6</v>
+        <v>11.3</v>
       </c>
       <c r="AP2">
-        <v>27.5</v>
+        <v>36.7</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>1</v>
@@ -2398,10 +4955,10 @@
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="AX2">
         <v>-265</v>
@@ -2410,19 +4967,19 @@
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA2" t="s">
         <v>65</v>
       </c>
-      <c r="BA2" t="s">
-        <v>66</v>
-      </c>
       <c r="BB2" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="BC2" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="BD2" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="BE2">
         <v>185</v>
@@ -2430,139 +4987,139 @@
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G3">
         <v>6</v>
       </c>
       <c r="H3">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.32</v>
+        <v>0.316</v>
       </c>
       <c r="M3">
-        <v>0.377</v>
+        <v>0.39</v>
       </c>
       <c r="N3">
-        <v>0.218</v>
+        <v>0.211</v>
       </c>
       <c r="O3">
-        <v>0.351</v>
+        <v>0.381</v>
       </c>
       <c r="P3">
-        <v>0.538</v>
+        <v>0.526</v>
       </c>
       <c r="Q3">
-        <v>0.889</v>
+        <v>0.907</v>
       </c>
       <c r="R3">
-        <v>18.9</v>
+        <v>23.8</v>
       </c>
       <c r="S3">
-        <v>4.7</v>
+        <v>9.5</v>
       </c>
       <c r="T3">
-        <v>31.9</v>
+        <v>53.8</v>
       </c>
       <c r="U3">
-        <v>42.5</v>
+        <v>23.1</v>
       </c>
       <c r="V3">
-        <v>36.4</v>
+        <v>28.6</v>
       </c>
       <c r="W3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s">
         <v>77</v>
       </c>
       <c r="Z3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s">
         <v>60</v>
       </c>
       <c r="AC3">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AD3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE3">
-        <v>0.246</v>
+        <v>0.304</v>
       </c>
       <c r="AF3">
-        <v>0.317</v>
+        <v>0.369</v>
       </c>
       <c r="AG3">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="AH3">
-        <v>0.161</v>
+        <v>0.218</v>
       </c>
       <c r="AI3">
-        <v>0.407</v>
+        <v>0.522</v>
       </c>
       <c r="AJ3">
-        <v>19.4</v>
+        <v>17.5</v>
       </c>
       <c r="AK3">
-        <v>7.7</v>
+        <v>5.7</v>
       </c>
       <c r="AL3">
-        <v>4.73</v>
+        <v>4.93</v>
       </c>
       <c r="AM3">
-        <v>45.7</v>
+        <v>40</v>
       </c>
       <c r="AN3">
-        <v>36.1</v>
+        <v>38.2</v>
       </c>
       <c r="AO3">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="AP3">
-        <v>31.1</v>
+        <v>34.4</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -2571,174 +5128,174 @@
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AX3">
-        <v>-280</v>
+        <v>-250</v>
       </c>
       <c r="AY3">
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA3" t="s">
         <v>65</v>
       </c>
-      <c r="BA3" t="s">
-        <v>66</v>
-      </c>
       <c r="BB3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="BC3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="BD3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="BE3">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
       </c>
       <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.304</v>
+      </c>
+      <c r="M4">
+        <v>0.363</v>
+      </c>
+      <c r="N4">
+        <v>0.196</v>
+      </c>
+      <c r="O4">
+        <v>0.353</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>0.853</v>
+      </c>
+      <c r="R4">
+        <v>15.7</v>
+      </c>
+      <c r="S4">
+        <v>7.8</v>
+      </c>
+      <c r="T4">
+        <v>51.3</v>
+      </c>
+      <c r="U4">
+        <v>35.9</v>
+      </c>
+      <c r="V4">
+        <v>23.1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>132</v>
+      </c>
+      <c r="X4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB4" t="s">
         <v>60</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>108</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.324</v>
-      </c>
-      <c r="M4">
-        <v>0.413</v>
-      </c>
-      <c r="N4">
-        <v>0.213</v>
-      </c>
-      <c r="O4">
-        <v>0.421</v>
-      </c>
-      <c r="P4">
-        <v>0.537</v>
-      </c>
-      <c r="Q4">
-        <v>0.958</v>
-      </c>
-      <c r="R4">
-        <v>28.6</v>
-      </c>
-      <c r="S4">
-        <v>14.3</v>
-      </c>
-      <c r="T4">
-        <v>36.1</v>
-      </c>
-      <c r="U4">
-        <v>36.1</v>
-      </c>
-      <c r="V4">
-        <v>34.7</v>
-      </c>
-      <c r="W4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>64</v>
-      </c>
       <c r="AC4">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="AD4">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AE4">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="AF4">
-        <v>0.298</v>
+        <v>0.328</v>
       </c>
       <c r="AG4">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="AH4">
-        <v>0.089</v>
+        <v>0.21</v>
       </c>
       <c r="AI4">
-        <v>0.359</v>
+        <v>0.45</v>
       </c>
       <c r="AJ4">
-        <v>18.2</v>
+        <v>24.9</v>
       </c>
       <c r="AK4">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AL4">
-        <v>3.03</v>
+        <v>4.62</v>
       </c>
       <c r="AM4">
-        <v>56</v>
+        <v>31.2</v>
       </c>
       <c r="AN4">
-        <v>20.1</v>
+        <v>51.1</v>
       </c>
       <c r="AO4">
-        <v>7.2</v>
+        <v>12.8</v>
       </c>
       <c r="AP4">
-        <v>30.5</v>
+        <v>31.7</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>1</v>
@@ -2747,335 +5304,335 @@
         <v>0</v>
       </c>
       <c r="AW4" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="AX4">
-        <v>-265</v>
+        <v>-155</v>
       </c>
       <c r="AY4">
         <v>0.5</v>
       </c>
       <c r="AZ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA4" t="s">
         <v>65</v>
       </c>
-      <c r="BA4" t="s">
-        <v>66</v>
-      </c>
       <c r="BB4" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="BC4" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="BD4" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="BE4">
-        <v>185</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:57">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.333</v>
+      </c>
+      <c r="M5">
+        <v>0.393</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>0.333</v>
+      </c>
+      <c r="Q5">
+        <v>0.833</v>
+      </c>
+      <c r="R5">
+        <v>25</v>
+      </c>
+      <c r="S5">
+        <v>25</v>
+      </c>
+      <c r="T5">
+        <v>50</v>
+      </c>
+      <c r="U5">
+        <v>50</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>132</v>
+      </c>
+      <c r="X5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB5" t="s">
         <v>60</v>
       </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>23</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.304</v>
-      </c>
-      <c r="M5">
-        <v>0.305</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.37</v>
-      </c>
-      <c r="P5">
-        <v>0.304</v>
-      </c>
-      <c r="Q5">
-        <v>0.675</v>
-      </c>
-      <c r="R5">
-        <v>14.8</v>
-      </c>
-      <c r="S5">
-        <v>11.1</v>
-      </c>
-      <c r="T5">
-        <v>35</v>
-      </c>
-      <c r="U5">
-        <v>45</v>
-      </c>
-      <c r="V5">
-        <v>20</v>
-      </c>
-      <c r="W5" t="s">
-        <v>88</v>
-      </c>
-      <c r="X5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>64</v>
-      </c>
       <c r="AC5">
-        <v>194</v>
+        <v>490</v>
       </c>
       <c r="AD5">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AE5">
-        <v>0.264</v>
+        <v>0.24</v>
       </c>
       <c r="AF5">
-        <v>0.352</v>
+        <v>0.328</v>
       </c>
       <c r="AG5">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="AH5">
-        <v>0.184</v>
+        <v>0.21</v>
       </c>
       <c r="AI5">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="AJ5">
-        <v>10.8</v>
+        <v>24.9</v>
       </c>
       <c r="AK5">
-        <v>10.8</v>
+        <v>7.6</v>
       </c>
       <c r="AL5">
-        <v>6.38</v>
+        <v>4.62</v>
       </c>
       <c r="AM5">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="AN5">
-        <v>44.4</v>
+        <v>51.1</v>
       </c>
       <c r="AO5">
-        <v>11.1</v>
+        <v>12.8</v>
       </c>
       <c r="AP5">
-        <v>31</v>
+        <v>31.7</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>1</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5">
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
         <v>0</v>
       </c>
       <c r="AW5" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="AX5">
-        <v>-220</v>
+        <v>-190</v>
       </c>
       <c r="AY5">
         <v>0.5</v>
       </c>
       <c r="AZ5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA5" t="s">
         <v>65</v>
       </c>
-      <c r="BA5" t="s">
-        <v>66</v>
-      </c>
       <c r="BB5" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="BC5" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="BD5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="BE5">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:57">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.4</v>
+        <v>0.303</v>
       </c>
       <c r="M6">
-        <v>0.468</v>
+        <v>0.431</v>
       </c>
       <c r="N6">
-        <v>0.247</v>
+        <v>0.303</v>
       </c>
       <c r="O6">
-        <v>0.457</v>
+        <v>0.41</v>
       </c>
       <c r="P6">
-        <v>0.647</v>
+        <v>0.606</v>
       </c>
       <c r="Q6">
-        <v>1.105</v>
+        <v>1.016</v>
       </c>
       <c r="R6">
-        <v>18.1</v>
+        <v>30.8</v>
       </c>
       <c r="S6">
-        <v>8.5</v>
+        <v>15.4</v>
       </c>
       <c r="T6">
-        <v>37.9</v>
+        <v>23.8</v>
       </c>
       <c r="U6">
-        <v>39.4</v>
+        <v>57.1</v>
       </c>
       <c r="V6">
-        <v>38.2</v>
+        <v>33.3</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s">
         <v>63</v>
       </c>
       <c r="Z6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="AB6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AC6">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="AD6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE6">
-        <v>0.264</v>
+        <v>0.254</v>
       </c>
       <c r="AF6">
-        <v>0.352</v>
+        <v>0.32</v>
       </c>
       <c r="AG6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AH6">
-        <v>0.184</v>
+        <v>0.153</v>
       </c>
       <c r="AI6">
-        <v>0.448</v>
+        <v>0.407</v>
       </c>
       <c r="AJ6">
-        <v>10.8</v>
+        <v>19.6</v>
       </c>
       <c r="AK6">
-        <v>10.8</v>
+        <v>7.7</v>
       </c>
       <c r="AL6">
-        <v>6.38</v>
+        <v>4.63</v>
       </c>
       <c r="AM6">
-        <v>31</v>
+        <v>46.1</v>
       </c>
       <c r="AN6">
-        <v>44.4</v>
+        <v>34.6</v>
       </c>
       <c r="AO6">
-        <v>11.1</v>
+        <v>14.7</v>
       </c>
       <c r="AP6">
-        <v>31</v>
+        <v>30.3</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>1</v>
@@ -3090,34 +5647,1418 @@
         <v>1</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="AX6">
-        <v>-240</v>
+        <v>-175</v>
       </c>
       <c r="AY6">
         <v>0.5</v>
       </c>
       <c r="AZ6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA6" t="s">
         <v>65</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.308</v>
+      </c>
+      <c r="M7">
+        <v>0.373</v>
+      </c>
+      <c r="N7">
+        <v>0.077</v>
+      </c>
+      <c r="O7">
+        <v>0.438</v>
+      </c>
+      <c r="P7">
+        <v>0.385</v>
+      </c>
+      <c r="Q7">
+        <v>0.822</v>
+      </c>
+      <c r="R7">
+        <v>25</v>
+      </c>
+      <c r="S7">
+        <v>18.8</v>
+      </c>
+      <c r="T7">
+        <v>55.6</v>
+      </c>
+      <c r="U7">
+        <v>22.2</v>
+      </c>
+      <c r="V7">
+        <v>11.1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>134</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7">
+        <v>190</v>
+      </c>
+      <c r="AD7">
+        <v>4</v>
+      </c>
+      <c r="AE7">
+        <v>0.269</v>
+      </c>
+      <c r="AF7">
+        <v>0.327</v>
+      </c>
+      <c r="AG7">
+        <v>2.1</v>
+      </c>
+      <c r="AH7">
+        <v>0.129</v>
+      </c>
+      <c r="AI7">
+        <v>0.398</v>
+      </c>
+      <c r="AJ7">
+        <v>16.3</v>
+      </c>
+      <c r="AK7">
+        <v>8.9</v>
+      </c>
+      <c r="AL7">
+        <v>4.28</v>
+      </c>
+      <c r="AM7">
+        <v>50.7</v>
+      </c>
+      <c r="AN7">
+        <v>28.6</v>
+      </c>
+      <c r="AO7">
+        <v>10</v>
+      </c>
+      <c r="AP7">
+        <v>23.6</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX7">
+        <v>-165</v>
+      </c>
+      <c r="AY7">
+        <v>0.5</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.321</v>
+      </c>
+      <c r="M8">
+        <v>0.374</v>
+      </c>
+      <c r="N8">
+        <v>0.167</v>
+      </c>
+      <c r="O8">
+        <v>0.376</v>
+      </c>
+      <c r="P8">
+        <v>0.487</v>
+      </c>
+      <c r="Q8">
+        <v>0.864</v>
+      </c>
+      <c r="R8">
+        <v>22.1</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>36.2</v>
+      </c>
+      <c r="U8">
+        <v>20.7</v>
+      </c>
+      <c r="V8">
+        <v>33.3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC8">
+        <v>55</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>0.314</v>
+      </c>
+      <c r="AF8">
+        <v>0.383</v>
+      </c>
+      <c r="AG8">
+        <v>3.6</v>
+      </c>
+      <c r="AH8">
+        <v>0.255</v>
+      </c>
+      <c r="AI8">
+        <v>0.569</v>
+      </c>
+      <c r="AJ8">
+        <v>14.5</v>
+      </c>
+      <c r="AK8">
+        <v>5.5</v>
+      </c>
+      <c r="AL8">
+        <v>4.75</v>
+      </c>
+      <c r="AM8">
+        <v>36.4</v>
+      </c>
+      <c r="AN8">
+        <v>36.4</v>
+      </c>
+      <c r="AO8">
+        <v>12.5</v>
+      </c>
+      <c r="AP8">
+        <v>25</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX8">
+        <v>-220</v>
+      </c>
+      <c r="AY8">
+        <v>0.5</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>98</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.347</v>
+      </c>
+      <c r="M9">
+        <v>0.431</v>
+      </c>
+      <c r="N9">
+        <v>0.286</v>
+      </c>
+      <c r="O9">
+        <v>0.385</v>
+      </c>
+      <c r="P9">
+        <v>0.633</v>
+      </c>
+      <c r="Q9">
+        <v>1.017</v>
+      </c>
+      <c r="R9">
+        <v>26</v>
+      </c>
+      <c r="S9">
+        <v>5.8</v>
+      </c>
+      <c r="T9">
+        <v>46.5</v>
+      </c>
+      <c r="U9">
+        <v>36.6</v>
+      </c>
+      <c r="V9">
+        <v>40.8</v>
+      </c>
+      <c r="W9" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC9">
+        <v>55</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>0.314</v>
+      </c>
+      <c r="AF9">
+        <v>0.383</v>
+      </c>
+      <c r="AG9">
+        <v>3.6</v>
+      </c>
+      <c r="AH9">
+        <v>0.255</v>
+      </c>
+      <c r="AI9">
+        <v>0.569</v>
+      </c>
+      <c r="AJ9">
+        <v>14.5</v>
+      </c>
+      <c r="AK9">
+        <v>5.5</v>
+      </c>
+      <c r="AL9">
+        <v>4.75</v>
+      </c>
+      <c r="AM9">
+        <v>36.4</v>
+      </c>
+      <c r="AN9">
+        <v>36.4</v>
+      </c>
+      <c r="AO9">
+        <v>12.5</v>
+      </c>
+      <c r="AP9">
+        <v>25</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX9">
+        <v>-260</v>
+      </c>
+      <c r="AY9">
+        <v>0.5</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>379</v>
+      </c>
+      <c r="I10">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.306</v>
+      </c>
+      <c r="M10">
+        <v>0.411</v>
+      </c>
+      <c r="N10">
+        <v>0.301</v>
+      </c>
+      <c r="O10">
+        <v>0.372</v>
+      </c>
+      <c r="P10">
+        <v>0.607</v>
+      </c>
+      <c r="Q10">
+        <v>0.979</v>
+      </c>
+      <c r="R10">
+        <v>23.5</v>
+      </c>
+      <c r="S10">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T10">
+        <v>38.2</v>
+      </c>
+      <c r="U10">
+        <v>39.9</v>
+      </c>
+      <c r="V10">
+        <v>42.4</v>
+      </c>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC10">
+        <v>67</v>
+      </c>
+      <c r="AD10">
+        <v>3</v>
+      </c>
+      <c r="AE10">
+        <v>0.286</v>
+      </c>
+      <c r="AF10">
+        <v>0.358</v>
+      </c>
+      <c r="AG10">
+        <v>4.5</v>
+      </c>
+      <c r="AH10">
+        <v>0.222</v>
+      </c>
+      <c r="AI10">
+        <v>0.508</v>
+      </c>
+      <c r="AJ10">
+        <v>28.4</v>
+      </c>
+      <c r="AK10">
+        <v>6</v>
+      </c>
+      <c r="AL10">
+        <v>4.02</v>
+      </c>
+      <c r="AM10">
+        <v>27.9</v>
+      </c>
+      <c r="AN10">
+        <v>37.2</v>
+      </c>
+      <c r="AO10">
+        <v>18.8</v>
+      </c>
+      <c r="AP10">
+        <v>31.8</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX10">
+        <v>-255</v>
+      </c>
+      <c r="AY10">
+        <v>0.5</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.375</v>
+      </c>
+      <c r="M11">
+        <v>0.406</v>
+      </c>
+      <c r="N11">
+        <v>0.156</v>
+      </c>
+      <c r="O11">
+        <v>0.412</v>
+      </c>
+      <c r="P11">
+        <v>0.531</v>
+      </c>
+      <c r="Q11">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="R11">
+        <v>14.7</v>
+      </c>
+      <c r="S11">
+        <v>5.9</v>
+      </c>
+      <c r="T11">
+        <v>55.6</v>
+      </c>
+      <c r="U11">
+        <v>14.8</v>
+      </c>
+      <c r="V11">
+        <v>40.7</v>
+      </c>
+      <c r="W11" t="s">
+        <v>105</v>
+      </c>
+      <c r="X11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC11">
+        <v>296</v>
+      </c>
+      <c r="AD11">
+        <v>13</v>
+      </c>
+      <c r="AE11">
+        <v>0.273</v>
+      </c>
+      <c r="AF11">
+        <v>0.364</v>
+      </c>
+      <c r="AG11">
+        <v>4.4</v>
+      </c>
+      <c r="AH11">
+        <v>0.212</v>
+      </c>
+      <c r="AI11">
+        <v>0.485</v>
+      </c>
+      <c r="AJ11">
+        <v>17.6</v>
+      </c>
+      <c r="AK11">
+        <v>10.5</v>
+      </c>
+      <c r="AL11">
+        <v>5.76</v>
+      </c>
+      <c r="AM11">
+        <v>48.6</v>
+      </c>
+      <c r="AN11">
+        <v>34.6</v>
+      </c>
+      <c r="AO11">
+        <v>18.1</v>
+      </c>
+      <c r="AP11">
+        <v>29.2</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX11">
+        <v>-235</v>
+      </c>
+      <c r="AY11">
+        <v>0.5</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>222</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.324</v>
+      </c>
+      <c r="M12">
+        <v>0.377</v>
+      </c>
+      <c r="N12">
+        <v>0.153</v>
+      </c>
+      <c r="O12">
+        <v>0.388</v>
+      </c>
+      <c r="P12">
+        <v>0.477</v>
+      </c>
+      <c r="Q12">
+        <v>0.865</v>
+      </c>
+      <c r="R12">
+        <v>14.7</v>
+      </c>
+      <c r="S12">
+        <v>6.5</v>
+      </c>
+      <c r="T12">
+        <v>38.2</v>
+      </c>
+      <c r="U12">
+        <v>37.1</v>
+      </c>
+      <c r="V12">
+        <v>35.5</v>
+      </c>
+      <c r="W12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC12">
+        <v>324</v>
+      </c>
+      <c r="AD12">
+        <v>12</v>
+      </c>
+      <c r="AE12">
+        <v>0.286</v>
+      </c>
+      <c r="AF12">
+        <v>0.361</v>
+      </c>
+      <c r="AG12">
+        <v>3.7</v>
+      </c>
+      <c r="AH12">
+        <v>0.173</v>
+      </c>
+      <c r="AI12">
+        <v>0.459</v>
+      </c>
+      <c r="AJ12">
+        <v>20.1</v>
+      </c>
+      <c r="AK12">
+        <v>11.1</v>
+      </c>
+      <c r="AL12">
+        <v>5.18</v>
+      </c>
+      <c r="AM12">
+        <v>37.2</v>
+      </c>
+      <c r="AN12">
+        <v>40.4</v>
+      </c>
+      <c r="AO12">
+        <v>13.6</v>
+      </c>
+      <c r="AP12">
+        <v>41.8</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX12">
+        <v>-275</v>
+      </c>
+      <c r="AY12">
+        <v>0.5</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>329</v>
+      </c>
+      <c r="I13">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0.301</v>
+      </c>
+      <c r="M13">
+        <v>0.362</v>
+      </c>
+      <c r="N13">
+        <v>0.21</v>
+      </c>
+      <c r="O13">
+        <v>0.339</v>
+      </c>
+      <c r="P13">
+        <v>0.511</v>
+      </c>
+      <c r="Q13">
+        <v>0.85</v>
+      </c>
+      <c r="R13">
+        <v>13.5</v>
+      </c>
+      <c r="S13">
+        <v>5.1</v>
+      </c>
+      <c r="T13">
+        <v>38.2</v>
+      </c>
+      <c r="U13">
+        <v>37.5</v>
+      </c>
+      <c r="V13">
+        <v>33.6</v>
+      </c>
+      <c r="W13" t="s">
+        <v>110</v>
+      </c>
+      <c r="X13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC13">
+        <v>112</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>0.26</v>
+      </c>
+      <c r="AF13">
+        <v>0.318</v>
+      </c>
+      <c r="AG13">
+        <v>2.7</v>
+      </c>
+      <c r="AH13">
+        <v>0.15</v>
+      </c>
+      <c r="AI13">
+        <v>0.41</v>
+      </c>
+      <c r="AJ13">
+        <v>21.4</v>
+      </c>
+      <c r="AK13">
+        <v>6.3</v>
+      </c>
+      <c r="AL13">
+        <v>3.95</v>
+      </c>
+      <c r="AM13">
+        <v>48.7</v>
+      </c>
+      <c r="AN13">
+        <v>28.2</v>
+      </c>
+      <c r="AO13">
+        <v>13.6</v>
+      </c>
+      <c r="AP13">
+        <v>23.1</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX13">
+        <v>-260</v>
+      </c>
+      <c r="AY13">
+        <v>0.5</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:57">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>169</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.314</v>
+      </c>
+      <c r="M14">
+        <v>0.424</v>
+      </c>
+      <c r="N14">
+        <v>0.343</v>
+      </c>
+      <c r="O14">
+        <v>0.366</v>
+      </c>
+      <c r="P14">
+        <v>0.657</v>
+      </c>
+      <c r="Q14">
+        <v>1.022</v>
+      </c>
+      <c r="R14">
+        <v>26.6</v>
+      </c>
+      <c r="S14">
+        <v>6.4</v>
+      </c>
+      <c r="T14">
+        <v>36.4</v>
+      </c>
+      <c r="U14">
+        <v>47.1</v>
+      </c>
+      <c r="V14">
+        <v>29.8</v>
+      </c>
+      <c r="W14" t="s">
+        <v>111</v>
+      </c>
+      <c r="X14" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC14">
+        <v>308</v>
+      </c>
+      <c r="AD14">
+        <v>13</v>
+      </c>
+      <c r="AE14">
+        <v>0.277</v>
+      </c>
+      <c r="AF14">
+        <v>0.362</v>
+      </c>
+      <c r="AG14">
+        <v>4.2</v>
+      </c>
+      <c r="AH14">
+        <v>0.217</v>
+      </c>
+      <c r="AI14">
+        <v>0.494</v>
+      </c>
+      <c r="AJ14">
+        <v>16.2</v>
+      </c>
+      <c r="AK14">
+        <v>10.1</v>
+      </c>
+      <c r="AL14">
+        <v>5.55</v>
+      </c>
+      <c r="AM14">
+        <v>39</v>
+      </c>
+      <c r="AN14">
+        <v>39.5</v>
+      </c>
+      <c r="AO14">
+        <v>14.8</v>
+      </c>
+      <c r="AP14">
+        <v>35</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX14">
+        <v>-200</v>
+      </c>
+      <c r="AY14">
+        <v>0.5</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB14" t="s">
         <v>66</v>
       </c>
-      <c r="BB6" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE6">
-        <v>165</v>
+      <c r="BC14" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE14">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="92">
   <si>
     <t>fg_name</t>
   </si>
@@ -190,76 +190,109 @@
     <t>Under Price</t>
   </si>
   <si>
-    <t>Geraldo Perdomo</t>
-  </si>
-  <si>
-    <t>Arizona Diamondbacks</t>
+    <t>Yandy Diaz</t>
+  </si>
+  <si>
+    <t>Tampa Bay Rays</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>vs R</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>San Diego Padres</t>
+  </si>
+  <si>
+    <t>RHP</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>draftkings</t>
+  </si>
+  <si>
+    <t>2024-09-02T22:51:00Z</t>
+  </si>
+  <si>
+    <t>Minnesota Twins</t>
+  </si>
+  <si>
+    <t>Aaron Judge</t>
+  </si>
+  <si>
+    <t>Juan Soto</t>
+  </si>
+  <si>
+    <t>Bryan Reynolds</t>
+  </si>
+  <si>
+    <t>Isiah Kiner-Falefa</t>
+  </si>
+  <si>
+    <t>Oneil Cruz</t>
+  </si>
+  <si>
+    <t>New York Yankees</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates</t>
+  </si>
+  <si>
+    <t>Isiah Kiner Falefa</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Alex Cobb</t>
+  </si>
+  <si>
+    <t>St. Louis Cardinals</t>
+  </si>
+  <si>
+    <t>Cleveland Indians</t>
+  </si>
+  <si>
     <t>vs L</t>
   </si>
   <si>
-    <t>Clayton Kershaw</t>
-  </si>
-  <si>
-    <t>Los Angeles Dodgers</t>
-  </si>
-  <si>
-    <t>LHP</t>
-  </si>
-  <si>
-    <t>vs R</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>draftkings</t>
-  </si>
-  <si>
-    <t>2024-08-31T01:41:00Z</t>
-  </si>
-  <si>
-    <t>Will Wagner</t>
-  </si>
-  <si>
-    <t>Alec Burleson</t>
-  </si>
-  <si>
-    <t>Toronto Blue Jays</t>
-  </si>
-  <si>
-    <t>St. Louis Cardinals</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Pablo Lopez</t>
-  </si>
-  <si>
-    <t>Marcus Stroman</t>
-  </si>
-  <si>
-    <t>Minnesota Twins</t>
-  </si>
-  <si>
-    <t>New York Yankees</t>
-  </si>
-  <si>
-    <t>RHP</t>
-  </si>
-  <si>
-    <t>Pablo López</t>
-  </si>
-  <si>
-    <t>2024-08-31T00:11:00Z</t>
-  </si>
-  <si>
-    <t>2024-08-30T23:06:00Z</t>
+    <t>2024-09-03T00:06:00Z</t>
+  </si>
+  <si>
+    <t>2024-09-02T23:41:00Z</t>
+  </si>
+  <si>
+    <t>Texas Rangers</t>
+  </si>
+  <si>
+    <t>Chicago Cubs</t>
+  </si>
+  <si>
+    <t>Kerry Carpenter</t>
+  </si>
+  <si>
+    <t>Detroit Tigers</t>
+  </si>
+  <si>
+    <t>Cooper Criswell</t>
+  </si>
+  <si>
+    <t>Boston Red Sox</t>
+  </si>
+  <si>
+    <t>2024-09-02T22:41:00Z</t>
   </si>
 </sst>
 </file>
@@ -617,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE1"/>
+  <dimension ref="A1:BE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,6 +827,179 @@
       </c>
       <c r="BE1" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>382</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.254</v>
+      </c>
+      <c r="M2">
+        <v>0.3</v>
+      </c>
+      <c r="N2">
+        <v>0.107</v>
+      </c>
+      <c r="O2">
+        <v>0.317</v>
+      </c>
+      <c r="P2">
+        <v>0.361</v>
+      </c>
+      <c r="Q2">
+        <v>0.678</v>
+      </c>
+      <c r="R2">
+        <v>16.9</v>
+      </c>
+      <c r="S2">
+        <v>7.9</v>
+      </c>
+      <c r="T2">
+        <v>57.8</v>
+      </c>
+      <c r="U2">
+        <v>25.9</v>
+      </c>
+      <c r="V2">
+        <v>33.9</v>
+      </c>
+      <c r="W2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC2">
+        <v>329</v>
+      </c>
+      <c r="AD2">
+        <v>7</v>
+      </c>
+      <c r="AE2">
+        <v>0.204</v>
+      </c>
+      <c r="AF2">
+        <v>0.265</v>
+      </c>
+      <c r="AG2">
+        <v>2.1</v>
+      </c>
+      <c r="AH2">
+        <v>0.126</v>
+      </c>
+      <c r="AI2">
+        <v>0.33</v>
+      </c>
+      <c r="AJ2">
+        <v>35.3</v>
+      </c>
+      <c r="AK2">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>2.47</v>
+      </c>
+      <c r="AM2">
+        <v>38.7</v>
+      </c>
+      <c r="AN2">
+        <v>40.9</v>
+      </c>
+      <c r="AO2">
+        <v>9.5</v>
+      </c>
+      <c r="AP2">
+        <v>30.4</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX2">
+        <v>180</v>
+      </c>
+      <c r="AY2">
+        <v>1.5</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE2">
+        <v>-260</v>
       </c>
     </row>
   </sheetData>
@@ -989,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:BE6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1170,16 +1376,16 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1188,157 +1394,840 @@
         <v>60</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>74</v>
+        <v>362</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.284</v>
+        <v>0.329</v>
       </c>
       <c r="M2">
-        <v>0.286</v>
+        <v>0.469</v>
       </c>
       <c r="N2">
-        <v>0.041</v>
+        <v>0.37</v>
       </c>
       <c r="O2">
-        <v>0.321</v>
+        <v>0.442</v>
       </c>
       <c r="P2">
-        <v>0.324</v>
+        <v>0.699</v>
       </c>
       <c r="Q2">
-        <v>0.645</v>
+        <v>1.141</v>
       </c>
       <c r="R2">
-        <v>13.6</v>
+        <v>23.4</v>
       </c>
       <c r="S2">
-        <v>4.9</v>
+        <v>15.5</v>
       </c>
       <c r="T2">
-        <v>55.9</v>
+        <v>31.4</v>
       </c>
       <c r="U2">
-        <v>27.1</v>
+        <v>45.6</v>
       </c>
       <c r="V2">
-        <v>24.2</v>
+        <v>45.6</v>
       </c>
       <c r="W2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s">
         <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AC2">
-        <v>94</v>
+        <v>333</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AE2">
-        <v>0.306</v>
+        <v>0.278</v>
       </c>
       <c r="AF2">
-        <v>0.338</v>
+        <v>0.327</v>
       </c>
       <c r="AG2">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="AH2">
-        <v>0.118</v>
+        <v>0.183</v>
       </c>
       <c r="AI2">
-        <v>0.424</v>
+        <v>0.461</v>
       </c>
       <c r="AJ2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK2">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="AL2">
-        <v>3.5</v>
+        <v>4.38</v>
       </c>
       <c r="AM2">
-        <v>40.6</v>
+        <v>45.7</v>
       </c>
       <c r="AN2">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="AO2">
-        <v>4.2</v>
+        <v>12.8</v>
       </c>
       <c r="AP2">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AX2">
-        <v>-170</v>
+        <v>-270</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA2" t="s">
         <v>65</v>
       </c>
-      <c r="BA2" t="s">
-        <v>66</v>
-      </c>
       <c r="BB2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="BC2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="BD2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="BE2">
-        <v>120</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>336</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.301</v>
+      </c>
+      <c r="M3">
+        <v>0.432</v>
+      </c>
+      <c r="N3">
+        <v>0.301</v>
+      </c>
+      <c r="O3">
+        <v>0.423</v>
+      </c>
+      <c r="P3">
+        <v>0.601</v>
+      </c>
+      <c r="Q3">
+        <v>1.025</v>
+      </c>
+      <c r="R3">
+        <v>17.5</v>
+      </c>
+      <c r="S3">
+        <v>17.5</v>
+      </c>
+      <c r="T3">
+        <v>43.9</v>
+      </c>
+      <c r="U3">
+        <v>35.6</v>
+      </c>
+      <c r="V3">
+        <v>41</v>
+      </c>
+      <c r="W3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3">
+        <v>290</v>
+      </c>
+      <c r="AD3">
+        <v>9</v>
+      </c>
+      <c r="AE3">
+        <v>0.279</v>
+      </c>
+      <c r="AF3">
+        <v>0.337</v>
+      </c>
+      <c r="AG3">
+        <v>3.1</v>
+      </c>
+      <c r="AH3">
+        <v>0.206</v>
+      </c>
+      <c r="AI3">
+        <v>0.485</v>
+      </c>
+      <c r="AJ3">
+        <v>17.9</v>
+      </c>
+      <c r="AK3">
+        <v>4.5</v>
+      </c>
+      <c r="AL3">
+        <v>3.95</v>
+      </c>
+      <c r="AM3">
+        <v>37.8</v>
+      </c>
+      <c r="AN3">
+        <v>38.3</v>
+      </c>
+      <c r="AO3">
+        <v>10.6</v>
+      </c>
+      <c r="AP3">
+        <v>37.1</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX3">
+        <v>-225</v>
+      </c>
+      <c r="AY3">
+        <v>0.5</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>365</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.285</v>
+      </c>
+      <c r="M4">
+        <v>0.364</v>
+      </c>
+      <c r="N4">
+        <v>0.195</v>
+      </c>
+      <c r="O4">
+        <v>0.364</v>
+      </c>
+      <c r="P4">
+        <v>0.479</v>
+      </c>
+      <c r="Q4">
+        <v>0.844</v>
+      </c>
+      <c r="R4">
+        <v>22.1</v>
+      </c>
+      <c r="S4">
+        <v>9.5</v>
+      </c>
+      <c r="T4">
+        <v>42.5</v>
+      </c>
+      <c r="U4">
+        <v>34.5</v>
+      </c>
+      <c r="V4">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s">
+        <v>79</v>
+      </c>
+      <c r="X4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC4">
+        <v>23</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>0.333</v>
+      </c>
+      <c r="AF4">
+        <v>0.349</v>
+      </c>
+      <c r="AG4">
+        <v>4.3</v>
+      </c>
+      <c r="AH4">
+        <v>0.143</v>
+      </c>
+      <c r="AI4">
+        <v>0.476</v>
+      </c>
+      <c r="AJ4">
+        <v>4.3</v>
+      </c>
+      <c r="AK4">
+        <v>4.3</v>
+      </c>
+      <c r="AL4">
+        <v>5.64</v>
+      </c>
+      <c r="AM4">
+        <v>61.9</v>
+      </c>
+      <c r="AN4">
+        <v>28.6</v>
+      </c>
+      <c r="AO4">
+        <v>16.7</v>
+      </c>
+      <c r="AP4">
+        <v>52.4</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX4">
+        <v>-240</v>
+      </c>
+      <c r="AY4">
+        <v>0.5</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>272</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.279</v>
+      </c>
+      <c r="M5">
+        <v>0.319</v>
+      </c>
+      <c r="N5">
+        <v>0.14</v>
+      </c>
+      <c r="O5">
+        <v>0.317</v>
+      </c>
+      <c r="P5">
+        <v>0.419</v>
+      </c>
+      <c r="Q5">
+        <v>0.736</v>
+      </c>
+      <c r="R5">
+        <v>14.7</v>
+      </c>
+      <c r="S5">
+        <v>4.1</v>
+      </c>
+      <c r="T5">
+        <v>47.1</v>
+      </c>
+      <c r="U5">
+        <v>34.4</v>
+      </c>
+      <c r="V5">
+        <v>24.5</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5">
+        <v>19</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0.294</v>
+      </c>
+      <c r="AF5">
+        <v>0.361</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0.177</v>
+      </c>
+      <c r="AI5">
+        <v>0.471</v>
+      </c>
+      <c r="AJ5">
+        <v>15.8</v>
+      </c>
+      <c r="AK5">
+        <v>10.5</v>
+      </c>
+      <c r="AL5">
+        <v>3.17</v>
+      </c>
+      <c r="AM5">
+        <v>35.7</v>
+      </c>
+      <c r="AN5">
+        <v>42.9</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>28.6</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX5">
+        <v>-230</v>
+      </c>
+      <c r="AY5">
+        <v>0.5</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>341</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.287</v>
+      </c>
+      <c r="M6">
+        <v>0.355</v>
+      </c>
+      <c r="N6">
+        <v>0.196</v>
+      </c>
+      <c r="O6">
+        <v>0.352</v>
+      </c>
+      <c r="P6">
+        <v>0.484</v>
+      </c>
+      <c r="Q6">
+        <v>0.836</v>
+      </c>
+      <c r="R6">
+        <v>30.7</v>
+      </c>
+      <c r="S6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="T6">
+        <v>43.6</v>
+      </c>
+      <c r="U6">
+        <v>35.2</v>
+      </c>
+      <c r="V6">
+        <v>46.3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC6">
+        <v>23</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>0.333</v>
+      </c>
+      <c r="AF6">
+        <v>0.349</v>
+      </c>
+      <c r="AG6">
+        <v>4.3</v>
+      </c>
+      <c r="AH6">
+        <v>0.143</v>
+      </c>
+      <c r="AI6">
+        <v>0.476</v>
+      </c>
+      <c r="AJ6">
+        <v>4.3</v>
+      </c>
+      <c r="AK6">
+        <v>4.3</v>
+      </c>
+      <c r="AL6">
+        <v>5.64</v>
+      </c>
+      <c r="AM6">
+        <v>61.9</v>
+      </c>
+      <c r="AN6">
+        <v>28.6</v>
+      </c>
+      <c r="AO6">
+        <v>16.7</v>
+      </c>
+      <c r="AP6">
+        <v>52.4</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX6">
+        <v>-205</v>
+      </c>
+      <c r="AY6">
+        <v>0.5</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE6">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +2237,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE3"/>
+  <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1532,7 +2421,7 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -1541,70 +2430,70 @@
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>35</v>
+        <v>362</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.343</v>
+        <v>0.329</v>
       </c>
       <c r="M2">
-        <v>0.373</v>
+        <v>0.469</v>
       </c>
       <c r="N2">
-        <v>0.143</v>
+        <v>0.37</v>
       </c>
       <c r="O2">
-        <v>0.378</v>
+        <v>0.442</v>
       </c>
       <c r="P2">
-        <v>0.486</v>
+        <v>0.699</v>
       </c>
       <c r="Q2">
-        <v>0.864</v>
+        <v>1.141</v>
       </c>
       <c r="R2">
-        <v>16.2</v>
+        <v>23.4</v>
       </c>
       <c r="S2">
-        <v>5.4</v>
+        <v>15.5</v>
       </c>
       <c r="T2">
-        <v>55.2</v>
+        <v>31.4</v>
       </c>
       <c r="U2">
-        <v>17.2</v>
+        <v>45.6</v>
       </c>
       <c r="V2">
-        <v>34.5</v>
+        <v>45.6</v>
       </c>
       <c r="W2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" t="s">
         <v>73</v>
-      </c>
-      <c r="X2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>70</v>
       </c>
       <c r="AA2" t="s">
         <v>78</v>
@@ -1613,91 +2502,91 @@
         <v>60</v>
       </c>
       <c r="AC2">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE2">
-        <v>0.255</v>
+        <v>0.278</v>
       </c>
       <c r="AF2">
-        <v>0.307</v>
+        <v>0.327</v>
       </c>
       <c r="AG2">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AH2">
-        <v>0.166</v>
+        <v>0.183</v>
       </c>
       <c r="AI2">
-        <v>0.421</v>
+        <v>0.461</v>
       </c>
       <c r="AJ2">
-        <v>24.7</v>
+        <v>15</v>
       </c>
       <c r="AK2">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AL2">
-        <v>3.61</v>
+        <v>4.38</v>
       </c>
       <c r="AM2">
-        <v>40.8</v>
+        <v>45.7</v>
       </c>
       <c r="AN2">
-        <v>35.8</v>
+        <v>34.9</v>
       </c>
       <c r="AO2">
-        <v>13.9</v>
+        <v>12.8</v>
       </c>
       <c r="AP2">
-        <v>24.8</v>
+        <v>29.7</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="s">
         <v>68</v>
       </c>
       <c r="AX2">
-        <v>-195</v>
+        <v>-270</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA2" t="s">
         <v>65</v>
       </c>
-      <c r="BA2" t="s">
-        <v>66</v>
-      </c>
       <c r="BB2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="BC2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="BD2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BE2">
-        <v>140</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:57">
@@ -1705,7 +2594,7 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
@@ -1714,124 +2603,124 @@
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.302</v>
+        <v>0.301</v>
       </c>
       <c r="M3">
-        <v>0.365</v>
+        <v>0.432</v>
       </c>
       <c r="N3">
-        <v>0.208</v>
+        <v>0.301</v>
       </c>
       <c r="O3">
-        <v>0.344</v>
+        <v>0.423</v>
       </c>
       <c r="P3">
-        <v>0.511</v>
+        <v>0.601</v>
       </c>
       <c r="Q3">
-        <v>0.854</v>
+        <v>1.025</v>
       </c>
       <c r="R3">
-        <v>13.4</v>
+        <v>17.5</v>
       </c>
       <c r="S3">
-        <v>5.6</v>
+        <v>17.5</v>
       </c>
       <c r="T3">
-        <v>38.2</v>
+        <v>43.9</v>
       </c>
       <c r="U3">
-        <v>37.2</v>
+        <v>35.6</v>
       </c>
       <c r="V3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="Z3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="AC3">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AD3">
         <v>9</v>
       </c>
       <c r="AE3">
-        <v>0.267</v>
+        <v>0.279</v>
       </c>
       <c r="AF3">
-        <v>0.356</v>
+        <v>0.337</v>
       </c>
       <c r="AG3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AH3">
-        <v>0.198</v>
+        <v>0.206</v>
       </c>
       <c r="AI3">
-        <v>0.465</v>
+        <v>0.485</v>
       </c>
       <c r="AJ3">
-        <v>15.1</v>
+        <v>17.9</v>
       </c>
       <c r="AK3">
-        <v>10.4</v>
+        <v>4.5</v>
       </c>
       <c r="AL3">
-        <v>5.29</v>
+        <v>3.95</v>
       </c>
       <c r="AM3">
-        <v>47.8</v>
+        <v>37.8</v>
       </c>
       <c r="AN3">
-        <v>29.4</v>
+        <v>38.3</v>
       </c>
       <c r="AO3">
-        <v>15.3</v>
+        <v>10.6</v>
       </c>
       <c r="AP3">
-        <v>33.2</v>
+        <v>37.1</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -1843,34 +2732,207 @@
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3" t="s">
         <v>69</v>
       </c>
       <c r="AX3">
-        <v>-265</v>
+        <v>-225</v>
       </c>
       <c r="AY3">
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA3" t="s">
         <v>65</v>
       </c>
-      <c r="BA3" t="s">
-        <v>66</v>
-      </c>
       <c r="BB3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="BC3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="BD3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE3">
-        <v>185</v>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>179</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.307</v>
+      </c>
+      <c r="M4">
+        <v>0.415</v>
+      </c>
+      <c r="N4">
+        <v>0.324</v>
+      </c>
+      <c r="O4">
+        <v>0.367</v>
+      </c>
+      <c r="P4">
+        <v>0.631</v>
+      </c>
+      <c r="Q4">
+        <v>0.998</v>
+      </c>
+      <c r="R4">
+        <v>26.4</v>
+      </c>
+      <c r="S4">
+        <v>7.5</v>
+      </c>
+      <c r="T4">
+        <v>36.7</v>
+      </c>
+      <c r="U4">
+        <v>45.3</v>
+      </c>
+      <c r="V4">
+        <v>30.5</v>
+      </c>
+      <c r="W4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC4">
+        <v>176</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>0.269</v>
+      </c>
+      <c r="AF4">
+        <v>0.317</v>
+      </c>
+      <c r="AG4">
+        <v>1.1</v>
+      </c>
+      <c r="AH4">
+        <v>0.122</v>
+      </c>
+      <c r="AI4">
+        <v>0.391</v>
+      </c>
+      <c r="AJ4">
+        <v>18.2</v>
+      </c>
+      <c r="AK4">
+        <v>8.5</v>
+      </c>
+      <c r="AL4">
+        <v>3.48</v>
+      </c>
+      <c r="AM4">
+        <v>49.6</v>
+      </c>
+      <c r="AN4">
+        <v>35.4</v>
+      </c>
+      <c r="AO4">
+        <v>4.4</v>
+      </c>
+      <c r="AP4">
+        <v>33.9</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX4">
+        <v>-145</v>
+      </c>
+      <c r="AY4">
+        <v>0.5</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE4">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Top Prop Lines.xlsx
+++ b/assets/Top Prop Lines.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="114">
   <si>
     <t>fg_name</t>
   </si>
@@ -190,109 +190,175 @@
     <t>Under Price</t>
   </si>
   <si>
-    <t>Yandy Diaz</t>
+    <t>Seiya Suzuki</t>
+  </si>
+  <si>
+    <t>Xander Bogaerts</t>
+  </si>
+  <si>
+    <t>Mason McCoy</t>
+  </si>
+  <si>
+    <t>Gio Urshela</t>
+  </si>
+  <si>
+    <t>Carlos Santana</t>
+  </si>
+  <si>
+    <t>Royce Lewis</t>
+  </si>
+  <si>
+    <t>Brooks Lee</t>
+  </si>
+  <si>
+    <t>Ezequiel Tovar</t>
+  </si>
+  <si>
+    <t>Brenton Doyle</t>
+  </si>
+  <si>
+    <t>Derek Hill</t>
+  </si>
+  <si>
+    <t>Connor Norby</t>
+  </si>
+  <si>
+    <t>Chicago Cubs</t>
+  </si>
+  <si>
+    <t>San Diego Padres</t>
+  </si>
+  <si>
+    <t>Atlanta Braves</t>
+  </si>
+  <si>
+    <t>Minnesota Twins</t>
+  </si>
+  <si>
+    <t>Colorado Rockies</t>
+  </si>
+  <si>
+    <t>Miami Marlins</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>vs R</t>
+  </si>
+  <si>
+    <t>vs L</t>
+  </si>
+  <si>
+    <t>Domingo German</t>
+  </si>
+  <si>
+    <t>Keider Montero</t>
+  </si>
+  <si>
+    <t>Bradley Blalock</t>
+  </si>
+  <si>
+    <t>Tyler Alexander</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates</t>
+  </si>
+  <si>
+    <t>Detroit Tigers</t>
   </si>
   <si>
     <t>Tampa Bay Rays</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>vs R</t>
-  </si>
-  <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
-    <t>San Diego Padres</t>
+    <t>Washington Nationals</t>
   </si>
   <si>
     <t>RHP</t>
   </si>
   <si>
+    <t>LHP</t>
+  </si>
+  <si>
     <t>hits</t>
   </si>
   <si>
     <t>draftkings</t>
   </si>
   <si>
-    <t>2024-09-02T22:51:00Z</t>
-  </si>
-  <si>
-    <t>Minnesota Twins</t>
-  </si>
-  <si>
-    <t>Aaron Judge</t>
+    <t>2024-09-04T23:41:00Z</t>
+  </si>
+  <si>
+    <t>2024-09-05T01:41:00Z</t>
+  </si>
+  <si>
+    <t>2024-09-04T23:21:00Z</t>
+  </si>
+  <si>
+    <t>2024-09-04T22:50:00Z</t>
+  </si>
+  <si>
+    <t>2024-09-04T22:41:00Z</t>
   </si>
   <si>
     <t>Juan Soto</t>
   </si>
   <si>
-    <t>Bryan Reynolds</t>
-  </si>
-  <si>
-    <t>Isiah Kiner-Falefa</t>
-  </si>
-  <si>
-    <t>Oneil Cruz</t>
+    <t>Rafael Devers</t>
+  </si>
+  <si>
+    <t>Jarren Duran</t>
+  </si>
+  <si>
+    <t>Masataka Yoshida</t>
+  </si>
+  <si>
+    <t>Ivan Herrera</t>
   </si>
   <si>
     <t>New York Yankees</t>
   </si>
   <si>
-    <t>Pittsburgh Pirates</t>
-  </si>
-  <si>
-    <t>Isiah Kiner Falefa</t>
+    <t>Boston Red Sox</t>
+  </si>
+  <si>
+    <t>St. Louis Cardinals</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
-    <t>Alex Cobb</t>
-  </si>
-  <si>
-    <t>St. Louis Cardinals</t>
-  </si>
-  <si>
-    <t>Cleveland Indians</t>
-  </si>
-  <si>
-    <t>vs L</t>
-  </si>
-  <si>
-    <t>2024-09-03T00:06:00Z</t>
-  </si>
-  <si>
-    <t>2024-09-02T23:41:00Z</t>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>Tylor Megill</t>
+  </si>
+  <si>
+    <t>Colin Rea</t>
   </si>
   <si>
     <t>Texas Rangers</t>
   </si>
   <si>
-    <t>Chicago Cubs</t>
-  </si>
-  <si>
-    <t>Kerry Carpenter</t>
-  </si>
-  <si>
-    <t>Detroit Tigers</t>
-  </si>
-  <si>
-    <t>Cooper Criswell</t>
-  </si>
-  <si>
-    <t>Boston Red Sox</t>
-  </si>
-  <si>
-    <t>2024-09-02T22:41:00Z</t>
+    <t>New York Mets</t>
+  </si>
+  <si>
+    <t>Milwaukee Brewers</t>
+  </si>
+  <si>
+    <t>2024-09-05T00:06:00Z</t>
+  </si>
+  <si>
+    <t>2024-09-04T23:11:00Z</t>
   </si>
 </sst>
 </file>
@@ -650,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:BE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -827,179 +893,6 @@
       </c>
       <c r="BE1" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>382</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.254</v>
-      </c>
-      <c r="M2">
-        <v>0.3</v>
-      </c>
-      <c r="N2">
-        <v>0.107</v>
-      </c>
-      <c r="O2">
-        <v>0.317</v>
-      </c>
-      <c r="P2">
-        <v>0.361</v>
-      </c>
-      <c r="Q2">
-        <v>0.678</v>
-      </c>
-      <c r="R2">
-        <v>16.9</v>
-      </c>
-      <c r="S2">
-        <v>7.9</v>
-      </c>
-      <c r="T2">
-        <v>57.8</v>
-      </c>
-      <c r="U2">
-        <v>25.9</v>
-      </c>
-      <c r="V2">
-        <v>33.9</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2">
-        <v>329</v>
-      </c>
-      <c r="AD2">
-        <v>7</v>
-      </c>
-      <c r="AE2">
-        <v>0.204</v>
-      </c>
-      <c r="AF2">
-        <v>0.265</v>
-      </c>
-      <c r="AG2">
-        <v>2.1</v>
-      </c>
-      <c r="AH2">
-        <v>0.126</v>
-      </c>
-      <c r="AI2">
-        <v>0.33</v>
-      </c>
-      <c r="AJ2">
-        <v>35.3</v>
-      </c>
-      <c r="AK2">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AL2">
-        <v>2.47</v>
-      </c>
-      <c r="AM2">
-        <v>38.7</v>
-      </c>
-      <c r="AN2">
-        <v>40.9</v>
-      </c>
-      <c r="AO2">
-        <v>9.5</v>
-      </c>
-      <c r="AP2">
-        <v>30.4</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>1</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX2">
-        <v>180</v>
-      </c>
-      <c r="AY2">
-        <v>1.5</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE2">
-        <v>-260</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE6"/>
+  <dimension ref="A1:BE12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1376,136 +1269,136 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="I2">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>0.329</v>
+        <v>0.281</v>
       </c>
       <c r="M2">
-        <v>0.469</v>
+        <v>0.365</v>
       </c>
       <c r="N2">
-        <v>0.37</v>
+        <v>0.228</v>
       </c>
       <c r="O2">
-        <v>0.442</v>
+        <v>0.348</v>
       </c>
       <c r="P2">
-        <v>0.699</v>
+        <v>0.509</v>
       </c>
       <c r="Q2">
-        <v>1.141</v>
+        <v>0.857</v>
       </c>
       <c r="R2">
-        <v>23.4</v>
+        <v>29</v>
       </c>
       <c r="S2">
-        <v>15.5</v>
+        <v>8.4</v>
       </c>
       <c r="T2">
-        <v>31.4</v>
+        <v>33.2</v>
       </c>
       <c r="U2">
-        <v>45.6</v>
+        <v>49.1</v>
       </c>
       <c r="V2">
-        <v>45.6</v>
+        <v>39.7</v>
       </c>
       <c r="W2" t="s">
         <v>78</v>
       </c>
       <c r="X2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="Z2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AA2" t="s">
         <v>78</v>
       </c>
       <c r="AB2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AC2">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="AD2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AE2">
-        <v>0.278</v>
+        <v>0.281</v>
       </c>
       <c r="AF2">
-        <v>0.327</v>
+        <v>0.404</v>
       </c>
       <c r="AG2">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AH2">
-        <v>0.183</v>
+        <v>0.219</v>
       </c>
       <c r="AI2">
-        <v>0.461</v>
+        <v>0.5</v>
       </c>
       <c r="AJ2">
         <v>15</v>
       </c>
       <c r="AK2">
-        <v>3.3</v>
+        <v>17.5</v>
       </c>
       <c r="AL2">
-        <v>4.38</v>
+        <v>7.93</v>
       </c>
       <c r="AM2">
-        <v>45.7</v>
+        <v>26.9</v>
       </c>
       <c r="AN2">
-        <v>34.9</v>
+        <v>53.8</v>
       </c>
       <c r="AO2">
-        <v>12.8</v>
+        <v>14.3</v>
       </c>
       <c r="AP2">
-        <v>29.7</v>
+        <v>26.9</v>
       </c>
       <c r="AQ2">
         <v>1</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -1520,329 +1413,332 @@
         <v>1</v>
       </c>
       <c r="AW2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AX2">
-        <v>-270</v>
+        <v>-195</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="BA2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BB2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="BC2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="BD2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="BE2">
-        <v>190</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
         <v>76</v>
       </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.301</v>
+        <v>0.277</v>
       </c>
       <c r="M3">
-        <v>0.432</v>
+        <v>0.296</v>
       </c>
       <c r="N3">
-        <v>0.301</v>
+        <v>0.092</v>
       </c>
       <c r="O3">
-        <v>0.423</v>
+        <v>0.309</v>
       </c>
       <c r="P3">
-        <v>0.601</v>
+        <v>0.369</v>
       </c>
       <c r="Q3">
-        <v>1.025</v>
+        <v>0.678</v>
       </c>
       <c r="R3">
-        <v>17.5</v>
+        <v>18.1</v>
       </c>
       <c r="S3">
-        <v>17.5</v>
+        <v>4.5</v>
       </c>
       <c r="T3">
-        <v>43.9</v>
+        <v>44.6</v>
       </c>
       <c r="U3">
         <v>35.6</v>
       </c>
       <c r="V3">
-        <v>41</v>
+        <v>26.6</v>
       </c>
       <c r="W3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="Z3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AC3">
-        <v>290</v>
+        <v>143</v>
       </c>
       <c r="AD3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE3">
-        <v>0.279</v>
+        <v>0.295</v>
       </c>
       <c r="AF3">
-        <v>0.337</v>
+        <v>0.379</v>
       </c>
       <c r="AG3">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="AH3">
-        <v>0.206</v>
+        <v>0.224</v>
       </c>
       <c r="AI3">
-        <v>0.485</v>
+        <v>0.519</v>
       </c>
       <c r="AJ3">
+        <v>18.2</v>
+      </c>
+      <c r="AK3">
+        <v>9.1</v>
+      </c>
+      <c r="AL3">
+        <v>5.71</v>
+      </c>
+      <c r="AM3">
+        <v>38.8</v>
+      </c>
+      <c r="AN3">
+        <v>37.9</v>
+      </c>
+      <c r="AO3">
         <v>17.9</v>
       </c>
-      <c r="AK3">
-        <v>4.5</v>
-      </c>
-      <c r="AL3">
-        <v>3.95</v>
-      </c>
-      <c r="AM3">
-        <v>37.8</v>
-      </c>
-      <c r="AN3">
-        <v>38.3</v>
-      </c>
-      <c r="AO3">
-        <v>10.6</v>
-      </c>
       <c r="AP3">
-        <v>37.1</v>
+        <v>39.8</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AX3">
-        <v>-225</v>
+        <v>-245</v>
       </c>
       <c r="AY3">
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="BA3" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BB3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="BC3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD3" t="s">
         <v>85</v>
       </c>
-      <c r="BD3" t="s">
-        <v>73</v>
-      </c>
       <c r="BE3">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>365</v>
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.285</v>
+        <v>0.308</v>
       </c>
       <c r="M4">
-        <v>0.364</v>
+        <v>0.352</v>
       </c>
       <c r="N4">
-        <v>0.195</v>
+        <v>0.077</v>
       </c>
       <c r="O4">
-        <v>0.364</v>
+        <v>0.4</v>
       </c>
       <c r="P4">
-        <v>0.479</v>
+        <v>0.385</v>
       </c>
       <c r="Q4">
-        <v>0.844</v>
+        <v>0.785</v>
       </c>
       <c r="R4">
-        <v>22.1</v>
+        <v>32.3</v>
       </c>
       <c r="S4">
-        <v>9.5</v>
+        <v>12.9</v>
       </c>
       <c r="T4">
-        <v>42.5</v>
+        <v>53.3</v>
       </c>
       <c r="U4">
-        <v>34.5</v>
+        <v>33.3</v>
       </c>
       <c r="V4">
-        <v>36</v>
+        <v>17.6</v>
       </c>
       <c r="W4" t="s">
         <v>79</v>
       </c>
       <c r="X4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="Z4" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>79</v>
       </c>
       <c r="AB4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AC4">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE4">
-        <v>0.333</v>
+        <v>0.295</v>
       </c>
       <c r="AF4">
-        <v>0.349</v>
+        <v>0.379</v>
       </c>
       <c r="AG4">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="AH4">
-        <v>0.143</v>
+        <v>0.224</v>
       </c>
       <c r="AI4">
-        <v>0.476</v>
+        <v>0.519</v>
       </c>
       <c r="AJ4">
-        <v>4.3</v>
+        <v>18.2</v>
       </c>
       <c r="AK4">
-        <v>4.3</v>
+        <v>9.1</v>
       </c>
       <c r="AL4">
-        <v>5.64</v>
+        <v>5.71</v>
       </c>
       <c r="AM4">
-        <v>61.9</v>
+        <v>38.8</v>
       </c>
       <c r="AN4">
-        <v>28.6</v>
+        <v>37.9</v>
       </c>
       <c r="AO4">
-        <v>16.7</v>
+        <v>17.9</v>
       </c>
       <c r="AP4">
-        <v>52.4</v>
+        <v>39.8</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1851,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1860,341 +1756,347 @@
         <v>1</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AX4">
-        <v>-240</v>
+        <v>-140</v>
       </c>
       <c r="AY4">
         <v>0.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="BA4" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BB4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="BC4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="BD4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="BE4">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:57">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>264</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.277</v>
+      </c>
+      <c r="M5">
+        <v>0.3</v>
+      </c>
+      <c r="N5">
+        <v>0.102</v>
+      </c>
+      <c r="O5">
+        <v>0.31</v>
+      </c>
+      <c r="P5">
+        <v>0.379</v>
+      </c>
+      <c r="Q5">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="R5">
+        <v>13.5</v>
+      </c>
+      <c r="S5">
+        <v>4.6</v>
+      </c>
+      <c r="T5">
+        <v>48.9</v>
+      </c>
+      <c r="U5">
+        <v>28.4</v>
+      </c>
+      <c r="V5">
+        <v>25.8</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5">
+        <v>37</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>0.333</v>
+      </c>
+      <c r="AF5">
+        <v>0.389</v>
+      </c>
+      <c r="AG5">
+        <v>2.7</v>
+      </c>
+      <c r="AH5">
+        <v>0.152</v>
+      </c>
+      <c r="AI5">
+        <v>0.485</v>
+      </c>
+      <c r="AJ5">
+        <v>13.5</v>
+      </c>
+      <c r="AK5">
+        <v>8.1</v>
+      </c>
+      <c r="AL5">
+        <v>5.32</v>
+      </c>
+      <c r="AM5">
+        <v>39.3</v>
+      </c>
+      <c r="AN5">
+        <v>39.3</v>
+      </c>
+      <c r="AO5">
+        <v>9.1</v>
+      </c>
+      <c r="AP5">
+        <v>39.3</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
         <v>60</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>272</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.279</v>
-      </c>
-      <c r="M5">
-        <v>0.319</v>
-      </c>
-      <c r="N5">
-        <v>0.14</v>
-      </c>
-      <c r="O5">
-        <v>0.317</v>
-      </c>
-      <c r="P5">
-        <v>0.419</v>
-      </c>
-      <c r="Q5">
-        <v>0.736</v>
-      </c>
-      <c r="R5">
-        <v>14.7</v>
-      </c>
-      <c r="S5">
-        <v>4.1</v>
-      </c>
-      <c r="T5">
-        <v>47.1</v>
-      </c>
-      <c r="U5">
-        <v>34.4</v>
-      </c>
-      <c r="V5">
-        <v>24.5</v>
-      </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5">
-        <v>19</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0.294</v>
-      </c>
-      <c r="AF5">
-        <v>0.361</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0.177</v>
-      </c>
-      <c r="AI5">
-        <v>0.471</v>
-      </c>
-      <c r="AJ5">
-        <v>15.8</v>
-      </c>
-      <c r="AK5">
-        <v>10.5</v>
-      </c>
-      <c r="AL5">
-        <v>3.17</v>
-      </c>
-      <c r="AM5">
-        <v>35.7</v>
-      </c>
-      <c r="AN5">
-        <v>42.9</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>28.6</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>71</v>
-      </c>
       <c r="AX5">
-        <v>-230</v>
+        <v>-285</v>
       </c>
       <c r="AY5">
         <v>0.5</v>
       </c>
       <c r="AZ5" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="BA5" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BB5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BC5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="BD5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BE5">
-        <v>165</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:57">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>126</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.294</v>
+      </c>
+      <c r="M6">
+        <v>0.397</v>
+      </c>
+      <c r="N6">
+        <v>0.294</v>
+      </c>
+      <c r="O6">
+        <v>0.355</v>
+      </c>
+      <c r="P6">
+        <v>0.587</v>
+      </c>
+      <c r="Q6">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="R6">
+        <v>17.4</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <v>48</v>
+      </c>
+      <c r="U6">
+        <v>35.3</v>
+      </c>
+      <c r="V6">
+        <v>36.3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB6" t="s">
         <v>76</v>
       </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>341</v>
-      </c>
-      <c r="I6">
-        <v>13</v>
-      </c>
-      <c r="J6">
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.287</v>
-      </c>
-      <c r="M6">
-        <v>0.355</v>
-      </c>
-      <c r="N6">
-        <v>0.196</v>
-      </c>
-      <c r="O6">
+      <c r="AC6">
+        <v>270</v>
+      </c>
+      <c r="AD6">
+        <v>15</v>
+      </c>
+      <c r="AE6">
+        <v>0.273</v>
+      </c>
+      <c r="AF6">
         <v>0.352</v>
       </c>
-      <c r="P6">
-        <v>0.484</v>
-      </c>
-      <c r="Q6">
-        <v>0.836</v>
-      </c>
-      <c r="R6">
-        <v>30.7</v>
-      </c>
-      <c r="S6">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="T6">
-        <v>43.6</v>
-      </c>
-      <c r="U6">
-        <v>35.2</v>
-      </c>
-      <c r="V6">
-        <v>46.3</v>
-      </c>
-      <c r="W6" t="s">
-        <v>79</v>
-      </c>
-      <c r="X6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC6">
-        <v>23</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>0.333</v>
-      </c>
-      <c r="AF6">
-        <v>0.349</v>
-      </c>
       <c r="AG6">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="AH6">
-        <v>0.143</v>
+        <v>0.233</v>
       </c>
       <c r="AI6">
-        <v>0.476</v>
+        <v>0.506</v>
       </c>
       <c r="AJ6">
-        <v>4.3</v>
+        <v>20</v>
       </c>
       <c r="AK6">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="AL6">
-        <v>5.64</v>
+        <v>5.44</v>
       </c>
       <c r="AM6">
-        <v>61.9</v>
+        <v>28.1</v>
       </c>
       <c r="AN6">
-        <v>28.6</v>
+        <v>50.5</v>
       </c>
       <c r="AO6">
-        <v>16.7</v>
+        <v>15.2</v>
       </c>
       <c r="AP6">
-        <v>52.4</v>
+        <v>34.3</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>1</v>
@@ -2203,31 +2105,1069 @@
         <v>1</v>
       </c>
       <c r="AW6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AX6">
-        <v>-205</v>
+        <v>-190</v>
       </c>
       <c r="AY6">
         <v>0.5</v>
       </c>
       <c r="AZ6" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="BA6" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BB6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="BC6" t="s">
         <v>86</v>
       </c>
       <c r="BD6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
         <v>74</v>
       </c>
-      <c r="BE6">
-        <v>145</v>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>68</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.279</v>
+      </c>
+      <c r="M7">
+        <v>0.36</v>
+      </c>
+      <c r="N7">
+        <v>0.235</v>
+      </c>
+      <c r="O7">
+        <v>0.354</v>
+      </c>
+      <c r="P7">
+        <v>0.515</v>
+      </c>
+      <c r="Q7">
+        <v>0.869</v>
+      </c>
+      <c r="R7">
+        <v>19</v>
+      </c>
+      <c r="S7">
+        <v>11.4</v>
+      </c>
+      <c r="T7">
+        <v>38.2</v>
+      </c>
+      <c r="U7">
+        <v>45.5</v>
+      </c>
+      <c r="V7">
+        <v>38.2</v>
+      </c>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7">
+        <v>270</v>
+      </c>
+      <c r="AD7">
+        <v>15</v>
+      </c>
+      <c r="AE7">
+        <v>0.273</v>
+      </c>
+      <c r="AF7">
+        <v>0.352</v>
+      </c>
+      <c r="AG7">
+        <v>5.6</v>
+      </c>
+      <c r="AH7">
+        <v>0.233</v>
+      </c>
+      <c r="AI7">
+        <v>0.506</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>6.3</v>
+      </c>
+      <c r="AL7">
+        <v>5.44</v>
+      </c>
+      <c r="AM7">
+        <v>28.1</v>
+      </c>
+      <c r="AN7">
+        <v>50.5</v>
+      </c>
+      <c r="AO7">
+        <v>15.2</v>
+      </c>
+      <c r="AP7">
+        <v>34.3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX7">
+        <v>-230</v>
+      </c>
+      <c r="AY7">
+        <v>0.5</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.286</v>
+      </c>
+      <c r="M8">
+        <v>0.309</v>
+      </c>
+      <c r="N8">
+        <v>0.114</v>
+      </c>
+      <c r="O8">
+        <v>0.316</v>
+      </c>
+      <c r="P8">
+        <v>0.4</v>
+      </c>
+      <c r="Q8">
+        <v>0.716</v>
+      </c>
+      <c r="R8">
+        <v>21.1</v>
+      </c>
+      <c r="S8">
+        <v>5.3</v>
+      </c>
+      <c r="T8">
+        <v>42.9</v>
+      </c>
+      <c r="U8">
+        <v>39.3</v>
+      </c>
+      <c r="V8">
+        <v>25</v>
+      </c>
+      <c r="W8" t="s">
+        <v>81</v>
+      </c>
+      <c r="X8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC8">
+        <v>270</v>
+      </c>
+      <c r="AD8">
+        <v>15</v>
+      </c>
+      <c r="AE8">
+        <v>0.273</v>
+      </c>
+      <c r="AF8">
+        <v>0.352</v>
+      </c>
+      <c r="AG8">
+        <v>5.6</v>
+      </c>
+      <c r="AH8">
+        <v>0.233</v>
+      </c>
+      <c r="AI8">
+        <v>0.506</v>
+      </c>
+      <c r="AJ8">
+        <v>20</v>
+      </c>
+      <c r="AK8">
+        <v>6.3</v>
+      </c>
+      <c r="AL8">
+        <v>5.44</v>
+      </c>
+      <c r="AM8">
+        <v>28.1</v>
+      </c>
+      <c r="AN8">
+        <v>50.5</v>
+      </c>
+      <c r="AO8">
+        <v>15.2</v>
+      </c>
+      <c r="AP8">
+        <v>34.3</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX8">
+        <v>-170</v>
+      </c>
+      <c r="AY8">
+        <v>0.5</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>385</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>0.281</v>
+      </c>
+      <c r="M9">
+        <v>0.326</v>
+      </c>
+      <c r="N9">
+        <v>0.192</v>
+      </c>
+      <c r="O9">
+        <v>0.297</v>
+      </c>
+      <c r="P9">
+        <v>0.473</v>
+      </c>
+      <c r="Q9">
+        <v>0.769</v>
+      </c>
+      <c r="R9">
+        <v>27.8</v>
+      </c>
+      <c r="S9">
+        <v>2.2</v>
+      </c>
+      <c r="T9">
+        <v>31.9</v>
+      </c>
+      <c r="U9">
+        <v>45.7</v>
+      </c>
+      <c r="V9">
+        <v>35.1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC9">
+        <v>258</v>
+      </c>
+      <c r="AD9">
+        <v>13</v>
+      </c>
+      <c r="AE9">
+        <v>0.273</v>
+      </c>
+      <c r="AF9">
+        <v>0.348</v>
+      </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
+      <c r="AH9">
+        <v>0.231</v>
+      </c>
+      <c r="AI9">
+        <v>0.504</v>
+      </c>
+      <c r="AJ9">
+        <v>20.2</v>
+      </c>
+      <c r="AK9">
+        <v>5.4</v>
+      </c>
+      <c r="AL9">
+        <v>4.9</v>
+      </c>
+      <c r="AM9">
+        <v>48.2</v>
+      </c>
+      <c r="AN9">
+        <v>32.5</v>
+      </c>
+      <c r="AO9">
+        <v>21</v>
+      </c>
+      <c r="AP9">
+        <v>33</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX9">
+        <v>-250</v>
+      </c>
+      <c r="AY9">
+        <v>0.5</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>347</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>0.277</v>
+      </c>
+      <c r="M10">
+        <v>0.358</v>
+      </c>
+      <c r="N10">
+        <v>0.219</v>
+      </c>
+      <c r="O10">
+        <v>0.343</v>
+      </c>
+      <c r="P10">
+        <v>0.496</v>
+      </c>
+      <c r="Q10">
+        <v>0.838</v>
+      </c>
+      <c r="R10">
+        <v>27.8</v>
+      </c>
+      <c r="S10">
+        <v>8.9</v>
+      </c>
+      <c r="T10">
+        <v>45.5</v>
+      </c>
+      <c r="U10">
+        <v>38.4</v>
+      </c>
+      <c r="V10">
+        <v>33.3</v>
+      </c>
+      <c r="W10" t="s">
+        <v>82</v>
+      </c>
+      <c r="X10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10">
+        <v>258</v>
+      </c>
+      <c r="AD10">
+        <v>13</v>
+      </c>
+      <c r="AE10">
+        <v>0.273</v>
+      </c>
+      <c r="AF10">
+        <v>0.348</v>
+      </c>
+      <c r="AG10">
+        <v>5</v>
+      </c>
+      <c r="AH10">
+        <v>0.231</v>
+      </c>
+      <c r="AI10">
+        <v>0.504</v>
+      </c>
+      <c r="AJ10">
+        <v>20.2</v>
+      </c>
+      <c r="AK10">
+        <v>5.4</v>
+      </c>
+      <c r="AL10">
+        <v>4.9</v>
+      </c>
+      <c r="AM10">
+        <v>48.2</v>
+      </c>
+      <c r="AN10">
+        <v>32.5</v>
+      </c>
+      <c r="AO10">
+        <v>21</v>
+      </c>
+      <c r="AP10">
+        <v>33</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX10">
+        <v>-230</v>
+      </c>
+      <c r="AY10">
+        <v>0.5</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>56</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.286</v>
+      </c>
+      <c r="M11">
+        <v>0.402</v>
+      </c>
+      <c r="N11">
+        <v>0.339</v>
+      </c>
+      <c r="O11">
+        <v>0.333</v>
+      </c>
+      <c r="P11">
+        <v>0.625</v>
+      </c>
+      <c r="Q11">
+        <v>0.958</v>
+      </c>
+      <c r="R11">
+        <v>29.5</v>
+      </c>
+      <c r="S11">
+        <v>6.6</v>
+      </c>
+      <c r="T11">
+        <v>40.5</v>
+      </c>
+      <c r="U11">
+        <v>40.5</v>
+      </c>
+      <c r="V11">
+        <v>38.5</v>
+      </c>
+      <c r="W11" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC11">
+        <v>467</v>
+      </c>
+      <c r="AD11">
+        <v>8</v>
+      </c>
+      <c r="AE11">
+        <v>0.28</v>
+      </c>
+      <c r="AF11">
+        <v>0.332</v>
+      </c>
+      <c r="AG11">
+        <v>1.7</v>
+      </c>
+      <c r="AH11">
+        <v>0.122</v>
+      </c>
+      <c r="AI11">
+        <v>0.402</v>
+      </c>
+      <c r="AJ11">
+        <v>24.4</v>
+      </c>
+      <c r="AK11">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AL11">
+        <v>3.37</v>
+      </c>
+      <c r="AM11">
+        <v>37.2</v>
+      </c>
+      <c r="AN11">
+        <v>36.2</v>
+      </c>
+      <c r="AO11">
+        <v>7.3</v>
+      </c>
+      <c r="AP11">
+        <v>27.9</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX11">
+        <v>-190</v>
+      </c>
+      <c r="AY11">
+        <v>0.5</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>29</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.31</v>
+      </c>
+      <c r="M12">
+        <v>0.405</v>
+      </c>
+      <c r="N12">
+        <v>0.345</v>
+      </c>
+      <c r="O12">
+        <v>0.31</v>
+      </c>
+      <c r="P12">
+        <v>0.655</v>
+      </c>
+      <c r="Q12">
+        <v>0.966</v>
+      </c>
+      <c r="R12">
+        <v>34.5</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>10.5</v>
+      </c>
+      <c r="U12">
+        <v>57.9</v>
+      </c>
+      <c r="V12">
+        <v>26.3</v>
+      </c>
+      <c r="W12" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12">
+        <v>467</v>
+      </c>
+      <c r="AD12">
+        <v>8</v>
+      </c>
+      <c r="AE12">
+        <v>0.28</v>
+      </c>
+      <c r="AF12">
+        <v>0.332</v>
+      </c>
+      <c r="AG12">
+        <v>1.7</v>
+      </c>
+      <c r="AH12">
+        <v>0.122</v>
+      </c>
+      <c r="AI12">
+        <v>0.402</v>
+      </c>
+      <c r="AJ12">
+        <v>24.4</v>
+      </c>
+      <c r="AK12">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AL12">
+        <v>3.37</v>
+      </c>
+      <c r="AM12">
+        <v>37.2</v>
+      </c>
+      <c r="AN12">
+        <v>36.2</v>
+      </c>
+      <c r="AO12">
+        <v>7.3</v>
+      </c>
+      <c r="AP12">
+        <v>27.9</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX12">
+        <v>-240</v>
+      </c>
+      <c r="AY12">
+        <v>0.5</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE12">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2237,7 +3177,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE4"/>
+  <dimension ref="A1:BE8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2418,201 +3358,201 @@
     </row>
     <row r="2" spans="1:57">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.308</v>
+      </c>
+      <c r="M2">
+        <v>0.352</v>
+      </c>
+      <c r="N2">
+        <v>0.077</v>
+      </c>
+      <c r="O2">
+        <v>0.4</v>
+      </c>
+      <c r="P2">
+        <v>0.385</v>
+      </c>
+      <c r="Q2">
+        <v>0.785</v>
+      </c>
+      <c r="R2">
+        <v>32.3</v>
+      </c>
+      <c r="S2">
+        <v>12.9</v>
+      </c>
+      <c r="T2">
+        <v>53.3</v>
+      </c>
+      <c r="U2">
+        <v>33.3</v>
+      </c>
+      <c r="V2">
+        <v>17.6</v>
+      </c>
+      <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2">
+        <v>143</v>
+      </c>
+      <c r="AD2">
+        <v>7</v>
+      </c>
+      <c r="AE2">
+        <v>0.295</v>
+      </c>
+      <c r="AF2">
+        <v>0.379</v>
+      </c>
+      <c r="AG2">
+        <v>4.9</v>
+      </c>
+      <c r="AH2">
+        <v>0.224</v>
+      </c>
+      <c r="AI2">
+        <v>0.519</v>
+      </c>
+      <c r="AJ2">
+        <v>18.2</v>
+      </c>
+      <c r="AK2">
+        <v>9.1</v>
+      </c>
+      <c r="AL2">
+        <v>5.71</v>
+      </c>
+      <c r="AM2">
+        <v>38.8</v>
+      </c>
+      <c r="AN2">
+        <v>37.9</v>
+      </c>
+      <c r="AO2">
+        <v>17.9</v>
+      </c>
+      <c r="AP2">
+        <v>39.8</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>362</v>
-      </c>
-      <c r="I2">
-        <v>36</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.329</v>
-      </c>
-      <c r="M2">
-        <v>0.469</v>
-      </c>
-      <c r="N2">
-        <v>0.37</v>
-      </c>
-      <c r="O2">
-        <v>0.442</v>
-      </c>
-      <c r="P2">
-        <v>0.699</v>
-      </c>
-      <c r="Q2">
-        <v>1.141</v>
-      </c>
-      <c r="R2">
-        <v>23.4</v>
-      </c>
-      <c r="S2">
-        <v>15.5</v>
-      </c>
-      <c r="T2">
-        <v>31.4</v>
-      </c>
-      <c r="U2">
-        <v>45.6</v>
-      </c>
-      <c r="V2">
-        <v>45.6</v>
-      </c>
-      <c r="W2" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC2">
-        <v>333</v>
-      </c>
-      <c r="AD2">
-        <v>12</v>
-      </c>
-      <c r="AE2">
-        <v>0.278</v>
-      </c>
-      <c r="AF2">
-        <v>0.327</v>
-      </c>
-      <c r="AG2">
-        <v>3.6</v>
-      </c>
-      <c r="AH2">
-        <v>0.183</v>
-      </c>
-      <c r="AI2">
-        <v>0.461</v>
-      </c>
-      <c r="AJ2">
-        <v>15</v>
-      </c>
-      <c r="AK2">
-        <v>3.3</v>
-      </c>
-      <c r="AL2">
-        <v>4.38</v>
-      </c>
-      <c r="AM2">
-        <v>45.7</v>
-      </c>
-      <c r="AN2">
-        <v>34.9</v>
-      </c>
-      <c r="AO2">
-        <v>12.8</v>
-      </c>
-      <c r="AP2">
-        <v>29.7</v>
-      </c>
-      <c r="AQ2">
-        <v>1</v>
-      </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>1</v>
-      </c>
-      <c r="AU2">
-        <v>1</v>
-      </c>
-      <c r="AV2">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>68</v>
-      </c>
       <c r="AX2">
-        <v>-270</v>
+        <v>-140</v>
       </c>
       <c r="AY2">
         <v>0.5</v>
       </c>
       <c r="AZ2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="BA2" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BB2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="BC2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD2" t="s">
         <v>85</v>
       </c>
-      <c r="BD2" t="s">
-        <v>73</v>
-      </c>
       <c r="BE2">
-        <v>190</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
         <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I3">
         <v>25</v>
@@ -2621,100 +3561,100 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.301</v>
+        <v>0.303</v>
       </c>
       <c r="M3">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="N3">
-        <v>0.301</v>
+        <v>0.297</v>
       </c>
       <c r="O3">
-        <v>0.423</v>
+        <v>0.425</v>
       </c>
       <c r="P3">
-        <v>0.601</v>
+        <v>0.6</v>
       </c>
       <c r="Q3">
         <v>1.025</v>
       </c>
       <c r="R3">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="S3">
         <v>17.5</v>
       </c>
       <c r="T3">
-        <v>43.9</v>
+        <v>44.4</v>
       </c>
       <c r="U3">
+        <v>35.4</v>
+      </c>
+      <c r="V3">
+        <v>41.5</v>
+      </c>
+      <c r="W3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3">
+        <v>281</v>
+      </c>
+      <c r="AD3">
+        <v>10</v>
+      </c>
+      <c r="AE3">
+        <v>0.247</v>
+      </c>
+      <c r="AF3">
+        <v>0.305</v>
+      </c>
+      <c r="AG3">
+        <v>3.6</v>
+      </c>
+      <c r="AH3">
+        <v>0.167</v>
+      </c>
+      <c r="AI3">
+        <v>0.414</v>
+      </c>
+      <c r="AJ3">
+        <v>24.6</v>
+      </c>
+      <c r="AK3">
+        <v>5.7</v>
+      </c>
+      <c r="AL3">
+        <v>3.82</v>
+      </c>
+      <c r="AM3">
+        <v>40.2</v>
+      </c>
+      <c r="AN3">
         <v>35.6</v>
       </c>
-      <c r="V3">
-        <v>41</v>
-      </c>
-      <c r="W3" t="s">
-        <v>78</v>
-      </c>
-      <c r="X3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC3">
-        <v>290</v>
-      </c>
-      <c r="AD3">
-        <v>9</v>
-      </c>
-      <c r="AE3">
-        <v>0.279</v>
-      </c>
-      <c r="AF3">
-        <v>0.337</v>
-      </c>
-      <c r="AG3">
-        <v>3.1</v>
-      </c>
-      <c r="AH3">
-        <v>0.206</v>
-      </c>
-      <c r="AI3">
-        <v>0.485</v>
-      </c>
-      <c r="AJ3">
-        <v>17.9</v>
-      </c>
-      <c r="AK3">
-        <v>4.5</v>
-      </c>
-      <c r="AL3">
-        <v>3.95</v>
-      </c>
-      <c r="AM3">
-        <v>37.8</v>
-      </c>
-      <c r="AN3">
-        <v>38.3</v>
-      </c>
       <c r="AO3">
-        <v>10.6</v>
+        <v>14.5</v>
       </c>
       <c r="AP3">
-        <v>37.1</v>
+        <v>33.8</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2735,165 +3675,165 @@
         <v>1</v>
       </c>
       <c r="AW3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="AX3">
-        <v>-225</v>
+        <v>-215</v>
       </c>
       <c r="AY3">
         <v>0.5</v>
       </c>
       <c r="AZ3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="BA3" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BB3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="BC3" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="BD3" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="BE3">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
         <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.307</v>
+        <v>0.305</v>
       </c>
       <c r="M4">
-        <v>0.415</v>
+        <v>0.422</v>
       </c>
       <c r="N4">
-        <v>0.324</v>
+        <v>0.339</v>
       </c>
       <c r="O4">
-        <v>0.367</v>
+        <v>0.391</v>
       </c>
       <c r="P4">
-        <v>0.631</v>
+        <v>0.644</v>
       </c>
       <c r="Q4">
-        <v>0.998</v>
+        <v>1.035</v>
       </c>
       <c r="R4">
-        <v>26.4</v>
+        <v>19.4</v>
       </c>
       <c r="S4">
-        <v>7.5</v>
+        <v>12.9</v>
       </c>
       <c r="T4">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="U4">
-        <v>45.3</v>
+        <v>42.2</v>
       </c>
       <c r="V4">
-        <v>30.5</v>
+        <v>45.7</v>
       </c>
       <c r="W4" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="X4" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="Z4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="AA4" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="AB4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AC4">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4">
-        <v>0.269</v>
+        <v>0.26</v>
       </c>
       <c r="AF4">
-        <v>0.317</v>
+        <v>0.351</v>
       </c>
       <c r="AG4">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="AH4">
-        <v>0.122</v>
+        <v>0.17</v>
       </c>
       <c r="AI4">
-        <v>0.391</v>
+        <v>0.43</v>
       </c>
       <c r="AJ4">
-        <v>18.2</v>
+        <v>27.1</v>
       </c>
       <c r="AK4">
-        <v>8.5</v>
+        <v>12.7</v>
       </c>
       <c r="AL4">
-        <v>3.48</v>
+        <v>4.21</v>
       </c>
       <c r="AM4">
-        <v>49.6</v>
+        <v>45.6</v>
       </c>
       <c r="AN4">
-        <v>35.4</v>
+        <v>39.7</v>
       </c>
       <c r="AO4">
-        <v>4.4</v>
+        <v>11.1</v>
       </c>
       <c r="AP4">
-        <v>33.9</v>
+        <v>39.7</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -2905,34 +3845,726 @@
         <v>1</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AX4">
-        <v>-145</v>
+        <v>-205</v>
       </c>
       <c r="AY4">
         <v>0.5</v>
       </c>
       <c r="AZ4" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="BA4" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="BB4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>393</v>
+      </c>
+      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0.31</v>
+      </c>
+      <c r="M5">
+        <v>0.406</v>
+      </c>
+      <c r="N5">
+        <v>0.29</v>
+      </c>
+      <c r="O5">
+        <v>0.367</v>
+      </c>
+      <c r="P5">
+        <v>0.601</v>
+      </c>
+      <c r="Q5">
+        <v>0.967</v>
+      </c>
+      <c r="R5">
+        <v>20.6</v>
+      </c>
+      <c r="S5">
+        <v>8.1</v>
+      </c>
+      <c r="T5">
+        <v>41.8</v>
+      </c>
+      <c r="U5">
+        <v>37.9</v>
+      </c>
+      <c r="V5">
+        <v>38.9</v>
+      </c>
+      <c r="W5" t="s">
+        <v>107</v>
+      </c>
+      <c r="X5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5">
+        <v>118</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5">
+        <v>0.26</v>
+      </c>
+      <c r="AF5">
+        <v>0.351</v>
+      </c>
+      <c r="AG5">
+        <v>2.5</v>
+      </c>
+      <c r="AH5">
+        <v>0.17</v>
+      </c>
+      <c r="AI5">
+        <v>0.43</v>
+      </c>
+      <c r="AJ5">
+        <v>27.1</v>
+      </c>
+      <c r="AK5">
+        <v>12.7</v>
+      </c>
+      <c r="AL5">
+        <v>4.21</v>
+      </c>
+      <c r="AM5">
+        <v>45.6</v>
+      </c>
+      <c r="AN5">
+        <v>39.7</v>
+      </c>
+      <c r="AO5">
+        <v>11.1</v>
+      </c>
+      <c r="AP5">
+        <v>39.7</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX5">
+        <v>-265</v>
+      </c>
+      <c r="AY5">
+        <v>0.5</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA5" t="s">
         <v>91</v>
       </c>
-      <c r="BC4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD4" t="s">
+      <c r="BB5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>234</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.321</v>
+      </c>
+      <c r="M6">
+        <v>0.371</v>
+      </c>
+      <c r="N6">
+        <v>0.145</v>
+      </c>
+      <c r="O6">
+        <v>0.384</v>
+      </c>
+      <c r="P6">
+        <v>0.466</v>
+      </c>
+      <c r="Q6">
+        <v>0.85</v>
+      </c>
+      <c r="R6">
+        <v>14.3</v>
+      </c>
+      <c r="S6">
+        <v>6.6</v>
+      </c>
+      <c r="T6">
+        <v>39.6</v>
+      </c>
+      <c r="U6">
+        <v>35.5</v>
+      </c>
+      <c r="V6">
+        <v>35.5</v>
+      </c>
+      <c r="W6" t="s">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" t="s">
         <v>88</v>
       </c>
-      <c r="BE4">
-        <v>105</v>
+      <c r="Z6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC6">
+        <v>118</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AE6">
+        <v>0.26</v>
+      </c>
+      <c r="AF6">
+        <v>0.351</v>
+      </c>
+      <c r="AG6">
+        <v>2.5</v>
+      </c>
+      <c r="AH6">
+        <v>0.17</v>
+      </c>
+      <c r="AI6">
+        <v>0.43</v>
+      </c>
+      <c r="AJ6">
+        <v>27.1</v>
+      </c>
+      <c r="AK6">
+        <v>12.7</v>
+      </c>
+      <c r="AL6">
+        <v>4.21</v>
+      </c>
+      <c r="AM6">
+        <v>45.6</v>
+      </c>
+      <c r="AN6">
+        <v>39.7</v>
+      </c>
+      <c r="AO6">
+        <v>11.1</v>
+      </c>
+      <c r="AP6">
+        <v>39.7</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX6">
+        <v>-215</v>
+      </c>
+      <c r="AY6">
+        <v>0.5</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.31</v>
+      </c>
+      <c r="M7">
+        <v>0.405</v>
+      </c>
+      <c r="N7">
+        <v>0.345</v>
+      </c>
+      <c r="O7">
+        <v>0.31</v>
+      </c>
+      <c r="P7">
+        <v>0.655</v>
+      </c>
+      <c r="Q7">
+        <v>0.966</v>
+      </c>
+      <c r="R7">
+        <v>34.5</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>10.5</v>
+      </c>
+      <c r="U7">
+        <v>57.9</v>
+      </c>
+      <c r="V7">
+        <v>26.3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC7">
+        <v>467</v>
+      </c>
+      <c r="AD7">
+        <v>8</v>
+      </c>
+      <c r="AE7">
+        <v>0.28</v>
+      </c>
+      <c r="AF7">
+        <v>0.332</v>
+      </c>
+      <c r="AG7">
+        <v>1.7</v>
+      </c>
+      <c r="AH7">
+        <v>0.122</v>
+      </c>
+      <c r="AI7">
+        <v>0.402</v>
+      </c>
+      <c r="AJ7">
+        <v>24.4</v>
+      </c>
+      <c r="AK7">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AL7">
+        <v>3.37</v>
+      </c>
+      <c r="AM7">
+        <v>37.2</v>
+      </c>
+      <c r="AN7">
+        <v>36.2</v>
+      </c>
+      <c r="AO7">
+        <v>7.3</v>
+      </c>
+      <c r="AP7">
+        <v>27.9</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX7">
+        <v>-240</v>
+      </c>
+      <c r="AY7">
+        <v>0.5</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>130</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.3</v>
+      </c>
+      <c r="M8">
+        <v>0.343</v>
+      </c>
+      <c r="N8">
+        <v>0.115</v>
+      </c>
+      <c r="O8">
+        <v>0.366</v>
+      </c>
+      <c r="P8">
+        <v>0.415</v>
+      </c>
+      <c r="Q8">
+        <v>0.781</v>
+      </c>
+      <c r="R8">
+        <v>20.5</v>
+      </c>
+      <c r="S8">
+        <v>8.9</v>
+      </c>
+      <c r="T8">
+        <v>48.5</v>
+      </c>
+      <c r="U8">
+        <v>27.7</v>
+      </c>
+      <c r="V8">
+        <v>34.7</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC8">
+        <v>297</v>
+      </c>
+      <c r="AD8">
+        <v>11</v>
+      </c>
+      <c r="AE8">
+        <v>0.241</v>
+      </c>
+      <c r="AF8">
+        <v>0.307</v>
+      </c>
+      <c r="AG8">
+        <v>3.7</v>
+      </c>
+      <c r="AH8">
+        <v>0.168</v>
+      </c>
+      <c r="AI8">
+        <v>0.409</v>
+      </c>
+      <c r="AJ8">
+        <v>20.5</v>
+      </c>
+      <c r="AK8">
+        <v>5.1</v>
+      </c>
+      <c r="AL8">
+        <v>4.4</v>
+      </c>
+      <c r="AM8">
+        <v>36.4</v>
+      </c>
+      <c r="AN8">
+        <v>43.9</v>
+      </c>
+      <c r="AO8">
+        <v>11.7</v>
+      </c>
+      <c r="AP8">
+        <v>34.6</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX8">
+        <v>-170</v>
+      </c>
+      <c r="AY8">
+        <v>0.5</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE8">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
